--- a/Data/locations.xlsx
+++ b/Data/locations.xlsx
@@ -1,32 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PackageSelection\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B370768-6F41-4A02-92E8-1D26567CD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -51,48 +31,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF0C0D0E"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Consolas"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Consolas"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,63 +71,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -346,29 +305,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.88"/>
+    <col customWidth="1" min="2" max="2" width="60.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,24 +333,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="str">
-        <f t="shared" ref="A2:A4" si="0">"Run GS for " &amp; MID(B2,FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7)) + 1,FIND(CHAR(160),SUBSTITUTE(B2,".",CHAR(160),3)) - 1 - (FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7))))</f>
-        <v>Run GS for orccf</v>
-      </c>
+    <row r="2">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C4" si="1">MID(B2,FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7)) + 1,FIND(CHAR(160),SUBSTITUTE(B2,".",CHAR(160),3)) - 1 - (FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7))))</f>
+        <f t="shared" ref="C2:C3" si="1">MID(B2,FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7)) + 1,FIND(CHAR(160),SUBSTITUTE(B2,".",CHAR(160),3)) - 1 - (FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7))))</f>
         <v>orccf</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Run GS for orcmf</v>
-      </c>
+    <row r="3">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -405,43 +351,41 @@
         <v>orcmf</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="B13" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/locations.xlsx
+++ b/Data/locations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -22,10 +22,151 @@
     <t>${locationId}</t>
   </si>
   <si>
+    <t>${expectedDispositionOptions}</t>
+  </si>
+  <si>
+    <t>${expectedBurialServiceOptions}</t>
+  </si>
+  <si>
+    <t>${expectedBurialFacilities}</t>
+  </si>
+  <si>
+    <t>${expectedBurialNoFacilities}</t>
+  </si>
+  <si>
+    <t>${expectedCremationServiceOptions}</t>
+  </si>
+  <si>
+    <t>${expectedCremationFacilities}</t>
+  </si>
+  <si>
+    <t>${expectedCremationNoFacilities}</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-north-sacramento/caacn.html</t>
+  </si>
+  <si>
+    <t>caacn</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/roseville/affordable-cremation-funeral-service-roseville/caacr.html</t>
+  </si>
+  <si>
+    <t>caacr</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-south-sacramento/caacs.html</t>
+  </si>
+  <si>
+    <t>caacs</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/placerville/el-dorado-funeral-cremation-services-placerville/caaed.html</t>
+  </si>
+  <si>
+    <t>caaed</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/chico/affordable-mortuary/cabam.html</t>
+  </si>
+  <si>
+    <t>cabam</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/roseville/blue-oaks-cremation-burial-services/cablo.html</t>
+  </si>
+  <si>
+    <t>cablo</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/chico/brusie-funeral-home/cabru.html</t>
+  </si>
+  <si>
+    <t>cabru</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/jackson/daneri-mortuary/cadan.html</t>
+  </si>
+  <si>
+    <t>cadan</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/pine-grove/amador-hills-cremation-funeral-service/cadll.html</t>
+  </si>
+  <si>
+    <t>cadll</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/orange/omega-society/caoms.html</t>
+  </si>
+  <si>
+    <t>caoms</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/california/yuba-city/ullrey-memorial-chapel/caulm.html</t>
+  </si>
+  <si>
+    <t>caulm</t>
+  </si>
+  <si>
     <t>https://staging.afterall.com/funeral-cremation/oregon/canby/canby-funeral-chapel/orccf.html</t>
   </si>
   <si>
+    <t>orccf</t>
+  </si>
+  <si>
     <t>https://staging.afterall.com/funeral-cremation/oregon/molalla/molalla-funeral-chapel/orcmf.html</t>
+  </si>
+  <si>
+    <t>orcmf</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/portland/crown-cremation-services-portland/orcmp.html</t>
+  </si>
+  <si>
+    <t>orcmp</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/salem/crown-cremation-services-salem/orcms.html</t>
+  </si>
+  <si>
+    <t>orcms</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/tualatin/crown-cremation-services-tualatin/orcmt.html</t>
+  </si>
+  <si>
+    <t>orcmt</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/eugene/alpha-cremation-services/ormac.html</t>
+  </si>
+  <si>
+    <t>ormac</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/eugene/lane-memorial-funeral-home/ormlm.html</t>
+  </si>
+  <si>
+    <t>ormlm</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/junction-city/murphy-musgrove-funeral-home/ormmm.html</t>
+  </si>
+  <si>
+    <t>ormmm</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/springfield/springfield-memorial-funeral-home/ormsm.html</t>
+  </si>
+  <si>
+    <t>ormsm</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/oregon/eugene/musgrove-family-mortuary/ormwl.html</t>
+  </si>
+  <si>
+    <t>ormwl</t>
   </si>
 </sst>
 </file>
@@ -49,21 +190,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Consolas"/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Consolas"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Consolas"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,12 +217,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -94,13 +234,19 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,6 +466,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.88"/>
     <col customWidth="1" min="2" max="2" width="60.38"/>
+    <col customWidth="1" min="5" max="6" width="22.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -329,63 +476,3587 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C3" si="1">MID(B2,FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7)) + 1,FIND(CHAR(160),SUBSTITUTE(B2,".",CHAR(160),3)) - 1 - (FIND(CHAR(160),SUBSTITUTE(B2,"/",CHAR(160),7))))</f>
-        <v>orccf</v>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>orcmf</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="5"/>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="5"/>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="9"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="9"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="9"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="9"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="9"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="9"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="9"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="9"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="9"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="9"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="9"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="9"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="9"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="9"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="9"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="9"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="9"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="9"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="9"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="9"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="9"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="9"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="9"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="9"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="9"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="9"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="9"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="9"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="9"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="9"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="9"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="9"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="9"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="9"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="9"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="9"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="9"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="9"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="9"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="9"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="9"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="9"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="9"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="9"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="9"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="9"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="9"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="9"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="9"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="9"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="9"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="9"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="9"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="9"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="9"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="9"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="9"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="9"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="9"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="9"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="9"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="9"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="9"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="9"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="9"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="9"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="9"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="9"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="9"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="9"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="9"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="9"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="9"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="9"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="9"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="9"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="9"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="9"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="9"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="9"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="9"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="9"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="9"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="9"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="9"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="9"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="9"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="9"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="9"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="9"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="9"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="9"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="9"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="9"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="9"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="9"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="9"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="9"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="9"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="9"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="9"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="9"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="9"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="9"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="9"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="9"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="9"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="9"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="9"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="9"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="9"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="9"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="9"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="9"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="9"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="9"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="9"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="9"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="9"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="9"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="9"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="9"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="9"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="9"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="9"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="9"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="9"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="9"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="9"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="9"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="9"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="9"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="9"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="9"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="9"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="9"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="9"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="9"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="9"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="9"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="9"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="9"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="9"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="9"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="9"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="9"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="9"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="9"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="9"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="9"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="9"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="9"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="9"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="9"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="9"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="9"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="9"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="9"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="9"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="9"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="9"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="9"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="9"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="9"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="9"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="9"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="9"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="9"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="9"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="9"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="9"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="9"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="9"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="9"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="9"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="9"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="9"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="9"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="9"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="9"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="9"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="9"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="9"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="9"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="9"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="9"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="9"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="9"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="9"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="9"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="9"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="9"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="9"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="9"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="9"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="9"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="9"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="9"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="9"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="9"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="9"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="9"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="9"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="9"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="9"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="9"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="9"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="9"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="9"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="9"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="9"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="9"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="9"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="9"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="9"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="9"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="9"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="9"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="9"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="9"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="9"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="9"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="9"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="9"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="9"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="9"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="9"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="9"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="9"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="9"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="9"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="9"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="9"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="9"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="9"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="9"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="9"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="9"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="9"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="9"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="9"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="9"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="9"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="9"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="9"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="9"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="9"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="9"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="9"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="9"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="9"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="9"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="9"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="9"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="9"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="9"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="9"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="9"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="9"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="9"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="9"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="9"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="9"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="9"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="9"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="9"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="9"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="9"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="9"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="9"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="9"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="9"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="9"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="9"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="9"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="9"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="9"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="9"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="9"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="9"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="9"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="9"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="9"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="9"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="9"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="9"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="9"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="9"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="9"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="9"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="9"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="9"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="9"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="9"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="9"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="9"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="9"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="9"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="9"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="9"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="9"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="9"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="9"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="9"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="9"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="9"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="9"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="9"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="9"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="9"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="9"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="9"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="9"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="9"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="9"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="9"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="9"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="9"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="9"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="9"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="9"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="9"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="9"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="9"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="9"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="9"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="9"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="9"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="9"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="9"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="9"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="9"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="9"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="9"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="9"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="9"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="9"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="9"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="9"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="9"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="9"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="9"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="9"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="9"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="9"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="9"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="9"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="9"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="9"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="9"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="9"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="9"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="9"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="9"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="9"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="9"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="9"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="9"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="9"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="9"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="9"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="9"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="9"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="9"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="9"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="9"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="9"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="9"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="9"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="9"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="9"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="9"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="9"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="9"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="9"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="9"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="9"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="9"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="9"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="9"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="9"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="9"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="9"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="9"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="9"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="9"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="9"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="9"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="9"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="9"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="9"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="9"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="9"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="9"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="9"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="9"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="9"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="9"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="9"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="9"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="9"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="9"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="9"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="9"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="9"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="9"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="9"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="9"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="9"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="9"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="9"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="9"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="9"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="9"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="9"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="9"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="9"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="9"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="9"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="9"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="9"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="9"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="9"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="9"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="9"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="9"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="9"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="9"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="9"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="9"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="9"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="9"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="9"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="9"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="9"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="9"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="9"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="9"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="9"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="9"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="9"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="9"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="9"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="9"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="9"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="9"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="9"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="9"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="9"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="9"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="9"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="9"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="9"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="9"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="9"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="9"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="9"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="9"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="9"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="9"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="9"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="9"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="9"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="9"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="9"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="9"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="9"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="9"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="9"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="9"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="9"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="9"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="9"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="9"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="9"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="9"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="9"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="9"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="9"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="9"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="9"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="9"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="9"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="9"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="9"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="9"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="9"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="9"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="9"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="9"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="9"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="9"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="9"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="9"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="9"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="9"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="9"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="9"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="9"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="9"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="9"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="9"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="9"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="9"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="9"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="9"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="9"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="9"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="9"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="9"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="9"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="9"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="9"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="9"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="9"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="9"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="9"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="9"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="9"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="9"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="9"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="9"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="9"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="9"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="9"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="9"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="9"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="9"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="9"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="9"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="9"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="9"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="9"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="9"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="9"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="9"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="9"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="9"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="9"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="9"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="9"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="9"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="9"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="9"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="9"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="9"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="9"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="9"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="9"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="9"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="9"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="9"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="9"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="9"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="9"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="9"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="9"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="9"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="9"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="9"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="9"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="9"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="9"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="9"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="9"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="9"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="9"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="9"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="9"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="9"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="9"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="9"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="9"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="9"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="9"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="9"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="9"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="9"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="9"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="9"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="9"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="9"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="9"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="9"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="9"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="9"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="9"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="9"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="9"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="9"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="9"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="9"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="9"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="9"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="9"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="9"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="9"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="9"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="9"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="9"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="9"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="9"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="9"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="9"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="9"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="9"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="9"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="9"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="9"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="9"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="9"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="9"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="9"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="9"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="9"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="9"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="9"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="9"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="9"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="9"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="9"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="9"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="9"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="9"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="9"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="9"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="9"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="9"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="9"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="9"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="9"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="9"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="9"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="9"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="9"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="9"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="9"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="9"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="9"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="9"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="9"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="9"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="9"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="9"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="9"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="9"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="9"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="9"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="9"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="9"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="9"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="9"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="9"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="9"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="9"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="9"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="9"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="9"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="9"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="9"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="9"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="9"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="9"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="9"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="9"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="9"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="9"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="9"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="9"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="9"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="9"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="9"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="9"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="9"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="9"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="9"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="9"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="9"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="9"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="9"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="9"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="9"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="9"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="9"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="9"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="9"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="9"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="9"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="9"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="9"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="9"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="9"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="9"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="9"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="9"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="9"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="9"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="9"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="9"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="9"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="9"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="9"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="9"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="9"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="9"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="9"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="9"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="9"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="9"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="9"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="9"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="9"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="9"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="9"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="9"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="9"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="9"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="9"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="9"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="9"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="9"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="9"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="9"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="9"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="9"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="9"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="9"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="9"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="9"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="9"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="9"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="9"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="9"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="9"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="9"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="9"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="9"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="9"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="9"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="9"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="9"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="9"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="9"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="9"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="9"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="9"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="9"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="9"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="9"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="9"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="9"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="9"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="9"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="9"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="9"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="9"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="9"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="9"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="9"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="9"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="9"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="9"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="9"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="9"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="9"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="9"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="9"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="9"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="9"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="9"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="9"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="9"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="9"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="9"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="9"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="9"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="9"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="9"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="9"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="9"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="9"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="9"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="9"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="9"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="9"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="9"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="9"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="9"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="9"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="9"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="9"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="9"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="9"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="9"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="9"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="9"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="9"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="9"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="9"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="9"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="9"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="9"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="9"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="9"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="9"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="9"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="9"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="9"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="9"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="9"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="9"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="9"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="9"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="9"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="9"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="9"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="9"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="9"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="9"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="9"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="9"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="9"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="9"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="9"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B13"/>
+    <hyperlink r:id="rId5" ref="B14"/>
+    <hyperlink r:id="rId6" ref="B15"/>
+    <hyperlink r:id="rId7" ref="B16"/>
+    <hyperlink r:id="rId8" ref="B17"/>
+    <hyperlink r:id="rId9" ref="B18"/>
+    <hyperlink r:id="rId10" ref="B19"/>
+    <hyperlink r:id="rId11" ref="B20"/>
+    <hyperlink r:id="rId12" ref="B21"/>
+    <hyperlink r:id="rId13" ref="B22"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Data/locations.xlsx
+++ b/Data/locations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -107,6 +107,114 @@
   </si>
   <si>
     <t>caulm</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/denver/a-basic-cremation/coabd.html</t>
+  </si>
+  <si>
+    <t>coabd</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/arvada/aspen-mortuaries-arvada/coama.html</t>
+  </si>
+  <si>
+    <t>coama</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/commerce-city/romero-funeral-home-and-cremations-commerce-city/coamc.html</t>
+  </si>
+  <si>
+    <t>coamc</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/lakewood/aspen-mortuaries-lakewood/coaml.html</t>
+  </si>
+  <si>
+    <t>coaml</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/all-states-cremation-colorado-springs/coasc.html</t>
+  </si>
+  <si>
+    <t>coasc</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/littleton/all-states-cremation-centennial/coasl.html</t>
+  </si>
+  <si>
+    <t>coasl</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/wheat-ridge/all-states-cremation-wheat-ridge/coasr.html</t>
+  </si>
+  <si>
+    <t>coasr</t>
+  </si>
+  <si>
+    <t>http://staging.afterall.com/funeral-cremation/colorado/westminster/all-states-cremation-westminster/coasw.html</t>
+  </si>
+  <si>
+    <t>coasw</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/all-veterans-funeral-cremation-colorado-springs/coavc.html</t>
+  </si>
+  <si>
+    <t>coavc</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/littleton/all-veterans-funeral-cremation-centennial/coavl.html</t>
+  </si>
+  <si>
+    <t>coavl</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/wheat-ridge/all-veterans-funeral-cremation-wheat-ridge/coavr.html</t>
+  </si>
+  <si>
+    <t>coavr</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/westminster/all-veterans-funeral-cremation-westminster/coavw.html</t>
+  </si>
+  <si>
+    <t>coavw</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/parker/ponderosa-valley-funeral-services/copvp.html</t>
+  </si>
+  <si>
+    <t>copvp</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/aurora/romero-funeral-home-and-cremations-aurora/coroa.html</t>
+  </si>
+  <si>
+    <t>coroa</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/denver/romero-funeral-home-and-cremations-denver/corod.html</t>
+  </si>
+  <si>
+    <t>corod</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/lakewood/romero-funeral-home-and-cremations-lakewood/corol.html</t>
+  </si>
+  <si>
+    <t>corol</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-platte/cotsf.html</t>
+  </si>
+  <si>
+    <t>cotsf</t>
+  </si>
+  <si>
+    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-north/cotsn.html</t>
+  </si>
+  <si>
+    <t>cotsn</t>
   </si>
   <si>
     <t>https://staging.afterall.com/funeral-cremation/oregon/canby/canby-funeral-chapel/orccf.html</t>
@@ -173,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -202,6 +310,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -243,6 +355,16 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -821,39 +943,39 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="D13" s="7">
         <v>1.0</v>
       </c>
-      <c r="H13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>3.0</v>
+      <c r="E13" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="6">
@@ -875,24 +997,24 @@
         <v>4.0</v>
       </c>
       <c r="J14" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="6">
         <v>2.0</v>
       </c>
       <c r="E15" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F15" s="6">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G15" s="6">
         <v>1.0</v>
@@ -901,183 +1023,183 @@
         <v>2.0</v>
       </c>
       <c r="I15" s="6">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J15" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="6">
         <v>1.0</v>
       </c>
-      <c r="F16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1.0</v>
-      </c>
       <c r="H16" s="6">
         <v>2.0</v>
       </c>
-      <c r="I16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>3.0</v>
+      <c r="I16" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="6">
         <v>1.0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.0</v>
       </c>
       <c r="F17" s="6">
         <v>0.0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6">
         <v>1.0</v>
       </c>
-      <c r="H17" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1.0</v>
+      <c r="E18" s="6">
+        <v>0.0</v>
       </c>
       <c r="F18" s="6">
         <v>0.0</v>
       </c>
-      <c r="G18" s="7">
-        <v>1.0</v>
+      <c r="G18" s="6">
+        <v>0.0</v>
       </c>
       <c r="H18" s="6">
         <v>2.0</v>
       </c>
-      <c r="I18" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>3.0</v>
+      <c r="I18" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2.0</v>
+      <c r="D19" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.0</v>
       </c>
       <c r="F19" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>3.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="D20" s="6">
         <v>1.0</v>
       </c>
-      <c r="H20" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>3.0</v>
+      <c r="E20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="D21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="6">
         <v>1.0</v>
       </c>
-      <c r="H21" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="H21" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J21" s="6">
         <v>3.0</v>
       </c>
     </row>
@@ -1085,2978 +1207,3503 @@
       <c r="B22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="D22" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="6">
         <v>1.0</v>
       </c>
-      <c r="H22" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="H22" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="6">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="9"/>
+      <c r="G23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="9"/>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="9"/>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="9"/>
+      <c r="B29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="9"/>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="9"/>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="9"/>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="B34" s="9"/>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="9"/>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="B36" s="9"/>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="9"/>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="9"/>
+      <c r="B38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39" s="9"/>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="9"/>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="9"/>
+      <c r="B41" s="13"/>
     </row>
     <row r="42">
-      <c r="B42" s="9"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43">
-      <c r="B43" s="9"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44">
-      <c r="B44" s="9"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45">
-      <c r="B45" s="9"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46">
-      <c r="B46" s="9"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47">
-      <c r="B47" s="9"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48">
-      <c r="B48" s="9"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49">
-      <c r="B49" s="9"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50">
-      <c r="B50" s="9"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51">
-      <c r="B51" s="9"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52">
-      <c r="B52" s="9"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53">
-      <c r="B53" s="9"/>
+      <c r="B53" s="13"/>
     </row>
     <row r="54">
-      <c r="B54" s="9"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55">
-      <c r="B55" s="9"/>
+      <c r="B55" s="13"/>
     </row>
     <row r="56">
-      <c r="B56" s="9"/>
+      <c r="B56" s="13"/>
     </row>
     <row r="57">
-      <c r="B57" s="9"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58">
-      <c r="B58" s="9"/>
+      <c r="B58" s="13"/>
     </row>
     <row r="59">
-      <c r="B59" s="9"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60">
-      <c r="B60" s="9"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61">
-      <c r="B61" s="9"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62">
-      <c r="B62" s="9"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63">
-      <c r="B63" s="9"/>
+      <c r="B63" s="13"/>
     </row>
     <row r="64">
-      <c r="B64" s="9"/>
+      <c r="B64" s="13"/>
     </row>
     <row r="65">
-      <c r="B65" s="9"/>
+      <c r="B65" s="13"/>
     </row>
     <row r="66">
-      <c r="B66" s="9"/>
+      <c r="B66" s="13"/>
     </row>
     <row r="67">
-      <c r="B67" s="9"/>
+      <c r="B67" s="13"/>
     </row>
     <row r="68">
-      <c r="B68" s="9"/>
+      <c r="B68" s="13"/>
     </row>
     <row r="69">
-      <c r="B69" s="9"/>
+      <c r="B69" s="13"/>
     </row>
     <row r="70">
-      <c r="B70" s="9"/>
+      <c r="B70" s="13"/>
     </row>
     <row r="71">
-      <c r="B71" s="9"/>
+      <c r="B71" s="13"/>
     </row>
     <row r="72">
-      <c r="B72" s="9"/>
+      <c r="B72" s="13"/>
     </row>
     <row r="73">
-      <c r="B73" s="9"/>
+      <c r="B73" s="13"/>
     </row>
     <row r="74">
-      <c r="B74" s="9"/>
+      <c r="B74" s="13"/>
     </row>
     <row r="75">
-      <c r="B75" s="9"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76">
-      <c r="B76" s="9"/>
+      <c r="B76" s="13"/>
     </row>
     <row r="77">
-      <c r="B77" s="9"/>
+      <c r="B77" s="13"/>
     </row>
     <row r="78">
-      <c r="B78" s="9"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79">
-      <c r="B79" s="9"/>
+      <c r="B79" s="13"/>
     </row>
     <row r="80">
-      <c r="B80" s="9"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81">
-      <c r="B81" s="9"/>
+      <c r="B81" s="13"/>
     </row>
     <row r="82">
-      <c r="B82" s="9"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83">
-      <c r="B83" s="9"/>
+      <c r="B83" s="13"/>
     </row>
     <row r="84">
-      <c r="B84" s="9"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85">
-      <c r="B85" s="9"/>
+      <c r="B85" s="13"/>
     </row>
     <row r="86">
-      <c r="B86" s="9"/>
+      <c r="B86" s="13"/>
     </row>
     <row r="87">
-      <c r="B87" s="9"/>
+      <c r="B87" s="13"/>
     </row>
     <row r="88">
-      <c r="B88" s="9"/>
+      <c r="B88" s="13"/>
     </row>
     <row r="89">
-      <c r="B89" s="9"/>
+      <c r="B89" s="13"/>
     </row>
     <row r="90">
-      <c r="B90" s="9"/>
+      <c r="B90" s="13"/>
     </row>
     <row r="91">
-      <c r="B91" s="9"/>
+      <c r="B91" s="13"/>
     </row>
     <row r="92">
-      <c r="B92" s="9"/>
+      <c r="B92" s="13"/>
     </row>
     <row r="93">
-      <c r="B93" s="9"/>
+      <c r="B93" s="13"/>
     </row>
     <row r="94">
-      <c r="B94" s="9"/>
+      <c r="B94" s="13"/>
     </row>
     <row r="95">
-      <c r="B95" s="9"/>
+      <c r="B95" s="13"/>
     </row>
     <row r="96">
-      <c r="B96" s="9"/>
+      <c r="B96" s="13"/>
     </row>
     <row r="97">
-      <c r="B97" s="9"/>
+      <c r="B97" s="13"/>
     </row>
     <row r="98">
-      <c r="B98" s="9"/>
+      <c r="B98" s="13"/>
     </row>
     <row r="99">
-      <c r="B99" s="9"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="100">
-      <c r="B100" s="9"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101">
-      <c r="B101" s="9"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102">
-      <c r="B102" s="9"/>
+      <c r="B102" s="13"/>
     </row>
     <row r="103">
-      <c r="B103" s="9"/>
+      <c r="B103" s="13"/>
     </row>
     <row r="104">
-      <c r="B104" s="9"/>
+      <c r="B104" s="13"/>
     </row>
     <row r="105">
-      <c r="B105" s="9"/>
+      <c r="B105" s="13"/>
     </row>
     <row r="106">
-      <c r="B106" s="9"/>
+      <c r="B106" s="13"/>
     </row>
     <row r="107">
-      <c r="B107" s="9"/>
+      <c r="B107" s="13"/>
     </row>
     <row r="108">
-      <c r="B108" s="9"/>
+      <c r="B108" s="13"/>
     </row>
     <row r="109">
-      <c r="B109" s="9"/>
+      <c r="B109" s="13"/>
     </row>
     <row r="110">
-      <c r="B110" s="9"/>
+      <c r="B110" s="13"/>
     </row>
     <row r="111">
-      <c r="B111" s="9"/>
+      <c r="B111" s="13"/>
     </row>
     <row r="112">
-      <c r="B112" s="9"/>
+      <c r="B112" s="13"/>
     </row>
     <row r="113">
-      <c r="B113" s="9"/>
+      <c r="B113" s="13"/>
     </row>
     <row r="114">
-      <c r="B114" s="9"/>
+      <c r="B114" s="13"/>
     </row>
     <row r="115">
-      <c r="B115" s="9"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116">
-      <c r="B116" s="9"/>
+      <c r="B116" s="13"/>
     </row>
     <row r="117">
-      <c r="B117" s="9"/>
+      <c r="B117" s="13"/>
     </row>
     <row r="118">
-      <c r="B118" s="9"/>
+      <c r="B118" s="13"/>
     </row>
     <row r="119">
-      <c r="B119" s="9"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120">
-      <c r="B120" s="9"/>
+      <c r="B120" s="13"/>
     </row>
     <row r="121">
-      <c r="B121" s="9"/>
+      <c r="B121" s="13"/>
     </row>
     <row r="122">
-      <c r="B122" s="9"/>
+      <c r="B122" s="13"/>
     </row>
     <row r="123">
-      <c r="B123" s="9"/>
+      <c r="B123" s="13"/>
     </row>
     <row r="124">
-      <c r="B124" s="9"/>
+      <c r="B124" s="13"/>
     </row>
     <row r="125">
-      <c r="B125" s="9"/>
+      <c r="B125" s="13"/>
     </row>
     <row r="126">
-      <c r="B126" s="9"/>
+      <c r="B126" s="13"/>
     </row>
     <row r="127">
-      <c r="B127" s="9"/>
+      <c r="B127" s="13"/>
     </row>
     <row r="128">
-      <c r="B128" s="9"/>
+      <c r="B128" s="13"/>
     </row>
     <row r="129">
-      <c r="B129" s="9"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130">
-      <c r="B130" s="9"/>
+      <c r="B130" s="13"/>
     </row>
     <row r="131">
-      <c r="B131" s="9"/>
+      <c r="B131" s="13"/>
     </row>
     <row r="132">
-      <c r="B132" s="9"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133">
-      <c r="B133" s="9"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134">
-      <c r="B134" s="9"/>
+      <c r="B134" s="13"/>
     </row>
     <row r="135">
-      <c r="B135" s="9"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="136">
-      <c r="B136" s="9"/>
+      <c r="B136" s="13"/>
     </row>
     <row r="137">
-      <c r="B137" s="9"/>
+      <c r="B137" s="13"/>
     </row>
     <row r="138">
-      <c r="B138" s="9"/>
+      <c r="B138" s="13"/>
     </row>
     <row r="139">
-      <c r="B139" s="9"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140">
-      <c r="B140" s="9"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141">
-      <c r="B141" s="9"/>
+      <c r="B141" s="13"/>
     </row>
     <row r="142">
-      <c r="B142" s="9"/>
+      <c r="B142" s="13"/>
     </row>
     <row r="143">
-      <c r="B143" s="9"/>
+      <c r="B143" s="13"/>
     </row>
     <row r="144">
-      <c r="B144" s="9"/>
+      <c r="B144" s="13"/>
     </row>
     <row r="145">
-      <c r="B145" s="9"/>
+      <c r="B145" s="13"/>
     </row>
     <row r="146">
-      <c r="B146" s="9"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147">
-      <c r="B147" s="9"/>
+      <c r="B147" s="13"/>
     </row>
     <row r="148">
-      <c r="B148" s="9"/>
+      <c r="B148" s="13"/>
     </row>
     <row r="149">
-      <c r="B149" s="9"/>
+      <c r="B149" s="13"/>
     </row>
     <row r="150">
-      <c r="B150" s="9"/>
+      <c r="B150" s="13"/>
     </row>
     <row r="151">
-      <c r="B151" s="9"/>
+      <c r="B151" s="13"/>
     </row>
     <row r="152">
-      <c r="B152" s="9"/>
+      <c r="B152" s="13"/>
     </row>
     <row r="153">
-      <c r="B153" s="9"/>
+      <c r="B153" s="13"/>
     </row>
     <row r="154">
-      <c r="B154" s="9"/>
+      <c r="B154" s="13"/>
     </row>
     <row r="155">
-      <c r="B155" s="9"/>
+      <c r="B155" s="13"/>
     </row>
     <row r="156">
-      <c r="B156" s="9"/>
+      <c r="B156" s="13"/>
     </row>
     <row r="157">
-      <c r="B157" s="9"/>
+      <c r="B157" s="13"/>
     </row>
     <row r="158">
-      <c r="B158" s="9"/>
+      <c r="B158" s="13"/>
     </row>
     <row r="159">
-      <c r="B159" s="9"/>
+      <c r="B159" s="13"/>
     </row>
     <row r="160">
-      <c r="B160" s="9"/>
+      <c r="B160" s="13"/>
     </row>
     <row r="161">
-      <c r="B161" s="9"/>
+      <c r="B161" s="13"/>
     </row>
     <row r="162">
-      <c r="B162" s="9"/>
+      <c r="B162" s="13"/>
     </row>
     <row r="163">
-      <c r="B163" s="9"/>
+      <c r="B163" s="13"/>
     </row>
     <row r="164">
-      <c r="B164" s="9"/>
+      <c r="B164" s="13"/>
     </row>
     <row r="165">
-      <c r="B165" s="9"/>
+      <c r="B165" s="13"/>
     </row>
     <row r="166">
-      <c r="B166" s="9"/>
+      <c r="B166" s="13"/>
     </row>
     <row r="167">
-      <c r="B167" s="9"/>
+      <c r="B167" s="13"/>
     </row>
     <row r="168">
-      <c r="B168" s="9"/>
+      <c r="B168" s="13"/>
     </row>
     <row r="169">
-      <c r="B169" s="9"/>
+      <c r="B169" s="13"/>
     </row>
     <row r="170">
-      <c r="B170" s="9"/>
+      <c r="B170" s="13"/>
     </row>
     <row r="171">
-      <c r="B171" s="9"/>
+      <c r="B171" s="13"/>
     </row>
     <row r="172">
-      <c r="B172" s="9"/>
+      <c r="B172" s="13"/>
     </row>
     <row r="173">
-      <c r="B173" s="9"/>
+      <c r="B173" s="13"/>
     </row>
     <row r="174">
-      <c r="B174" s="9"/>
+      <c r="B174" s="13"/>
     </row>
     <row r="175">
-      <c r="B175" s="9"/>
+      <c r="B175" s="13"/>
     </row>
     <row r="176">
-      <c r="B176" s="9"/>
+      <c r="B176" s="13"/>
     </row>
     <row r="177">
-      <c r="B177" s="9"/>
+      <c r="B177" s="13"/>
     </row>
     <row r="178">
-      <c r="B178" s="9"/>
+      <c r="B178" s="13"/>
     </row>
     <row r="179">
-      <c r="B179" s="9"/>
+      <c r="B179" s="13"/>
     </row>
     <row r="180">
-      <c r="B180" s="9"/>
+      <c r="B180" s="13"/>
     </row>
     <row r="181">
-      <c r="B181" s="9"/>
+      <c r="B181" s="13"/>
     </row>
     <row r="182">
-      <c r="B182" s="9"/>
+      <c r="B182" s="13"/>
     </row>
     <row r="183">
-      <c r="B183" s="9"/>
+      <c r="B183" s="13"/>
     </row>
     <row r="184">
-      <c r="B184" s="9"/>
+      <c r="B184" s="13"/>
     </row>
     <row r="185">
-      <c r="B185" s="9"/>
+      <c r="B185" s="13"/>
     </row>
     <row r="186">
-      <c r="B186" s="9"/>
+      <c r="B186" s="13"/>
     </row>
     <row r="187">
-      <c r="B187" s="9"/>
+      <c r="B187" s="13"/>
     </row>
     <row r="188">
-      <c r="B188" s="9"/>
+      <c r="B188" s="13"/>
     </row>
     <row r="189">
-      <c r="B189" s="9"/>
+      <c r="B189" s="13"/>
     </row>
     <row r="190">
-      <c r="B190" s="9"/>
+      <c r="B190" s="13"/>
     </row>
     <row r="191">
-      <c r="B191" s="9"/>
+      <c r="B191" s="13"/>
     </row>
     <row r="192">
-      <c r="B192" s="9"/>
+      <c r="B192" s="13"/>
     </row>
     <row r="193">
-      <c r="B193" s="9"/>
+      <c r="B193" s="13"/>
     </row>
     <row r="194">
-      <c r="B194" s="9"/>
+      <c r="B194" s="13"/>
     </row>
     <row r="195">
-      <c r="B195" s="9"/>
+      <c r="B195" s="13"/>
     </row>
     <row r="196">
-      <c r="B196" s="9"/>
+      <c r="B196" s="13"/>
     </row>
     <row r="197">
-      <c r="B197" s="9"/>
+      <c r="B197" s="13"/>
     </row>
     <row r="198">
-      <c r="B198" s="9"/>
+      <c r="B198" s="13"/>
     </row>
     <row r="199">
-      <c r="B199" s="9"/>
+      <c r="B199" s="13"/>
     </row>
     <row r="200">
-      <c r="B200" s="9"/>
+      <c r="B200" s="13"/>
     </row>
     <row r="201">
-      <c r="B201" s="9"/>
+      <c r="B201" s="13"/>
     </row>
     <row r="202">
-      <c r="B202" s="9"/>
+      <c r="B202" s="13"/>
     </row>
     <row r="203">
-      <c r="B203" s="9"/>
+      <c r="B203" s="13"/>
     </row>
     <row r="204">
-      <c r="B204" s="9"/>
+      <c r="B204" s="13"/>
     </row>
     <row r="205">
-      <c r="B205" s="9"/>
+      <c r="B205" s="13"/>
     </row>
     <row r="206">
-      <c r="B206" s="9"/>
+      <c r="B206" s="13"/>
     </row>
     <row r="207">
-      <c r="B207" s="9"/>
+      <c r="B207" s="13"/>
     </row>
     <row r="208">
-      <c r="B208" s="9"/>
+      <c r="B208" s="13"/>
     </row>
     <row r="209">
-      <c r="B209" s="9"/>
+      <c r="B209" s="13"/>
     </row>
     <row r="210">
-      <c r="B210" s="9"/>
+      <c r="B210" s="13"/>
     </row>
     <row r="211">
-      <c r="B211" s="9"/>
+      <c r="B211" s="13"/>
     </row>
     <row r="212">
-      <c r="B212" s="9"/>
+      <c r="B212" s="13"/>
     </row>
     <row r="213">
-      <c r="B213" s="9"/>
+      <c r="B213" s="13"/>
     </row>
     <row r="214">
-      <c r="B214" s="9"/>
+      <c r="B214" s="13"/>
     </row>
     <row r="215">
-      <c r="B215" s="9"/>
+      <c r="B215" s="13"/>
     </row>
     <row r="216">
-      <c r="B216" s="9"/>
+      <c r="B216" s="13"/>
     </row>
     <row r="217">
-      <c r="B217" s="9"/>
+      <c r="B217" s="13"/>
     </row>
     <row r="218">
-      <c r="B218" s="9"/>
+      <c r="B218" s="13"/>
     </row>
     <row r="219">
-      <c r="B219" s="9"/>
+      <c r="B219" s="13"/>
     </row>
     <row r="220">
-      <c r="B220" s="9"/>
+      <c r="B220" s="13"/>
     </row>
     <row r="221">
-      <c r="B221" s="9"/>
+      <c r="B221" s="13"/>
     </row>
     <row r="222">
-      <c r="B222" s="9"/>
+      <c r="B222" s="13"/>
     </row>
     <row r="223">
-      <c r="B223" s="9"/>
+      <c r="B223" s="13"/>
     </row>
     <row r="224">
-      <c r="B224" s="9"/>
+      <c r="B224" s="13"/>
     </row>
     <row r="225">
-      <c r="B225" s="9"/>
+      <c r="B225" s="13"/>
     </row>
     <row r="226">
-      <c r="B226" s="9"/>
+      <c r="B226" s="13"/>
     </row>
     <row r="227">
-      <c r="B227" s="9"/>
+      <c r="B227" s="13"/>
     </row>
     <row r="228">
-      <c r="B228" s="9"/>
+      <c r="B228" s="13"/>
     </row>
     <row r="229">
-      <c r="B229" s="9"/>
+      <c r="B229" s="13"/>
     </row>
     <row r="230">
-      <c r="B230" s="9"/>
+      <c r="B230" s="13"/>
     </row>
     <row r="231">
-      <c r="B231" s="9"/>
+      <c r="B231" s="13"/>
     </row>
     <row r="232">
-      <c r="B232" s="9"/>
+      <c r="B232" s="13"/>
     </row>
     <row r="233">
-      <c r="B233" s="9"/>
+      <c r="B233" s="13"/>
     </row>
     <row r="234">
-      <c r="B234" s="9"/>
+      <c r="B234" s="13"/>
     </row>
     <row r="235">
-      <c r="B235" s="9"/>
+      <c r="B235" s="13"/>
     </row>
     <row r="236">
-      <c r="B236" s="9"/>
+      <c r="B236" s="13"/>
     </row>
     <row r="237">
-      <c r="B237" s="9"/>
+      <c r="B237" s="13"/>
     </row>
     <row r="238">
-      <c r="B238" s="9"/>
+      <c r="B238" s="13"/>
     </row>
     <row r="239">
-      <c r="B239" s="9"/>
+      <c r="B239" s="13"/>
     </row>
     <row r="240">
-      <c r="B240" s="9"/>
+      <c r="B240" s="13"/>
     </row>
     <row r="241">
-      <c r="B241" s="9"/>
+      <c r="B241" s="13"/>
     </row>
     <row r="242">
-      <c r="B242" s="9"/>
+      <c r="B242" s="13"/>
     </row>
     <row r="243">
-      <c r="B243" s="9"/>
+      <c r="B243" s="13"/>
     </row>
     <row r="244">
-      <c r="B244" s="9"/>
+      <c r="B244" s="13"/>
     </row>
     <row r="245">
-      <c r="B245" s="9"/>
+      <c r="B245" s="13"/>
     </row>
     <row r="246">
-      <c r="B246" s="9"/>
+      <c r="B246" s="13"/>
     </row>
     <row r="247">
-      <c r="B247" s="9"/>
+      <c r="B247" s="13"/>
     </row>
     <row r="248">
-      <c r="B248" s="9"/>
+      <c r="B248" s="13"/>
     </row>
     <row r="249">
-      <c r="B249" s="9"/>
+      <c r="B249" s="13"/>
     </row>
     <row r="250">
-      <c r="B250" s="9"/>
+      <c r="B250" s="13"/>
     </row>
     <row r="251">
-      <c r="B251" s="9"/>
+      <c r="B251" s="13"/>
     </row>
     <row r="252">
-      <c r="B252" s="9"/>
+      <c r="B252" s="13"/>
     </row>
     <row r="253">
-      <c r="B253" s="9"/>
+      <c r="B253" s="13"/>
     </row>
     <row r="254">
-      <c r="B254" s="9"/>
+      <c r="B254" s="13"/>
     </row>
     <row r="255">
-      <c r="B255" s="9"/>
+      <c r="B255" s="13"/>
     </row>
     <row r="256">
-      <c r="B256" s="9"/>
+      <c r="B256" s="13"/>
     </row>
     <row r="257">
-      <c r="B257" s="9"/>
+      <c r="B257" s="13"/>
     </row>
     <row r="258">
-      <c r="B258" s="9"/>
+      <c r="B258" s="13"/>
     </row>
     <row r="259">
-      <c r="B259" s="9"/>
+      <c r="B259" s="13"/>
     </row>
     <row r="260">
-      <c r="B260" s="9"/>
+      <c r="B260" s="13"/>
     </row>
     <row r="261">
-      <c r="B261" s="9"/>
+      <c r="B261" s="13"/>
     </row>
     <row r="262">
-      <c r="B262" s="9"/>
+      <c r="B262" s="13"/>
     </row>
     <row r="263">
-      <c r="B263" s="9"/>
+      <c r="B263" s="13"/>
     </row>
     <row r="264">
-      <c r="B264" s="9"/>
+      <c r="B264" s="13"/>
     </row>
     <row r="265">
-      <c r="B265" s="9"/>
+      <c r="B265" s="13"/>
     </row>
     <row r="266">
-      <c r="B266" s="9"/>
+      <c r="B266" s="13"/>
     </row>
     <row r="267">
-      <c r="B267" s="9"/>
+      <c r="B267" s="13"/>
     </row>
     <row r="268">
-      <c r="B268" s="9"/>
+      <c r="B268" s="13"/>
     </row>
     <row r="269">
-      <c r="B269" s="9"/>
+      <c r="B269" s="13"/>
     </row>
     <row r="270">
-      <c r="B270" s="9"/>
+      <c r="B270" s="13"/>
     </row>
     <row r="271">
-      <c r="B271" s="9"/>
+      <c r="B271" s="13"/>
     </row>
     <row r="272">
-      <c r="B272" s="9"/>
+      <c r="B272" s="13"/>
     </row>
     <row r="273">
-      <c r="B273" s="9"/>
+      <c r="B273" s="13"/>
     </row>
     <row r="274">
-      <c r="B274" s="9"/>
+      <c r="B274" s="13"/>
     </row>
     <row r="275">
-      <c r="B275" s="9"/>
+      <c r="B275" s="13"/>
     </row>
     <row r="276">
-      <c r="B276" s="9"/>
+      <c r="B276" s="13"/>
     </row>
     <row r="277">
-      <c r="B277" s="9"/>
+      <c r="B277" s="13"/>
     </row>
     <row r="278">
-      <c r="B278" s="9"/>
+      <c r="B278" s="13"/>
     </row>
     <row r="279">
-      <c r="B279" s="9"/>
+      <c r="B279" s="13"/>
     </row>
     <row r="280">
-      <c r="B280" s="9"/>
+      <c r="B280" s="13"/>
     </row>
     <row r="281">
-      <c r="B281" s="9"/>
+      <c r="B281" s="13"/>
     </row>
     <row r="282">
-      <c r="B282" s="9"/>
+      <c r="B282" s="13"/>
     </row>
     <row r="283">
-      <c r="B283" s="9"/>
+      <c r="B283" s="13"/>
     </row>
     <row r="284">
-      <c r="B284" s="9"/>
+      <c r="B284" s="13"/>
     </row>
     <row r="285">
-      <c r="B285" s="9"/>
+      <c r="B285" s="13"/>
     </row>
     <row r="286">
-      <c r="B286" s="9"/>
+      <c r="B286" s="13"/>
     </row>
     <row r="287">
-      <c r="B287" s="9"/>
+      <c r="B287" s="13"/>
     </row>
     <row r="288">
-      <c r="B288" s="9"/>
+      <c r="B288" s="13"/>
     </row>
     <row r="289">
-      <c r="B289" s="9"/>
+      <c r="B289" s="13"/>
     </row>
     <row r="290">
-      <c r="B290" s="9"/>
+      <c r="B290" s="13"/>
     </row>
     <row r="291">
-      <c r="B291" s="9"/>
+      <c r="B291" s="13"/>
     </row>
     <row r="292">
-      <c r="B292" s="9"/>
+      <c r="B292" s="13"/>
     </row>
     <row r="293">
-      <c r="B293" s="9"/>
+      <c r="B293" s="13"/>
     </row>
     <row r="294">
-      <c r="B294" s="9"/>
+      <c r="B294" s="13"/>
     </row>
     <row r="295">
-      <c r="B295" s="9"/>
+      <c r="B295" s="13"/>
     </row>
     <row r="296">
-      <c r="B296" s="9"/>
+      <c r="B296" s="13"/>
     </row>
     <row r="297">
-      <c r="B297" s="9"/>
+      <c r="B297" s="13"/>
     </row>
     <row r="298">
-      <c r="B298" s="9"/>
+      <c r="B298" s="13"/>
     </row>
     <row r="299">
-      <c r="B299" s="9"/>
+      <c r="B299" s="13"/>
     </row>
     <row r="300">
-      <c r="B300" s="9"/>
+      <c r="B300" s="13"/>
     </row>
     <row r="301">
-      <c r="B301" s="9"/>
+      <c r="B301" s="13"/>
     </row>
     <row r="302">
-      <c r="B302" s="9"/>
+      <c r="B302" s="13"/>
     </row>
     <row r="303">
-      <c r="B303" s="9"/>
+      <c r="B303" s="13"/>
     </row>
     <row r="304">
-      <c r="B304" s="9"/>
+      <c r="B304" s="13"/>
     </row>
     <row r="305">
-      <c r="B305" s="9"/>
+      <c r="B305" s="13"/>
     </row>
     <row r="306">
-      <c r="B306" s="9"/>
+      <c r="B306" s="13"/>
     </row>
     <row r="307">
-      <c r="B307" s="9"/>
+      <c r="B307" s="13"/>
     </row>
     <row r="308">
-      <c r="B308" s="9"/>
+      <c r="B308" s="13"/>
     </row>
     <row r="309">
-      <c r="B309" s="9"/>
+      <c r="B309" s="13"/>
     </row>
     <row r="310">
-      <c r="B310" s="9"/>
+      <c r="B310" s="13"/>
     </row>
     <row r="311">
-      <c r="B311" s="9"/>
+      <c r="B311" s="13"/>
     </row>
     <row r="312">
-      <c r="B312" s="9"/>
+      <c r="B312" s="13"/>
     </row>
     <row r="313">
-      <c r="B313" s="9"/>
+      <c r="B313" s="13"/>
     </row>
     <row r="314">
-      <c r="B314" s="9"/>
+      <c r="B314" s="13"/>
     </row>
     <row r="315">
-      <c r="B315" s="9"/>
+      <c r="B315" s="13"/>
     </row>
     <row r="316">
-      <c r="B316" s="9"/>
+      <c r="B316" s="13"/>
     </row>
     <row r="317">
-      <c r="B317" s="9"/>
+      <c r="B317" s="13"/>
     </row>
     <row r="318">
-      <c r="B318" s="9"/>
+      <c r="B318" s="13"/>
     </row>
     <row r="319">
-      <c r="B319" s="9"/>
+      <c r="B319" s="13"/>
     </row>
     <row r="320">
-      <c r="B320" s="9"/>
+      <c r="B320" s="13"/>
     </row>
     <row r="321">
-      <c r="B321" s="9"/>
+      <c r="B321" s="13"/>
     </row>
     <row r="322">
-      <c r="B322" s="9"/>
+      <c r="B322" s="13"/>
     </row>
     <row r="323">
-      <c r="B323" s="9"/>
+      <c r="B323" s="13"/>
     </row>
     <row r="324">
-      <c r="B324" s="9"/>
+      <c r="B324" s="13"/>
     </row>
     <row r="325">
-      <c r="B325" s="9"/>
+      <c r="B325" s="13"/>
     </row>
     <row r="326">
-      <c r="B326" s="9"/>
+      <c r="B326" s="13"/>
     </row>
     <row r="327">
-      <c r="B327" s="9"/>
+      <c r="B327" s="13"/>
     </row>
     <row r="328">
-      <c r="B328" s="9"/>
+      <c r="B328" s="13"/>
     </row>
     <row r="329">
-      <c r="B329" s="9"/>
+      <c r="B329" s="13"/>
     </row>
     <row r="330">
-      <c r="B330" s="9"/>
+      <c r="B330" s="13"/>
     </row>
     <row r="331">
-      <c r="B331" s="9"/>
+      <c r="B331" s="13"/>
     </row>
     <row r="332">
-      <c r="B332" s="9"/>
+      <c r="B332" s="13"/>
     </row>
     <row r="333">
-      <c r="B333" s="9"/>
+      <c r="B333" s="13"/>
     </row>
     <row r="334">
-      <c r="B334" s="9"/>
+      <c r="B334" s="13"/>
     </row>
     <row r="335">
-      <c r="B335" s="9"/>
+      <c r="B335" s="13"/>
     </row>
     <row r="336">
-      <c r="B336" s="9"/>
+      <c r="B336" s="13"/>
     </row>
     <row r="337">
-      <c r="B337" s="9"/>
+      <c r="B337" s="13"/>
     </row>
     <row r="338">
-      <c r="B338" s="9"/>
+      <c r="B338" s="13"/>
     </row>
     <row r="339">
-      <c r="B339" s="9"/>
+      <c r="B339" s="13"/>
     </row>
     <row r="340">
-      <c r="B340" s="9"/>
+      <c r="B340" s="13"/>
     </row>
     <row r="341">
-      <c r="B341" s="9"/>
+      <c r="B341" s="13"/>
     </row>
     <row r="342">
-      <c r="B342" s="9"/>
+      <c r="B342" s="13"/>
     </row>
     <row r="343">
-      <c r="B343" s="9"/>
+      <c r="B343" s="13"/>
     </row>
     <row r="344">
-      <c r="B344" s="9"/>
+      <c r="B344" s="13"/>
     </row>
     <row r="345">
-      <c r="B345" s="9"/>
+      <c r="B345" s="13"/>
     </row>
     <row r="346">
-      <c r="B346" s="9"/>
+      <c r="B346" s="13"/>
     </row>
     <row r="347">
-      <c r="B347" s="9"/>
+      <c r="B347" s="13"/>
     </row>
     <row r="348">
-      <c r="B348" s="9"/>
+      <c r="B348" s="13"/>
     </row>
     <row r="349">
-      <c r="B349" s="9"/>
+      <c r="B349" s="13"/>
     </row>
     <row r="350">
-      <c r="B350" s="9"/>
+      <c r="B350" s="13"/>
     </row>
     <row r="351">
-      <c r="B351" s="9"/>
+      <c r="B351" s="13"/>
     </row>
     <row r="352">
-      <c r="B352" s="9"/>
+      <c r="B352" s="13"/>
     </row>
     <row r="353">
-      <c r="B353" s="9"/>
+      <c r="B353" s="13"/>
     </row>
     <row r="354">
-      <c r="B354" s="9"/>
+      <c r="B354" s="13"/>
     </row>
     <row r="355">
-      <c r="B355" s="9"/>
+      <c r="B355" s="13"/>
     </row>
     <row r="356">
-      <c r="B356" s="9"/>
+      <c r="B356" s="13"/>
     </row>
     <row r="357">
-      <c r="B357" s="9"/>
+      <c r="B357" s="13"/>
     </row>
     <row r="358">
-      <c r="B358" s="9"/>
+      <c r="B358" s="13"/>
     </row>
     <row r="359">
-      <c r="B359" s="9"/>
+      <c r="B359" s="13"/>
     </row>
     <row r="360">
-      <c r="B360" s="9"/>
+      <c r="B360" s="13"/>
     </row>
     <row r="361">
-      <c r="B361" s="9"/>
+      <c r="B361" s="13"/>
     </row>
     <row r="362">
-      <c r="B362" s="9"/>
+      <c r="B362" s="13"/>
     </row>
     <row r="363">
-      <c r="B363" s="9"/>
+      <c r="B363" s="13"/>
     </row>
     <row r="364">
-      <c r="B364" s="9"/>
+      <c r="B364" s="13"/>
     </row>
     <row r="365">
-      <c r="B365" s="9"/>
+      <c r="B365" s="13"/>
     </row>
     <row r="366">
-      <c r="B366" s="9"/>
+      <c r="B366" s="13"/>
     </row>
     <row r="367">
-      <c r="B367" s="9"/>
+      <c r="B367" s="13"/>
     </row>
     <row r="368">
-      <c r="B368" s="9"/>
+      <c r="B368" s="13"/>
     </row>
     <row r="369">
-      <c r="B369" s="9"/>
+      <c r="B369" s="13"/>
     </row>
     <row r="370">
-      <c r="B370" s="9"/>
+      <c r="B370" s="13"/>
     </row>
     <row r="371">
-      <c r="B371" s="9"/>
+      <c r="B371" s="13"/>
     </row>
     <row r="372">
-      <c r="B372" s="9"/>
+      <c r="B372" s="13"/>
     </row>
     <row r="373">
-      <c r="B373" s="9"/>
+      <c r="B373" s="13"/>
     </row>
     <row r="374">
-      <c r="B374" s="9"/>
+      <c r="B374" s="13"/>
     </row>
     <row r="375">
-      <c r="B375" s="9"/>
+      <c r="B375" s="13"/>
     </row>
     <row r="376">
-      <c r="B376" s="9"/>
+      <c r="B376" s="13"/>
     </row>
     <row r="377">
-      <c r="B377" s="9"/>
+      <c r="B377" s="13"/>
     </row>
     <row r="378">
-      <c r="B378" s="9"/>
+      <c r="B378" s="13"/>
     </row>
     <row r="379">
-      <c r="B379" s="9"/>
+      <c r="B379" s="13"/>
     </row>
     <row r="380">
-      <c r="B380" s="9"/>
+      <c r="B380" s="13"/>
     </row>
     <row r="381">
-      <c r="B381" s="9"/>
+      <c r="B381" s="13"/>
     </row>
     <row r="382">
-      <c r="B382" s="9"/>
+      <c r="B382" s="13"/>
     </row>
     <row r="383">
-      <c r="B383" s="9"/>
+      <c r="B383" s="13"/>
     </row>
     <row r="384">
-      <c r="B384" s="9"/>
+      <c r="B384" s="13"/>
     </row>
     <row r="385">
-      <c r="B385" s="9"/>
+      <c r="B385" s="13"/>
     </row>
     <row r="386">
-      <c r="B386" s="9"/>
+      <c r="B386" s="13"/>
     </row>
     <row r="387">
-      <c r="B387" s="9"/>
+      <c r="B387" s="13"/>
     </row>
     <row r="388">
-      <c r="B388" s="9"/>
+      <c r="B388" s="13"/>
     </row>
     <row r="389">
-      <c r="B389" s="9"/>
+      <c r="B389" s="13"/>
     </row>
     <row r="390">
-      <c r="B390" s="9"/>
+      <c r="B390" s="13"/>
     </row>
     <row r="391">
-      <c r="B391" s="9"/>
+      <c r="B391" s="13"/>
     </row>
     <row r="392">
-      <c r="B392" s="9"/>
+      <c r="B392" s="13"/>
     </row>
     <row r="393">
-      <c r="B393" s="9"/>
+      <c r="B393" s="13"/>
     </row>
     <row r="394">
-      <c r="B394" s="9"/>
+      <c r="B394" s="13"/>
     </row>
     <row r="395">
-      <c r="B395" s="9"/>
+      <c r="B395" s="13"/>
     </row>
     <row r="396">
-      <c r="B396" s="9"/>
+      <c r="B396" s="13"/>
     </row>
     <row r="397">
-      <c r="B397" s="9"/>
+      <c r="B397" s="13"/>
     </row>
     <row r="398">
-      <c r="B398" s="9"/>
+      <c r="B398" s="13"/>
     </row>
     <row r="399">
-      <c r="B399" s="9"/>
+      <c r="B399" s="13"/>
     </row>
     <row r="400">
-      <c r="B400" s="9"/>
+      <c r="B400" s="13"/>
     </row>
     <row r="401">
-      <c r="B401" s="9"/>
+      <c r="B401" s="13"/>
     </row>
     <row r="402">
-      <c r="B402" s="9"/>
+      <c r="B402" s="13"/>
     </row>
     <row r="403">
-      <c r="B403" s="9"/>
+      <c r="B403" s="13"/>
     </row>
     <row r="404">
-      <c r="B404" s="9"/>
+      <c r="B404" s="13"/>
     </row>
     <row r="405">
-      <c r="B405" s="9"/>
+      <c r="B405" s="13"/>
     </row>
     <row r="406">
-      <c r="B406" s="9"/>
+      <c r="B406" s="13"/>
     </row>
     <row r="407">
-      <c r="B407" s="9"/>
+      <c r="B407" s="13"/>
     </row>
     <row r="408">
-      <c r="B408" s="9"/>
+      <c r="B408" s="13"/>
     </row>
     <row r="409">
-      <c r="B409" s="9"/>
+      <c r="B409" s="13"/>
     </row>
     <row r="410">
-      <c r="B410" s="9"/>
+      <c r="B410" s="13"/>
     </row>
     <row r="411">
-      <c r="B411" s="9"/>
+      <c r="B411" s="13"/>
     </row>
     <row r="412">
-      <c r="B412" s="9"/>
+      <c r="B412" s="13"/>
     </row>
     <row r="413">
-      <c r="B413" s="9"/>
+      <c r="B413" s="13"/>
     </row>
     <row r="414">
-      <c r="B414" s="9"/>
+      <c r="B414" s="13"/>
     </row>
     <row r="415">
-      <c r="B415" s="9"/>
+      <c r="B415" s="13"/>
     </row>
     <row r="416">
-      <c r="B416" s="9"/>
+      <c r="B416" s="13"/>
     </row>
     <row r="417">
-      <c r="B417" s="9"/>
+      <c r="B417" s="13"/>
     </row>
     <row r="418">
-      <c r="B418" s="9"/>
+      <c r="B418" s="13"/>
     </row>
     <row r="419">
-      <c r="B419" s="9"/>
+      <c r="B419" s="13"/>
     </row>
     <row r="420">
-      <c r="B420" s="9"/>
+      <c r="B420" s="13"/>
     </row>
     <row r="421">
-      <c r="B421" s="9"/>
+      <c r="B421" s="13"/>
     </row>
     <row r="422">
-      <c r="B422" s="9"/>
+      <c r="B422" s="13"/>
     </row>
     <row r="423">
-      <c r="B423" s="9"/>
+      <c r="B423" s="13"/>
     </row>
     <row r="424">
-      <c r="B424" s="9"/>
+      <c r="B424" s="13"/>
     </row>
     <row r="425">
-      <c r="B425" s="9"/>
+      <c r="B425" s="13"/>
     </row>
     <row r="426">
-      <c r="B426" s="9"/>
+      <c r="B426" s="13"/>
     </row>
     <row r="427">
-      <c r="B427" s="9"/>
+      <c r="B427" s="13"/>
     </row>
     <row r="428">
-      <c r="B428" s="9"/>
+      <c r="B428" s="13"/>
     </row>
     <row r="429">
-      <c r="B429" s="9"/>
+      <c r="B429" s="13"/>
     </row>
     <row r="430">
-      <c r="B430" s="9"/>
+      <c r="B430" s="13"/>
     </row>
     <row r="431">
-      <c r="B431" s="9"/>
+      <c r="B431" s="13"/>
     </row>
     <row r="432">
-      <c r="B432" s="9"/>
+      <c r="B432" s="13"/>
     </row>
     <row r="433">
-      <c r="B433" s="9"/>
+      <c r="B433" s="13"/>
     </row>
     <row r="434">
-      <c r="B434" s="9"/>
+      <c r="B434" s="13"/>
     </row>
     <row r="435">
-      <c r="B435" s="9"/>
+      <c r="B435" s="13"/>
     </row>
     <row r="436">
-      <c r="B436" s="9"/>
+      <c r="B436" s="13"/>
     </row>
     <row r="437">
-      <c r="B437" s="9"/>
+      <c r="B437" s="13"/>
     </row>
     <row r="438">
-      <c r="B438" s="9"/>
+      <c r="B438" s="13"/>
     </row>
     <row r="439">
-      <c r="B439" s="9"/>
+      <c r="B439" s="13"/>
     </row>
     <row r="440">
-      <c r="B440" s="9"/>
+      <c r="B440" s="13"/>
     </row>
     <row r="441">
-      <c r="B441" s="9"/>
+      <c r="B441" s="13"/>
     </row>
     <row r="442">
-      <c r="B442" s="9"/>
+      <c r="B442" s="13"/>
     </row>
     <row r="443">
-      <c r="B443" s="9"/>
+      <c r="B443" s="13"/>
     </row>
     <row r="444">
-      <c r="B444" s="9"/>
+      <c r="B444" s="13"/>
     </row>
     <row r="445">
-      <c r="B445" s="9"/>
+      <c r="B445" s="13"/>
     </row>
     <row r="446">
-      <c r="B446" s="9"/>
+      <c r="B446" s="13"/>
     </row>
     <row r="447">
-      <c r="B447" s="9"/>
+      <c r="B447" s="13"/>
     </row>
     <row r="448">
-      <c r="B448" s="9"/>
+      <c r="B448" s="13"/>
     </row>
     <row r="449">
-      <c r="B449" s="9"/>
+      <c r="B449" s="13"/>
     </row>
     <row r="450">
-      <c r="B450" s="9"/>
+      <c r="B450" s="13"/>
     </row>
     <row r="451">
-      <c r="B451" s="9"/>
+      <c r="B451" s="13"/>
     </row>
     <row r="452">
-      <c r="B452" s="9"/>
+      <c r="B452" s="13"/>
     </row>
     <row r="453">
-      <c r="B453" s="9"/>
+      <c r="B453" s="13"/>
     </row>
     <row r="454">
-      <c r="B454" s="9"/>
+      <c r="B454" s="13"/>
     </row>
     <row r="455">
-      <c r="B455" s="9"/>
+      <c r="B455" s="13"/>
     </row>
     <row r="456">
-      <c r="B456" s="9"/>
+      <c r="B456" s="13"/>
     </row>
     <row r="457">
-      <c r="B457" s="9"/>
+      <c r="B457" s="13"/>
     </row>
     <row r="458">
-      <c r="B458" s="9"/>
+      <c r="B458" s="13"/>
     </row>
     <row r="459">
-      <c r="B459" s="9"/>
+      <c r="B459" s="13"/>
     </row>
     <row r="460">
-      <c r="B460" s="9"/>
+      <c r="B460" s="13"/>
     </row>
     <row r="461">
-      <c r="B461" s="9"/>
+      <c r="B461" s="13"/>
     </row>
     <row r="462">
-      <c r="B462" s="9"/>
+      <c r="B462" s="13"/>
     </row>
     <row r="463">
-      <c r="B463" s="9"/>
+      <c r="B463" s="13"/>
     </row>
     <row r="464">
-      <c r="B464" s="9"/>
+      <c r="B464" s="13"/>
     </row>
     <row r="465">
-      <c r="B465" s="9"/>
+      <c r="B465" s="13"/>
     </row>
     <row r="466">
-      <c r="B466" s="9"/>
+      <c r="B466" s="13"/>
     </row>
     <row r="467">
-      <c r="B467" s="9"/>
+      <c r="B467" s="13"/>
     </row>
     <row r="468">
-      <c r="B468" s="9"/>
+      <c r="B468" s="13"/>
     </row>
     <row r="469">
-      <c r="B469" s="9"/>
+      <c r="B469" s="13"/>
     </row>
     <row r="470">
-      <c r="B470" s="9"/>
+      <c r="B470" s="13"/>
     </row>
     <row r="471">
-      <c r="B471" s="9"/>
+      <c r="B471" s="13"/>
     </row>
     <row r="472">
-      <c r="B472" s="9"/>
+      <c r="B472" s="13"/>
     </row>
     <row r="473">
-      <c r="B473" s="9"/>
+      <c r="B473" s="13"/>
     </row>
     <row r="474">
-      <c r="B474" s="9"/>
+      <c r="B474" s="13"/>
     </row>
     <row r="475">
-      <c r="B475" s="9"/>
+      <c r="B475" s="13"/>
     </row>
     <row r="476">
-      <c r="B476" s="9"/>
+      <c r="B476" s="13"/>
     </row>
     <row r="477">
-      <c r="B477" s="9"/>
+      <c r="B477" s="13"/>
     </row>
     <row r="478">
-      <c r="B478" s="9"/>
+      <c r="B478" s="13"/>
     </row>
     <row r="479">
-      <c r="B479" s="9"/>
+      <c r="B479" s="13"/>
     </row>
     <row r="480">
-      <c r="B480" s="9"/>
+      <c r="B480" s="13"/>
     </row>
     <row r="481">
-      <c r="B481" s="9"/>
+      <c r="B481" s="13"/>
     </row>
     <row r="482">
-      <c r="B482" s="9"/>
+      <c r="B482" s="13"/>
     </row>
     <row r="483">
-      <c r="B483" s="9"/>
+      <c r="B483" s="13"/>
     </row>
     <row r="484">
-      <c r="B484" s="9"/>
+      <c r="B484" s="13"/>
     </row>
     <row r="485">
-      <c r="B485" s="9"/>
+      <c r="B485" s="13"/>
     </row>
     <row r="486">
-      <c r="B486" s="9"/>
+      <c r="B486" s="13"/>
     </row>
     <row r="487">
-      <c r="B487" s="9"/>
+      <c r="B487" s="13"/>
     </row>
     <row r="488">
-      <c r="B488" s="9"/>
+      <c r="B488" s="13"/>
     </row>
     <row r="489">
-      <c r="B489" s="9"/>
+      <c r="B489" s="13"/>
     </row>
     <row r="490">
-      <c r="B490" s="9"/>
+      <c r="B490" s="13"/>
     </row>
     <row r="491">
-      <c r="B491" s="9"/>
+      <c r="B491" s="13"/>
     </row>
     <row r="492">
-      <c r="B492" s="9"/>
+      <c r="B492" s="13"/>
     </row>
     <row r="493">
-      <c r="B493" s="9"/>
+      <c r="B493" s="13"/>
     </row>
     <row r="494">
-      <c r="B494" s="9"/>
+      <c r="B494" s="13"/>
     </row>
     <row r="495">
-      <c r="B495" s="9"/>
+      <c r="B495" s="13"/>
     </row>
     <row r="496">
-      <c r="B496" s="9"/>
+      <c r="B496" s="13"/>
     </row>
     <row r="497">
-      <c r="B497" s="9"/>
+      <c r="B497" s="13"/>
     </row>
     <row r="498">
-      <c r="B498" s="9"/>
+      <c r="B498" s="13"/>
     </row>
     <row r="499">
-      <c r="B499" s="9"/>
+      <c r="B499" s="13"/>
     </row>
     <row r="500">
-      <c r="B500" s="9"/>
+      <c r="B500" s="13"/>
     </row>
     <row r="501">
-      <c r="B501" s="9"/>
+      <c r="B501" s="13"/>
     </row>
     <row r="502">
-      <c r="B502" s="9"/>
+      <c r="B502" s="13"/>
     </row>
     <row r="503">
-      <c r="B503" s="9"/>
+      <c r="B503" s="13"/>
     </row>
     <row r="504">
-      <c r="B504" s="9"/>
+      <c r="B504" s="13"/>
     </row>
     <row r="505">
-      <c r="B505" s="9"/>
+      <c r="B505" s="13"/>
     </row>
     <row r="506">
-      <c r="B506" s="9"/>
+      <c r="B506" s="13"/>
     </row>
     <row r="507">
-      <c r="B507" s="9"/>
+      <c r="B507" s="13"/>
     </row>
     <row r="508">
-      <c r="B508" s="9"/>
+      <c r="B508" s="13"/>
     </row>
     <row r="509">
-      <c r="B509" s="9"/>
+      <c r="B509" s="13"/>
     </row>
     <row r="510">
-      <c r="B510" s="9"/>
+      <c r="B510" s="13"/>
     </row>
     <row r="511">
-      <c r="B511" s="9"/>
+      <c r="B511" s="13"/>
     </row>
     <row r="512">
-      <c r="B512" s="9"/>
+      <c r="B512" s="13"/>
     </row>
     <row r="513">
-      <c r="B513" s="9"/>
+      <c r="B513" s="13"/>
     </row>
     <row r="514">
-      <c r="B514" s="9"/>
+      <c r="B514" s="13"/>
     </row>
     <row r="515">
-      <c r="B515" s="9"/>
+      <c r="B515" s="13"/>
     </row>
     <row r="516">
-      <c r="B516" s="9"/>
+      <c r="B516" s="13"/>
     </row>
     <row r="517">
-      <c r="B517" s="9"/>
+      <c r="B517" s="13"/>
     </row>
     <row r="518">
-      <c r="B518" s="9"/>
+      <c r="B518" s="13"/>
     </row>
     <row r="519">
-      <c r="B519" s="9"/>
+      <c r="B519" s="13"/>
     </row>
     <row r="520">
-      <c r="B520" s="9"/>
+      <c r="B520" s="13"/>
     </row>
     <row r="521">
-      <c r="B521" s="9"/>
+      <c r="B521" s="13"/>
     </row>
     <row r="522">
-      <c r="B522" s="9"/>
+      <c r="B522" s="13"/>
     </row>
     <row r="523">
-      <c r="B523" s="9"/>
+      <c r="B523" s="13"/>
     </row>
     <row r="524">
-      <c r="B524" s="9"/>
+      <c r="B524" s="13"/>
     </row>
     <row r="525">
-      <c r="B525" s="9"/>
+      <c r="B525" s="13"/>
     </row>
     <row r="526">
-      <c r="B526" s="9"/>
+      <c r="B526" s="13"/>
     </row>
     <row r="527">
-      <c r="B527" s="9"/>
+      <c r="B527" s="13"/>
     </row>
     <row r="528">
-      <c r="B528" s="9"/>
+      <c r="B528" s="13"/>
     </row>
     <row r="529">
-      <c r="B529" s="9"/>
+      <c r="B529" s="13"/>
     </row>
     <row r="530">
-      <c r="B530" s="9"/>
+      <c r="B530" s="13"/>
     </row>
     <row r="531">
-      <c r="B531" s="9"/>
+      <c r="B531" s="13"/>
     </row>
     <row r="532">
-      <c r="B532" s="9"/>
+      <c r="B532" s="13"/>
     </row>
     <row r="533">
-      <c r="B533" s="9"/>
+      <c r="B533" s="13"/>
     </row>
     <row r="534">
-      <c r="B534" s="9"/>
+      <c r="B534" s="13"/>
     </row>
     <row r="535">
-      <c r="B535" s="9"/>
+      <c r="B535" s="13"/>
     </row>
     <row r="536">
-      <c r="B536" s="9"/>
+      <c r="B536" s="13"/>
     </row>
     <row r="537">
-      <c r="B537" s="9"/>
+      <c r="B537" s="13"/>
     </row>
     <row r="538">
-      <c r="B538" s="9"/>
+      <c r="B538" s="13"/>
     </row>
     <row r="539">
-      <c r="B539" s="9"/>
+      <c r="B539" s="13"/>
     </row>
     <row r="540">
-      <c r="B540" s="9"/>
+      <c r="B540" s="13"/>
     </row>
     <row r="541">
-      <c r="B541" s="9"/>
+      <c r="B541" s="13"/>
     </row>
     <row r="542">
-      <c r="B542" s="9"/>
+      <c r="B542" s="13"/>
     </row>
     <row r="543">
-      <c r="B543" s="9"/>
+      <c r="B543" s="13"/>
     </row>
     <row r="544">
-      <c r="B544" s="9"/>
+      <c r="B544" s="13"/>
     </row>
     <row r="545">
-      <c r="B545" s="9"/>
+      <c r="B545" s="13"/>
     </row>
     <row r="546">
-      <c r="B546" s="9"/>
+      <c r="B546" s="13"/>
     </row>
     <row r="547">
-      <c r="B547" s="9"/>
+      <c r="B547" s="13"/>
     </row>
     <row r="548">
-      <c r="B548" s="9"/>
+      <c r="B548" s="13"/>
     </row>
     <row r="549">
-      <c r="B549" s="9"/>
+      <c r="B549" s="13"/>
     </row>
     <row r="550">
-      <c r="B550" s="9"/>
+      <c r="B550" s="13"/>
     </row>
     <row r="551">
-      <c r="B551" s="9"/>
+      <c r="B551" s="13"/>
     </row>
     <row r="552">
-      <c r="B552" s="9"/>
+      <c r="B552" s="13"/>
     </row>
     <row r="553">
-      <c r="B553" s="9"/>
+      <c r="B553" s="13"/>
     </row>
     <row r="554">
-      <c r="B554" s="9"/>
+      <c r="B554" s="13"/>
     </row>
     <row r="555">
-      <c r="B555" s="9"/>
+      <c r="B555" s="13"/>
     </row>
     <row r="556">
-      <c r="B556" s="9"/>
+      <c r="B556" s="13"/>
     </row>
     <row r="557">
-      <c r="B557" s="9"/>
+      <c r="B557" s="13"/>
     </row>
     <row r="558">
-      <c r="B558" s="9"/>
+      <c r="B558" s="13"/>
     </row>
     <row r="559">
-      <c r="B559" s="9"/>
+      <c r="B559" s="13"/>
     </row>
     <row r="560">
-      <c r="B560" s="9"/>
+      <c r="B560" s="13"/>
     </row>
     <row r="561">
-      <c r="B561" s="9"/>
+      <c r="B561" s="13"/>
     </row>
     <row r="562">
-      <c r="B562" s="9"/>
+      <c r="B562" s="13"/>
     </row>
     <row r="563">
-      <c r="B563" s="9"/>
+      <c r="B563" s="13"/>
     </row>
     <row r="564">
-      <c r="B564" s="9"/>
+      <c r="B564" s="13"/>
     </row>
     <row r="565">
-      <c r="B565" s="9"/>
+      <c r="B565" s="13"/>
     </row>
     <row r="566">
-      <c r="B566" s="9"/>
+      <c r="B566" s="13"/>
     </row>
     <row r="567">
-      <c r="B567" s="9"/>
+      <c r="B567" s="13"/>
     </row>
     <row r="568">
-      <c r="B568" s="9"/>
+      <c r="B568" s="13"/>
     </row>
     <row r="569">
-      <c r="B569" s="9"/>
+      <c r="B569" s="13"/>
     </row>
     <row r="570">
-      <c r="B570" s="9"/>
+      <c r="B570" s="13"/>
     </row>
     <row r="571">
-      <c r="B571" s="9"/>
+      <c r="B571" s="13"/>
     </row>
     <row r="572">
-      <c r="B572" s="9"/>
+      <c r="B572" s="13"/>
     </row>
     <row r="573">
-      <c r="B573" s="9"/>
+      <c r="B573" s="13"/>
     </row>
     <row r="574">
-      <c r="B574" s="9"/>
+      <c r="B574" s="13"/>
     </row>
     <row r="575">
-      <c r="B575" s="9"/>
+      <c r="B575" s="13"/>
     </row>
     <row r="576">
-      <c r="B576" s="9"/>
+      <c r="B576" s="13"/>
     </row>
     <row r="577">
-      <c r="B577" s="9"/>
+      <c r="B577" s="13"/>
     </row>
     <row r="578">
-      <c r="B578" s="9"/>
+      <c r="B578" s="13"/>
     </row>
     <row r="579">
-      <c r="B579" s="9"/>
+      <c r="B579" s="13"/>
     </row>
     <row r="580">
-      <c r="B580" s="9"/>
+      <c r="B580" s="13"/>
     </row>
     <row r="581">
-      <c r="B581" s="9"/>
+      <c r="B581" s="13"/>
     </row>
     <row r="582">
-      <c r="B582" s="9"/>
+      <c r="B582" s="13"/>
     </row>
     <row r="583">
-      <c r="B583" s="9"/>
+      <c r="B583" s="13"/>
     </row>
     <row r="584">
-      <c r="B584" s="9"/>
+      <c r="B584" s="13"/>
     </row>
     <row r="585">
-      <c r="B585" s="9"/>
+      <c r="B585" s="13"/>
     </row>
     <row r="586">
-      <c r="B586" s="9"/>
+      <c r="B586" s="13"/>
     </row>
     <row r="587">
-      <c r="B587" s="9"/>
+      <c r="B587" s="13"/>
     </row>
     <row r="588">
-      <c r="B588" s="9"/>
+      <c r="B588" s="13"/>
     </row>
     <row r="589">
-      <c r="B589" s="9"/>
+      <c r="B589" s="13"/>
     </row>
     <row r="590">
-      <c r="B590" s="9"/>
+      <c r="B590" s="13"/>
     </row>
     <row r="591">
-      <c r="B591" s="9"/>
+      <c r="B591" s="13"/>
     </row>
     <row r="592">
-      <c r="B592" s="9"/>
+      <c r="B592" s="13"/>
     </row>
     <row r="593">
-      <c r="B593" s="9"/>
+      <c r="B593" s="13"/>
     </row>
     <row r="594">
-      <c r="B594" s="9"/>
+      <c r="B594" s="13"/>
     </row>
     <row r="595">
-      <c r="B595" s="9"/>
+      <c r="B595" s="13"/>
     </row>
     <row r="596">
-      <c r="B596" s="9"/>
+      <c r="B596" s="13"/>
     </row>
     <row r="597">
-      <c r="B597" s="9"/>
+      <c r="B597" s="13"/>
     </row>
     <row r="598">
-      <c r="B598" s="9"/>
+      <c r="B598" s="13"/>
     </row>
     <row r="599">
-      <c r="B599" s="9"/>
+      <c r="B599" s="13"/>
     </row>
     <row r="600">
-      <c r="B600" s="9"/>
+      <c r="B600" s="13"/>
     </row>
     <row r="601">
-      <c r="B601" s="9"/>
+      <c r="B601" s="13"/>
     </row>
     <row r="602">
-      <c r="B602" s="9"/>
+      <c r="B602" s="13"/>
     </row>
     <row r="603">
-      <c r="B603" s="9"/>
+      <c r="B603" s="13"/>
     </row>
     <row r="604">
-      <c r="B604" s="9"/>
+      <c r="B604" s="13"/>
     </row>
     <row r="605">
-      <c r="B605" s="9"/>
+      <c r="B605" s="13"/>
     </row>
     <row r="606">
-      <c r="B606" s="9"/>
+      <c r="B606" s="13"/>
     </row>
     <row r="607">
-      <c r="B607" s="9"/>
+      <c r="B607" s="13"/>
     </row>
     <row r="608">
-      <c r="B608" s="9"/>
+      <c r="B608" s="13"/>
     </row>
     <row r="609">
-      <c r="B609" s="9"/>
+      <c r="B609" s="13"/>
     </row>
     <row r="610">
-      <c r="B610" s="9"/>
+      <c r="B610" s="13"/>
     </row>
     <row r="611">
-      <c r="B611" s="9"/>
+      <c r="B611" s="13"/>
     </row>
     <row r="612">
-      <c r="B612" s="9"/>
+      <c r="B612" s="13"/>
     </row>
     <row r="613">
-      <c r="B613" s="9"/>
+      <c r="B613" s="13"/>
     </row>
     <row r="614">
-      <c r="B614" s="9"/>
+      <c r="B614" s="13"/>
     </row>
     <row r="615">
-      <c r="B615" s="9"/>
+      <c r="B615" s="13"/>
     </row>
     <row r="616">
-      <c r="B616" s="9"/>
+      <c r="B616" s="13"/>
     </row>
     <row r="617">
-      <c r="B617" s="9"/>
+      <c r="B617" s="13"/>
     </row>
     <row r="618">
-      <c r="B618" s="9"/>
+      <c r="B618" s="13"/>
     </row>
     <row r="619">
-      <c r="B619" s="9"/>
+      <c r="B619" s="13"/>
     </row>
     <row r="620">
-      <c r="B620" s="9"/>
+      <c r="B620" s="13"/>
     </row>
     <row r="621">
-      <c r="B621" s="9"/>
+      <c r="B621" s="13"/>
     </row>
     <row r="622">
-      <c r="B622" s="9"/>
+      <c r="B622" s="13"/>
     </row>
     <row r="623">
-      <c r="B623" s="9"/>
+      <c r="B623" s="13"/>
     </row>
     <row r="624">
-      <c r="B624" s="9"/>
+      <c r="B624" s="13"/>
     </row>
     <row r="625">
-      <c r="B625" s="9"/>
+      <c r="B625" s="13"/>
     </row>
     <row r="626">
-      <c r="B626" s="9"/>
+      <c r="B626" s="13"/>
     </row>
     <row r="627">
-      <c r="B627" s="9"/>
+      <c r="B627" s="13"/>
     </row>
     <row r="628">
-      <c r="B628" s="9"/>
+      <c r="B628" s="13"/>
     </row>
     <row r="629">
-      <c r="B629" s="9"/>
+      <c r="B629" s="13"/>
     </row>
     <row r="630">
-      <c r="B630" s="9"/>
+      <c r="B630" s="13"/>
     </row>
     <row r="631">
-      <c r="B631" s="9"/>
+      <c r="B631" s="13"/>
     </row>
     <row r="632">
-      <c r="B632" s="9"/>
+      <c r="B632" s="13"/>
     </row>
     <row r="633">
-      <c r="B633" s="9"/>
+      <c r="B633" s="13"/>
     </row>
     <row r="634">
-      <c r="B634" s="9"/>
+      <c r="B634" s="13"/>
     </row>
     <row r="635">
-      <c r="B635" s="9"/>
+      <c r="B635" s="13"/>
     </row>
     <row r="636">
-      <c r="B636" s="9"/>
+      <c r="B636" s="13"/>
     </row>
     <row r="637">
-      <c r="B637" s="9"/>
+      <c r="B637" s="13"/>
     </row>
     <row r="638">
-      <c r="B638" s="9"/>
+      <c r="B638" s="13"/>
     </row>
     <row r="639">
-      <c r="B639" s="9"/>
+      <c r="B639" s="13"/>
     </row>
     <row r="640">
-      <c r="B640" s="9"/>
+      <c r="B640" s="13"/>
     </row>
     <row r="641">
-      <c r="B641" s="9"/>
+      <c r="B641" s="13"/>
     </row>
     <row r="642">
-      <c r="B642" s="9"/>
+      <c r="B642" s="13"/>
     </row>
     <row r="643">
-      <c r="B643" s="9"/>
+      <c r="B643" s="13"/>
     </row>
     <row r="644">
-      <c r="B644" s="9"/>
+      <c r="B644" s="13"/>
     </row>
     <row r="645">
-      <c r="B645" s="9"/>
+      <c r="B645" s="13"/>
     </row>
     <row r="646">
-      <c r="B646" s="9"/>
+      <c r="B646" s="13"/>
     </row>
     <row r="647">
-      <c r="B647" s="9"/>
+      <c r="B647" s="13"/>
     </row>
     <row r="648">
-      <c r="B648" s="9"/>
+      <c r="B648" s="13"/>
     </row>
     <row r="649">
-      <c r="B649" s="9"/>
+      <c r="B649" s="13"/>
     </row>
     <row r="650">
-      <c r="B650" s="9"/>
+      <c r="B650" s="13"/>
     </row>
     <row r="651">
-      <c r="B651" s="9"/>
+      <c r="B651" s="13"/>
     </row>
     <row r="652">
-      <c r="B652" s="9"/>
+      <c r="B652" s="13"/>
     </row>
     <row r="653">
-      <c r="B653" s="9"/>
+      <c r="B653" s="13"/>
     </row>
     <row r="654">
-      <c r="B654" s="9"/>
+      <c r="B654" s="13"/>
     </row>
     <row r="655">
-      <c r="B655" s="9"/>
+      <c r="B655" s="13"/>
     </row>
     <row r="656">
-      <c r="B656" s="9"/>
+      <c r="B656" s="13"/>
     </row>
     <row r="657">
-      <c r="B657" s="9"/>
+      <c r="B657" s="13"/>
     </row>
     <row r="658">
-      <c r="B658" s="9"/>
+      <c r="B658" s="13"/>
     </row>
     <row r="659">
-      <c r="B659" s="9"/>
+      <c r="B659" s="13"/>
     </row>
     <row r="660">
-      <c r="B660" s="9"/>
+      <c r="B660" s="13"/>
     </row>
     <row r="661">
-      <c r="B661" s="9"/>
+      <c r="B661" s="13"/>
     </row>
     <row r="662">
-      <c r="B662" s="9"/>
+      <c r="B662" s="13"/>
     </row>
     <row r="663">
-      <c r="B663" s="9"/>
+      <c r="B663" s="13"/>
     </row>
     <row r="664">
-      <c r="B664" s="9"/>
+      <c r="B664" s="13"/>
     </row>
     <row r="665">
-      <c r="B665" s="9"/>
+      <c r="B665" s="13"/>
     </row>
     <row r="666">
-      <c r="B666" s="9"/>
+      <c r="B666" s="13"/>
     </row>
     <row r="667">
-      <c r="B667" s="9"/>
+      <c r="B667" s="13"/>
     </row>
     <row r="668">
-      <c r="B668" s="9"/>
+      <c r="B668" s="13"/>
     </row>
     <row r="669">
-      <c r="B669" s="9"/>
+      <c r="B669" s="13"/>
     </row>
     <row r="670">
-      <c r="B670" s="9"/>
+      <c r="B670" s="13"/>
     </row>
     <row r="671">
-      <c r="B671" s="9"/>
+      <c r="B671" s="13"/>
     </row>
     <row r="672">
-      <c r="B672" s="9"/>
+      <c r="B672" s="13"/>
     </row>
     <row r="673">
-      <c r="B673" s="9"/>
+      <c r="B673" s="13"/>
     </row>
     <row r="674">
-      <c r="B674" s="9"/>
+      <c r="B674" s="13"/>
     </row>
     <row r="675">
-      <c r="B675" s="9"/>
+      <c r="B675" s="13"/>
     </row>
     <row r="676">
-      <c r="B676" s="9"/>
+      <c r="B676" s="13"/>
     </row>
     <row r="677">
-      <c r="B677" s="9"/>
+      <c r="B677" s="13"/>
     </row>
     <row r="678">
-      <c r="B678" s="9"/>
+      <c r="B678" s="13"/>
     </row>
     <row r="679">
-      <c r="B679" s="9"/>
+      <c r="B679" s="13"/>
     </row>
     <row r="680">
-      <c r="B680" s="9"/>
+      <c r="B680" s="13"/>
     </row>
     <row r="681">
-      <c r="B681" s="9"/>
+      <c r="B681" s="13"/>
     </row>
     <row r="682">
-      <c r="B682" s="9"/>
+      <c r="B682" s="13"/>
     </row>
     <row r="683">
-      <c r="B683" s="9"/>
+      <c r="B683" s="13"/>
     </row>
     <row r="684">
-      <c r="B684" s="9"/>
+      <c r="B684" s="13"/>
     </row>
     <row r="685">
-      <c r="B685" s="9"/>
+      <c r="B685" s="13"/>
     </row>
     <row r="686">
-      <c r="B686" s="9"/>
+      <c r="B686" s="13"/>
     </row>
     <row r="687">
-      <c r="B687" s="9"/>
+      <c r="B687" s="13"/>
     </row>
     <row r="688">
-      <c r="B688" s="9"/>
+      <c r="B688" s="13"/>
     </row>
     <row r="689">
-      <c r="B689" s="9"/>
+      <c r="B689" s="13"/>
     </row>
     <row r="690">
-      <c r="B690" s="9"/>
+      <c r="B690" s="13"/>
     </row>
     <row r="691">
-      <c r="B691" s="9"/>
+      <c r="B691" s="13"/>
     </row>
     <row r="692">
-      <c r="B692" s="9"/>
+      <c r="B692" s="13"/>
     </row>
     <row r="693">
-      <c r="B693" s="9"/>
+      <c r="B693" s="13"/>
     </row>
     <row r="694">
-      <c r="B694" s="9"/>
+      <c r="B694" s="13"/>
     </row>
     <row r="695">
-      <c r="B695" s="9"/>
+      <c r="B695" s="13"/>
     </row>
     <row r="696">
-      <c r="B696" s="9"/>
+      <c r="B696" s="13"/>
     </row>
     <row r="697">
-      <c r="B697" s="9"/>
+      <c r="B697" s="13"/>
     </row>
     <row r="698">
-      <c r="B698" s="9"/>
+      <c r="B698" s="13"/>
     </row>
     <row r="699">
-      <c r="B699" s="9"/>
+      <c r="B699" s="13"/>
     </row>
     <row r="700">
-      <c r="B700" s="9"/>
+      <c r="B700" s="13"/>
     </row>
     <row r="701">
-      <c r="B701" s="9"/>
+      <c r="B701" s="13"/>
     </row>
     <row r="702">
-      <c r="B702" s="9"/>
+      <c r="B702" s="13"/>
     </row>
     <row r="703">
-      <c r="B703" s="9"/>
+      <c r="B703" s="13"/>
     </row>
     <row r="704">
-      <c r="B704" s="9"/>
+      <c r="B704" s="13"/>
     </row>
     <row r="705">
-      <c r="B705" s="9"/>
+      <c r="B705" s="13"/>
     </row>
     <row r="706">
-      <c r="B706" s="9"/>
+      <c r="B706" s="13"/>
     </row>
     <row r="707">
-      <c r="B707" s="9"/>
+      <c r="B707" s="13"/>
     </row>
     <row r="708">
-      <c r="B708" s="9"/>
+      <c r="B708" s="13"/>
     </row>
     <row r="709">
-      <c r="B709" s="9"/>
+      <c r="B709" s="13"/>
     </row>
     <row r="710">
-      <c r="B710" s="9"/>
+      <c r="B710" s="13"/>
     </row>
     <row r="711">
-      <c r="B711" s="9"/>
+      <c r="B711" s="13"/>
     </row>
     <row r="712">
-      <c r="B712" s="9"/>
+      <c r="B712" s="13"/>
     </row>
     <row r="713">
-      <c r="B713" s="9"/>
+      <c r="B713" s="13"/>
     </row>
     <row r="714">
-      <c r="B714" s="9"/>
+      <c r="B714" s="13"/>
     </row>
     <row r="715">
-      <c r="B715" s="9"/>
+      <c r="B715" s="13"/>
     </row>
     <row r="716">
-      <c r="B716" s="9"/>
+      <c r="B716" s="13"/>
     </row>
     <row r="717">
-      <c r="B717" s="9"/>
+      <c r="B717" s="13"/>
     </row>
     <row r="718">
-      <c r="B718" s="9"/>
+      <c r="B718" s="13"/>
     </row>
     <row r="719">
-      <c r="B719" s="9"/>
+      <c r="B719" s="13"/>
     </row>
     <row r="720">
-      <c r="B720" s="9"/>
+      <c r="B720" s="13"/>
     </row>
     <row r="721">
-      <c r="B721" s="9"/>
+      <c r="B721" s="13"/>
     </row>
     <row r="722">
-      <c r="B722" s="9"/>
+      <c r="B722" s="13"/>
     </row>
     <row r="723">
-      <c r="B723" s="9"/>
+      <c r="B723" s="13"/>
     </row>
     <row r="724">
-      <c r="B724" s="9"/>
+      <c r="B724" s="13"/>
     </row>
     <row r="725">
-      <c r="B725" s="9"/>
+      <c r="B725" s="13"/>
     </row>
     <row r="726">
-      <c r="B726" s="9"/>
+      <c r="B726" s="13"/>
     </row>
     <row r="727">
-      <c r="B727" s="9"/>
+      <c r="B727" s="13"/>
     </row>
     <row r="728">
-      <c r="B728" s="9"/>
+      <c r="B728" s="13"/>
     </row>
     <row r="729">
-      <c r="B729" s="9"/>
+      <c r="B729" s="13"/>
     </row>
     <row r="730">
-      <c r="B730" s="9"/>
+      <c r="B730" s="13"/>
     </row>
     <row r="731">
-      <c r="B731" s="9"/>
+      <c r="B731" s="13"/>
     </row>
     <row r="732">
-      <c r="B732" s="9"/>
+      <c r="B732" s="13"/>
     </row>
     <row r="733">
-      <c r="B733" s="9"/>
+      <c r="B733" s="13"/>
     </row>
     <row r="734">
-      <c r="B734" s="9"/>
+      <c r="B734" s="13"/>
     </row>
     <row r="735">
-      <c r="B735" s="9"/>
+      <c r="B735" s="13"/>
     </row>
     <row r="736">
-      <c r="B736" s="9"/>
+      <c r="B736" s="13"/>
     </row>
     <row r="737">
-      <c r="B737" s="9"/>
+      <c r="B737" s="13"/>
     </row>
     <row r="738">
-      <c r="B738" s="9"/>
+      <c r="B738" s="13"/>
     </row>
     <row r="739">
-      <c r="B739" s="9"/>
+      <c r="B739" s="13"/>
     </row>
     <row r="740">
-      <c r="B740" s="9"/>
+      <c r="B740" s="13"/>
     </row>
     <row r="741">
-      <c r="B741" s="9"/>
+      <c r="B741" s="13"/>
     </row>
     <row r="742">
-      <c r="B742" s="9"/>
+      <c r="B742" s="13"/>
     </row>
     <row r="743">
-      <c r="B743" s="9"/>
+      <c r="B743" s="13"/>
     </row>
     <row r="744">
-      <c r="B744" s="9"/>
+      <c r="B744" s="13"/>
     </row>
     <row r="745">
-      <c r="B745" s="9"/>
+      <c r="B745" s="13"/>
     </row>
     <row r="746">
-      <c r="B746" s="9"/>
+      <c r="B746" s="13"/>
     </row>
     <row r="747">
-      <c r="B747" s="9"/>
+      <c r="B747" s="13"/>
     </row>
     <row r="748">
-      <c r="B748" s="9"/>
+      <c r="B748" s="13"/>
     </row>
     <row r="749">
-      <c r="B749" s="9"/>
+      <c r="B749" s="13"/>
     </row>
     <row r="750">
-      <c r="B750" s="9"/>
+      <c r="B750" s="13"/>
     </row>
     <row r="751">
-      <c r="B751" s="9"/>
+      <c r="B751" s="13"/>
     </row>
     <row r="752">
-      <c r="B752" s="9"/>
+      <c r="B752" s="13"/>
     </row>
     <row r="753">
-      <c r="B753" s="9"/>
+      <c r="B753" s="13"/>
     </row>
     <row r="754">
-      <c r="B754" s="9"/>
+      <c r="B754" s="13"/>
     </row>
     <row r="755">
-      <c r="B755" s="9"/>
+      <c r="B755" s="13"/>
     </row>
     <row r="756">
-      <c r="B756" s="9"/>
+      <c r="B756" s="13"/>
     </row>
     <row r="757">
-      <c r="B757" s="9"/>
+      <c r="B757" s="13"/>
     </row>
     <row r="758">
-      <c r="B758" s="9"/>
+      <c r="B758" s="13"/>
     </row>
     <row r="759">
-      <c r="B759" s="9"/>
+      <c r="B759" s="13"/>
     </row>
     <row r="760">
-      <c r="B760" s="9"/>
+      <c r="B760" s="13"/>
     </row>
     <row r="761">
-      <c r="B761" s="9"/>
+      <c r="B761" s="13"/>
     </row>
     <row r="762">
-      <c r="B762" s="9"/>
+      <c r="B762" s="13"/>
     </row>
     <row r="763">
-      <c r="B763" s="9"/>
+      <c r="B763" s="13"/>
     </row>
     <row r="764">
-      <c r="B764" s="9"/>
+      <c r="B764" s="13"/>
     </row>
     <row r="765">
-      <c r="B765" s="9"/>
+      <c r="B765" s="13"/>
     </row>
     <row r="766">
-      <c r="B766" s="9"/>
+      <c r="B766" s="13"/>
     </row>
     <row r="767">
-      <c r="B767" s="9"/>
+      <c r="B767" s="13"/>
     </row>
     <row r="768">
-      <c r="B768" s="9"/>
+      <c r="B768" s="13"/>
     </row>
     <row r="769">
-      <c r="B769" s="9"/>
+      <c r="B769" s="13"/>
     </row>
     <row r="770">
-      <c r="B770" s="9"/>
+      <c r="B770" s="13"/>
     </row>
     <row r="771">
-      <c r="B771" s="9"/>
+      <c r="B771" s="13"/>
     </row>
     <row r="772">
-      <c r="B772" s="9"/>
+      <c r="B772" s="13"/>
     </row>
     <row r="773">
-      <c r="B773" s="9"/>
+      <c r="B773" s="13"/>
     </row>
     <row r="774">
-      <c r="B774" s="9"/>
+      <c r="B774" s="13"/>
     </row>
     <row r="775">
-      <c r="B775" s="9"/>
+      <c r="B775" s="13"/>
     </row>
     <row r="776">
-      <c r="B776" s="9"/>
+      <c r="B776" s="13"/>
     </row>
     <row r="777">
-      <c r="B777" s="9"/>
+      <c r="B777" s="13"/>
     </row>
     <row r="778">
-      <c r="B778" s="9"/>
+      <c r="B778" s="13"/>
     </row>
     <row r="779">
-      <c r="B779" s="9"/>
+      <c r="B779" s="13"/>
     </row>
     <row r="780">
-      <c r="B780" s="9"/>
+      <c r="B780" s="13"/>
     </row>
     <row r="781">
-      <c r="B781" s="9"/>
+      <c r="B781" s="13"/>
     </row>
     <row r="782">
-      <c r="B782" s="9"/>
+      <c r="B782" s="13"/>
     </row>
     <row r="783">
-      <c r="B783" s="9"/>
+      <c r="B783" s="13"/>
     </row>
     <row r="784">
-      <c r="B784" s="9"/>
+      <c r="B784" s="13"/>
     </row>
     <row r="785">
-      <c r="B785" s="9"/>
+      <c r="B785" s="13"/>
     </row>
     <row r="786">
-      <c r="B786" s="9"/>
+      <c r="B786" s="13"/>
     </row>
     <row r="787">
-      <c r="B787" s="9"/>
+      <c r="B787" s="13"/>
     </row>
     <row r="788">
-      <c r="B788" s="9"/>
+      <c r="B788" s="13"/>
     </row>
     <row r="789">
-      <c r="B789" s="9"/>
+      <c r="B789" s="13"/>
     </row>
     <row r="790">
-      <c r="B790" s="9"/>
+      <c r="B790" s="13"/>
     </row>
     <row r="791">
-      <c r="B791" s="9"/>
+      <c r="B791" s="13"/>
     </row>
     <row r="792">
-      <c r="B792" s="9"/>
+      <c r="B792" s="13"/>
     </row>
     <row r="793">
-      <c r="B793" s="9"/>
+      <c r="B793" s="13"/>
     </row>
     <row r="794">
-      <c r="B794" s="9"/>
+      <c r="B794" s="13"/>
     </row>
     <row r="795">
-      <c r="B795" s="9"/>
+      <c r="B795" s="13"/>
     </row>
     <row r="796">
-      <c r="B796" s="9"/>
+      <c r="B796" s="13"/>
     </row>
     <row r="797">
-      <c r="B797" s="9"/>
+      <c r="B797" s="13"/>
     </row>
     <row r="798">
-      <c r="B798" s="9"/>
+      <c r="B798" s="13"/>
     </row>
     <row r="799">
-      <c r="B799" s="9"/>
+      <c r="B799" s="13"/>
     </row>
     <row r="800">
-      <c r="B800" s="9"/>
+      <c r="B800" s="13"/>
     </row>
     <row r="801">
-      <c r="B801" s="9"/>
+      <c r="B801" s="13"/>
     </row>
     <row r="802">
-      <c r="B802" s="9"/>
+      <c r="B802" s="13"/>
     </row>
     <row r="803">
-      <c r="B803" s="9"/>
+      <c r="B803" s="13"/>
     </row>
     <row r="804">
-      <c r="B804" s="9"/>
+      <c r="B804" s="13"/>
     </row>
     <row r="805">
-      <c r="B805" s="9"/>
+      <c r="B805" s="13"/>
     </row>
     <row r="806">
-      <c r="B806" s="9"/>
+      <c r="B806" s="13"/>
     </row>
     <row r="807">
-      <c r="B807" s="9"/>
+      <c r="B807" s="13"/>
     </row>
     <row r="808">
-      <c r="B808" s="9"/>
+      <c r="B808" s="13"/>
     </row>
     <row r="809">
-      <c r="B809" s="9"/>
+      <c r="B809" s="13"/>
     </row>
     <row r="810">
-      <c r="B810" s="9"/>
+      <c r="B810" s="13"/>
     </row>
     <row r="811">
-      <c r="B811" s="9"/>
+      <c r="B811" s="13"/>
     </row>
     <row r="812">
-      <c r="B812" s="9"/>
+      <c r="B812" s="13"/>
     </row>
     <row r="813">
-      <c r="B813" s="9"/>
+      <c r="B813" s="13"/>
     </row>
     <row r="814">
-      <c r="B814" s="9"/>
+      <c r="B814" s="13"/>
     </row>
     <row r="815">
-      <c r="B815" s="9"/>
+      <c r="B815" s="13"/>
     </row>
     <row r="816">
-      <c r="B816" s="9"/>
+      <c r="B816" s="13"/>
     </row>
     <row r="817">
-      <c r="B817" s="9"/>
+      <c r="B817" s="13"/>
     </row>
     <row r="818">
-      <c r="B818" s="9"/>
+      <c r="B818" s="13"/>
     </row>
     <row r="819">
-      <c r="B819" s="9"/>
+      <c r="B819" s="13"/>
     </row>
     <row r="820">
-      <c r="B820" s="9"/>
+      <c r="B820" s="13"/>
     </row>
     <row r="821">
-      <c r="B821" s="9"/>
+      <c r="B821" s="13"/>
     </row>
     <row r="822">
-      <c r="B822" s="9"/>
+      <c r="B822" s="13"/>
     </row>
     <row r="823">
-      <c r="B823" s="9"/>
+      <c r="B823" s="13"/>
     </row>
     <row r="824">
-      <c r="B824" s="9"/>
+      <c r="B824" s="13"/>
     </row>
     <row r="825">
-      <c r="B825" s="9"/>
+      <c r="B825" s="13"/>
     </row>
     <row r="826">
-      <c r="B826" s="9"/>
+      <c r="B826" s="13"/>
     </row>
     <row r="827">
-      <c r="B827" s="9"/>
+      <c r="B827" s="13"/>
     </row>
     <row r="828">
-      <c r="B828" s="9"/>
+      <c r="B828" s="13"/>
     </row>
     <row r="829">
-      <c r="B829" s="9"/>
+      <c r="B829" s="13"/>
     </row>
     <row r="830">
-      <c r="B830" s="9"/>
+      <c r="B830" s="13"/>
     </row>
     <row r="831">
-      <c r="B831" s="9"/>
+      <c r="B831" s="13"/>
     </row>
     <row r="832">
-      <c r="B832" s="9"/>
+      <c r="B832" s="13"/>
     </row>
     <row r="833">
-      <c r="B833" s="9"/>
+      <c r="B833" s="13"/>
     </row>
     <row r="834">
-      <c r="B834" s="9"/>
+      <c r="B834" s="13"/>
     </row>
     <row r="835">
-      <c r="B835" s="9"/>
+      <c r="B835" s="13"/>
     </row>
     <row r="836">
-      <c r="B836" s="9"/>
+      <c r="B836" s="13"/>
     </row>
     <row r="837">
-      <c r="B837" s="9"/>
+      <c r="B837" s="13"/>
     </row>
     <row r="838">
-      <c r="B838" s="9"/>
+      <c r="B838" s="13"/>
     </row>
     <row r="839">
-      <c r="B839" s="9"/>
+      <c r="B839" s="13"/>
     </row>
     <row r="840">
-      <c r="B840" s="9"/>
+      <c r="B840" s="13"/>
     </row>
     <row r="841">
-      <c r="B841" s="9"/>
+      <c r="B841" s="13"/>
     </row>
     <row r="842">
-      <c r="B842" s="9"/>
+      <c r="B842" s="13"/>
     </row>
     <row r="843">
-      <c r="B843" s="9"/>
+      <c r="B843" s="13"/>
     </row>
     <row r="844">
-      <c r="B844" s="9"/>
+      <c r="B844" s="13"/>
     </row>
     <row r="845">
-      <c r="B845" s="9"/>
+      <c r="B845" s="13"/>
     </row>
     <row r="846">
-      <c r="B846" s="9"/>
+      <c r="B846" s="13"/>
     </row>
     <row r="847">
-      <c r="B847" s="9"/>
+      <c r="B847" s="13"/>
     </row>
     <row r="848">
-      <c r="B848" s="9"/>
+      <c r="B848" s="13"/>
     </row>
     <row r="849">
-      <c r="B849" s="9"/>
+      <c r="B849" s="13"/>
     </row>
     <row r="850">
-      <c r="B850" s="9"/>
+      <c r="B850" s="13"/>
     </row>
     <row r="851">
-      <c r="B851" s="9"/>
+      <c r="B851" s="13"/>
     </row>
     <row r="852">
-      <c r="B852" s="9"/>
+      <c r="B852" s="13"/>
     </row>
     <row r="853">
-      <c r="B853" s="9"/>
+      <c r="B853" s="13"/>
     </row>
     <row r="854">
-      <c r="B854" s="9"/>
+      <c r="B854" s="13"/>
     </row>
     <row r="855">
-      <c r="B855" s="9"/>
+      <c r="B855" s="13"/>
     </row>
     <row r="856">
-      <c r="B856" s="9"/>
+      <c r="B856" s="13"/>
     </row>
     <row r="857">
-      <c r="B857" s="9"/>
+      <c r="B857" s="13"/>
     </row>
     <row r="858">
-      <c r="B858" s="9"/>
+      <c r="B858" s="13"/>
     </row>
     <row r="859">
-      <c r="B859" s="9"/>
+      <c r="B859" s="13"/>
     </row>
     <row r="860">
-      <c r="B860" s="9"/>
+      <c r="B860" s="13"/>
     </row>
     <row r="861">
-      <c r="B861" s="9"/>
+      <c r="B861" s="13"/>
     </row>
     <row r="862">
-      <c r="B862" s="9"/>
+      <c r="B862" s="13"/>
     </row>
     <row r="863">
-      <c r="B863" s="9"/>
+      <c r="B863" s="13"/>
     </row>
     <row r="864">
-      <c r="B864" s="9"/>
+      <c r="B864" s="13"/>
     </row>
     <row r="865">
-      <c r="B865" s="9"/>
+      <c r="B865" s="13"/>
     </row>
     <row r="866">
-      <c r="B866" s="9"/>
+      <c r="B866" s="13"/>
     </row>
     <row r="867">
-      <c r="B867" s="9"/>
+      <c r="B867" s="13"/>
     </row>
     <row r="868">
-      <c r="B868" s="9"/>
+      <c r="B868" s="13"/>
     </row>
     <row r="869">
-      <c r="B869" s="9"/>
+      <c r="B869" s="13"/>
     </row>
     <row r="870">
-      <c r="B870" s="9"/>
+      <c r="B870" s="13"/>
     </row>
     <row r="871">
-      <c r="B871" s="9"/>
+      <c r="B871" s="13"/>
     </row>
     <row r="872">
-      <c r="B872" s="9"/>
+      <c r="B872" s="13"/>
     </row>
     <row r="873">
-      <c r="B873" s="9"/>
+      <c r="B873" s="13"/>
     </row>
     <row r="874">
-      <c r="B874" s="9"/>
+      <c r="B874" s="13"/>
     </row>
     <row r="875">
-      <c r="B875" s="9"/>
+      <c r="B875" s="13"/>
     </row>
     <row r="876">
-      <c r="B876" s="9"/>
+      <c r="B876" s="13"/>
     </row>
     <row r="877">
-      <c r="B877" s="9"/>
+      <c r="B877" s="13"/>
     </row>
     <row r="878">
-      <c r="B878" s="9"/>
+      <c r="B878" s="13"/>
     </row>
     <row r="879">
-      <c r="B879" s="9"/>
+      <c r="B879" s="13"/>
     </row>
     <row r="880">
-      <c r="B880" s="9"/>
+      <c r="B880" s="13"/>
     </row>
     <row r="881">
-      <c r="B881" s="9"/>
+      <c r="B881" s="13"/>
     </row>
     <row r="882">
-      <c r="B882" s="9"/>
+      <c r="B882" s="13"/>
     </row>
     <row r="883">
-      <c r="B883" s="9"/>
+      <c r="B883" s="13"/>
     </row>
     <row r="884">
-      <c r="B884" s="9"/>
+      <c r="B884" s="13"/>
     </row>
     <row r="885">
-      <c r="B885" s="9"/>
+      <c r="B885" s="13"/>
     </row>
     <row r="886">
-      <c r="B886" s="9"/>
+      <c r="B886" s="13"/>
     </row>
     <row r="887">
-      <c r="B887" s="9"/>
+      <c r="B887" s="13"/>
     </row>
     <row r="888">
-      <c r="B888" s="9"/>
+      <c r="B888" s="13"/>
     </row>
     <row r="889">
-      <c r="B889" s="9"/>
+      <c r="B889" s="13"/>
     </row>
     <row r="890">
-      <c r="B890" s="9"/>
+      <c r="B890" s="13"/>
     </row>
     <row r="891">
-      <c r="B891" s="9"/>
+      <c r="B891" s="13"/>
     </row>
     <row r="892">
-      <c r="B892" s="9"/>
+      <c r="B892" s="13"/>
     </row>
     <row r="893">
-      <c r="B893" s="9"/>
+      <c r="B893" s="13"/>
     </row>
     <row r="894">
-      <c r="B894" s="9"/>
+      <c r="B894" s="13"/>
     </row>
     <row r="895">
-      <c r="B895" s="9"/>
+      <c r="B895" s="13"/>
     </row>
     <row r="896">
-      <c r="B896" s="9"/>
+      <c r="B896" s="13"/>
     </row>
     <row r="897">
-      <c r="B897" s="9"/>
+      <c r="B897" s="13"/>
     </row>
     <row r="898">
-      <c r="B898" s="9"/>
+      <c r="B898" s="13"/>
     </row>
     <row r="899">
-      <c r="B899" s="9"/>
+      <c r="B899" s="13"/>
     </row>
     <row r="900">
-      <c r="B900" s="9"/>
+      <c r="B900" s="13"/>
     </row>
     <row r="901">
-      <c r="B901" s="9"/>
+      <c r="B901" s="13"/>
     </row>
     <row r="902">
-      <c r="B902" s="9"/>
+      <c r="B902" s="13"/>
     </row>
     <row r="903">
-      <c r="B903" s="9"/>
+      <c r="B903" s="13"/>
     </row>
     <row r="904">
-      <c r="B904" s="9"/>
+      <c r="B904" s="13"/>
     </row>
     <row r="905">
-      <c r="B905" s="9"/>
+      <c r="B905" s="13"/>
     </row>
     <row r="906">
-      <c r="B906" s="9"/>
+      <c r="B906" s="13"/>
     </row>
     <row r="907">
-      <c r="B907" s="9"/>
+      <c r="B907" s="13"/>
     </row>
     <row r="908">
-      <c r="B908" s="9"/>
+      <c r="B908" s="13"/>
     </row>
     <row r="909">
-      <c r="B909" s="9"/>
+      <c r="B909" s="13"/>
     </row>
     <row r="910">
-      <c r="B910" s="9"/>
+      <c r="B910" s="13"/>
     </row>
     <row r="911">
-      <c r="B911" s="9"/>
+      <c r="B911" s="13"/>
     </row>
     <row r="912">
-      <c r="B912" s="9"/>
+      <c r="B912" s="13"/>
     </row>
     <row r="913">
-      <c r="B913" s="9"/>
+      <c r="B913" s="13"/>
     </row>
     <row r="914">
-      <c r="B914" s="9"/>
+      <c r="B914" s="13"/>
     </row>
     <row r="915">
-      <c r="B915" s="9"/>
+      <c r="B915" s="13"/>
     </row>
     <row r="916">
-      <c r="B916" s="9"/>
+      <c r="B916" s="13"/>
     </row>
     <row r="917">
-      <c r="B917" s="9"/>
+      <c r="B917" s="13"/>
     </row>
     <row r="918">
-      <c r="B918" s="9"/>
+      <c r="B918" s="13"/>
     </row>
     <row r="919">
-      <c r="B919" s="9"/>
+      <c r="B919" s="13"/>
     </row>
     <row r="920">
-      <c r="B920" s="9"/>
+      <c r="B920" s="13"/>
     </row>
     <row r="921">
-      <c r="B921" s="9"/>
+      <c r="B921" s="13"/>
     </row>
     <row r="922">
-      <c r="B922" s="9"/>
+      <c r="B922" s="13"/>
     </row>
     <row r="923">
-      <c r="B923" s="9"/>
+      <c r="B923" s="13"/>
     </row>
     <row r="924">
-      <c r="B924" s="9"/>
+      <c r="B924" s="13"/>
     </row>
     <row r="925">
-      <c r="B925" s="9"/>
+      <c r="B925" s="13"/>
     </row>
     <row r="926">
-      <c r="B926" s="9"/>
+      <c r="B926" s="13"/>
     </row>
     <row r="927">
-      <c r="B927" s="9"/>
+      <c r="B927" s="13"/>
     </row>
     <row r="928">
-      <c r="B928" s="9"/>
+      <c r="B928" s="13"/>
     </row>
     <row r="929">
-      <c r="B929" s="9"/>
+      <c r="B929" s="13"/>
     </row>
     <row r="930">
-      <c r="B930" s="9"/>
+      <c r="B930" s="13"/>
     </row>
     <row r="931">
-      <c r="B931" s="9"/>
+      <c r="B931" s="13"/>
     </row>
     <row r="932">
-      <c r="B932" s="9"/>
+      <c r="B932" s="13"/>
     </row>
     <row r="933">
-      <c r="B933" s="9"/>
+      <c r="B933" s="13"/>
     </row>
     <row r="934">
-      <c r="B934" s="9"/>
+      <c r="B934" s="13"/>
     </row>
     <row r="935">
-      <c r="B935" s="9"/>
+      <c r="B935" s="13"/>
     </row>
     <row r="936">
-      <c r="B936" s="9"/>
+      <c r="B936" s="13"/>
     </row>
     <row r="937">
-      <c r="B937" s="9"/>
+      <c r="B937" s="13"/>
     </row>
     <row r="938">
-      <c r="B938" s="9"/>
+      <c r="B938" s="13"/>
     </row>
     <row r="939">
-      <c r="B939" s="9"/>
+      <c r="B939" s="13"/>
     </row>
     <row r="940">
-      <c r="B940" s="9"/>
+      <c r="B940" s="13"/>
     </row>
     <row r="941">
-      <c r="B941" s="9"/>
+      <c r="B941" s="13"/>
     </row>
     <row r="942">
-      <c r="B942" s="9"/>
+      <c r="B942" s="13"/>
     </row>
     <row r="943">
-      <c r="B943" s="9"/>
+      <c r="B943" s="13"/>
     </row>
     <row r="944">
-      <c r="B944" s="9"/>
+      <c r="B944" s="13"/>
     </row>
     <row r="945">
-      <c r="B945" s="9"/>
+      <c r="B945" s="13"/>
     </row>
     <row r="946">
-      <c r="B946" s="9"/>
+      <c r="B946" s="13"/>
     </row>
     <row r="947">
-      <c r="B947" s="9"/>
+      <c r="B947" s="13"/>
     </row>
     <row r="948">
-      <c r="B948" s="9"/>
+      <c r="B948" s="13"/>
     </row>
     <row r="949">
-      <c r="B949" s="9"/>
+      <c r="B949" s="13"/>
     </row>
     <row r="950">
-      <c r="B950" s="9"/>
+      <c r="B950" s="13"/>
     </row>
     <row r="951">
-      <c r="B951" s="9"/>
+      <c r="B951" s="13"/>
     </row>
     <row r="952">
-      <c r="B952" s="9"/>
+      <c r="B952" s="13"/>
     </row>
     <row r="953">
-      <c r="B953" s="9"/>
+      <c r="B953" s="13"/>
     </row>
     <row r="954">
-      <c r="B954" s="9"/>
+      <c r="B954" s="13"/>
     </row>
     <row r="955">
-      <c r="B955" s="9"/>
+      <c r="B955" s="13"/>
     </row>
     <row r="956">
-      <c r="B956" s="9"/>
+      <c r="B956" s="13"/>
     </row>
     <row r="957">
-      <c r="B957" s="9"/>
+      <c r="B957" s="13"/>
     </row>
     <row r="958">
-      <c r="B958" s="9"/>
+      <c r="B958" s="13"/>
     </row>
     <row r="959">
-      <c r="B959" s="9"/>
+      <c r="B959" s="13"/>
     </row>
     <row r="960">
-      <c r="B960" s="9"/>
+      <c r="B960" s="13"/>
     </row>
     <row r="961">
-      <c r="B961" s="9"/>
+      <c r="B961" s="13"/>
     </row>
     <row r="962">
-      <c r="B962" s="9"/>
+      <c r="B962" s="13"/>
     </row>
     <row r="963">
-      <c r="B963" s="9"/>
+      <c r="B963" s="13"/>
     </row>
     <row r="964">
-      <c r="B964" s="9"/>
+      <c r="B964" s="13"/>
     </row>
     <row r="965">
-      <c r="B965" s="9"/>
+      <c r="B965" s="13"/>
     </row>
     <row r="966">
-      <c r="B966" s="9"/>
+      <c r="B966" s="13"/>
     </row>
     <row r="967">
-      <c r="B967" s="9"/>
+      <c r="B967" s="13"/>
     </row>
     <row r="968">
-      <c r="B968" s="9"/>
+      <c r="B968" s="13"/>
     </row>
     <row r="969">
-      <c r="B969" s="9"/>
+      <c r="B969" s="13"/>
     </row>
     <row r="970">
-      <c r="B970" s="9"/>
+      <c r="B970" s="13"/>
     </row>
     <row r="971">
-      <c r="B971" s="9"/>
+      <c r="B971" s="13"/>
     </row>
     <row r="972">
-      <c r="B972" s="9"/>
+      <c r="B972" s="13"/>
     </row>
     <row r="973">
-      <c r="B973" s="9"/>
+      <c r="B973" s="13"/>
     </row>
     <row r="974">
-      <c r="B974" s="9"/>
+      <c r="B974" s="13"/>
     </row>
     <row r="975">
-      <c r="B975" s="9"/>
+      <c r="B975" s="13"/>
     </row>
     <row r="976">
-      <c r="B976" s="9"/>
+      <c r="B976" s="13"/>
     </row>
     <row r="977">
-      <c r="B977" s="9"/>
+      <c r="B977" s="13"/>
     </row>
     <row r="978">
-      <c r="B978" s="9"/>
+      <c r="B978" s="13"/>
     </row>
     <row r="979">
-      <c r="B979" s="9"/>
+      <c r="B979" s="13"/>
     </row>
     <row r="980">
-      <c r="B980" s="9"/>
+      <c r="B980" s="13"/>
     </row>
     <row r="981">
-      <c r="B981" s="9"/>
+      <c r="B981" s="13"/>
     </row>
     <row r="982">
-      <c r="B982" s="9"/>
+      <c r="B982" s="13"/>
     </row>
     <row r="983">
-      <c r="B983" s="9"/>
+      <c r="B983" s="13"/>
     </row>
     <row r="984">
-      <c r="B984" s="9"/>
+      <c r="B984" s="13"/>
     </row>
     <row r="985">
-      <c r="B985" s="9"/>
+      <c r="B985" s="13"/>
     </row>
     <row r="986">
-      <c r="B986" s="9"/>
+      <c r="B986" s="13"/>
     </row>
     <row r="987">
-      <c r="B987" s="9"/>
+      <c r="B987" s="13"/>
     </row>
     <row r="988">
-      <c r="B988" s="9"/>
+      <c r="B988" s="13"/>
     </row>
     <row r="989">
-      <c r="B989" s="9"/>
+      <c r="B989" s="13"/>
     </row>
     <row r="990">
-      <c r="B990" s="9"/>
+      <c r="B990" s="13"/>
     </row>
     <row r="991">
-      <c r="B991" s="9"/>
+      <c r="B991" s="13"/>
     </row>
     <row r="992">
-      <c r="B992" s="9"/>
+      <c r="B992" s="13"/>
     </row>
     <row r="993">
-      <c r="B993" s="9"/>
+      <c r="B993" s="13"/>
     </row>
     <row r="994">
-      <c r="B994" s="9"/>
+      <c r="B994" s="13"/>
     </row>
     <row r="995">
-      <c r="B995" s="9"/>
+      <c r="B995" s="13"/>
     </row>
     <row r="996">
-      <c r="B996" s="9"/>
+      <c r="B996" s="13"/>
     </row>
     <row r="997">
-      <c r="B997" s="9"/>
+      <c r="B997" s="13"/>
     </row>
     <row r="998">
-      <c r="B998" s="9"/>
+      <c r="B998" s="13"/>
     </row>
     <row r="999">
-      <c r="B999" s="9"/>
+      <c r="B999" s="13"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="13"/>
+    </row>
+    <row r="1001">
+      <c r="B1001" s="13"/>
+    </row>
+    <row r="1002">
+      <c r="B1002" s="13"/>
+    </row>
+    <row r="1003">
+      <c r="B1003" s="13"/>
+    </row>
+    <row r="1004">
+      <c r="B1004" s="13"/>
+    </row>
+    <row r="1005">
+      <c r="B1005" s="13"/>
+    </row>
+    <row r="1006">
+      <c r="B1006" s="13"/>
+    </row>
+    <row r="1007">
+      <c r="B1007" s="13"/>
+    </row>
+    <row r="1008">
+      <c r="B1008" s="13"/>
+    </row>
+    <row r="1009">
+      <c r="B1009" s="13"/>
+    </row>
+    <row r="1010">
+      <c r="B1010" s="13"/>
+    </row>
+    <row r="1011">
+      <c r="B1011" s="13"/>
+    </row>
+    <row r="1012">
+      <c r="B1012" s="13"/>
+    </row>
+    <row r="1013">
+      <c r="B1013" s="13"/>
+    </row>
+    <row r="1014">
+      <c r="B1014" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
     <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B13"/>
-    <hyperlink r:id="rId5" ref="B14"/>
-    <hyperlink r:id="rId6" ref="B15"/>
-    <hyperlink r:id="rId7" ref="B16"/>
-    <hyperlink r:id="rId8" ref="B17"/>
-    <hyperlink r:id="rId9" ref="B18"/>
-    <hyperlink r:id="rId10" ref="B19"/>
-    <hyperlink r:id="rId11" ref="B20"/>
-    <hyperlink r:id="rId12" ref="B21"/>
-    <hyperlink r:id="rId13" ref="B22"/>
+    <hyperlink r:id="rId4" ref="B14"/>
+    <hyperlink r:id="rId5" ref="B15"/>
+    <hyperlink r:id="rId6" ref="B16"/>
+    <hyperlink r:id="rId7" ref="B17"/>
+    <hyperlink r:id="rId8" ref="B19"/>
+    <hyperlink r:id="rId9" ref="B20"/>
+    <hyperlink r:id="rId10" ref="B21"/>
+    <hyperlink r:id="rId11" ref="B22"/>
+    <hyperlink r:id="rId12" ref="B23"/>
+    <hyperlink r:id="rId13" ref="B25"/>
+    <hyperlink r:id="rId14" ref="B28"/>
+    <hyperlink r:id="rId15" ref="B29"/>
+    <hyperlink r:id="rId16" ref="B31"/>
+    <hyperlink r:id="rId17" ref="B32"/>
+    <hyperlink r:id="rId18" ref="B33"/>
+    <hyperlink r:id="rId19" ref="B34"/>
+    <hyperlink r:id="rId20" ref="B35"/>
+    <hyperlink r:id="rId21" ref="B36"/>
+    <hyperlink r:id="rId22" ref="B37"/>
+    <hyperlink r:id="rId23" ref="B38"/>
+    <hyperlink r:id="rId24" ref="B39"/>
+    <hyperlink r:id="rId25" ref="B40"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/Data/locations.xlsx
+++ b/Data/locations.xlsx
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -342,6 +342,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -624,4057 +625,4213 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="str">
+        <f t="shared" ref="A2:A40" si="1">"Run GS for "&amp;C2</f>
+        <v>Run GS for caacn</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="D2" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G2" s="8">
         <v>1.0</v>
       </c>
-      <c r="H2" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="H2" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J2" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caacr</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>1.0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0.0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0.0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>0.0</v>
       </c>
-      <c r="H3" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="H3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J3" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caacs</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="D4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="8">
         <v>1.0</v>
       </c>
-      <c r="H4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="H4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J4" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caaed</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="D5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="8">
         <v>1.0</v>
       </c>
-      <c r="H5" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="H5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J5" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cabam</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="D6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="8">
         <v>1.0</v>
       </c>
-      <c r="H6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="H6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cablo</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="D7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="8">
         <v>1.0</v>
       </c>
-      <c r="H7" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="H7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cabru</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="D8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="8">
         <v>1.0</v>
       </c>
-      <c r="H8" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="H8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cadan</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="D9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="8">
         <v>1.0</v>
       </c>
-      <c r="H9" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="H9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J9" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cadll</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="D10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G10" s="8">
         <v>1.0</v>
       </c>
-      <c r="H10" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="H10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J10" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caoms</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="D11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="8">
         <v>1.0</v>
       </c>
-      <c r="H11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="H11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J11" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caulm</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="D12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="8">
         <v>1.0</v>
       </c>
-      <c r="H12" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="H12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J12" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coabd</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>1.0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>0.0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>0.0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>0.0</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>1.0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>0.0</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coama</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="D14" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G14" s="7">
         <v>1.0</v>
       </c>
-      <c r="H14" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="H14" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J14" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coamc</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="D15" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="7">
         <v>1.0</v>
       </c>
-      <c r="H15" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="H15" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J15" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coaml</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="D16" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="7">
         <v>1.0</v>
       </c>
-      <c r="H16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J16" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasc</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>1.0</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>0.0</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>0.0</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>0.0</v>
       </c>
-      <c r="H17" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="H17" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J17" s="11">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasl</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>1.0</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>0.0</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>0.0</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>0.0</v>
       </c>
-      <c r="H18" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="H18" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J18" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasr</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>1.0</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <v>0.0</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>0.0</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>0.0</v>
       </c>
-      <c r="H19" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="H19" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J19" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasw</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>1.0</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>0.0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>0.0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>0.0</v>
       </c>
-      <c r="H20" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="H20" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J20" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavc</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="7">
         <v>3.0</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>1.0</v>
       </c>
-      <c r="H21" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H21" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J21" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavl</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="D22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="7">
         <v>3.0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>1.0</v>
       </c>
-      <c r="H22" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="H22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J22" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavr</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="D23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="7">
         <v>3.0</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <v>1.0</v>
       </c>
-      <c r="H23" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="H23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J23" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavw</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="7">
         <v>3.0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>1.0</v>
       </c>
-      <c r="H24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="H24" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J24" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for copvp</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="D25" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="7">
         <v>1.0</v>
       </c>
-      <c r="H25" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="H25" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J25" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coroa</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="D26" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G26" s="7">
         <v>1.0</v>
       </c>
-      <c r="H26" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="H26" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J26" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for corod</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="D27" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G27" s="7">
         <v>1.0</v>
       </c>
-      <c r="H27" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="H27" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J27" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for corol</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="D28" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G28" s="7">
         <v>1.0</v>
       </c>
-      <c r="H28" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="H28" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J28" s="7">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cotsf</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="D29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="7">
         <v>3.0</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>1.0</v>
       </c>
-      <c r="H29" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="H29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J29" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cotsn</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="D30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="7">
         <v>1.0</v>
       </c>
-      <c r="H30" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="H30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J30" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orccf</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="D31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G31" s="7">
         <v>1.0</v>
       </c>
-      <c r="H31" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="H31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J31" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcmf</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="D32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G32" s="7">
         <v>1.0</v>
       </c>
-      <c r="H32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="H32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J32" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcmp</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="7">
         <v>1.0</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <v>0.0</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <v>1.0</v>
       </c>
-      <c r="H33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="H33" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J33" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcms</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="8">
         <v>1.0</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <v>0.0</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>1.0</v>
       </c>
-      <c r="H34" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="H34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J34" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcmt</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D35" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="8">
         <v>1.0</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <v>0.0</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>1.0</v>
       </c>
-      <c r="H35" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="H35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J35" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormac</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="8">
         <v>1.0</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="7">
         <v>0.0</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="8">
         <v>1.0</v>
       </c>
-      <c r="H36" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I36" s="7">
+      <c r="H36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I36" s="8">
         <v>1.0</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormlm</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="D37" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G37" s="8">
         <v>1.0</v>
       </c>
-      <c r="H37" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="H37" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J37" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormmm</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="D38" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G38" s="8">
         <v>1.0</v>
       </c>
-      <c r="H38" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J38" s="7">
+      <c r="H38" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J38" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormsm</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="D39" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G39" s="8">
         <v>1.0</v>
       </c>
-      <c r="H39" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="H39" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I39" s="8">
         <v>3.0</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormwl</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="D40" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="8">
         <v>1.0</v>
       </c>
-      <c r="H40" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="H40" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J40" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42">
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43">
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44">
-      <c r="B44" s="13"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45">
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46">
-      <c r="B46" s="13"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47">
-      <c r="B47" s="13"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48">
-      <c r="B48" s="13"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49">
-      <c r="B49" s="13"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50">
-      <c r="B50" s="13"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51">
-      <c r="B51" s="13"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52">
-      <c r="B52" s="13"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53">
-      <c r="B53" s="13"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54">
-      <c r="B54" s="13"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55">
-      <c r="B55" s="13"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56">
-      <c r="B56" s="13"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57">
-      <c r="B57" s="13"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58">
-      <c r="B58" s="13"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59">
-      <c r="B59" s="13"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60">
-      <c r="B60" s="13"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61">
-      <c r="B61" s="13"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62">
-      <c r="B62" s="13"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63">
-      <c r="B63" s="13"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64">
-      <c r="B64" s="13"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65">
-      <c r="B65" s="13"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66">
-      <c r="B66" s="13"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67">
-      <c r="B67" s="13"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68">
-      <c r="B68" s="13"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69">
-      <c r="B69" s="13"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70">
-      <c r="B70" s="13"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71">
-      <c r="B71" s="13"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72">
-      <c r="B72" s="13"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73">
-      <c r="B73" s="13"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74">
-      <c r="B74" s="13"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75">
-      <c r="B75" s="13"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76">
-      <c r="B76" s="13"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77">
-      <c r="B77" s="13"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78">
-      <c r="B78" s="13"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79">
-      <c r="B79" s="13"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80">
-      <c r="B80" s="13"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81">
-      <c r="B81" s="13"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82">
-      <c r="B82" s="13"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83">
-      <c r="B83" s="13"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84">
-      <c r="B84" s="13"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85">
-      <c r="B85" s="13"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86">
-      <c r="B86" s="13"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87">
-      <c r="B87" s="13"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88">
-      <c r="B88" s="13"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89">
-      <c r="B89" s="13"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90">
-      <c r="B90" s="13"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91">
-      <c r="B91" s="13"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92">
-      <c r="B92" s="13"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93">
-      <c r="B93" s="13"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94">
-      <c r="B94" s="13"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95">
-      <c r="B95" s="13"/>
+      <c r="B95" s="14"/>
     </row>
     <row r="96">
-      <c r="B96" s="13"/>
+      <c r="B96" s="14"/>
     </row>
     <row r="97">
-      <c r="B97" s="13"/>
+      <c r="B97" s="14"/>
     </row>
     <row r="98">
-      <c r="B98" s="13"/>
+      <c r="B98" s="14"/>
     </row>
     <row r="99">
-      <c r="B99" s="13"/>
+      <c r="B99" s="14"/>
     </row>
     <row r="100">
-      <c r="B100" s="13"/>
+      <c r="B100" s="14"/>
     </row>
     <row r="101">
-      <c r="B101" s="13"/>
+      <c r="B101" s="14"/>
     </row>
     <row r="102">
-      <c r="B102" s="13"/>
+      <c r="B102" s="14"/>
     </row>
     <row r="103">
-      <c r="B103" s="13"/>
+      <c r="B103" s="14"/>
     </row>
     <row r="104">
-      <c r="B104" s="13"/>
+      <c r="B104" s="14"/>
     </row>
     <row r="105">
-      <c r="B105" s="13"/>
+      <c r="B105" s="14"/>
     </row>
     <row r="106">
-      <c r="B106" s="13"/>
+      <c r="B106" s="14"/>
     </row>
     <row r="107">
-      <c r="B107" s="13"/>
+      <c r="B107" s="14"/>
     </row>
     <row r="108">
-      <c r="B108" s="13"/>
+      <c r="B108" s="14"/>
     </row>
     <row r="109">
-      <c r="B109" s="13"/>
+      <c r="B109" s="14"/>
     </row>
     <row r="110">
-      <c r="B110" s="13"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111">
-      <c r="B111" s="13"/>
+      <c r="B111" s="14"/>
     </row>
     <row r="112">
-      <c r="B112" s="13"/>
+      <c r="B112" s="14"/>
     </row>
     <row r="113">
-      <c r="B113" s="13"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114">
-      <c r="B114" s="13"/>
+      <c r="B114" s="14"/>
     </row>
     <row r="115">
-      <c r="B115" s="13"/>
+      <c r="B115" s="14"/>
     </row>
     <row r="116">
-      <c r="B116" s="13"/>
+      <c r="B116" s="14"/>
     </row>
     <row r="117">
-      <c r="B117" s="13"/>
+      <c r="B117" s="14"/>
     </row>
     <row r="118">
-      <c r="B118" s="13"/>
+      <c r="B118" s="14"/>
     </row>
     <row r="119">
-      <c r="B119" s="13"/>
+      <c r="B119" s="14"/>
     </row>
     <row r="120">
-      <c r="B120" s="13"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121">
-      <c r="B121" s="13"/>
+      <c r="B121" s="14"/>
     </row>
     <row r="122">
-      <c r="B122" s="13"/>
+      <c r="B122" s="14"/>
     </row>
     <row r="123">
-      <c r="B123" s="13"/>
+      <c r="B123" s="14"/>
     </row>
     <row r="124">
-      <c r="B124" s="13"/>
+      <c r="B124" s="14"/>
     </row>
     <row r="125">
-      <c r="B125" s="13"/>
+      <c r="B125" s="14"/>
     </row>
     <row r="126">
-      <c r="B126" s="13"/>
+      <c r="B126" s="14"/>
     </row>
     <row r="127">
-      <c r="B127" s="13"/>
+      <c r="B127" s="14"/>
     </row>
     <row r="128">
-      <c r="B128" s="13"/>
+      <c r="B128" s="14"/>
     </row>
     <row r="129">
-      <c r="B129" s="13"/>
+      <c r="B129" s="14"/>
     </row>
     <row r="130">
-      <c r="B130" s="13"/>
+      <c r="B130" s="14"/>
     </row>
     <row r="131">
-      <c r="B131" s="13"/>
+      <c r="B131" s="14"/>
     </row>
     <row r="132">
-      <c r="B132" s="13"/>
+      <c r="B132" s="14"/>
     </row>
     <row r="133">
-      <c r="B133" s="13"/>
+      <c r="B133" s="14"/>
     </row>
     <row r="134">
-      <c r="B134" s="13"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135">
-      <c r="B135" s="13"/>
+      <c r="B135" s="14"/>
     </row>
     <row r="136">
-      <c r="B136" s="13"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137">
-      <c r="B137" s="13"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138">
-      <c r="B138" s="13"/>
+      <c r="B138" s="14"/>
     </row>
     <row r="139">
-      <c r="B139" s="13"/>
+      <c r="B139" s="14"/>
     </row>
     <row r="140">
-      <c r="B140" s="13"/>
+      <c r="B140" s="14"/>
     </row>
     <row r="141">
-      <c r="B141" s="13"/>
+      <c r="B141" s="14"/>
     </row>
     <row r="142">
-      <c r="B142" s="13"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143">
-      <c r="B143" s="13"/>
+      <c r="B143" s="14"/>
     </row>
     <row r="144">
-      <c r="B144" s="13"/>
+      <c r="B144" s="14"/>
     </row>
     <row r="145">
-      <c r="B145" s="13"/>
+      <c r="B145" s="14"/>
     </row>
     <row r="146">
-      <c r="B146" s="13"/>
+      <c r="B146" s="14"/>
     </row>
     <row r="147">
-      <c r="B147" s="13"/>
+      <c r="B147" s="14"/>
     </row>
     <row r="148">
-      <c r="B148" s="13"/>
+      <c r="B148" s="14"/>
     </row>
     <row r="149">
-      <c r="B149" s="13"/>
+      <c r="B149" s="14"/>
     </row>
     <row r="150">
-      <c r="B150" s="13"/>
+      <c r="B150" s="14"/>
     </row>
     <row r="151">
-      <c r="B151" s="13"/>
+      <c r="B151" s="14"/>
     </row>
     <row r="152">
-      <c r="B152" s="13"/>
+      <c r="B152" s="14"/>
     </row>
     <row r="153">
-      <c r="B153" s="13"/>
+      <c r="B153" s="14"/>
     </row>
     <row r="154">
-      <c r="B154" s="13"/>
+      <c r="B154" s="14"/>
     </row>
     <row r="155">
-      <c r="B155" s="13"/>
+      <c r="B155" s="14"/>
     </row>
     <row r="156">
-      <c r="B156" s="13"/>
+      <c r="B156" s="14"/>
     </row>
     <row r="157">
-      <c r="B157" s="13"/>
+      <c r="B157" s="14"/>
     </row>
     <row r="158">
-      <c r="B158" s="13"/>
+      <c r="B158" s="14"/>
     </row>
     <row r="159">
-      <c r="B159" s="13"/>
+      <c r="B159" s="14"/>
     </row>
     <row r="160">
-      <c r="B160" s="13"/>
+      <c r="B160" s="14"/>
     </row>
     <row r="161">
-      <c r="B161" s="13"/>
+      <c r="B161" s="14"/>
     </row>
     <row r="162">
-      <c r="B162" s="13"/>
+      <c r="B162" s="14"/>
     </row>
     <row r="163">
-      <c r="B163" s="13"/>
+      <c r="B163" s="14"/>
     </row>
     <row r="164">
-      <c r="B164" s="13"/>
+      <c r="B164" s="14"/>
     </row>
     <row r="165">
-      <c r="B165" s="13"/>
+      <c r="B165" s="14"/>
     </row>
     <row r="166">
-      <c r="B166" s="13"/>
+      <c r="B166" s="14"/>
     </row>
     <row r="167">
-      <c r="B167" s="13"/>
+      <c r="B167" s="14"/>
     </row>
     <row r="168">
-      <c r="B168" s="13"/>
+      <c r="B168" s="14"/>
     </row>
     <row r="169">
-      <c r="B169" s="13"/>
+      <c r="B169" s="14"/>
     </row>
     <row r="170">
-      <c r="B170" s="13"/>
+      <c r="B170" s="14"/>
     </row>
     <row r="171">
-      <c r="B171" s="13"/>
+      <c r="B171" s="14"/>
     </row>
     <row r="172">
-      <c r="B172" s="13"/>
+      <c r="B172" s="14"/>
     </row>
     <row r="173">
-      <c r="B173" s="13"/>
+      <c r="B173" s="14"/>
     </row>
     <row r="174">
-      <c r="B174" s="13"/>
+      <c r="B174" s="14"/>
     </row>
     <row r="175">
-      <c r="B175" s="13"/>
+      <c r="B175" s="14"/>
     </row>
     <row r="176">
-      <c r="B176" s="13"/>
+      <c r="B176" s="14"/>
     </row>
     <row r="177">
-      <c r="B177" s="13"/>
+      <c r="B177" s="14"/>
     </row>
     <row r="178">
-      <c r="B178" s="13"/>
+      <c r="B178" s="14"/>
     </row>
     <row r="179">
-      <c r="B179" s="13"/>
+      <c r="B179" s="14"/>
     </row>
     <row r="180">
-      <c r="B180" s="13"/>
+      <c r="B180" s="14"/>
     </row>
     <row r="181">
-      <c r="B181" s="13"/>
+      <c r="B181" s="14"/>
     </row>
     <row r="182">
-      <c r="B182" s="13"/>
+      <c r="B182" s="14"/>
     </row>
     <row r="183">
-      <c r="B183" s="13"/>
+      <c r="B183" s="14"/>
     </row>
     <row r="184">
-      <c r="B184" s="13"/>
+      <c r="B184" s="14"/>
     </row>
     <row r="185">
-      <c r="B185" s="13"/>
+      <c r="B185" s="14"/>
     </row>
     <row r="186">
-      <c r="B186" s="13"/>
+      <c r="B186" s="14"/>
     </row>
     <row r="187">
-      <c r="B187" s="13"/>
+      <c r="B187" s="14"/>
     </row>
     <row r="188">
-      <c r="B188" s="13"/>
+      <c r="B188" s="14"/>
     </row>
     <row r="189">
-      <c r="B189" s="13"/>
+      <c r="B189" s="14"/>
     </row>
     <row r="190">
-      <c r="B190" s="13"/>
+      <c r="B190" s="14"/>
     </row>
     <row r="191">
-      <c r="B191" s="13"/>
+      <c r="B191" s="14"/>
     </row>
     <row r="192">
-      <c r="B192" s="13"/>
+      <c r="B192" s="14"/>
     </row>
     <row r="193">
-      <c r="B193" s="13"/>
+      <c r="B193" s="14"/>
     </row>
     <row r="194">
-      <c r="B194" s="13"/>
+      <c r="B194" s="14"/>
     </row>
     <row r="195">
-      <c r="B195" s="13"/>
+      <c r="B195" s="14"/>
     </row>
     <row r="196">
-      <c r="B196" s="13"/>
+      <c r="B196" s="14"/>
     </row>
     <row r="197">
-      <c r="B197" s="13"/>
+      <c r="B197" s="14"/>
     </row>
     <row r="198">
-      <c r="B198" s="13"/>
+      <c r="B198" s="14"/>
     </row>
     <row r="199">
-      <c r="B199" s="13"/>
+      <c r="B199" s="14"/>
     </row>
     <row r="200">
-      <c r="B200" s="13"/>
+      <c r="B200" s="14"/>
     </row>
     <row r="201">
-      <c r="B201" s="13"/>
+      <c r="B201" s="14"/>
     </row>
     <row r="202">
-      <c r="B202" s="13"/>
+      <c r="B202" s="14"/>
     </row>
     <row r="203">
-      <c r="B203" s="13"/>
+      <c r="B203" s="14"/>
     </row>
     <row r="204">
-      <c r="B204" s="13"/>
+      <c r="B204" s="14"/>
     </row>
     <row r="205">
-      <c r="B205" s="13"/>
+      <c r="B205" s="14"/>
     </row>
     <row r="206">
-      <c r="B206" s="13"/>
+      <c r="B206" s="14"/>
     </row>
     <row r="207">
-      <c r="B207" s="13"/>
+      <c r="B207" s="14"/>
     </row>
     <row r="208">
-      <c r="B208" s="13"/>
+      <c r="B208" s="14"/>
     </row>
     <row r="209">
-      <c r="B209" s="13"/>
+      <c r="B209" s="14"/>
     </row>
     <row r="210">
-      <c r="B210" s="13"/>
+      <c r="B210" s="14"/>
     </row>
     <row r="211">
-      <c r="B211" s="13"/>
+      <c r="B211" s="14"/>
     </row>
     <row r="212">
-      <c r="B212" s="13"/>
+      <c r="B212" s="14"/>
     </row>
     <row r="213">
-      <c r="B213" s="13"/>
+      <c r="B213" s="14"/>
     </row>
     <row r="214">
-      <c r="B214" s="13"/>
+      <c r="B214" s="14"/>
     </row>
     <row r="215">
-      <c r="B215" s="13"/>
+      <c r="B215" s="14"/>
     </row>
     <row r="216">
-      <c r="B216" s="13"/>
+      <c r="B216" s="14"/>
     </row>
     <row r="217">
-      <c r="B217" s="13"/>
+      <c r="B217" s="14"/>
     </row>
     <row r="218">
-      <c r="B218" s="13"/>
+      <c r="B218" s="14"/>
     </row>
     <row r="219">
-      <c r="B219" s="13"/>
+      <c r="B219" s="14"/>
     </row>
     <row r="220">
-      <c r="B220" s="13"/>
+      <c r="B220" s="14"/>
     </row>
     <row r="221">
-      <c r="B221" s="13"/>
+      <c r="B221" s="14"/>
     </row>
     <row r="222">
-      <c r="B222" s="13"/>
+      <c r="B222" s="14"/>
     </row>
     <row r="223">
-      <c r="B223" s="13"/>
+      <c r="B223" s="14"/>
     </row>
     <row r="224">
-      <c r="B224" s="13"/>
+      <c r="B224" s="14"/>
     </row>
     <row r="225">
-      <c r="B225" s="13"/>
+      <c r="B225" s="14"/>
     </row>
     <row r="226">
-      <c r="B226" s="13"/>
+      <c r="B226" s="14"/>
     </row>
     <row r="227">
-      <c r="B227" s="13"/>
+      <c r="B227" s="14"/>
     </row>
     <row r="228">
-      <c r="B228" s="13"/>
+      <c r="B228" s="14"/>
     </row>
     <row r="229">
-      <c r="B229" s="13"/>
+      <c r="B229" s="14"/>
     </row>
     <row r="230">
-      <c r="B230" s="13"/>
+      <c r="B230" s="14"/>
     </row>
     <row r="231">
-      <c r="B231" s="13"/>
+      <c r="B231" s="14"/>
     </row>
     <row r="232">
-      <c r="B232" s="13"/>
+      <c r="B232" s="14"/>
     </row>
     <row r="233">
-      <c r="B233" s="13"/>
+      <c r="B233" s="14"/>
     </row>
     <row r="234">
-      <c r="B234" s="13"/>
+      <c r="B234" s="14"/>
     </row>
     <row r="235">
-      <c r="B235" s="13"/>
+      <c r="B235" s="14"/>
     </row>
     <row r="236">
-      <c r="B236" s="13"/>
+      <c r="B236" s="14"/>
     </row>
     <row r="237">
-      <c r="B237" s="13"/>
+      <c r="B237" s="14"/>
     </row>
     <row r="238">
-      <c r="B238" s="13"/>
+      <c r="B238" s="14"/>
     </row>
     <row r="239">
-      <c r="B239" s="13"/>
+      <c r="B239" s="14"/>
     </row>
     <row r="240">
-      <c r="B240" s="13"/>
+      <c r="B240" s="14"/>
     </row>
     <row r="241">
-      <c r="B241" s="13"/>
+      <c r="B241" s="14"/>
     </row>
     <row r="242">
-      <c r="B242" s="13"/>
+      <c r="B242" s="14"/>
     </row>
     <row r="243">
-      <c r="B243" s="13"/>
+      <c r="B243" s="14"/>
     </row>
     <row r="244">
-      <c r="B244" s="13"/>
+      <c r="B244" s="14"/>
     </row>
     <row r="245">
-      <c r="B245" s="13"/>
+      <c r="B245" s="14"/>
     </row>
     <row r="246">
-      <c r="B246" s="13"/>
+      <c r="B246" s="14"/>
     </row>
     <row r="247">
-      <c r="B247" s="13"/>
+      <c r="B247" s="14"/>
     </row>
     <row r="248">
-      <c r="B248" s="13"/>
+      <c r="B248" s="14"/>
     </row>
     <row r="249">
-      <c r="B249" s="13"/>
+      <c r="B249" s="14"/>
     </row>
     <row r="250">
-      <c r="B250" s="13"/>
+      <c r="B250" s="14"/>
     </row>
     <row r="251">
-      <c r="B251" s="13"/>
+      <c r="B251" s="14"/>
     </row>
     <row r="252">
-      <c r="B252" s="13"/>
+      <c r="B252" s="14"/>
     </row>
     <row r="253">
-      <c r="B253" s="13"/>
+      <c r="B253" s="14"/>
     </row>
     <row r="254">
-      <c r="B254" s="13"/>
+      <c r="B254" s="14"/>
     </row>
     <row r="255">
-      <c r="B255" s="13"/>
+      <c r="B255" s="14"/>
     </row>
     <row r="256">
-      <c r="B256" s="13"/>
+      <c r="B256" s="14"/>
     </row>
     <row r="257">
-      <c r="B257" s="13"/>
+      <c r="B257" s="14"/>
     </row>
     <row r="258">
-      <c r="B258" s="13"/>
+      <c r="B258" s="14"/>
     </row>
     <row r="259">
-      <c r="B259" s="13"/>
+      <c r="B259" s="14"/>
     </row>
     <row r="260">
-      <c r="B260" s="13"/>
+      <c r="B260" s="14"/>
     </row>
     <row r="261">
-      <c r="B261" s="13"/>
+      <c r="B261" s="14"/>
     </row>
     <row r="262">
-      <c r="B262" s="13"/>
+      <c r="B262" s="14"/>
     </row>
     <row r="263">
-      <c r="B263" s="13"/>
+      <c r="B263" s="14"/>
     </row>
     <row r="264">
-      <c r="B264" s="13"/>
+      <c r="B264" s="14"/>
     </row>
     <row r="265">
-      <c r="B265" s="13"/>
+      <c r="B265" s="14"/>
     </row>
     <row r="266">
-      <c r="B266" s="13"/>
+      <c r="B266" s="14"/>
     </row>
     <row r="267">
-      <c r="B267" s="13"/>
+      <c r="B267" s="14"/>
     </row>
     <row r="268">
-      <c r="B268" s="13"/>
+      <c r="B268" s="14"/>
     </row>
     <row r="269">
-      <c r="B269" s="13"/>
+      <c r="B269" s="14"/>
     </row>
     <row r="270">
-      <c r="B270" s="13"/>
+      <c r="B270" s="14"/>
     </row>
     <row r="271">
-      <c r="B271" s="13"/>
+      <c r="B271" s="14"/>
     </row>
     <row r="272">
-      <c r="B272" s="13"/>
+      <c r="B272" s="14"/>
     </row>
     <row r="273">
-      <c r="B273" s="13"/>
+      <c r="B273" s="14"/>
     </row>
     <row r="274">
-      <c r="B274" s="13"/>
+      <c r="B274" s="14"/>
     </row>
     <row r="275">
-      <c r="B275" s="13"/>
+      <c r="B275" s="14"/>
     </row>
     <row r="276">
-      <c r="B276" s="13"/>
+      <c r="B276" s="14"/>
     </row>
     <row r="277">
-      <c r="B277" s="13"/>
+      <c r="B277" s="14"/>
     </row>
     <row r="278">
-      <c r="B278" s="13"/>
+      <c r="B278" s="14"/>
     </row>
     <row r="279">
-      <c r="B279" s="13"/>
+      <c r="B279" s="14"/>
     </row>
     <row r="280">
-      <c r="B280" s="13"/>
+      <c r="B280" s="14"/>
     </row>
     <row r="281">
-      <c r="B281" s="13"/>
+      <c r="B281" s="14"/>
     </row>
     <row r="282">
-      <c r="B282" s="13"/>
+      <c r="B282" s="14"/>
     </row>
     <row r="283">
-      <c r="B283" s="13"/>
+      <c r="B283" s="14"/>
     </row>
     <row r="284">
-      <c r="B284" s="13"/>
+      <c r="B284" s="14"/>
     </row>
     <row r="285">
-      <c r="B285" s="13"/>
+      <c r="B285" s="14"/>
     </row>
     <row r="286">
-      <c r="B286" s="13"/>
+      <c r="B286" s="14"/>
     </row>
     <row r="287">
-      <c r="B287" s="13"/>
+      <c r="B287" s="14"/>
     </row>
     <row r="288">
-      <c r="B288" s="13"/>
+      <c r="B288" s="14"/>
     </row>
     <row r="289">
-      <c r="B289" s="13"/>
+      <c r="B289" s="14"/>
     </row>
     <row r="290">
-      <c r="B290" s="13"/>
+      <c r="B290" s="14"/>
     </row>
     <row r="291">
-      <c r="B291" s="13"/>
+      <c r="B291" s="14"/>
     </row>
     <row r="292">
-      <c r="B292" s="13"/>
+      <c r="B292" s="14"/>
     </row>
     <row r="293">
-      <c r="B293" s="13"/>
+      <c r="B293" s="14"/>
     </row>
     <row r="294">
-      <c r="B294" s="13"/>
+      <c r="B294" s="14"/>
     </row>
     <row r="295">
-      <c r="B295" s="13"/>
+      <c r="B295" s="14"/>
     </row>
     <row r="296">
-      <c r="B296" s="13"/>
+      <c r="B296" s="14"/>
     </row>
     <row r="297">
-      <c r="B297" s="13"/>
+      <c r="B297" s="14"/>
     </row>
     <row r="298">
-      <c r="B298" s="13"/>
+      <c r="B298" s="14"/>
     </row>
     <row r="299">
-      <c r="B299" s="13"/>
+      <c r="B299" s="14"/>
     </row>
     <row r="300">
-      <c r="B300" s="13"/>
+      <c r="B300" s="14"/>
     </row>
     <row r="301">
-      <c r="B301" s="13"/>
+      <c r="B301" s="14"/>
     </row>
     <row r="302">
-      <c r="B302" s="13"/>
+      <c r="B302" s="14"/>
     </row>
     <row r="303">
-      <c r="B303" s="13"/>
+      <c r="B303" s="14"/>
     </row>
     <row r="304">
-      <c r="B304" s="13"/>
+      <c r="B304" s="14"/>
     </row>
     <row r="305">
-      <c r="B305" s="13"/>
+      <c r="B305" s="14"/>
     </row>
     <row r="306">
-      <c r="B306" s="13"/>
+      <c r="B306" s="14"/>
     </row>
     <row r="307">
-      <c r="B307" s="13"/>
+      <c r="B307" s="14"/>
     </row>
     <row r="308">
-      <c r="B308" s="13"/>
+      <c r="B308" s="14"/>
     </row>
     <row r="309">
-      <c r="B309" s="13"/>
+      <c r="B309" s="14"/>
     </row>
     <row r="310">
-      <c r="B310" s="13"/>
+      <c r="B310" s="14"/>
     </row>
     <row r="311">
-      <c r="B311" s="13"/>
+      <c r="B311" s="14"/>
     </row>
     <row r="312">
-      <c r="B312" s="13"/>
+      <c r="B312" s="14"/>
     </row>
     <row r="313">
-      <c r="B313" s="13"/>
+      <c r="B313" s="14"/>
     </row>
     <row r="314">
-      <c r="B314" s="13"/>
+      <c r="B314" s="14"/>
     </row>
     <row r="315">
-      <c r="B315" s="13"/>
+      <c r="B315" s="14"/>
     </row>
     <row r="316">
-      <c r="B316" s="13"/>
+      <c r="B316" s="14"/>
     </row>
     <row r="317">
-      <c r="B317" s="13"/>
+      <c r="B317" s="14"/>
     </row>
     <row r="318">
-      <c r="B318" s="13"/>
+      <c r="B318" s="14"/>
     </row>
     <row r="319">
-      <c r="B319" s="13"/>
+      <c r="B319" s="14"/>
     </row>
     <row r="320">
-      <c r="B320" s="13"/>
+      <c r="B320" s="14"/>
     </row>
     <row r="321">
-      <c r="B321" s="13"/>
+      <c r="B321" s="14"/>
     </row>
     <row r="322">
-      <c r="B322" s="13"/>
+      <c r="B322" s="14"/>
     </row>
     <row r="323">
-      <c r="B323" s="13"/>
+      <c r="B323" s="14"/>
     </row>
     <row r="324">
-      <c r="B324" s="13"/>
+      <c r="B324" s="14"/>
     </row>
     <row r="325">
-      <c r="B325" s="13"/>
+      <c r="B325" s="14"/>
     </row>
     <row r="326">
-      <c r="B326" s="13"/>
+      <c r="B326" s="14"/>
     </row>
     <row r="327">
-      <c r="B327" s="13"/>
+      <c r="B327" s="14"/>
     </row>
     <row r="328">
-      <c r="B328" s="13"/>
+      <c r="B328" s="14"/>
     </row>
     <row r="329">
-      <c r="B329" s="13"/>
+      <c r="B329" s="14"/>
     </row>
     <row r="330">
-      <c r="B330" s="13"/>
+      <c r="B330" s="14"/>
     </row>
     <row r="331">
-      <c r="B331" s="13"/>
+      <c r="B331" s="14"/>
     </row>
     <row r="332">
-      <c r="B332" s="13"/>
+      <c r="B332" s="14"/>
     </row>
     <row r="333">
-      <c r="B333" s="13"/>
+      <c r="B333" s="14"/>
     </row>
     <row r="334">
-      <c r="B334" s="13"/>
+      <c r="B334" s="14"/>
     </row>
     <row r="335">
-      <c r="B335" s="13"/>
+      <c r="B335" s="14"/>
     </row>
     <row r="336">
-      <c r="B336" s="13"/>
+      <c r="B336" s="14"/>
     </row>
     <row r="337">
-      <c r="B337" s="13"/>
+      <c r="B337" s="14"/>
     </row>
     <row r="338">
-      <c r="B338" s="13"/>
+      <c r="B338" s="14"/>
     </row>
     <row r="339">
-      <c r="B339" s="13"/>
+      <c r="B339" s="14"/>
     </row>
     <row r="340">
-      <c r="B340" s="13"/>
+      <c r="B340" s="14"/>
     </row>
     <row r="341">
-      <c r="B341" s="13"/>
+      <c r="B341" s="14"/>
     </row>
     <row r="342">
-      <c r="B342" s="13"/>
+      <c r="B342" s="14"/>
     </row>
     <row r="343">
-      <c r="B343" s="13"/>
+      <c r="B343" s="14"/>
     </row>
     <row r="344">
-      <c r="B344" s="13"/>
+      <c r="B344" s="14"/>
     </row>
     <row r="345">
-      <c r="B345" s="13"/>
+      <c r="B345" s="14"/>
     </row>
     <row r="346">
-      <c r="B346" s="13"/>
+      <c r="B346" s="14"/>
     </row>
     <row r="347">
-      <c r="B347" s="13"/>
+      <c r="B347" s="14"/>
     </row>
     <row r="348">
-      <c r="B348" s="13"/>
+      <c r="B348" s="14"/>
     </row>
     <row r="349">
-      <c r="B349" s="13"/>
+      <c r="B349" s="14"/>
     </row>
     <row r="350">
-      <c r="B350" s="13"/>
+      <c r="B350" s="14"/>
     </row>
     <row r="351">
-      <c r="B351" s="13"/>
+      <c r="B351" s="14"/>
     </row>
     <row r="352">
-      <c r="B352" s="13"/>
+      <c r="B352" s="14"/>
     </row>
     <row r="353">
-      <c r="B353" s="13"/>
+      <c r="B353" s="14"/>
     </row>
     <row r="354">
-      <c r="B354" s="13"/>
+      <c r="B354" s="14"/>
     </row>
     <row r="355">
-      <c r="B355" s="13"/>
+      <c r="B355" s="14"/>
     </row>
     <row r="356">
-      <c r="B356" s="13"/>
+      <c r="B356" s="14"/>
     </row>
     <row r="357">
-      <c r="B357" s="13"/>
+      <c r="B357" s="14"/>
     </row>
     <row r="358">
-      <c r="B358" s="13"/>
+      <c r="B358" s="14"/>
     </row>
     <row r="359">
-      <c r="B359" s="13"/>
+      <c r="B359" s="14"/>
     </row>
     <row r="360">
-      <c r="B360" s="13"/>
+      <c r="B360" s="14"/>
     </row>
     <row r="361">
-      <c r="B361" s="13"/>
+      <c r="B361" s="14"/>
     </row>
     <row r="362">
-      <c r="B362" s="13"/>
+      <c r="B362" s="14"/>
     </row>
     <row r="363">
-      <c r="B363" s="13"/>
+      <c r="B363" s="14"/>
     </row>
     <row r="364">
-      <c r="B364" s="13"/>
+      <c r="B364" s="14"/>
     </row>
     <row r="365">
-      <c r="B365" s="13"/>
+      <c r="B365" s="14"/>
     </row>
     <row r="366">
-      <c r="B366" s="13"/>
+      <c r="B366" s="14"/>
     </row>
     <row r="367">
-      <c r="B367" s="13"/>
+      <c r="B367" s="14"/>
     </row>
     <row r="368">
-      <c r="B368" s="13"/>
+      <c r="B368" s="14"/>
     </row>
     <row r="369">
-      <c r="B369" s="13"/>
+      <c r="B369" s="14"/>
     </row>
     <row r="370">
-      <c r="B370" s="13"/>
+      <c r="B370" s="14"/>
     </row>
     <row r="371">
-      <c r="B371" s="13"/>
+      <c r="B371" s="14"/>
     </row>
     <row r="372">
-      <c r="B372" s="13"/>
+      <c r="B372" s="14"/>
     </row>
     <row r="373">
-      <c r="B373" s="13"/>
+      <c r="B373" s="14"/>
     </row>
     <row r="374">
-      <c r="B374" s="13"/>
+      <c r="B374" s="14"/>
     </row>
     <row r="375">
-      <c r="B375" s="13"/>
+      <c r="B375" s="14"/>
     </row>
     <row r="376">
-      <c r="B376" s="13"/>
+      <c r="B376" s="14"/>
     </row>
     <row r="377">
-      <c r="B377" s="13"/>
+      <c r="B377" s="14"/>
     </row>
     <row r="378">
-      <c r="B378" s="13"/>
+      <c r="B378" s="14"/>
     </row>
     <row r="379">
-      <c r="B379" s="13"/>
+      <c r="B379" s="14"/>
     </row>
     <row r="380">
-      <c r="B380" s="13"/>
+      <c r="B380" s="14"/>
     </row>
     <row r="381">
-      <c r="B381" s="13"/>
+      <c r="B381" s="14"/>
     </row>
     <row r="382">
-      <c r="B382" s="13"/>
+      <c r="B382" s="14"/>
     </row>
     <row r="383">
-      <c r="B383" s="13"/>
+      <c r="B383" s="14"/>
     </row>
     <row r="384">
-      <c r="B384" s="13"/>
+      <c r="B384" s="14"/>
     </row>
     <row r="385">
-      <c r="B385" s="13"/>
+      <c r="B385" s="14"/>
     </row>
     <row r="386">
-      <c r="B386" s="13"/>
+      <c r="B386" s="14"/>
     </row>
     <row r="387">
-      <c r="B387" s="13"/>
+      <c r="B387" s="14"/>
     </row>
     <row r="388">
-      <c r="B388" s="13"/>
+      <c r="B388" s="14"/>
     </row>
     <row r="389">
-      <c r="B389" s="13"/>
+      <c r="B389" s="14"/>
     </row>
     <row r="390">
-      <c r="B390" s="13"/>
+      <c r="B390" s="14"/>
     </row>
     <row r="391">
-      <c r="B391" s="13"/>
+      <c r="B391" s="14"/>
     </row>
     <row r="392">
-      <c r="B392" s="13"/>
+      <c r="B392" s="14"/>
     </row>
     <row r="393">
-      <c r="B393" s="13"/>
+      <c r="B393" s="14"/>
     </row>
     <row r="394">
-      <c r="B394" s="13"/>
+      <c r="B394" s="14"/>
     </row>
     <row r="395">
-      <c r="B395" s="13"/>
+      <c r="B395" s="14"/>
     </row>
     <row r="396">
-      <c r="B396" s="13"/>
+      <c r="B396" s="14"/>
     </row>
     <row r="397">
-      <c r="B397" s="13"/>
+      <c r="B397" s="14"/>
     </row>
     <row r="398">
-      <c r="B398" s="13"/>
+      <c r="B398" s="14"/>
     </row>
     <row r="399">
-      <c r="B399" s="13"/>
+      <c r="B399" s="14"/>
     </row>
     <row r="400">
-      <c r="B400" s="13"/>
+      <c r="B400" s="14"/>
     </row>
     <row r="401">
-      <c r="B401" s="13"/>
+      <c r="B401" s="14"/>
     </row>
     <row r="402">
-      <c r="B402" s="13"/>
+      <c r="B402" s="14"/>
     </row>
     <row r="403">
-      <c r="B403" s="13"/>
+      <c r="B403" s="14"/>
     </row>
     <row r="404">
-      <c r="B404" s="13"/>
+      <c r="B404" s="14"/>
     </row>
     <row r="405">
-      <c r="B405" s="13"/>
+      <c r="B405" s="14"/>
     </row>
     <row r="406">
-      <c r="B406" s="13"/>
+      <c r="B406" s="14"/>
     </row>
     <row r="407">
-      <c r="B407" s="13"/>
+      <c r="B407" s="14"/>
     </row>
     <row r="408">
-      <c r="B408" s="13"/>
+      <c r="B408" s="14"/>
     </row>
     <row r="409">
-      <c r="B409" s="13"/>
+      <c r="B409" s="14"/>
     </row>
     <row r="410">
-      <c r="B410" s="13"/>
+      <c r="B410" s="14"/>
     </row>
     <row r="411">
-      <c r="B411" s="13"/>
+      <c r="B411" s="14"/>
     </row>
     <row r="412">
-      <c r="B412" s="13"/>
+      <c r="B412" s="14"/>
     </row>
     <row r="413">
-      <c r="B413" s="13"/>
+      <c r="B413" s="14"/>
     </row>
     <row r="414">
-      <c r="B414" s="13"/>
+      <c r="B414" s="14"/>
     </row>
     <row r="415">
-      <c r="B415" s="13"/>
+      <c r="B415" s="14"/>
     </row>
     <row r="416">
-      <c r="B416" s="13"/>
+      <c r="B416" s="14"/>
     </row>
     <row r="417">
-      <c r="B417" s="13"/>
+      <c r="B417" s="14"/>
     </row>
     <row r="418">
-      <c r="B418" s="13"/>
+      <c r="B418" s="14"/>
     </row>
     <row r="419">
-      <c r="B419" s="13"/>
+      <c r="B419" s="14"/>
     </row>
     <row r="420">
-      <c r="B420" s="13"/>
+      <c r="B420" s="14"/>
     </row>
     <row r="421">
-      <c r="B421" s="13"/>
+      <c r="B421" s="14"/>
     </row>
     <row r="422">
-      <c r="B422" s="13"/>
+      <c r="B422" s="14"/>
     </row>
     <row r="423">
-      <c r="B423" s="13"/>
+      <c r="B423" s="14"/>
     </row>
     <row r="424">
-      <c r="B424" s="13"/>
+      <c r="B424" s="14"/>
     </row>
     <row r="425">
-      <c r="B425" s="13"/>
+      <c r="B425" s="14"/>
     </row>
     <row r="426">
-      <c r="B426" s="13"/>
+      <c r="B426" s="14"/>
     </row>
     <row r="427">
-      <c r="B427" s="13"/>
+      <c r="B427" s="14"/>
     </row>
     <row r="428">
-      <c r="B428" s="13"/>
+      <c r="B428" s="14"/>
     </row>
     <row r="429">
-      <c r="B429" s="13"/>
+      <c r="B429" s="14"/>
     </row>
     <row r="430">
-      <c r="B430" s="13"/>
+      <c r="B430" s="14"/>
     </row>
     <row r="431">
-      <c r="B431" s="13"/>
+      <c r="B431" s="14"/>
     </row>
     <row r="432">
-      <c r="B432" s="13"/>
+      <c r="B432" s="14"/>
     </row>
     <row r="433">
-      <c r="B433" s="13"/>
+      <c r="B433" s="14"/>
     </row>
     <row r="434">
-      <c r="B434" s="13"/>
+      <c r="B434" s="14"/>
     </row>
     <row r="435">
-      <c r="B435" s="13"/>
+      <c r="B435" s="14"/>
     </row>
     <row r="436">
-      <c r="B436" s="13"/>
+      <c r="B436" s="14"/>
     </row>
     <row r="437">
-      <c r="B437" s="13"/>
+      <c r="B437" s="14"/>
     </row>
     <row r="438">
-      <c r="B438" s="13"/>
+      <c r="B438" s="14"/>
     </row>
     <row r="439">
-      <c r="B439" s="13"/>
+      <c r="B439" s="14"/>
     </row>
     <row r="440">
-      <c r="B440" s="13"/>
+      <c r="B440" s="14"/>
     </row>
     <row r="441">
-      <c r="B441" s="13"/>
+      <c r="B441" s="14"/>
     </row>
     <row r="442">
-      <c r="B442" s="13"/>
+      <c r="B442" s="14"/>
     </row>
     <row r="443">
-      <c r="B443" s="13"/>
+      <c r="B443" s="14"/>
     </row>
     <row r="444">
-      <c r="B444" s="13"/>
+      <c r="B444" s="14"/>
     </row>
     <row r="445">
-      <c r="B445" s="13"/>
+      <c r="B445" s="14"/>
     </row>
     <row r="446">
-      <c r="B446" s="13"/>
+      <c r="B446" s="14"/>
     </row>
     <row r="447">
-      <c r="B447" s="13"/>
+      <c r="B447" s="14"/>
     </row>
     <row r="448">
-      <c r="B448" s="13"/>
+      <c r="B448" s="14"/>
     </row>
     <row r="449">
-      <c r="B449" s="13"/>
+      <c r="B449" s="14"/>
     </row>
     <row r="450">
-      <c r="B450" s="13"/>
+      <c r="B450" s="14"/>
     </row>
     <row r="451">
-      <c r="B451" s="13"/>
+      <c r="B451" s="14"/>
     </row>
     <row r="452">
-      <c r="B452" s="13"/>
+      <c r="B452" s="14"/>
     </row>
     <row r="453">
-      <c r="B453" s="13"/>
+      <c r="B453" s="14"/>
     </row>
     <row r="454">
-      <c r="B454" s="13"/>
+      <c r="B454" s="14"/>
     </row>
     <row r="455">
-      <c r="B455" s="13"/>
+      <c r="B455" s="14"/>
     </row>
     <row r="456">
-      <c r="B456" s="13"/>
+      <c r="B456" s="14"/>
     </row>
     <row r="457">
-      <c r="B457" s="13"/>
+      <c r="B457" s="14"/>
     </row>
     <row r="458">
-      <c r="B458" s="13"/>
+      <c r="B458" s="14"/>
     </row>
     <row r="459">
-      <c r="B459" s="13"/>
+      <c r="B459" s="14"/>
     </row>
     <row r="460">
-      <c r="B460" s="13"/>
+      <c r="B460" s="14"/>
     </row>
     <row r="461">
-      <c r="B461" s="13"/>
+      <c r="B461" s="14"/>
     </row>
     <row r="462">
-      <c r="B462" s="13"/>
+      <c r="B462" s="14"/>
     </row>
     <row r="463">
-      <c r="B463" s="13"/>
+      <c r="B463" s="14"/>
     </row>
     <row r="464">
-      <c r="B464" s="13"/>
+      <c r="B464" s="14"/>
     </row>
     <row r="465">
-      <c r="B465" s="13"/>
+      <c r="B465" s="14"/>
     </row>
     <row r="466">
-      <c r="B466" s="13"/>
+      <c r="B466" s="14"/>
     </row>
     <row r="467">
-      <c r="B467" s="13"/>
+      <c r="B467" s="14"/>
     </row>
     <row r="468">
-      <c r="B468" s="13"/>
+      <c r="B468" s="14"/>
     </row>
     <row r="469">
-      <c r="B469" s="13"/>
+      <c r="B469" s="14"/>
     </row>
     <row r="470">
-      <c r="B470" s="13"/>
+      <c r="B470" s="14"/>
     </row>
     <row r="471">
-      <c r="B471" s="13"/>
+      <c r="B471" s="14"/>
     </row>
     <row r="472">
-      <c r="B472" s="13"/>
+      <c r="B472" s="14"/>
     </row>
     <row r="473">
-      <c r="B473" s="13"/>
+      <c r="B473" s="14"/>
     </row>
     <row r="474">
-      <c r="B474" s="13"/>
+      <c r="B474" s="14"/>
     </row>
     <row r="475">
-      <c r="B475" s="13"/>
+      <c r="B475" s="14"/>
     </row>
     <row r="476">
-      <c r="B476" s="13"/>
+      <c r="B476" s="14"/>
     </row>
     <row r="477">
-      <c r="B477" s="13"/>
+      <c r="B477" s="14"/>
     </row>
     <row r="478">
-      <c r="B478" s="13"/>
+      <c r="B478" s="14"/>
     </row>
     <row r="479">
-      <c r="B479" s="13"/>
+      <c r="B479" s="14"/>
     </row>
     <row r="480">
-      <c r="B480" s="13"/>
+      <c r="B480" s="14"/>
     </row>
     <row r="481">
-      <c r="B481" s="13"/>
+      <c r="B481" s="14"/>
     </row>
     <row r="482">
-      <c r="B482" s="13"/>
+      <c r="B482" s="14"/>
     </row>
     <row r="483">
-      <c r="B483" s="13"/>
+      <c r="B483" s="14"/>
     </row>
     <row r="484">
-      <c r="B484" s="13"/>
+      <c r="B484" s="14"/>
     </row>
     <row r="485">
-      <c r="B485" s="13"/>
+      <c r="B485" s="14"/>
     </row>
     <row r="486">
-      <c r="B486" s="13"/>
+      <c r="B486" s="14"/>
     </row>
     <row r="487">
-      <c r="B487" s="13"/>
+      <c r="B487" s="14"/>
     </row>
     <row r="488">
-      <c r="B488" s="13"/>
+      <c r="B488" s="14"/>
     </row>
     <row r="489">
-      <c r="B489" s="13"/>
+      <c r="B489" s="14"/>
     </row>
     <row r="490">
-      <c r="B490" s="13"/>
+      <c r="B490" s="14"/>
     </row>
     <row r="491">
-      <c r="B491" s="13"/>
+      <c r="B491" s="14"/>
     </row>
     <row r="492">
-      <c r="B492" s="13"/>
+      <c r="B492" s="14"/>
     </row>
     <row r="493">
-      <c r="B493" s="13"/>
+      <c r="B493" s="14"/>
     </row>
     <row r="494">
-      <c r="B494" s="13"/>
+      <c r="B494" s="14"/>
     </row>
     <row r="495">
-      <c r="B495" s="13"/>
+      <c r="B495" s="14"/>
     </row>
     <row r="496">
-      <c r="B496" s="13"/>
+      <c r="B496" s="14"/>
     </row>
     <row r="497">
-      <c r="B497" s="13"/>
+      <c r="B497" s="14"/>
     </row>
     <row r="498">
-      <c r="B498" s="13"/>
+      <c r="B498" s="14"/>
     </row>
     <row r="499">
-      <c r="B499" s="13"/>
+      <c r="B499" s="14"/>
     </row>
     <row r="500">
-      <c r="B500" s="13"/>
+      <c r="B500" s="14"/>
     </row>
     <row r="501">
-      <c r="B501" s="13"/>
+      <c r="B501" s="14"/>
     </row>
     <row r="502">
-      <c r="B502" s="13"/>
+      <c r="B502" s="14"/>
     </row>
     <row r="503">
-      <c r="B503" s="13"/>
+      <c r="B503" s="14"/>
     </row>
     <row r="504">
-      <c r="B504" s="13"/>
+      <c r="B504" s="14"/>
     </row>
     <row r="505">
-      <c r="B505" s="13"/>
+      <c r="B505" s="14"/>
     </row>
     <row r="506">
-      <c r="B506" s="13"/>
+      <c r="B506" s="14"/>
     </row>
     <row r="507">
-      <c r="B507" s="13"/>
+      <c r="B507" s="14"/>
     </row>
     <row r="508">
-      <c r="B508" s="13"/>
+      <c r="B508" s="14"/>
     </row>
     <row r="509">
-      <c r="B509" s="13"/>
+      <c r="B509" s="14"/>
     </row>
     <row r="510">
-      <c r="B510" s="13"/>
+      <c r="B510" s="14"/>
     </row>
     <row r="511">
-      <c r="B511" s="13"/>
+      <c r="B511" s="14"/>
     </row>
     <row r="512">
-      <c r="B512" s="13"/>
+      <c r="B512" s="14"/>
     </row>
     <row r="513">
-      <c r="B513" s="13"/>
+      <c r="B513" s="14"/>
     </row>
     <row r="514">
-      <c r="B514" s="13"/>
+      <c r="B514" s="14"/>
     </row>
     <row r="515">
-      <c r="B515" s="13"/>
+      <c r="B515" s="14"/>
     </row>
     <row r="516">
-      <c r="B516" s="13"/>
+      <c r="B516" s="14"/>
     </row>
     <row r="517">
-      <c r="B517" s="13"/>
+      <c r="B517" s="14"/>
     </row>
     <row r="518">
-      <c r="B518" s="13"/>
+      <c r="B518" s="14"/>
     </row>
     <row r="519">
-      <c r="B519" s="13"/>
+      <c r="B519" s="14"/>
     </row>
     <row r="520">
-      <c r="B520" s="13"/>
+      <c r="B520" s="14"/>
     </row>
     <row r="521">
-      <c r="B521" s="13"/>
+      <c r="B521" s="14"/>
     </row>
     <row r="522">
-      <c r="B522" s="13"/>
+      <c r="B522" s="14"/>
     </row>
     <row r="523">
-      <c r="B523" s="13"/>
+      <c r="B523" s="14"/>
     </row>
     <row r="524">
-      <c r="B524" s="13"/>
+      <c r="B524" s="14"/>
     </row>
     <row r="525">
-      <c r="B525" s="13"/>
+      <c r="B525" s="14"/>
     </row>
     <row r="526">
-      <c r="B526" s="13"/>
+      <c r="B526" s="14"/>
     </row>
     <row r="527">
-      <c r="B527" s="13"/>
+      <c r="B527" s="14"/>
     </row>
     <row r="528">
-      <c r="B528" s="13"/>
+      <c r="B528" s="14"/>
     </row>
     <row r="529">
-      <c r="B529" s="13"/>
+      <c r="B529" s="14"/>
     </row>
     <row r="530">
-      <c r="B530" s="13"/>
+      <c r="B530" s="14"/>
     </row>
     <row r="531">
-      <c r="B531" s="13"/>
+      <c r="B531" s="14"/>
     </row>
     <row r="532">
-      <c r="B532" s="13"/>
+      <c r="B532" s="14"/>
     </row>
     <row r="533">
-      <c r="B533" s="13"/>
+      <c r="B533" s="14"/>
     </row>
     <row r="534">
-      <c r="B534" s="13"/>
+      <c r="B534" s="14"/>
     </row>
     <row r="535">
-      <c r="B535" s="13"/>
+      <c r="B535" s="14"/>
     </row>
     <row r="536">
-      <c r="B536" s="13"/>
+      <c r="B536" s="14"/>
     </row>
     <row r="537">
-      <c r="B537" s="13"/>
+      <c r="B537" s="14"/>
     </row>
     <row r="538">
-      <c r="B538" s="13"/>
+      <c r="B538" s="14"/>
     </row>
     <row r="539">
-      <c r="B539" s="13"/>
+      <c r="B539" s="14"/>
     </row>
     <row r="540">
-      <c r="B540" s="13"/>
+      <c r="B540" s="14"/>
     </row>
     <row r="541">
-      <c r="B541" s="13"/>
+      <c r="B541" s="14"/>
     </row>
     <row r="542">
-      <c r="B542" s="13"/>
+      <c r="B542" s="14"/>
     </row>
     <row r="543">
-      <c r="B543" s="13"/>
+      <c r="B543" s="14"/>
     </row>
     <row r="544">
-      <c r="B544" s="13"/>
+      <c r="B544" s="14"/>
     </row>
     <row r="545">
-      <c r="B545" s="13"/>
+      <c r="B545" s="14"/>
     </row>
     <row r="546">
-      <c r="B546" s="13"/>
+      <c r="B546" s="14"/>
     </row>
     <row r="547">
-      <c r="B547" s="13"/>
+      <c r="B547" s="14"/>
     </row>
     <row r="548">
-      <c r="B548" s="13"/>
+      <c r="B548" s="14"/>
     </row>
     <row r="549">
-      <c r="B549" s="13"/>
+      <c r="B549" s="14"/>
     </row>
     <row r="550">
-      <c r="B550" s="13"/>
+      <c r="B550" s="14"/>
     </row>
     <row r="551">
-      <c r="B551" s="13"/>
+      <c r="B551" s="14"/>
     </row>
     <row r="552">
-      <c r="B552" s="13"/>
+      <c r="B552" s="14"/>
     </row>
     <row r="553">
-      <c r="B553" s="13"/>
+      <c r="B553" s="14"/>
     </row>
     <row r="554">
-      <c r="B554" s="13"/>
+      <c r="B554" s="14"/>
     </row>
     <row r="555">
-      <c r="B555" s="13"/>
+      <c r="B555" s="14"/>
     </row>
     <row r="556">
-      <c r="B556" s="13"/>
+      <c r="B556" s="14"/>
     </row>
     <row r="557">
-      <c r="B557" s="13"/>
+      <c r="B557" s="14"/>
     </row>
     <row r="558">
-      <c r="B558" s="13"/>
+      <c r="B558" s="14"/>
     </row>
     <row r="559">
-      <c r="B559" s="13"/>
+      <c r="B559" s="14"/>
     </row>
     <row r="560">
-      <c r="B560" s="13"/>
+      <c r="B560" s="14"/>
     </row>
     <row r="561">
-      <c r="B561" s="13"/>
+      <c r="B561" s="14"/>
     </row>
     <row r="562">
-      <c r="B562" s="13"/>
+      <c r="B562" s="14"/>
     </row>
     <row r="563">
-      <c r="B563" s="13"/>
+      <c r="B563" s="14"/>
     </row>
     <row r="564">
-      <c r="B564" s="13"/>
+      <c r="B564" s="14"/>
     </row>
     <row r="565">
-      <c r="B565" s="13"/>
+      <c r="B565" s="14"/>
     </row>
     <row r="566">
-      <c r="B566" s="13"/>
+      <c r="B566" s="14"/>
     </row>
     <row r="567">
-      <c r="B567" s="13"/>
+      <c r="B567" s="14"/>
     </row>
     <row r="568">
-      <c r="B568" s="13"/>
+      <c r="B568" s="14"/>
     </row>
     <row r="569">
-      <c r="B569" s="13"/>
+      <c r="B569" s="14"/>
     </row>
     <row r="570">
-      <c r="B570" s="13"/>
+      <c r="B570" s="14"/>
     </row>
     <row r="571">
-      <c r="B571" s="13"/>
+      <c r="B571" s="14"/>
     </row>
     <row r="572">
-      <c r="B572" s="13"/>
+      <c r="B572" s="14"/>
     </row>
     <row r="573">
-      <c r="B573" s="13"/>
+      <c r="B573" s="14"/>
     </row>
     <row r="574">
-      <c r="B574" s="13"/>
+      <c r="B574" s="14"/>
     </row>
     <row r="575">
-      <c r="B575" s="13"/>
+      <c r="B575" s="14"/>
     </row>
     <row r="576">
-      <c r="B576" s="13"/>
+      <c r="B576" s="14"/>
     </row>
     <row r="577">
-      <c r="B577" s="13"/>
+      <c r="B577" s="14"/>
     </row>
     <row r="578">
-      <c r="B578" s="13"/>
+      <c r="B578" s="14"/>
     </row>
     <row r="579">
-      <c r="B579" s="13"/>
+      <c r="B579" s="14"/>
     </row>
     <row r="580">
-      <c r="B580" s="13"/>
+      <c r="B580" s="14"/>
     </row>
     <row r="581">
-      <c r="B581" s="13"/>
+      <c r="B581" s="14"/>
     </row>
     <row r="582">
-      <c r="B582" s="13"/>
+      <c r="B582" s="14"/>
     </row>
     <row r="583">
-      <c r="B583" s="13"/>
+      <c r="B583" s="14"/>
     </row>
     <row r="584">
-      <c r="B584" s="13"/>
+      <c r="B584" s="14"/>
     </row>
     <row r="585">
-      <c r="B585" s="13"/>
+      <c r="B585" s="14"/>
     </row>
     <row r="586">
-      <c r="B586" s="13"/>
+      <c r="B586" s="14"/>
     </row>
     <row r="587">
-      <c r="B587" s="13"/>
+      <c r="B587" s="14"/>
     </row>
     <row r="588">
-      <c r="B588" s="13"/>
+      <c r="B588" s="14"/>
     </row>
     <row r="589">
-      <c r="B589" s="13"/>
+      <c r="B589" s="14"/>
     </row>
     <row r="590">
-      <c r="B590" s="13"/>
+      <c r="B590" s="14"/>
     </row>
     <row r="591">
-      <c r="B591" s="13"/>
+      <c r="B591" s="14"/>
     </row>
     <row r="592">
-      <c r="B592" s="13"/>
+      <c r="B592" s="14"/>
     </row>
     <row r="593">
-      <c r="B593" s="13"/>
+      <c r="B593" s="14"/>
     </row>
     <row r="594">
-      <c r="B594" s="13"/>
+      <c r="B594" s="14"/>
     </row>
     <row r="595">
-      <c r="B595" s="13"/>
+      <c r="B595" s="14"/>
     </row>
     <row r="596">
-      <c r="B596" s="13"/>
+      <c r="B596" s="14"/>
     </row>
     <row r="597">
-      <c r="B597" s="13"/>
+      <c r="B597" s="14"/>
     </row>
     <row r="598">
-      <c r="B598" s="13"/>
+      <c r="B598" s="14"/>
     </row>
     <row r="599">
-      <c r="B599" s="13"/>
+      <c r="B599" s="14"/>
     </row>
     <row r="600">
-      <c r="B600" s="13"/>
+      <c r="B600" s="14"/>
     </row>
     <row r="601">
-      <c r="B601" s="13"/>
+      <c r="B601" s="14"/>
     </row>
     <row r="602">
-      <c r="B602" s="13"/>
+      <c r="B602" s="14"/>
     </row>
     <row r="603">
-      <c r="B603" s="13"/>
+      <c r="B603" s="14"/>
     </row>
     <row r="604">
-      <c r="B604" s="13"/>
+      <c r="B604" s="14"/>
     </row>
     <row r="605">
-      <c r="B605" s="13"/>
+      <c r="B605" s="14"/>
     </row>
     <row r="606">
-      <c r="B606" s="13"/>
+      <c r="B606" s="14"/>
     </row>
     <row r="607">
-      <c r="B607" s="13"/>
+      <c r="B607" s="14"/>
     </row>
     <row r="608">
-      <c r="B608" s="13"/>
+      <c r="B608" s="14"/>
     </row>
     <row r="609">
-      <c r="B609" s="13"/>
+      <c r="B609" s="14"/>
     </row>
     <row r="610">
-      <c r="B610" s="13"/>
+      <c r="B610" s="14"/>
     </row>
     <row r="611">
-      <c r="B611" s="13"/>
+      <c r="B611" s="14"/>
     </row>
     <row r="612">
-      <c r="B612" s="13"/>
+      <c r="B612" s="14"/>
     </row>
     <row r="613">
-      <c r="B613" s="13"/>
+      <c r="B613" s="14"/>
     </row>
     <row r="614">
-      <c r="B614" s="13"/>
+      <c r="B614" s="14"/>
     </row>
     <row r="615">
-      <c r="B615" s="13"/>
+      <c r="B615" s="14"/>
     </row>
     <row r="616">
-      <c r="B616" s="13"/>
+      <c r="B616" s="14"/>
     </row>
     <row r="617">
-      <c r="B617" s="13"/>
+      <c r="B617" s="14"/>
     </row>
     <row r="618">
-      <c r="B618" s="13"/>
+      <c r="B618" s="14"/>
     </row>
     <row r="619">
-      <c r="B619" s="13"/>
+      <c r="B619" s="14"/>
     </row>
     <row r="620">
-      <c r="B620" s="13"/>
+      <c r="B620" s="14"/>
     </row>
     <row r="621">
-      <c r="B621" s="13"/>
+      <c r="B621" s="14"/>
     </row>
     <row r="622">
-      <c r="B622" s="13"/>
+      <c r="B622" s="14"/>
     </row>
     <row r="623">
-      <c r="B623" s="13"/>
+      <c r="B623" s="14"/>
     </row>
     <row r="624">
-      <c r="B624" s="13"/>
+      <c r="B624" s="14"/>
     </row>
     <row r="625">
-      <c r="B625" s="13"/>
+      <c r="B625" s="14"/>
     </row>
     <row r="626">
-      <c r="B626" s="13"/>
+      <c r="B626" s="14"/>
     </row>
     <row r="627">
-      <c r="B627" s="13"/>
+      <c r="B627" s="14"/>
     </row>
     <row r="628">
-      <c r="B628" s="13"/>
+      <c r="B628" s="14"/>
     </row>
     <row r="629">
-      <c r="B629" s="13"/>
+      <c r="B629" s="14"/>
     </row>
     <row r="630">
-      <c r="B630" s="13"/>
+      <c r="B630" s="14"/>
     </row>
     <row r="631">
-      <c r="B631" s="13"/>
+      <c r="B631" s="14"/>
     </row>
     <row r="632">
-      <c r="B632" s="13"/>
+      <c r="B632" s="14"/>
     </row>
     <row r="633">
-      <c r="B633" s="13"/>
+      <c r="B633" s="14"/>
     </row>
     <row r="634">
-      <c r="B634" s="13"/>
+      <c r="B634" s="14"/>
     </row>
     <row r="635">
-      <c r="B635" s="13"/>
+      <c r="B635" s="14"/>
     </row>
     <row r="636">
-      <c r="B636" s="13"/>
+      <c r="B636" s="14"/>
     </row>
     <row r="637">
-      <c r="B637" s="13"/>
+      <c r="B637" s="14"/>
     </row>
     <row r="638">
-      <c r="B638" s="13"/>
+      <c r="B638" s="14"/>
     </row>
     <row r="639">
-      <c r="B639" s="13"/>
+      <c r="B639" s="14"/>
     </row>
     <row r="640">
-      <c r="B640" s="13"/>
+      <c r="B640" s="14"/>
     </row>
     <row r="641">
-      <c r="B641" s="13"/>
+      <c r="B641" s="14"/>
     </row>
     <row r="642">
-      <c r="B642" s="13"/>
+      <c r="B642" s="14"/>
     </row>
     <row r="643">
-      <c r="B643" s="13"/>
+      <c r="B643" s="14"/>
     </row>
     <row r="644">
-      <c r="B644" s="13"/>
+      <c r="B644" s="14"/>
     </row>
     <row r="645">
-      <c r="B645" s="13"/>
+      <c r="B645" s="14"/>
     </row>
     <row r="646">
-      <c r="B646" s="13"/>
+      <c r="B646" s="14"/>
     </row>
     <row r="647">
-      <c r="B647" s="13"/>
+      <c r="B647" s="14"/>
     </row>
     <row r="648">
-      <c r="B648" s="13"/>
+      <c r="B648" s="14"/>
     </row>
     <row r="649">
-      <c r="B649" s="13"/>
+      <c r="B649" s="14"/>
     </row>
     <row r="650">
-      <c r="B650" s="13"/>
+      <c r="B650" s="14"/>
     </row>
     <row r="651">
-      <c r="B651" s="13"/>
+      <c r="B651" s="14"/>
     </row>
     <row r="652">
-      <c r="B652" s="13"/>
+      <c r="B652" s="14"/>
     </row>
     <row r="653">
-      <c r="B653" s="13"/>
+      <c r="B653" s="14"/>
     </row>
     <row r="654">
-      <c r="B654" s="13"/>
+      <c r="B654" s="14"/>
     </row>
     <row r="655">
-      <c r="B655" s="13"/>
+      <c r="B655" s="14"/>
     </row>
     <row r="656">
-      <c r="B656" s="13"/>
+      <c r="B656" s="14"/>
     </row>
     <row r="657">
-      <c r="B657" s="13"/>
+      <c r="B657" s="14"/>
     </row>
     <row r="658">
-      <c r="B658" s="13"/>
+      <c r="B658" s="14"/>
     </row>
     <row r="659">
-      <c r="B659" s="13"/>
+      <c r="B659" s="14"/>
     </row>
     <row r="660">
-      <c r="B660" s="13"/>
+      <c r="B660" s="14"/>
     </row>
     <row r="661">
-      <c r="B661" s="13"/>
+      <c r="B661" s="14"/>
     </row>
     <row r="662">
-      <c r="B662" s="13"/>
+      <c r="B662" s="14"/>
     </row>
     <row r="663">
-      <c r="B663" s="13"/>
+      <c r="B663" s="14"/>
     </row>
     <row r="664">
-      <c r="B664" s="13"/>
+      <c r="B664" s="14"/>
     </row>
     <row r="665">
-      <c r="B665" s="13"/>
+      <c r="B665" s="14"/>
     </row>
     <row r="666">
-      <c r="B666" s="13"/>
+      <c r="B666" s="14"/>
     </row>
     <row r="667">
-      <c r="B667" s="13"/>
+      <c r="B667" s="14"/>
     </row>
     <row r="668">
-      <c r="B668" s="13"/>
+      <c r="B668" s="14"/>
     </row>
     <row r="669">
-      <c r="B669" s="13"/>
+      <c r="B669" s="14"/>
     </row>
     <row r="670">
-      <c r="B670" s="13"/>
+      <c r="B670" s="14"/>
     </row>
     <row r="671">
-      <c r="B671" s="13"/>
+      <c r="B671" s="14"/>
     </row>
     <row r="672">
-      <c r="B672" s="13"/>
+      <c r="B672" s="14"/>
     </row>
     <row r="673">
-      <c r="B673" s="13"/>
+      <c r="B673" s="14"/>
     </row>
     <row r="674">
-      <c r="B674" s="13"/>
+      <c r="B674" s="14"/>
     </row>
     <row r="675">
-      <c r="B675" s="13"/>
+      <c r="B675" s="14"/>
     </row>
     <row r="676">
-      <c r="B676" s="13"/>
+      <c r="B676" s="14"/>
     </row>
     <row r="677">
-      <c r="B677" s="13"/>
+      <c r="B677" s="14"/>
     </row>
     <row r="678">
-      <c r="B678" s="13"/>
+      <c r="B678" s="14"/>
     </row>
     <row r="679">
-      <c r="B679" s="13"/>
+      <c r="B679" s="14"/>
     </row>
     <row r="680">
-      <c r="B680" s="13"/>
+      <c r="B680" s="14"/>
     </row>
     <row r="681">
-      <c r="B681" s="13"/>
+      <c r="B681" s="14"/>
     </row>
     <row r="682">
-      <c r="B682" s="13"/>
+      <c r="B682" s="14"/>
     </row>
     <row r="683">
-      <c r="B683" s="13"/>
+      <c r="B683" s="14"/>
     </row>
     <row r="684">
-      <c r="B684" s="13"/>
+      <c r="B684" s="14"/>
     </row>
     <row r="685">
-      <c r="B685" s="13"/>
+      <c r="B685" s="14"/>
     </row>
     <row r="686">
-      <c r="B686" s="13"/>
+      <c r="B686" s="14"/>
     </row>
     <row r="687">
-      <c r="B687" s="13"/>
+      <c r="B687" s="14"/>
     </row>
     <row r="688">
-      <c r="B688" s="13"/>
+      <c r="B688" s="14"/>
     </row>
     <row r="689">
-      <c r="B689" s="13"/>
+      <c r="B689" s="14"/>
     </row>
     <row r="690">
-      <c r="B690" s="13"/>
+      <c r="B690" s="14"/>
     </row>
     <row r="691">
-      <c r="B691" s="13"/>
+      <c r="B691" s="14"/>
     </row>
     <row r="692">
-      <c r="B692" s="13"/>
+      <c r="B692" s="14"/>
     </row>
     <row r="693">
-      <c r="B693" s="13"/>
+      <c r="B693" s="14"/>
     </row>
     <row r="694">
-      <c r="B694" s="13"/>
+      <c r="B694" s="14"/>
     </row>
     <row r="695">
-      <c r="B695" s="13"/>
+      <c r="B695" s="14"/>
     </row>
     <row r="696">
-      <c r="B696" s="13"/>
+      <c r="B696" s="14"/>
     </row>
     <row r="697">
-      <c r="B697" s="13"/>
+      <c r="B697" s="14"/>
     </row>
     <row r="698">
-      <c r="B698" s="13"/>
+      <c r="B698" s="14"/>
     </row>
     <row r="699">
-      <c r="B699" s="13"/>
+      <c r="B699" s="14"/>
     </row>
     <row r="700">
-      <c r="B700" s="13"/>
+      <c r="B700" s="14"/>
     </row>
     <row r="701">
-      <c r="B701" s="13"/>
+      <c r="B701" s="14"/>
     </row>
     <row r="702">
-      <c r="B702" s="13"/>
+      <c r="B702" s="14"/>
     </row>
     <row r="703">
-      <c r="B703" s="13"/>
+      <c r="B703" s="14"/>
     </row>
     <row r="704">
-      <c r="B704" s="13"/>
+      <c r="B704" s="14"/>
     </row>
     <row r="705">
-      <c r="B705" s="13"/>
+      <c r="B705" s="14"/>
     </row>
     <row r="706">
-      <c r="B706" s="13"/>
+      <c r="B706" s="14"/>
     </row>
     <row r="707">
-      <c r="B707" s="13"/>
+      <c r="B707" s="14"/>
     </row>
     <row r="708">
-      <c r="B708" s="13"/>
+      <c r="B708" s="14"/>
     </row>
     <row r="709">
-      <c r="B709" s="13"/>
+      <c r="B709" s="14"/>
     </row>
     <row r="710">
-      <c r="B710" s="13"/>
+      <c r="B710" s="14"/>
     </row>
     <row r="711">
-      <c r="B711" s="13"/>
+      <c r="B711" s="14"/>
     </row>
     <row r="712">
-      <c r="B712" s="13"/>
+      <c r="B712" s="14"/>
     </row>
     <row r="713">
-      <c r="B713" s="13"/>
+      <c r="B713" s="14"/>
     </row>
     <row r="714">
-      <c r="B714" s="13"/>
+      <c r="B714" s="14"/>
     </row>
     <row r="715">
-      <c r="B715" s="13"/>
+      <c r="B715" s="14"/>
     </row>
     <row r="716">
-      <c r="B716" s="13"/>
+      <c r="B716" s="14"/>
     </row>
     <row r="717">
-      <c r="B717" s="13"/>
+      <c r="B717" s="14"/>
     </row>
     <row r="718">
-      <c r="B718" s="13"/>
+      <c r="B718" s="14"/>
     </row>
     <row r="719">
-      <c r="B719" s="13"/>
+      <c r="B719" s="14"/>
     </row>
     <row r="720">
-      <c r="B720" s="13"/>
+      <c r="B720" s="14"/>
     </row>
     <row r="721">
-      <c r="B721" s="13"/>
+      <c r="B721" s="14"/>
     </row>
     <row r="722">
-      <c r="B722" s="13"/>
+      <c r="B722" s="14"/>
     </row>
     <row r="723">
-      <c r="B723" s="13"/>
+      <c r="B723" s="14"/>
     </row>
     <row r="724">
-      <c r="B724" s="13"/>
+      <c r="B724" s="14"/>
     </row>
     <row r="725">
-      <c r="B725" s="13"/>
+      <c r="B725" s="14"/>
     </row>
     <row r="726">
-      <c r="B726" s="13"/>
+      <c r="B726" s="14"/>
     </row>
     <row r="727">
-      <c r="B727" s="13"/>
+      <c r="B727" s="14"/>
     </row>
     <row r="728">
-      <c r="B728" s="13"/>
+      <c r="B728" s="14"/>
     </row>
     <row r="729">
-      <c r="B729" s="13"/>
+      <c r="B729" s="14"/>
     </row>
     <row r="730">
-      <c r="B730" s="13"/>
+      <c r="B730" s="14"/>
     </row>
     <row r="731">
-      <c r="B731" s="13"/>
+      <c r="B731" s="14"/>
     </row>
     <row r="732">
-      <c r="B732" s="13"/>
+      <c r="B732" s="14"/>
     </row>
     <row r="733">
-      <c r="B733" s="13"/>
+      <c r="B733" s="14"/>
     </row>
     <row r="734">
-      <c r="B734" s="13"/>
+      <c r="B734" s="14"/>
     </row>
     <row r="735">
-      <c r="B735" s="13"/>
+      <c r="B735" s="14"/>
     </row>
     <row r="736">
-      <c r="B736" s="13"/>
+      <c r="B736" s="14"/>
     </row>
     <row r="737">
-      <c r="B737" s="13"/>
+      <c r="B737" s="14"/>
     </row>
     <row r="738">
-      <c r="B738" s="13"/>
+      <c r="B738" s="14"/>
     </row>
     <row r="739">
-      <c r="B739" s="13"/>
+      <c r="B739" s="14"/>
     </row>
     <row r="740">
-      <c r="B740" s="13"/>
+      <c r="B740" s="14"/>
     </row>
     <row r="741">
-      <c r="B741" s="13"/>
+      <c r="B741" s="14"/>
     </row>
     <row r="742">
-      <c r="B742" s="13"/>
+      <c r="B742" s="14"/>
     </row>
     <row r="743">
-      <c r="B743" s="13"/>
+      <c r="B743" s="14"/>
     </row>
     <row r="744">
-      <c r="B744" s="13"/>
+      <c r="B744" s="14"/>
     </row>
     <row r="745">
-      <c r="B745" s="13"/>
+      <c r="B745" s="14"/>
     </row>
     <row r="746">
-      <c r="B746" s="13"/>
+      <c r="B746" s="14"/>
     </row>
     <row r="747">
-      <c r="B747" s="13"/>
+      <c r="B747" s="14"/>
     </row>
     <row r="748">
-      <c r="B748" s="13"/>
+      <c r="B748" s="14"/>
     </row>
     <row r="749">
-      <c r="B749" s="13"/>
+      <c r="B749" s="14"/>
     </row>
     <row r="750">
-      <c r="B750" s="13"/>
+      <c r="B750" s="14"/>
     </row>
     <row r="751">
-      <c r="B751" s="13"/>
+      <c r="B751" s="14"/>
     </row>
     <row r="752">
-      <c r="B752" s="13"/>
+      <c r="B752" s="14"/>
     </row>
     <row r="753">
-      <c r="B753" s="13"/>
+      <c r="B753" s="14"/>
     </row>
     <row r="754">
-      <c r="B754" s="13"/>
+      <c r="B754" s="14"/>
     </row>
     <row r="755">
-      <c r="B755" s="13"/>
+      <c r="B755" s="14"/>
     </row>
     <row r="756">
-      <c r="B756" s="13"/>
+      <c r="B756" s="14"/>
     </row>
     <row r="757">
-      <c r="B757" s="13"/>
+      <c r="B757" s="14"/>
     </row>
     <row r="758">
-      <c r="B758" s="13"/>
+      <c r="B758" s="14"/>
     </row>
     <row r="759">
-      <c r="B759" s="13"/>
+      <c r="B759" s="14"/>
     </row>
     <row r="760">
-      <c r="B760" s="13"/>
+      <c r="B760" s="14"/>
     </row>
     <row r="761">
-      <c r="B761" s="13"/>
+      <c r="B761" s="14"/>
     </row>
     <row r="762">
-      <c r="B762" s="13"/>
+      <c r="B762" s="14"/>
     </row>
     <row r="763">
-      <c r="B763" s="13"/>
+      <c r="B763" s="14"/>
     </row>
     <row r="764">
-      <c r="B764" s="13"/>
+      <c r="B764" s="14"/>
     </row>
     <row r="765">
-      <c r="B765" s="13"/>
+      <c r="B765" s="14"/>
     </row>
     <row r="766">
-      <c r="B766" s="13"/>
+      <c r="B766" s="14"/>
     </row>
     <row r="767">
-      <c r="B767" s="13"/>
+      <c r="B767" s="14"/>
     </row>
     <row r="768">
-      <c r="B768" s="13"/>
+      <c r="B768" s="14"/>
     </row>
     <row r="769">
-      <c r="B769" s="13"/>
+      <c r="B769" s="14"/>
     </row>
     <row r="770">
-      <c r="B770" s="13"/>
+      <c r="B770" s="14"/>
     </row>
     <row r="771">
-      <c r="B771" s="13"/>
+      <c r="B771" s="14"/>
     </row>
     <row r="772">
-      <c r="B772" s="13"/>
+      <c r="B772" s="14"/>
     </row>
     <row r="773">
-      <c r="B773" s="13"/>
+      <c r="B773" s="14"/>
     </row>
     <row r="774">
-      <c r="B774" s="13"/>
+      <c r="B774" s="14"/>
     </row>
     <row r="775">
-      <c r="B775" s="13"/>
+      <c r="B775" s="14"/>
     </row>
     <row r="776">
-      <c r="B776" s="13"/>
+      <c r="B776" s="14"/>
     </row>
     <row r="777">
-      <c r="B777" s="13"/>
+      <c r="B777" s="14"/>
     </row>
     <row r="778">
-      <c r="B778" s="13"/>
+      <c r="B778" s="14"/>
     </row>
     <row r="779">
-      <c r="B779" s="13"/>
+      <c r="B779" s="14"/>
     </row>
     <row r="780">
-      <c r="B780" s="13"/>
+      <c r="B780" s="14"/>
     </row>
     <row r="781">
-      <c r="B781" s="13"/>
+      <c r="B781" s="14"/>
     </row>
     <row r="782">
-      <c r="B782" s="13"/>
+      <c r="B782" s="14"/>
     </row>
     <row r="783">
-      <c r="B783" s="13"/>
+      <c r="B783" s="14"/>
     </row>
     <row r="784">
-      <c r="B784" s="13"/>
+      <c r="B784" s="14"/>
     </row>
     <row r="785">
-      <c r="B785" s="13"/>
+      <c r="B785" s="14"/>
     </row>
     <row r="786">
-      <c r="B786" s="13"/>
+      <c r="B786" s="14"/>
     </row>
     <row r="787">
-      <c r="B787" s="13"/>
+      <c r="B787" s="14"/>
     </row>
     <row r="788">
-      <c r="B788" s="13"/>
+      <c r="B788" s="14"/>
     </row>
     <row r="789">
-      <c r="B789" s="13"/>
+      <c r="B789" s="14"/>
     </row>
     <row r="790">
-      <c r="B790" s="13"/>
+      <c r="B790" s="14"/>
     </row>
     <row r="791">
-      <c r="B791" s="13"/>
+      <c r="B791" s="14"/>
     </row>
     <row r="792">
-      <c r="B792" s="13"/>
+      <c r="B792" s="14"/>
     </row>
     <row r="793">
-      <c r="B793" s="13"/>
+      <c r="B793" s="14"/>
     </row>
     <row r="794">
-      <c r="B794" s="13"/>
+      <c r="B794" s="14"/>
     </row>
     <row r="795">
-      <c r="B795" s="13"/>
+      <c r="B795" s="14"/>
     </row>
     <row r="796">
-      <c r="B796" s="13"/>
+      <c r="B796" s="14"/>
     </row>
     <row r="797">
-      <c r="B797" s="13"/>
+      <c r="B797" s="14"/>
     </row>
     <row r="798">
-      <c r="B798" s="13"/>
+      <c r="B798" s="14"/>
     </row>
     <row r="799">
-      <c r="B799" s="13"/>
+      <c r="B799" s="14"/>
     </row>
     <row r="800">
-      <c r="B800" s="13"/>
+      <c r="B800" s="14"/>
     </row>
     <row r="801">
-      <c r="B801" s="13"/>
+      <c r="B801" s="14"/>
     </row>
     <row r="802">
-      <c r="B802" s="13"/>
+      <c r="B802" s="14"/>
     </row>
     <row r="803">
-      <c r="B803" s="13"/>
+      <c r="B803" s="14"/>
     </row>
     <row r="804">
-      <c r="B804" s="13"/>
+      <c r="B804" s="14"/>
     </row>
     <row r="805">
-      <c r="B805" s="13"/>
+      <c r="B805" s="14"/>
     </row>
     <row r="806">
-      <c r="B806" s="13"/>
+      <c r="B806" s="14"/>
     </row>
     <row r="807">
-      <c r="B807" s="13"/>
+      <c r="B807" s="14"/>
     </row>
     <row r="808">
-      <c r="B808" s="13"/>
+      <c r="B808" s="14"/>
     </row>
     <row r="809">
-      <c r="B809" s="13"/>
+      <c r="B809" s="14"/>
     </row>
     <row r="810">
-      <c r="B810" s="13"/>
+      <c r="B810" s="14"/>
     </row>
     <row r="811">
-      <c r="B811" s="13"/>
+      <c r="B811" s="14"/>
     </row>
     <row r="812">
-      <c r="B812" s="13"/>
+      <c r="B812" s="14"/>
     </row>
     <row r="813">
-      <c r="B813" s="13"/>
+      <c r="B813" s="14"/>
     </row>
     <row r="814">
-      <c r="B814" s="13"/>
+      <c r="B814" s="14"/>
     </row>
     <row r="815">
-      <c r="B815" s="13"/>
+      <c r="B815" s="14"/>
     </row>
     <row r="816">
-      <c r="B816" s="13"/>
+      <c r="B816" s="14"/>
     </row>
     <row r="817">
-      <c r="B817" s="13"/>
+      <c r="B817" s="14"/>
     </row>
     <row r="818">
-      <c r="B818" s="13"/>
+      <c r="B818" s="14"/>
     </row>
     <row r="819">
-      <c r="B819" s="13"/>
+      <c r="B819" s="14"/>
     </row>
     <row r="820">
-      <c r="B820" s="13"/>
+      <c r="B820" s="14"/>
     </row>
     <row r="821">
-      <c r="B821" s="13"/>
+      <c r="B821" s="14"/>
     </row>
     <row r="822">
-      <c r="B822" s="13"/>
+      <c r="B822" s="14"/>
     </row>
     <row r="823">
-      <c r="B823" s="13"/>
+      <c r="B823" s="14"/>
     </row>
     <row r="824">
-      <c r="B824" s="13"/>
+      <c r="B824" s="14"/>
     </row>
     <row r="825">
-      <c r="B825" s="13"/>
+      <c r="B825" s="14"/>
     </row>
     <row r="826">
-      <c r="B826" s="13"/>
+      <c r="B826" s="14"/>
     </row>
     <row r="827">
-      <c r="B827" s="13"/>
+      <c r="B827" s="14"/>
     </row>
     <row r="828">
-      <c r="B828" s="13"/>
+      <c r="B828" s="14"/>
     </row>
     <row r="829">
-      <c r="B829" s="13"/>
+      <c r="B829" s="14"/>
     </row>
     <row r="830">
-      <c r="B830" s="13"/>
+      <c r="B830" s="14"/>
     </row>
     <row r="831">
-      <c r="B831" s="13"/>
+      <c r="B831" s="14"/>
     </row>
     <row r="832">
-      <c r="B832" s="13"/>
+      <c r="B832" s="14"/>
     </row>
     <row r="833">
-      <c r="B833" s="13"/>
+      <c r="B833" s="14"/>
     </row>
     <row r="834">
-      <c r="B834" s="13"/>
+      <c r="B834" s="14"/>
     </row>
     <row r="835">
-      <c r="B835" s="13"/>
+      <c r="B835" s="14"/>
     </row>
     <row r="836">
-      <c r="B836" s="13"/>
+      <c r="B836" s="14"/>
     </row>
     <row r="837">
-      <c r="B837" s="13"/>
+      <c r="B837" s="14"/>
     </row>
     <row r="838">
-      <c r="B838" s="13"/>
+      <c r="B838" s="14"/>
     </row>
     <row r="839">
-      <c r="B839" s="13"/>
+      <c r="B839" s="14"/>
     </row>
     <row r="840">
-      <c r="B840" s="13"/>
+      <c r="B840" s="14"/>
     </row>
     <row r="841">
-      <c r="B841" s="13"/>
+      <c r="B841" s="14"/>
     </row>
     <row r="842">
-      <c r="B842" s="13"/>
+      <c r="B842" s="14"/>
     </row>
     <row r="843">
-      <c r="B843" s="13"/>
+      <c r="B843" s="14"/>
     </row>
     <row r="844">
-      <c r="B844" s="13"/>
+      <c r="B844" s="14"/>
     </row>
     <row r="845">
-      <c r="B845" s="13"/>
+      <c r="B845" s="14"/>
     </row>
     <row r="846">
-      <c r="B846" s="13"/>
+      <c r="B846" s="14"/>
     </row>
     <row r="847">
-      <c r="B847" s="13"/>
+      <c r="B847" s="14"/>
     </row>
     <row r="848">
-      <c r="B848" s="13"/>
+      <c r="B848" s="14"/>
     </row>
     <row r="849">
-      <c r="B849" s="13"/>
+      <c r="B849" s="14"/>
     </row>
     <row r="850">
-      <c r="B850" s="13"/>
+      <c r="B850" s="14"/>
     </row>
     <row r="851">
-      <c r="B851" s="13"/>
+      <c r="B851" s="14"/>
     </row>
     <row r="852">
-      <c r="B852" s="13"/>
+      <c r="B852" s="14"/>
     </row>
     <row r="853">
-      <c r="B853" s="13"/>
+      <c r="B853" s="14"/>
     </row>
     <row r="854">
-      <c r="B854" s="13"/>
+      <c r="B854" s="14"/>
     </row>
     <row r="855">
-      <c r="B855" s="13"/>
+      <c r="B855" s="14"/>
     </row>
     <row r="856">
-      <c r="B856" s="13"/>
+      <c r="B856" s="14"/>
     </row>
     <row r="857">
-      <c r="B857" s="13"/>
+      <c r="B857" s="14"/>
     </row>
     <row r="858">
-      <c r="B858" s="13"/>
+      <c r="B858" s="14"/>
     </row>
     <row r="859">
-      <c r="B859" s="13"/>
+      <c r="B859" s="14"/>
     </row>
     <row r="860">
-      <c r="B860" s="13"/>
+      <c r="B860" s="14"/>
     </row>
     <row r="861">
-      <c r="B861" s="13"/>
+      <c r="B861" s="14"/>
     </row>
     <row r="862">
-      <c r="B862" s="13"/>
+      <c r="B862" s="14"/>
     </row>
     <row r="863">
-      <c r="B863" s="13"/>
+      <c r="B863" s="14"/>
     </row>
     <row r="864">
-      <c r="B864" s="13"/>
+      <c r="B864" s="14"/>
     </row>
     <row r="865">
-      <c r="B865" s="13"/>
+      <c r="B865" s="14"/>
     </row>
     <row r="866">
-      <c r="B866" s="13"/>
+      <c r="B866" s="14"/>
     </row>
     <row r="867">
-      <c r="B867" s="13"/>
+      <c r="B867" s="14"/>
     </row>
     <row r="868">
-      <c r="B868" s="13"/>
+      <c r="B868" s="14"/>
     </row>
     <row r="869">
-      <c r="B869" s="13"/>
+      <c r="B869" s="14"/>
     </row>
     <row r="870">
-      <c r="B870" s="13"/>
+      <c r="B870" s="14"/>
     </row>
     <row r="871">
-      <c r="B871" s="13"/>
+      <c r="B871" s="14"/>
     </row>
     <row r="872">
-      <c r="B872" s="13"/>
+      <c r="B872" s="14"/>
     </row>
     <row r="873">
-      <c r="B873" s="13"/>
+      <c r="B873" s="14"/>
     </row>
     <row r="874">
-      <c r="B874" s="13"/>
+      <c r="B874" s="14"/>
     </row>
     <row r="875">
-      <c r="B875" s="13"/>
+      <c r="B875" s="14"/>
     </row>
     <row r="876">
-      <c r="B876" s="13"/>
+      <c r="B876" s="14"/>
     </row>
     <row r="877">
-      <c r="B877" s="13"/>
+      <c r="B877" s="14"/>
     </row>
     <row r="878">
-      <c r="B878" s="13"/>
+      <c r="B878" s="14"/>
     </row>
     <row r="879">
-      <c r="B879" s="13"/>
+      <c r="B879" s="14"/>
     </row>
     <row r="880">
-      <c r="B880" s="13"/>
+      <c r="B880" s="14"/>
     </row>
     <row r="881">
-      <c r="B881" s="13"/>
+      <c r="B881" s="14"/>
     </row>
     <row r="882">
-      <c r="B882" s="13"/>
+      <c r="B882" s="14"/>
     </row>
     <row r="883">
-      <c r="B883" s="13"/>
+      <c r="B883" s="14"/>
     </row>
     <row r="884">
-      <c r="B884" s="13"/>
+      <c r="B884" s="14"/>
     </row>
     <row r="885">
-      <c r="B885" s="13"/>
+      <c r="B885" s="14"/>
     </row>
     <row r="886">
-      <c r="B886" s="13"/>
+      <c r="B886" s="14"/>
     </row>
     <row r="887">
-      <c r="B887" s="13"/>
+      <c r="B887" s="14"/>
     </row>
     <row r="888">
-      <c r="B888" s="13"/>
+      <c r="B888" s="14"/>
     </row>
     <row r="889">
-      <c r="B889" s="13"/>
+      <c r="B889" s="14"/>
     </row>
     <row r="890">
-      <c r="B890" s="13"/>
+      <c r="B890" s="14"/>
     </row>
     <row r="891">
-      <c r="B891" s="13"/>
+      <c r="B891" s="14"/>
     </row>
     <row r="892">
-      <c r="B892" s="13"/>
+      <c r="B892" s="14"/>
     </row>
     <row r="893">
-      <c r="B893" s="13"/>
+      <c r="B893" s="14"/>
     </row>
     <row r="894">
-      <c r="B894" s="13"/>
+      <c r="B894" s="14"/>
     </row>
     <row r="895">
-      <c r="B895" s="13"/>
+      <c r="B895" s="14"/>
     </row>
     <row r="896">
-      <c r="B896" s="13"/>
+      <c r="B896" s="14"/>
     </row>
     <row r="897">
-      <c r="B897" s="13"/>
+      <c r="B897" s="14"/>
     </row>
     <row r="898">
-      <c r="B898" s="13"/>
+      <c r="B898" s="14"/>
     </row>
     <row r="899">
-      <c r="B899" s="13"/>
+      <c r="B899" s="14"/>
     </row>
     <row r="900">
-      <c r="B900" s="13"/>
+      <c r="B900" s="14"/>
     </row>
     <row r="901">
-      <c r="B901" s="13"/>
+      <c r="B901" s="14"/>
     </row>
     <row r="902">
-      <c r="B902" s="13"/>
+      <c r="B902" s="14"/>
     </row>
     <row r="903">
-      <c r="B903" s="13"/>
+      <c r="B903" s="14"/>
     </row>
     <row r="904">
-      <c r="B904" s="13"/>
+      <c r="B904" s="14"/>
     </row>
     <row r="905">
-      <c r="B905" s="13"/>
+      <c r="B905" s="14"/>
     </row>
     <row r="906">
-      <c r="B906" s="13"/>
+      <c r="B906" s="14"/>
     </row>
     <row r="907">
-      <c r="B907" s="13"/>
+      <c r="B907" s="14"/>
     </row>
     <row r="908">
-      <c r="B908" s="13"/>
+      <c r="B908" s="14"/>
     </row>
     <row r="909">
-      <c r="B909" s="13"/>
+      <c r="B909" s="14"/>
     </row>
     <row r="910">
-      <c r="B910" s="13"/>
+      <c r="B910" s="14"/>
     </row>
     <row r="911">
-      <c r="B911" s="13"/>
+      <c r="B911" s="14"/>
     </row>
     <row r="912">
-      <c r="B912" s="13"/>
+      <c r="B912" s="14"/>
     </row>
     <row r="913">
-      <c r="B913" s="13"/>
+      <c r="B913" s="14"/>
     </row>
     <row r="914">
-      <c r="B914" s="13"/>
+      <c r="B914" s="14"/>
     </row>
     <row r="915">
-      <c r="B915" s="13"/>
+      <c r="B915" s="14"/>
     </row>
     <row r="916">
-      <c r="B916" s="13"/>
+      <c r="B916" s="14"/>
     </row>
     <row r="917">
-      <c r="B917" s="13"/>
+      <c r="B917" s="14"/>
     </row>
     <row r="918">
-      <c r="B918" s="13"/>
+      <c r="B918" s="14"/>
     </row>
     <row r="919">
-      <c r="B919" s="13"/>
+      <c r="B919" s="14"/>
     </row>
     <row r="920">
-      <c r="B920" s="13"/>
+      <c r="B920" s="14"/>
     </row>
     <row r="921">
-      <c r="B921" s="13"/>
+      <c r="B921" s="14"/>
     </row>
     <row r="922">
-      <c r="B922" s="13"/>
+      <c r="B922" s="14"/>
     </row>
     <row r="923">
-      <c r="B923" s="13"/>
+      <c r="B923" s="14"/>
     </row>
     <row r="924">
-      <c r="B924" s="13"/>
+      <c r="B924" s="14"/>
     </row>
     <row r="925">
-      <c r="B925" s="13"/>
+      <c r="B925" s="14"/>
     </row>
     <row r="926">
-      <c r="B926" s="13"/>
+      <c r="B926" s="14"/>
     </row>
     <row r="927">
-      <c r="B927" s="13"/>
+      <c r="B927" s="14"/>
     </row>
     <row r="928">
-      <c r="B928" s="13"/>
+      <c r="B928" s="14"/>
     </row>
     <row r="929">
-      <c r="B929" s="13"/>
+      <c r="B929" s="14"/>
     </row>
     <row r="930">
-      <c r="B930" s="13"/>
+      <c r="B930" s="14"/>
     </row>
     <row r="931">
-      <c r="B931" s="13"/>
+      <c r="B931" s="14"/>
     </row>
     <row r="932">
-      <c r="B932" s="13"/>
+      <c r="B932" s="14"/>
     </row>
     <row r="933">
-      <c r="B933" s="13"/>
+      <c r="B933" s="14"/>
     </row>
     <row r="934">
-      <c r="B934" s="13"/>
+      <c r="B934" s="14"/>
     </row>
     <row r="935">
-      <c r="B935" s="13"/>
+      <c r="B935" s="14"/>
     </row>
     <row r="936">
-      <c r="B936" s="13"/>
+      <c r="B936" s="14"/>
     </row>
     <row r="937">
-      <c r="B937" s="13"/>
+      <c r="B937" s="14"/>
     </row>
     <row r="938">
-      <c r="B938" s="13"/>
+      <c r="B938" s="14"/>
     </row>
     <row r="939">
-      <c r="B939" s="13"/>
+      <c r="B939" s="14"/>
     </row>
     <row r="940">
-      <c r="B940" s="13"/>
+      <c r="B940" s="14"/>
     </row>
     <row r="941">
-      <c r="B941" s="13"/>
+      <c r="B941" s="14"/>
     </row>
     <row r="942">
-      <c r="B942" s="13"/>
+      <c r="B942" s="14"/>
     </row>
     <row r="943">
-      <c r="B943" s="13"/>
+      <c r="B943" s="14"/>
     </row>
     <row r="944">
-      <c r="B944" s="13"/>
+      <c r="B944" s="14"/>
     </row>
     <row r="945">
-      <c r="B945" s="13"/>
+      <c r="B945" s="14"/>
     </row>
     <row r="946">
-      <c r="B946" s="13"/>
+      <c r="B946" s="14"/>
     </row>
     <row r="947">
-      <c r="B947" s="13"/>
+      <c r="B947" s="14"/>
     </row>
     <row r="948">
-      <c r="B948" s="13"/>
+      <c r="B948" s="14"/>
     </row>
     <row r="949">
-      <c r="B949" s="13"/>
+      <c r="B949" s="14"/>
     </row>
     <row r="950">
-      <c r="B950" s="13"/>
+      <c r="B950" s="14"/>
     </row>
     <row r="951">
-      <c r="B951" s="13"/>
+      <c r="B951" s="14"/>
     </row>
     <row r="952">
-      <c r="B952" s="13"/>
+      <c r="B952" s="14"/>
     </row>
     <row r="953">
-      <c r="B953" s="13"/>
+      <c r="B953" s="14"/>
     </row>
     <row r="954">
-      <c r="B954" s="13"/>
+      <c r="B954" s="14"/>
     </row>
     <row r="955">
-      <c r="B955" s="13"/>
+      <c r="B955" s="14"/>
     </row>
     <row r="956">
-      <c r="B956" s="13"/>
+      <c r="B956" s="14"/>
     </row>
     <row r="957">
-      <c r="B957" s="13"/>
+      <c r="B957" s="14"/>
     </row>
     <row r="958">
-      <c r="B958" s="13"/>
+      <c r="B958" s="14"/>
     </row>
     <row r="959">
-      <c r="B959" s="13"/>
+      <c r="B959" s="14"/>
     </row>
     <row r="960">
-      <c r="B960" s="13"/>
+      <c r="B960" s="14"/>
     </row>
     <row r="961">
-      <c r="B961" s="13"/>
+      <c r="B961" s="14"/>
     </row>
     <row r="962">
-      <c r="B962" s="13"/>
+      <c r="B962" s="14"/>
     </row>
     <row r="963">
-      <c r="B963" s="13"/>
+      <c r="B963" s="14"/>
     </row>
     <row r="964">
-      <c r="B964" s="13"/>
+      <c r="B964" s="14"/>
     </row>
     <row r="965">
-      <c r="B965" s="13"/>
+      <c r="B965" s="14"/>
     </row>
     <row r="966">
-      <c r="B966" s="13"/>
+      <c r="B966" s="14"/>
     </row>
     <row r="967">
-      <c r="B967" s="13"/>
+      <c r="B967" s="14"/>
     </row>
     <row r="968">
-      <c r="B968" s="13"/>
+      <c r="B968" s="14"/>
     </row>
     <row r="969">
-      <c r="B969" s="13"/>
+      <c r="B969" s="14"/>
     </row>
     <row r="970">
-      <c r="B970" s="13"/>
+      <c r="B970" s="14"/>
     </row>
     <row r="971">
-      <c r="B971" s="13"/>
+      <c r="B971" s="14"/>
     </row>
     <row r="972">
-      <c r="B972" s="13"/>
+      <c r="B972" s="14"/>
     </row>
     <row r="973">
-      <c r="B973" s="13"/>
+      <c r="B973" s="14"/>
     </row>
     <row r="974">
-      <c r="B974" s="13"/>
+      <c r="B974" s="14"/>
     </row>
     <row r="975">
-      <c r="B975" s="13"/>
+      <c r="B975" s="14"/>
     </row>
     <row r="976">
-      <c r="B976" s="13"/>
+      <c r="B976" s="14"/>
     </row>
     <row r="977">
-      <c r="B977" s="13"/>
+      <c r="B977" s="14"/>
     </row>
     <row r="978">
-      <c r="B978" s="13"/>
+      <c r="B978" s="14"/>
     </row>
     <row r="979">
-      <c r="B979" s="13"/>
+      <c r="B979" s="14"/>
     </row>
     <row r="980">
-      <c r="B980" s="13"/>
+      <c r="B980" s="14"/>
     </row>
     <row r="981">
-      <c r="B981" s="13"/>
+      <c r="B981" s="14"/>
     </row>
     <row r="982">
-      <c r="B982" s="13"/>
+      <c r="B982" s="14"/>
     </row>
     <row r="983">
-      <c r="B983" s="13"/>
+      <c r="B983" s="14"/>
     </row>
     <row r="984">
-      <c r="B984" s="13"/>
+      <c r="B984" s="14"/>
     </row>
     <row r="985">
-      <c r="B985" s="13"/>
+      <c r="B985" s="14"/>
     </row>
     <row r="986">
-      <c r="B986" s="13"/>
+      <c r="B986" s="14"/>
     </row>
     <row r="987">
-      <c r="B987" s="13"/>
+      <c r="B987" s="14"/>
     </row>
     <row r="988">
-      <c r="B988" s="13"/>
+      <c r="B988" s="14"/>
     </row>
     <row r="989">
-      <c r="B989" s="13"/>
+      <c r="B989" s="14"/>
     </row>
     <row r="990">
-      <c r="B990" s="13"/>
+      <c r="B990" s="14"/>
     </row>
     <row r="991">
-      <c r="B991" s="13"/>
+      <c r="B991" s="14"/>
     </row>
     <row r="992">
-      <c r="B992" s="13"/>
+      <c r="B992" s="14"/>
     </row>
     <row r="993">
-      <c r="B993" s="13"/>
+      <c r="B993" s="14"/>
     </row>
     <row r="994">
-      <c r="B994" s="13"/>
+      <c r="B994" s="14"/>
     </row>
     <row r="995">
-      <c r="B995" s="13"/>
+      <c r="B995" s="14"/>
     </row>
     <row r="996">
-      <c r="B996" s="13"/>
+      <c r="B996" s="14"/>
     </row>
     <row r="997">
-      <c r="B997" s="13"/>
+      <c r="B997" s="14"/>
     </row>
     <row r="998">
-      <c r="B998" s="13"/>
+      <c r="B998" s="14"/>
     </row>
     <row r="999">
-      <c r="B999" s="13"/>
+      <c r="B999" s="14"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="13"/>
+      <c r="B1000" s="14"/>
     </row>
     <row r="1001">
-      <c r="B1001" s="13"/>
+      <c r="B1001" s="14"/>
     </row>
     <row r="1002">
-      <c r="B1002" s="13"/>
+      <c r="B1002" s="14"/>
     </row>
     <row r="1003">
-      <c r="B1003" s="13"/>
+      <c r="B1003" s="14"/>
     </row>
     <row r="1004">
-      <c r="B1004" s="13"/>
+      <c r="B1004" s="14"/>
     </row>
     <row r="1005">
-      <c r="B1005" s="13"/>
+      <c r="B1005" s="14"/>
     </row>
     <row r="1006">
-      <c r="B1006" s="13"/>
+      <c r="B1006" s="14"/>
     </row>
     <row r="1007">
-      <c r="B1007" s="13"/>
+      <c r="B1007" s="14"/>
     </row>
     <row r="1008">
-      <c r="B1008" s="13"/>
+      <c r="B1008" s="14"/>
     </row>
     <row r="1009">
-      <c r="B1009" s="13"/>
+      <c r="B1009" s="14"/>
     </row>
     <row r="1010">
-      <c r="B1010" s="13"/>
+      <c r="B1010" s="14"/>
     </row>
     <row r="1011">
-      <c r="B1011" s="13"/>
+      <c r="B1011" s="14"/>
     </row>
     <row r="1012">
-      <c r="B1012" s="13"/>
+      <c r="B1012" s="14"/>
     </row>
     <row r="1013">
-      <c r="B1013" s="13"/>
+      <c r="B1013" s="14"/>
     </row>
     <row r="1014">
-      <c r="B1014" s="13"/>
+      <c r="B1014" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/locations.xlsx
+++ b/Data/locations.xlsx
@@ -43,235 +43,235 @@
     <t>${expectedCremationNoFacilities}</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-north-sacramento/caacn.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-north-sacramento/caacn.html</t>
   </si>
   <si>
     <t>caacn</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/roseville/affordable-cremation-funeral-service-roseville/caacr.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/roseville/affordable-cremation-funeral-service-roseville/caacr.html</t>
   </si>
   <si>
     <t>caacr</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-south-sacramento/caacs.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-south-sacramento/caacs.html</t>
   </si>
   <si>
     <t>caacs</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/placerville/el-dorado-funeral-cremation-services-placerville/caaed.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/placerville/el-dorado-funeral-cremation-services-placerville/caaed.html</t>
   </si>
   <si>
     <t>caaed</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/chico/affordable-mortuary/cabam.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/chico/affordable-mortuary/cabam.html</t>
   </si>
   <si>
     <t>cabam</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/roseville/blue-oaks-cremation-burial-services/cablo.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/roseville/blue-oaks-cremation-burial-services/cablo.html</t>
   </si>
   <si>
     <t>cablo</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/chico/brusie-funeral-home/cabru.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/chico/brusie-funeral-home/cabru.html</t>
   </si>
   <si>
     <t>cabru</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/jackson/daneri-mortuary/cadan.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/jackson/daneri-mortuary/cadan.html</t>
   </si>
   <si>
     <t>cadan</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/pine-grove/amador-hills-cremation-funeral-service/cadll.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/pine-grove/amador-hills-cremation-funeral-service/cadll.html</t>
   </si>
   <si>
     <t>cadll</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/orange/omega-society/caoms.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/orange/omega-society/caoms.html</t>
   </si>
   <si>
     <t>caoms</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/california/yuba-city/ullrey-memorial-chapel/caulm.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/california/yuba-city/ullrey-memorial-chapel/caulm.html</t>
   </si>
   <si>
     <t>caulm</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/denver/a-basic-cremation/coabd.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/denver/a-basic-cremation/coabd.html</t>
   </si>
   <si>
     <t>coabd</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/arvada/aspen-mortuaries-arvada/coama.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/arvada/aspen-mortuaries-arvada/coama.html</t>
   </si>
   <si>
     <t>coama</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/commerce-city/romero-funeral-home-and-cremations-commerce-city/coamc.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/commerce-city/romero-funeral-home-and-cremations-commerce-city/coamc.html</t>
   </si>
   <si>
     <t>coamc</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/lakewood/aspen-mortuaries-lakewood/coaml.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/lakewood/aspen-mortuaries-lakewood/coaml.html</t>
   </si>
   <si>
     <t>coaml</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/all-states-cremation-colorado-springs/coasc.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/all-states-cremation-colorado-springs/coasc.html</t>
   </si>
   <si>
     <t>coasc</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/littleton/all-states-cremation-centennial/coasl.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/littleton/all-states-cremation-centennial/coasl.html</t>
   </si>
   <si>
     <t>coasl</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/wheat-ridge/all-states-cremation-wheat-ridge/coasr.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/wheat-ridge/all-states-cremation-wheat-ridge/coasr.html</t>
   </si>
   <si>
     <t>coasr</t>
   </si>
   <si>
-    <t>http://staging.afterall.com/funeral-cremation/colorado/westminster/all-states-cremation-westminster/coasw.html</t>
+    <t>http://staging.altogetherfuneral.com/funeral-cremation/colorado/westminster/all-states-cremation-westminster/coasw.html</t>
   </si>
   <si>
     <t>coasw</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/all-veterans-funeral-cremation-colorado-springs/coavc.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/all-veterans-funeral-cremation-colorado-springs/coavc.html</t>
   </si>
   <si>
     <t>coavc</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/littleton/all-veterans-funeral-cremation-centennial/coavl.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/littleton/all-veterans-funeral-cremation-centennial/coavl.html</t>
   </si>
   <si>
     <t>coavl</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/wheat-ridge/all-veterans-funeral-cremation-wheat-ridge/coavr.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/wheat-ridge/all-veterans-funeral-cremation-wheat-ridge/coavr.html</t>
   </si>
   <si>
     <t>coavr</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/westminster/all-veterans-funeral-cremation-westminster/coavw.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/westminster/all-veterans-funeral-cremation-westminster/coavw.html</t>
   </si>
   <si>
     <t>coavw</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/parker/ponderosa-valley-funeral-services/copvp.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/parker/ponderosa-valley-funeral-services/copvp.html</t>
   </si>
   <si>
     <t>copvp</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/aurora/romero-funeral-home-and-cremations-aurora/coroa.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/aurora/romero-funeral-home-and-cremations-aurora/coroa.html</t>
   </si>
   <si>
     <t>coroa</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/denver/romero-funeral-home-and-cremations-denver/corod.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/denver/romero-funeral-home-and-cremations-denver/corod.html</t>
   </si>
   <si>
     <t>corod</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/lakewood/romero-funeral-home-and-cremations-lakewood/corol.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/lakewood/romero-funeral-home-and-cremations-lakewood/corol.html</t>
   </si>
   <si>
     <t>corol</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-platte/cotsf.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-platte/cotsf.html</t>
   </si>
   <si>
     <t>cotsf</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-north/cotsn.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-north/cotsn.html</t>
   </si>
   <si>
     <t>cotsn</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/canby/canby-funeral-chapel/orccf.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/canby/canby-funeral-chapel/orccf.html</t>
   </si>
   <si>
     <t>orccf</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/molalla/molalla-funeral-chapel/orcmf.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/molalla/molalla-funeral-chapel/orcmf.html</t>
   </si>
   <si>
     <t>orcmf</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/portland/crown-cremation-services-portland/orcmp.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/portland/crown-cremation-services-portland/orcmp.html</t>
   </si>
   <si>
     <t>orcmp</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/salem/crown-cremation-services-salem/orcms.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/salem/crown-cremation-services-salem/orcms.html</t>
   </si>
   <si>
     <t>orcms</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/tualatin/crown-cremation-services-tualatin/orcmt.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/tualatin/crown-cremation-services-tualatin/orcmt.html</t>
   </si>
   <si>
     <t>orcmt</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/eugene/alpha-cremation-services/ormac.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/eugene/alpha-cremation-services/ormac.html</t>
   </si>
   <si>
     <t>ormac</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/eugene/lane-memorial-funeral-home/ormlm.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/eugene/lane-memorial-funeral-home/ormlm.html</t>
   </si>
   <si>
     <t>ormlm</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/junction-city/murphy-musgrove-funeral-home/ormmm.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/junction-city/murphy-musgrove-funeral-home/ormmm.html</t>
   </si>
   <si>
     <t>ormmm</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/springfield/springfield-memorial-funeral-home/ormsm.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/springfield/springfield-memorial-funeral-home/ormsm.html</t>
   </si>
   <si>
     <t>ormsm</t>
   </si>
   <si>
-    <t>https://staging.afterall.com/funeral-cremation/oregon/eugene/musgrove-family-mortuary/ormwl.html</t>
+    <t>https://staging.altogetherfuneral.com/funeral-cremation/oregon/eugene/musgrove-family-mortuary/ormwl.html</t>
   </si>
   <si>
     <t>ormwl</t>
@@ -299,6 +299,9 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -306,9 +309,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -354,6 +354,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -695,7 +698,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for caacs</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -728,7 +731,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for caaed</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -761,7 +764,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for cabam</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -794,7 +797,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for cablo</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -827,7 +830,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for cabru</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -860,7 +863,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for cadan</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -893,7 +896,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for cadll</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -926,7 +929,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for caoms</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -959,7 +962,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for caulm</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -992,7 +995,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for coabd</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1028,7 +1031,7 @@
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="7">
@@ -1061,7 +1064,7 @@
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="7">
@@ -1094,7 +1097,7 @@
       <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="7">
@@ -1127,7 +1130,7 @@
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="7">
@@ -1148,7 +1151,7 @@
       <c r="I17" s="7">
         <v>4.0</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="12">
         <v>3.0</v>
       </c>
     </row>
@@ -1157,10 +1160,10 @@
         <f t="shared" si="1"/>
         <v>Run GS for coasl</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="7">
@@ -1193,7 +1196,7 @@
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="7">
@@ -1223,10 +1226,10 @@
         <f t="shared" si="1"/>
         <v>Run GS for coasw</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="7">
@@ -1259,7 +1262,7 @@
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="7">
@@ -1292,7 +1295,7 @@
       <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="7">
@@ -1325,7 +1328,7 @@
       <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="7">
@@ -1355,10 +1358,10 @@
         <f t="shared" si="1"/>
         <v>Run GS for coavw</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="7">
@@ -1391,7 +1394,7 @@
       <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="7">
@@ -1421,10 +1424,10 @@
         <f t="shared" si="1"/>
         <v>Run GS for coroa</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="7">
@@ -1454,10 +1457,10 @@
         <f t="shared" si="1"/>
         <v>Run GS for corod</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="7">
@@ -1490,7 +1493,7 @@
       <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="7">
@@ -1520,10 +1523,10 @@
         <f t="shared" si="1"/>
         <v>Run GS for cotsf</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="7">
@@ -1553,10 +1556,10 @@
         <f t="shared" si="1"/>
         <v>Run GS for cotsn</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="7">
@@ -1685,7 +1688,7 @@
         <f t="shared" si="1"/>
         <v>Run GS for orcms</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1912,2955 +1915,2945 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="14"/>
+      <c r="B41" s="15"/>
     </row>
     <row r="42">
-      <c r="B42" s="14"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43">
-      <c r="B43" s="14"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44">
-      <c r="B44" s="14"/>
+      <c r="B44" s="15"/>
     </row>
     <row r="45">
-      <c r="B45" s="14"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46">
-      <c r="B46" s="14"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47">
-      <c r="B47" s="14"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48">
-      <c r="B48" s="14"/>
+      <c r="B48" s="15"/>
     </row>
     <row r="49">
-      <c r="B49" s="14"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50">
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51">
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52">
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53">
-      <c r="B53" s="14"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54">
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55">
-      <c r="B55" s="14"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56">
-      <c r="B56" s="14"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57">
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58">
-      <c r="B58" s="14"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59">
-      <c r="B59" s="14"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60">
-      <c r="B60" s="14"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61">
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62">
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63">
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64">
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65">
-      <c r="B65" s="14"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66">
-      <c r="B66" s="14"/>
+      <c r="B66" s="15"/>
     </row>
     <row r="67">
-      <c r="B67" s="14"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68">
-      <c r="B68" s="14"/>
+      <c r="B68" s="15"/>
     </row>
     <row r="69">
-      <c r="B69" s="14"/>
+      <c r="B69" s="15"/>
     </row>
     <row r="70">
-      <c r="B70" s="14"/>
+      <c r="B70" s="15"/>
     </row>
     <row r="71">
-      <c r="B71" s="14"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72">
-      <c r="B72" s="14"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="73">
-      <c r="B73" s="14"/>
+      <c r="B73" s="15"/>
     </row>
     <row r="74">
-      <c r="B74" s="14"/>
+      <c r="B74" s="15"/>
     </row>
     <row r="75">
-      <c r="B75" s="14"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76">
-      <c r="B76" s="14"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77">
-      <c r="B77" s="14"/>
+      <c r="B77" s="15"/>
     </row>
     <row r="78">
-      <c r="B78" s="14"/>
+      <c r="B78" s="15"/>
     </row>
     <row r="79">
-      <c r="B79" s="14"/>
+      <c r="B79" s="15"/>
     </row>
     <row r="80">
-      <c r="B80" s="14"/>
+      <c r="B80" s="15"/>
     </row>
     <row r="81">
-      <c r="B81" s="14"/>
+      <c r="B81" s="15"/>
     </row>
     <row r="82">
-      <c r="B82" s="14"/>
+      <c r="B82" s="15"/>
     </row>
     <row r="83">
-      <c r="B83" s="14"/>
+      <c r="B83" s="15"/>
     </row>
     <row r="84">
-      <c r="B84" s="14"/>
+      <c r="B84" s="15"/>
     </row>
     <row r="85">
-      <c r="B85" s="14"/>
+      <c r="B85" s="15"/>
     </row>
     <row r="86">
-      <c r="B86" s="14"/>
+      <c r="B86" s="15"/>
     </row>
     <row r="87">
-      <c r="B87" s="14"/>
+      <c r="B87" s="15"/>
     </row>
     <row r="88">
-      <c r="B88" s="14"/>
+      <c r="B88" s="15"/>
     </row>
     <row r="89">
-      <c r="B89" s="14"/>
+      <c r="B89" s="15"/>
     </row>
     <row r="90">
-      <c r="B90" s="14"/>
+      <c r="B90" s="15"/>
     </row>
     <row r="91">
-      <c r="B91" s="14"/>
+      <c r="B91" s="15"/>
     </row>
     <row r="92">
-      <c r="B92" s="14"/>
+      <c r="B92" s="15"/>
     </row>
     <row r="93">
-      <c r="B93" s="14"/>
+      <c r="B93" s="15"/>
     </row>
     <row r="94">
-      <c r="B94" s="14"/>
+      <c r="B94" s="15"/>
     </row>
     <row r="95">
-      <c r="B95" s="14"/>
+      <c r="B95" s="15"/>
     </row>
     <row r="96">
-      <c r="B96" s="14"/>
+      <c r="B96" s="15"/>
     </row>
     <row r="97">
-      <c r="B97" s="14"/>
+      <c r="B97" s="15"/>
     </row>
     <row r="98">
-      <c r="B98" s="14"/>
+      <c r="B98" s="15"/>
     </row>
     <row r="99">
-      <c r="B99" s="14"/>
+      <c r="B99" s="15"/>
     </row>
     <row r="100">
-      <c r="B100" s="14"/>
+      <c r="B100" s="15"/>
     </row>
     <row r="101">
-      <c r="B101" s="14"/>
+      <c r="B101" s="15"/>
     </row>
     <row r="102">
-      <c r="B102" s="14"/>
+      <c r="B102" s="15"/>
     </row>
     <row r="103">
-      <c r="B103" s="14"/>
+      <c r="B103" s="15"/>
     </row>
     <row r="104">
-      <c r="B104" s="14"/>
+      <c r="B104" s="15"/>
     </row>
     <row r="105">
-      <c r="B105" s="14"/>
+      <c r="B105" s="15"/>
     </row>
     <row r="106">
-      <c r="B106" s="14"/>
+      <c r="B106" s="15"/>
     </row>
     <row r="107">
-      <c r="B107" s="14"/>
+      <c r="B107" s="15"/>
     </row>
     <row r="108">
-      <c r="B108" s="14"/>
+      <c r="B108" s="15"/>
     </row>
     <row r="109">
-      <c r="B109" s="14"/>
+      <c r="B109" s="15"/>
     </row>
     <row r="110">
-      <c r="B110" s="14"/>
+      <c r="B110" s="15"/>
     </row>
     <row r="111">
-      <c r="B111" s="14"/>
+      <c r="B111" s="15"/>
     </row>
     <row r="112">
-      <c r="B112" s="14"/>
+      <c r="B112" s="15"/>
     </row>
     <row r="113">
-      <c r="B113" s="14"/>
+      <c r="B113" s="15"/>
     </row>
     <row r="114">
-      <c r="B114" s="14"/>
+      <c r="B114" s="15"/>
     </row>
     <row r="115">
-      <c r="B115" s="14"/>
+      <c r="B115" s="15"/>
     </row>
     <row r="116">
-      <c r="B116" s="14"/>
+      <c r="B116" s="15"/>
     </row>
     <row r="117">
-      <c r="B117" s="14"/>
+      <c r="B117" s="15"/>
     </row>
     <row r="118">
-      <c r="B118" s="14"/>
+      <c r="B118" s="15"/>
     </row>
     <row r="119">
-      <c r="B119" s="14"/>
+      <c r="B119" s="15"/>
     </row>
     <row r="120">
-      <c r="B120" s="14"/>
+      <c r="B120" s="15"/>
     </row>
     <row r="121">
-      <c r="B121" s="14"/>
+      <c r="B121" s="15"/>
     </row>
     <row r="122">
-      <c r="B122" s="14"/>
+      <c r="B122" s="15"/>
     </row>
     <row r="123">
-      <c r="B123" s="14"/>
+      <c r="B123" s="15"/>
     </row>
     <row r="124">
-      <c r="B124" s="14"/>
+      <c r="B124" s="15"/>
     </row>
     <row r="125">
-      <c r="B125" s="14"/>
+      <c r="B125" s="15"/>
     </row>
     <row r="126">
-      <c r="B126" s="14"/>
+      <c r="B126" s="15"/>
     </row>
     <row r="127">
-      <c r="B127" s="14"/>
+      <c r="B127" s="15"/>
     </row>
     <row r="128">
-      <c r="B128" s="14"/>
+      <c r="B128" s="15"/>
     </row>
     <row r="129">
-      <c r="B129" s="14"/>
+      <c r="B129" s="15"/>
     </row>
     <row r="130">
-      <c r="B130" s="14"/>
+      <c r="B130" s="15"/>
     </row>
     <row r="131">
-      <c r="B131" s="14"/>
+      <c r="B131" s="15"/>
     </row>
     <row r="132">
-      <c r="B132" s="14"/>
+      <c r="B132" s="15"/>
     </row>
     <row r="133">
-      <c r="B133" s="14"/>
+      <c r="B133" s="15"/>
     </row>
     <row r="134">
-      <c r="B134" s="14"/>
+      <c r="B134" s="15"/>
     </row>
     <row r="135">
-      <c r="B135" s="14"/>
+      <c r="B135" s="15"/>
     </row>
     <row r="136">
-      <c r="B136" s="14"/>
+      <c r="B136" s="15"/>
     </row>
     <row r="137">
-      <c r="B137" s="14"/>
+      <c r="B137" s="15"/>
     </row>
     <row r="138">
-      <c r="B138" s="14"/>
+      <c r="B138" s="15"/>
     </row>
     <row r="139">
-      <c r="B139" s="14"/>
+      <c r="B139" s="15"/>
     </row>
     <row r="140">
-      <c r="B140" s="14"/>
+      <c r="B140" s="15"/>
     </row>
     <row r="141">
-      <c r="B141" s="14"/>
+      <c r="B141" s="15"/>
     </row>
     <row r="142">
-      <c r="B142" s="14"/>
+      <c r="B142" s="15"/>
     </row>
     <row r="143">
-      <c r="B143" s="14"/>
+      <c r="B143" s="15"/>
     </row>
     <row r="144">
-      <c r="B144" s="14"/>
+      <c r="B144" s="15"/>
     </row>
     <row r="145">
-      <c r="B145" s="14"/>
+      <c r="B145" s="15"/>
     </row>
     <row r="146">
-      <c r="B146" s="14"/>
+      <c r="B146" s="15"/>
     </row>
     <row r="147">
-      <c r="B147" s="14"/>
+      <c r="B147" s="15"/>
     </row>
     <row r="148">
-      <c r="B148" s="14"/>
+      <c r="B148" s="15"/>
     </row>
     <row r="149">
-      <c r="B149" s="14"/>
+      <c r="B149" s="15"/>
     </row>
     <row r="150">
-      <c r="B150" s="14"/>
+      <c r="B150" s="15"/>
     </row>
     <row r="151">
-      <c r="B151" s="14"/>
+      <c r="B151" s="15"/>
     </row>
     <row r="152">
-      <c r="B152" s="14"/>
+      <c r="B152" s="15"/>
     </row>
     <row r="153">
-      <c r="B153" s="14"/>
+      <c r="B153" s="15"/>
     </row>
     <row r="154">
-      <c r="B154" s="14"/>
+      <c r="B154" s="15"/>
     </row>
     <row r="155">
-      <c r="B155" s="14"/>
+      <c r="B155" s="15"/>
     </row>
     <row r="156">
-      <c r="B156" s="14"/>
+      <c r="B156" s="15"/>
     </row>
     <row r="157">
-      <c r="B157" s="14"/>
+      <c r="B157" s="15"/>
     </row>
     <row r="158">
-      <c r="B158" s="14"/>
+      <c r="B158" s="15"/>
     </row>
     <row r="159">
-      <c r="B159" s="14"/>
+      <c r="B159" s="15"/>
     </row>
     <row r="160">
-      <c r="B160" s="14"/>
+      <c r="B160" s="15"/>
     </row>
     <row r="161">
-      <c r="B161" s="14"/>
+      <c r="B161" s="15"/>
     </row>
     <row r="162">
-      <c r="B162" s="14"/>
+      <c r="B162" s="15"/>
     </row>
     <row r="163">
-      <c r="B163" s="14"/>
+      <c r="B163" s="15"/>
     </row>
     <row r="164">
-      <c r="B164" s="14"/>
+      <c r="B164" s="15"/>
     </row>
     <row r="165">
-      <c r="B165" s="14"/>
+      <c r="B165" s="15"/>
     </row>
     <row r="166">
-      <c r="B166" s="14"/>
+      <c r="B166" s="15"/>
     </row>
     <row r="167">
-      <c r="B167" s="14"/>
+      <c r="B167" s="15"/>
     </row>
     <row r="168">
-      <c r="B168" s="14"/>
+      <c r="B168" s="15"/>
     </row>
     <row r="169">
-      <c r="B169" s="14"/>
+      <c r="B169" s="15"/>
     </row>
     <row r="170">
-      <c r="B170" s="14"/>
+      <c r="B170" s="15"/>
     </row>
     <row r="171">
-      <c r="B171" s="14"/>
+      <c r="B171" s="15"/>
     </row>
     <row r="172">
-      <c r="B172" s="14"/>
+      <c r="B172" s="15"/>
     </row>
     <row r="173">
-      <c r="B173" s="14"/>
+      <c r="B173" s="15"/>
     </row>
     <row r="174">
-      <c r="B174" s="14"/>
+      <c r="B174" s="15"/>
     </row>
     <row r="175">
-      <c r="B175" s="14"/>
+      <c r="B175" s="15"/>
     </row>
     <row r="176">
-      <c r="B176" s="14"/>
+      <c r="B176" s="15"/>
     </row>
     <row r="177">
-      <c r="B177" s="14"/>
+      <c r="B177" s="15"/>
     </row>
     <row r="178">
-      <c r="B178" s="14"/>
+      <c r="B178" s="15"/>
     </row>
     <row r="179">
-      <c r="B179" s="14"/>
+      <c r="B179" s="15"/>
     </row>
     <row r="180">
-      <c r="B180" s="14"/>
+      <c r="B180" s="15"/>
     </row>
     <row r="181">
-      <c r="B181" s="14"/>
+      <c r="B181" s="15"/>
     </row>
     <row r="182">
-      <c r="B182" s="14"/>
+      <c r="B182" s="15"/>
     </row>
     <row r="183">
-      <c r="B183" s="14"/>
+      <c r="B183" s="15"/>
     </row>
     <row r="184">
-      <c r="B184" s="14"/>
+      <c r="B184" s="15"/>
     </row>
     <row r="185">
-      <c r="B185" s="14"/>
+      <c r="B185" s="15"/>
     </row>
     <row r="186">
-      <c r="B186" s="14"/>
+      <c r="B186" s="15"/>
     </row>
     <row r="187">
-      <c r="B187" s="14"/>
+      <c r="B187" s="15"/>
     </row>
     <row r="188">
-      <c r="B188" s="14"/>
+      <c r="B188" s="15"/>
     </row>
     <row r="189">
-      <c r="B189" s="14"/>
+      <c r="B189" s="15"/>
     </row>
     <row r="190">
-      <c r="B190" s="14"/>
+      <c r="B190" s="15"/>
     </row>
     <row r="191">
-      <c r="B191" s="14"/>
+      <c r="B191" s="15"/>
     </row>
     <row r="192">
-      <c r="B192" s="14"/>
+      <c r="B192" s="15"/>
     </row>
     <row r="193">
-      <c r="B193" s="14"/>
+      <c r="B193" s="15"/>
     </row>
     <row r="194">
-      <c r="B194" s="14"/>
+      <c r="B194" s="15"/>
     </row>
     <row r="195">
-      <c r="B195" s="14"/>
+      <c r="B195" s="15"/>
     </row>
     <row r="196">
-      <c r="B196" s="14"/>
+      <c r="B196" s="15"/>
     </row>
     <row r="197">
-      <c r="B197" s="14"/>
+      <c r="B197" s="15"/>
     </row>
     <row r="198">
-      <c r="B198" s="14"/>
+      <c r="B198" s="15"/>
     </row>
     <row r="199">
-      <c r="B199" s="14"/>
+      <c r="B199" s="15"/>
     </row>
     <row r="200">
-      <c r="B200" s="14"/>
+      <c r="B200" s="15"/>
     </row>
     <row r="201">
-      <c r="B201" s="14"/>
+      <c r="B201" s="15"/>
     </row>
     <row r="202">
-      <c r="B202" s="14"/>
+      <c r="B202" s="15"/>
     </row>
     <row r="203">
-      <c r="B203" s="14"/>
+      <c r="B203" s="15"/>
     </row>
     <row r="204">
-      <c r="B204" s="14"/>
+      <c r="B204" s="15"/>
     </row>
     <row r="205">
-      <c r="B205" s="14"/>
+      <c r="B205" s="15"/>
     </row>
     <row r="206">
-      <c r="B206" s="14"/>
+      <c r="B206" s="15"/>
     </row>
     <row r="207">
-      <c r="B207" s="14"/>
+      <c r="B207" s="15"/>
     </row>
     <row r="208">
-      <c r="B208" s="14"/>
+      <c r="B208" s="15"/>
     </row>
     <row r="209">
-      <c r="B209" s="14"/>
+      <c r="B209" s="15"/>
     </row>
     <row r="210">
-      <c r="B210" s="14"/>
+      <c r="B210" s="15"/>
     </row>
     <row r="211">
-      <c r="B211" s="14"/>
+      <c r="B211" s="15"/>
     </row>
     <row r="212">
-      <c r="B212" s="14"/>
+      <c r="B212" s="15"/>
     </row>
     <row r="213">
-      <c r="B213" s="14"/>
+      <c r="B213" s="15"/>
     </row>
     <row r="214">
-      <c r="B214" s="14"/>
+      <c r="B214" s="15"/>
     </row>
     <row r="215">
-      <c r="B215" s="14"/>
+      <c r="B215" s="15"/>
     </row>
     <row r="216">
-      <c r="B216" s="14"/>
+      <c r="B216" s="15"/>
     </row>
     <row r="217">
-      <c r="B217" s="14"/>
+      <c r="B217" s="15"/>
     </row>
     <row r="218">
-      <c r="B218" s="14"/>
+      <c r="B218" s="15"/>
     </row>
     <row r="219">
-      <c r="B219" s="14"/>
+      <c r="B219" s="15"/>
     </row>
     <row r="220">
-      <c r="B220" s="14"/>
+      <c r="B220" s="15"/>
     </row>
     <row r="221">
-      <c r="B221" s="14"/>
+      <c r="B221" s="15"/>
     </row>
     <row r="222">
-      <c r="B222" s="14"/>
+      <c r="B222" s="15"/>
     </row>
     <row r="223">
-      <c r="B223" s="14"/>
+      <c r="B223" s="15"/>
     </row>
     <row r="224">
-      <c r="B224" s="14"/>
+      <c r="B224" s="15"/>
     </row>
     <row r="225">
-      <c r="B225" s="14"/>
+      <c r="B225" s="15"/>
     </row>
     <row r="226">
-      <c r="B226" s="14"/>
+      <c r="B226" s="15"/>
     </row>
     <row r="227">
-      <c r="B227" s="14"/>
+      <c r="B227" s="15"/>
     </row>
     <row r="228">
-      <c r="B228" s="14"/>
+      <c r="B228" s="15"/>
     </row>
     <row r="229">
-      <c r="B229" s="14"/>
+      <c r="B229" s="15"/>
     </row>
     <row r="230">
-      <c r="B230" s="14"/>
+      <c r="B230" s="15"/>
     </row>
     <row r="231">
-      <c r="B231" s="14"/>
+      <c r="B231" s="15"/>
     </row>
     <row r="232">
-      <c r="B232" s="14"/>
+      <c r="B232" s="15"/>
     </row>
     <row r="233">
-      <c r="B233" s="14"/>
+      <c r="B233" s="15"/>
     </row>
     <row r="234">
-      <c r="B234" s="14"/>
+      <c r="B234" s="15"/>
     </row>
     <row r="235">
-      <c r="B235" s="14"/>
+      <c r="B235" s="15"/>
     </row>
     <row r="236">
-      <c r="B236" s="14"/>
+      <c r="B236" s="15"/>
     </row>
     <row r="237">
-      <c r="B237" s="14"/>
+      <c r="B237" s="15"/>
     </row>
     <row r="238">
-      <c r="B238" s="14"/>
+      <c r="B238" s="15"/>
     </row>
     <row r="239">
-      <c r="B239" s="14"/>
+      <c r="B239" s="15"/>
     </row>
     <row r="240">
-      <c r="B240" s="14"/>
+      <c r="B240" s="15"/>
     </row>
     <row r="241">
-      <c r="B241" s="14"/>
+      <c r="B241" s="15"/>
     </row>
     <row r="242">
-      <c r="B242" s="14"/>
+      <c r="B242" s="15"/>
     </row>
     <row r="243">
-      <c r="B243" s="14"/>
+      <c r="B243" s="15"/>
     </row>
     <row r="244">
-      <c r="B244" s="14"/>
+      <c r="B244" s="15"/>
     </row>
     <row r="245">
-      <c r="B245" s="14"/>
+      <c r="B245" s="15"/>
     </row>
     <row r="246">
-      <c r="B246" s="14"/>
+      <c r="B246" s="15"/>
     </row>
     <row r="247">
-      <c r="B247" s="14"/>
+      <c r="B247" s="15"/>
     </row>
     <row r="248">
-      <c r="B248" s="14"/>
+      <c r="B248" s="15"/>
     </row>
     <row r="249">
-      <c r="B249" s="14"/>
+      <c r="B249" s="15"/>
     </row>
     <row r="250">
-      <c r="B250" s="14"/>
+      <c r="B250" s="15"/>
     </row>
     <row r="251">
-      <c r="B251" s="14"/>
+      <c r="B251" s="15"/>
     </row>
     <row r="252">
-      <c r="B252" s="14"/>
+      <c r="B252" s="15"/>
     </row>
     <row r="253">
-      <c r="B253" s="14"/>
+      <c r="B253" s="15"/>
     </row>
     <row r="254">
-      <c r="B254" s="14"/>
+      <c r="B254" s="15"/>
     </row>
     <row r="255">
-      <c r="B255" s="14"/>
+      <c r="B255" s="15"/>
     </row>
     <row r="256">
-      <c r="B256" s="14"/>
+      <c r="B256" s="15"/>
     </row>
     <row r="257">
-      <c r="B257" s="14"/>
+      <c r="B257" s="15"/>
     </row>
     <row r="258">
-      <c r="B258" s="14"/>
+      <c r="B258" s="15"/>
     </row>
     <row r="259">
-      <c r="B259" s="14"/>
+      <c r="B259" s="15"/>
     </row>
     <row r="260">
-      <c r="B260" s="14"/>
+      <c r="B260" s="15"/>
     </row>
     <row r="261">
-      <c r="B261" s="14"/>
+      <c r="B261" s="15"/>
     </row>
     <row r="262">
-      <c r="B262" s="14"/>
+      <c r="B262" s="15"/>
     </row>
     <row r="263">
-      <c r="B263" s="14"/>
+      <c r="B263" s="15"/>
     </row>
     <row r="264">
-      <c r="B264" s="14"/>
+      <c r="B264" s="15"/>
     </row>
     <row r="265">
-      <c r="B265" s="14"/>
+      <c r="B265" s="15"/>
     </row>
     <row r="266">
-      <c r="B266" s="14"/>
+      <c r="B266" s="15"/>
     </row>
     <row r="267">
-      <c r="B267" s="14"/>
+      <c r="B267" s="15"/>
     </row>
     <row r="268">
-      <c r="B268" s="14"/>
+      <c r="B268" s="15"/>
     </row>
     <row r="269">
-      <c r="B269" s="14"/>
+      <c r="B269" s="15"/>
     </row>
     <row r="270">
-      <c r="B270" s="14"/>
+      <c r="B270" s="15"/>
     </row>
     <row r="271">
-      <c r="B271" s="14"/>
+      <c r="B271" s="15"/>
     </row>
     <row r="272">
-      <c r="B272" s="14"/>
+      <c r="B272" s="15"/>
     </row>
     <row r="273">
-      <c r="B273" s="14"/>
+      <c r="B273" s="15"/>
     </row>
     <row r="274">
-      <c r="B274" s="14"/>
+      <c r="B274" s="15"/>
     </row>
     <row r="275">
-      <c r="B275" s="14"/>
+      <c r="B275" s="15"/>
     </row>
     <row r="276">
-      <c r="B276" s="14"/>
+      <c r="B276" s="15"/>
     </row>
     <row r="277">
-      <c r="B277" s="14"/>
+      <c r="B277" s="15"/>
     </row>
     <row r="278">
-      <c r="B278" s="14"/>
+      <c r="B278" s="15"/>
     </row>
     <row r="279">
-      <c r="B279" s="14"/>
+      <c r="B279" s="15"/>
     </row>
     <row r="280">
-      <c r="B280" s="14"/>
+      <c r="B280" s="15"/>
     </row>
     <row r="281">
-      <c r="B281" s="14"/>
+      <c r="B281" s="15"/>
     </row>
     <row r="282">
-      <c r="B282" s="14"/>
+      <c r="B282" s="15"/>
     </row>
     <row r="283">
-      <c r="B283" s="14"/>
+      <c r="B283" s="15"/>
     </row>
     <row r="284">
-      <c r="B284" s="14"/>
+      <c r="B284" s="15"/>
     </row>
     <row r="285">
-      <c r="B285" s="14"/>
+      <c r="B285" s="15"/>
     </row>
     <row r="286">
-      <c r="B286" s="14"/>
+      <c r="B286" s="15"/>
     </row>
     <row r="287">
-      <c r="B287" s="14"/>
+      <c r="B287" s="15"/>
     </row>
     <row r="288">
-      <c r="B288" s="14"/>
+      <c r="B288" s="15"/>
     </row>
     <row r="289">
-      <c r="B289" s="14"/>
+      <c r="B289" s="15"/>
     </row>
     <row r="290">
-      <c r="B290" s="14"/>
+      <c r="B290" s="15"/>
     </row>
     <row r="291">
-      <c r="B291" s="14"/>
+      <c r="B291" s="15"/>
     </row>
     <row r="292">
-      <c r="B292" s="14"/>
+      <c r="B292" s="15"/>
     </row>
     <row r="293">
-      <c r="B293" s="14"/>
+      <c r="B293" s="15"/>
     </row>
     <row r="294">
-      <c r="B294" s="14"/>
+      <c r="B294" s="15"/>
     </row>
     <row r="295">
-      <c r="B295" s="14"/>
+      <c r="B295" s="15"/>
     </row>
     <row r="296">
-      <c r="B296" s="14"/>
+      <c r="B296" s="15"/>
     </row>
     <row r="297">
-      <c r="B297" s="14"/>
+      <c r="B297" s="15"/>
     </row>
     <row r="298">
-      <c r="B298" s="14"/>
+      <c r="B298" s="15"/>
     </row>
     <row r="299">
-      <c r="B299" s="14"/>
+      <c r="B299" s="15"/>
     </row>
     <row r="300">
-      <c r="B300" s="14"/>
+      <c r="B300" s="15"/>
     </row>
     <row r="301">
-      <c r="B301" s="14"/>
+      <c r="B301" s="15"/>
     </row>
     <row r="302">
-      <c r="B302" s="14"/>
+      <c r="B302" s="15"/>
     </row>
     <row r="303">
-      <c r="B303" s="14"/>
+      <c r="B303" s="15"/>
     </row>
     <row r="304">
-      <c r="B304" s="14"/>
+      <c r="B304" s="15"/>
     </row>
     <row r="305">
-      <c r="B305" s="14"/>
+      <c r="B305" s="15"/>
     </row>
     <row r="306">
-      <c r="B306" s="14"/>
+      <c r="B306" s="15"/>
     </row>
     <row r="307">
-      <c r="B307" s="14"/>
+      <c r="B307" s="15"/>
     </row>
     <row r="308">
-      <c r="B308" s="14"/>
+      <c r="B308" s="15"/>
     </row>
     <row r="309">
-      <c r="B309" s="14"/>
+      <c r="B309" s="15"/>
     </row>
     <row r="310">
-      <c r="B310" s="14"/>
+      <c r="B310" s="15"/>
     </row>
     <row r="311">
-      <c r="B311" s="14"/>
+      <c r="B311" s="15"/>
     </row>
     <row r="312">
-      <c r="B312" s="14"/>
+      <c r="B312" s="15"/>
     </row>
     <row r="313">
-      <c r="B313" s="14"/>
+      <c r="B313" s="15"/>
     </row>
     <row r="314">
-      <c r="B314" s="14"/>
+      <c r="B314" s="15"/>
     </row>
     <row r="315">
-      <c r="B315" s="14"/>
+      <c r="B315" s="15"/>
     </row>
     <row r="316">
-      <c r="B316" s="14"/>
+      <c r="B316" s="15"/>
     </row>
     <row r="317">
-      <c r="B317" s="14"/>
+      <c r="B317" s="15"/>
     </row>
     <row r="318">
-      <c r="B318" s="14"/>
+      <c r="B318" s="15"/>
     </row>
     <row r="319">
-      <c r="B319" s="14"/>
+      <c r="B319" s="15"/>
     </row>
     <row r="320">
-      <c r="B320" s="14"/>
+      <c r="B320" s="15"/>
     </row>
     <row r="321">
-      <c r="B321" s="14"/>
+      <c r="B321" s="15"/>
     </row>
     <row r="322">
-      <c r="B322" s="14"/>
+      <c r="B322" s="15"/>
     </row>
     <row r="323">
-      <c r="B323" s="14"/>
+      <c r="B323" s="15"/>
     </row>
     <row r="324">
-      <c r="B324" s="14"/>
+      <c r="B324" s="15"/>
     </row>
     <row r="325">
-      <c r="B325" s="14"/>
+      <c r="B325" s="15"/>
     </row>
     <row r="326">
-      <c r="B326" s="14"/>
+      <c r="B326" s="15"/>
     </row>
     <row r="327">
-      <c r="B327" s="14"/>
+      <c r="B327" s="15"/>
     </row>
     <row r="328">
-      <c r="B328" s="14"/>
+      <c r="B328" s="15"/>
     </row>
     <row r="329">
-      <c r="B329" s="14"/>
+      <c r="B329" s="15"/>
     </row>
     <row r="330">
-      <c r="B330" s="14"/>
+      <c r="B330" s="15"/>
     </row>
     <row r="331">
-      <c r="B331" s="14"/>
+      <c r="B331" s="15"/>
     </row>
     <row r="332">
-      <c r="B332" s="14"/>
+      <c r="B332" s="15"/>
     </row>
     <row r="333">
-      <c r="B333" s="14"/>
+      <c r="B333" s="15"/>
     </row>
     <row r="334">
-      <c r="B334" s="14"/>
+      <c r="B334" s="15"/>
     </row>
     <row r="335">
-      <c r="B335" s="14"/>
+      <c r="B335" s="15"/>
     </row>
     <row r="336">
-      <c r="B336" s="14"/>
+      <c r="B336" s="15"/>
     </row>
     <row r="337">
-      <c r="B337" s="14"/>
+      <c r="B337" s="15"/>
     </row>
     <row r="338">
-      <c r="B338" s="14"/>
+      <c r="B338" s="15"/>
     </row>
     <row r="339">
-      <c r="B339" s="14"/>
+      <c r="B339" s="15"/>
     </row>
     <row r="340">
-      <c r="B340" s="14"/>
+      <c r="B340" s="15"/>
     </row>
     <row r="341">
-      <c r="B341" s="14"/>
+      <c r="B341" s="15"/>
     </row>
     <row r="342">
-      <c r="B342" s="14"/>
+      <c r="B342" s="15"/>
     </row>
     <row r="343">
-      <c r="B343" s="14"/>
+      <c r="B343" s="15"/>
     </row>
     <row r="344">
-      <c r="B344" s="14"/>
+      <c r="B344" s="15"/>
     </row>
     <row r="345">
-      <c r="B345" s="14"/>
+      <c r="B345" s="15"/>
     </row>
     <row r="346">
-      <c r="B346" s="14"/>
+      <c r="B346" s="15"/>
     </row>
     <row r="347">
-      <c r="B347" s="14"/>
+      <c r="B347" s="15"/>
     </row>
     <row r="348">
-      <c r="B348" s="14"/>
+      <c r="B348" s="15"/>
     </row>
     <row r="349">
-      <c r="B349" s="14"/>
+      <c r="B349" s="15"/>
     </row>
     <row r="350">
-      <c r="B350" s="14"/>
+      <c r="B350" s="15"/>
     </row>
     <row r="351">
-      <c r="B351" s="14"/>
+      <c r="B351" s="15"/>
     </row>
     <row r="352">
-      <c r="B352" s="14"/>
+      <c r="B352" s="15"/>
     </row>
     <row r="353">
-      <c r="B353" s="14"/>
+      <c r="B353" s="15"/>
     </row>
     <row r="354">
-      <c r="B354" s="14"/>
+      <c r="B354" s="15"/>
     </row>
     <row r="355">
-      <c r="B355" s="14"/>
+      <c r="B355" s="15"/>
     </row>
     <row r="356">
-      <c r="B356" s="14"/>
+      <c r="B356" s="15"/>
     </row>
     <row r="357">
-      <c r="B357" s="14"/>
+      <c r="B357" s="15"/>
     </row>
     <row r="358">
-      <c r="B358" s="14"/>
+      <c r="B358" s="15"/>
     </row>
     <row r="359">
-      <c r="B359" s="14"/>
+      <c r="B359" s="15"/>
     </row>
     <row r="360">
-      <c r="B360" s="14"/>
+      <c r="B360" s="15"/>
     </row>
     <row r="361">
-      <c r="B361" s="14"/>
+      <c r="B361" s="15"/>
     </row>
     <row r="362">
-      <c r="B362" s="14"/>
+      <c r="B362" s="15"/>
     </row>
     <row r="363">
-      <c r="B363" s="14"/>
+      <c r="B363" s="15"/>
     </row>
     <row r="364">
-      <c r="B364" s="14"/>
+      <c r="B364" s="15"/>
     </row>
     <row r="365">
-      <c r="B365" s="14"/>
+      <c r="B365" s="15"/>
     </row>
     <row r="366">
-      <c r="B366" s="14"/>
+      <c r="B366" s="15"/>
     </row>
     <row r="367">
-      <c r="B367" s="14"/>
+      <c r="B367" s="15"/>
     </row>
     <row r="368">
-      <c r="B368" s="14"/>
+      <c r="B368" s="15"/>
     </row>
     <row r="369">
-      <c r="B369" s="14"/>
+      <c r="B369" s="15"/>
     </row>
     <row r="370">
-      <c r="B370" s="14"/>
+      <c r="B370" s="15"/>
     </row>
     <row r="371">
-      <c r="B371" s="14"/>
+      <c r="B371" s="15"/>
     </row>
     <row r="372">
-      <c r="B372" s="14"/>
+      <c r="B372" s="15"/>
     </row>
     <row r="373">
-      <c r="B373" s="14"/>
+      <c r="B373" s="15"/>
     </row>
     <row r="374">
-      <c r="B374" s="14"/>
+      <c r="B374" s="15"/>
     </row>
     <row r="375">
-      <c r="B375" s="14"/>
+      <c r="B375" s="15"/>
     </row>
     <row r="376">
-      <c r="B376" s="14"/>
+      <c r="B376" s="15"/>
     </row>
     <row r="377">
-      <c r="B377" s="14"/>
+      <c r="B377" s="15"/>
     </row>
     <row r="378">
-      <c r="B378" s="14"/>
+      <c r="B378" s="15"/>
     </row>
     <row r="379">
-      <c r="B379" s="14"/>
+      <c r="B379" s="15"/>
     </row>
     <row r="380">
-      <c r="B380" s="14"/>
+      <c r="B380" s="15"/>
     </row>
     <row r="381">
-      <c r="B381" s="14"/>
+      <c r="B381" s="15"/>
     </row>
     <row r="382">
-      <c r="B382" s="14"/>
+      <c r="B382" s="15"/>
     </row>
     <row r="383">
-      <c r="B383" s="14"/>
+      <c r="B383" s="15"/>
     </row>
     <row r="384">
-      <c r="B384" s="14"/>
+      <c r="B384" s="15"/>
     </row>
     <row r="385">
-      <c r="B385" s="14"/>
+      <c r="B385" s="15"/>
     </row>
     <row r="386">
-      <c r="B386" s="14"/>
+      <c r="B386" s="15"/>
     </row>
     <row r="387">
-      <c r="B387" s="14"/>
+      <c r="B387" s="15"/>
     </row>
     <row r="388">
-      <c r="B388" s="14"/>
+      <c r="B388" s="15"/>
     </row>
     <row r="389">
-      <c r="B389" s="14"/>
+      <c r="B389" s="15"/>
     </row>
     <row r="390">
-      <c r="B390" s="14"/>
+      <c r="B390" s="15"/>
     </row>
     <row r="391">
-      <c r="B391" s="14"/>
+      <c r="B391" s="15"/>
     </row>
     <row r="392">
-      <c r="B392" s="14"/>
+      <c r="B392" s="15"/>
     </row>
     <row r="393">
-      <c r="B393" s="14"/>
+      <c r="B393" s="15"/>
     </row>
     <row r="394">
-      <c r="B394" s="14"/>
+      <c r="B394" s="15"/>
     </row>
     <row r="395">
-      <c r="B395" s="14"/>
+      <c r="B395" s="15"/>
     </row>
     <row r="396">
-      <c r="B396" s="14"/>
+      <c r="B396" s="15"/>
     </row>
     <row r="397">
-      <c r="B397" s="14"/>
+      <c r="B397" s="15"/>
     </row>
     <row r="398">
-      <c r="B398" s="14"/>
+      <c r="B398" s="15"/>
     </row>
     <row r="399">
-      <c r="B399" s="14"/>
+      <c r="B399" s="15"/>
     </row>
     <row r="400">
-      <c r="B400" s="14"/>
+      <c r="B400" s="15"/>
     </row>
     <row r="401">
-      <c r="B401" s="14"/>
+      <c r="B401" s="15"/>
     </row>
     <row r="402">
-      <c r="B402" s="14"/>
+      <c r="B402" s="15"/>
     </row>
     <row r="403">
-      <c r="B403" s="14"/>
+      <c r="B403" s="15"/>
     </row>
     <row r="404">
-      <c r="B404" s="14"/>
+      <c r="B404" s="15"/>
     </row>
     <row r="405">
-      <c r="B405" s="14"/>
+      <c r="B405" s="15"/>
     </row>
     <row r="406">
-      <c r="B406" s="14"/>
+      <c r="B406" s="15"/>
     </row>
     <row r="407">
-      <c r="B407" s="14"/>
+      <c r="B407" s="15"/>
     </row>
     <row r="408">
-      <c r="B408" s="14"/>
+      <c r="B408" s="15"/>
     </row>
     <row r="409">
-      <c r="B409" s="14"/>
+      <c r="B409" s="15"/>
     </row>
     <row r="410">
-      <c r="B410" s="14"/>
+      <c r="B410" s="15"/>
     </row>
     <row r="411">
-      <c r="B411" s="14"/>
+      <c r="B411" s="15"/>
     </row>
     <row r="412">
-      <c r="B412" s="14"/>
+      <c r="B412" s="15"/>
     </row>
     <row r="413">
-      <c r="B413" s="14"/>
+      <c r="B413" s="15"/>
     </row>
     <row r="414">
-      <c r="B414" s="14"/>
+      <c r="B414" s="15"/>
     </row>
     <row r="415">
-      <c r="B415" s="14"/>
+      <c r="B415" s="15"/>
     </row>
     <row r="416">
-      <c r="B416" s="14"/>
+      <c r="B416" s="15"/>
     </row>
     <row r="417">
-      <c r="B417" s="14"/>
+      <c r="B417" s="15"/>
     </row>
     <row r="418">
-      <c r="B418" s="14"/>
+      <c r="B418" s="15"/>
     </row>
     <row r="419">
-      <c r="B419" s="14"/>
+      <c r="B419" s="15"/>
     </row>
     <row r="420">
-      <c r="B420" s="14"/>
+      <c r="B420" s="15"/>
     </row>
     <row r="421">
-      <c r="B421" s="14"/>
+      <c r="B421" s="15"/>
     </row>
     <row r="422">
-      <c r="B422" s="14"/>
+      <c r="B422" s="15"/>
     </row>
     <row r="423">
-      <c r="B423" s="14"/>
+      <c r="B423" s="15"/>
     </row>
     <row r="424">
-      <c r="B424" s="14"/>
+      <c r="B424" s="15"/>
     </row>
     <row r="425">
-      <c r="B425" s="14"/>
+      <c r="B425" s="15"/>
     </row>
     <row r="426">
-      <c r="B426" s="14"/>
+      <c r="B426" s="15"/>
     </row>
     <row r="427">
-      <c r="B427" s="14"/>
+      <c r="B427" s="15"/>
     </row>
     <row r="428">
-      <c r="B428" s="14"/>
+      <c r="B428" s="15"/>
     </row>
     <row r="429">
-      <c r="B429" s="14"/>
+      <c r="B429" s="15"/>
     </row>
     <row r="430">
-      <c r="B430" s="14"/>
+      <c r="B430" s="15"/>
     </row>
     <row r="431">
-      <c r="B431" s="14"/>
+      <c r="B431" s="15"/>
     </row>
     <row r="432">
-      <c r="B432" s="14"/>
+      <c r="B432" s="15"/>
     </row>
     <row r="433">
-      <c r="B433" s="14"/>
+      <c r="B433" s="15"/>
     </row>
     <row r="434">
-      <c r="B434" s="14"/>
+      <c r="B434" s="15"/>
     </row>
     <row r="435">
-      <c r="B435" s="14"/>
+      <c r="B435" s="15"/>
     </row>
     <row r="436">
-      <c r="B436" s="14"/>
+      <c r="B436" s="15"/>
     </row>
     <row r="437">
-      <c r="B437" s="14"/>
+      <c r="B437" s="15"/>
     </row>
     <row r="438">
-      <c r="B438" s="14"/>
+      <c r="B438" s="15"/>
     </row>
     <row r="439">
-      <c r="B439" s="14"/>
+      <c r="B439" s="15"/>
     </row>
     <row r="440">
-      <c r="B440" s="14"/>
+      <c r="B440" s="15"/>
     </row>
     <row r="441">
-      <c r="B441" s="14"/>
+      <c r="B441" s="15"/>
     </row>
     <row r="442">
-      <c r="B442" s="14"/>
+      <c r="B442" s="15"/>
     </row>
     <row r="443">
-      <c r="B443" s="14"/>
+      <c r="B443" s="15"/>
     </row>
     <row r="444">
-      <c r="B444" s="14"/>
+      <c r="B444" s="15"/>
     </row>
     <row r="445">
-      <c r="B445" s="14"/>
+      <c r="B445" s="15"/>
     </row>
     <row r="446">
-      <c r="B446" s="14"/>
+      <c r="B446" s="15"/>
     </row>
     <row r="447">
-      <c r="B447" s="14"/>
+      <c r="B447" s="15"/>
     </row>
     <row r="448">
-      <c r="B448" s="14"/>
+      <c r="B448" s="15"/>
     </row>
     <row r="449">
-      <c r="B449" s="14"/>
+      <c r="B449" s="15"/>
     </row>
     <row r="450">
-      <c r="B450" s="14"/>
+      <c r="B450" s="15"/>
     </row>
     <row r="451">
-      <c r="B451" s="14"/>
+      <c r="B451" s="15"/>
     </row>
     <row r="452">
-      <c r="B452" s="14"/>
+      <c r="B452" s="15"/>
     </row>
     <row r="453">
-      <c r="B453" s="14"/>
+      <c r="B453" s="15"/>
     </row>
     <row r="454">
-      <c r="B454" s="14"/>
+      <c r="B454" s="15"/>
     </row>
     <row r="455">
-      <c r="B455" s="14"/>
+      <c r="B455" s="15"/>
     </row>
     <row r="456">
-      <c r="B456" s="14"/>
+      <c r="B456" s="15"/>
     </row>
     <row r="457">
-      <c r="B457" s="14"/>
+      <c r="B457" s="15"/>
     </row>
     <row r="458">
-      <c r="B458" s="14"/>
+      <c r="B458" s="15"/>
     </row>
     <row r="459">
-      <c r="B459" s="14"/>
+      <c r="B459" s="15"/>
     </row>
     <row r="460">
-      <c r="B460" s="14"/>
+      <c r="B460" s="15"/>
     </row>
     <row r="461">
-      <c r="B461" s="14"/>
+      <c r="B461" s="15"/>
     </row>
     <row r="462">
-      <c r="B462" s="14"/>
+      <c r="B462" s="15"/>
     </row>
     <row r="463">
-      <c r="B463" s="14"/>
+      <c r="B463" s="15"/>
     </row>
     <row r="464">
-      <c r="B464" s="14"/>
+      <c r="B464" s="15"/>
     </row>
     <row r="465">
-      <c r="B465" s="14"/>
+      <c r="B465" s="15"/>
     </row>
     <row r="466">
-      <c r="B466" s="14"/>
+      <c r="B466" s="15"/>
     </row>
     <row r="467">
-      <c r="B467" s="14"/>
+      <c r="B467" s="15"/>
     </row>
     <row r="468">
-      <c r="B468" s="14"/>
+      <c r="B468" s="15"/>
     </row>
     <row r="469">
-      <c r="B469" s="14"/>
+      <c r="B469" s="15"/>
     </row>
     <row r="470">
-      <c r="B470" s="14"/>
+      <c r="B470" s="15"/>
     </row>
     <row r="471">
-      <c r="B471" s="14"/>
+      <c r="B471" s="15"/>
     </row>
     <row r="472">
-      <c r="B472" s="14"/>
+      <c r="B472" s="15"/>
     </row>
     <row r="473">
-      <c r="B473" s="14"/>
+      <c r="B473" s="15"/>
     </row>
     <row r="474">
-      <c r="B474" s="14"/>
+      <c r="B474" s="15"/>
     </row>
     <row r="475">
-      <c r="B475" s="14"/>
+      <c r="B475" s="15"/>
     </row>
     <row r="476">
-      <c r="B476" s="14"/>
+      <c r="B476" s="15"/>
     </row>
     <row r="477">
-      <c r="B477" s="14"/>
+      <c r="B477" s="15"/>
     </row>
     <row r="478">
-      <c r="B478" s="14"/>
+      <c r="B478" s="15"/>
     </row>
     <row r="479">
-      <c r="B479" s="14"/>
+      <c r="B479" s="15"/>
     </row>
     <row r="480">
-      <c r="B480" s="14"/>
+      <c r="B480" s="15"/>
     </row>
     <row r="481">
-      <c r="B481" s="14"/>
+      <c r="B481" s="15"/>
     </row>
     <row r="482">
-      <c r="B482" s="14"/>
+      <c r="B482" s="15"/>
     </row>
     <row r="483">
-      <c r="B483" s="14"/>
+      <c r="B483" s="15"/>
     </row>
     <row r="484">
-      <c r="B484" s="14"/>
+      <c r="B484" s="15"/>
     </row>
     <row r="485">
-      <c r="B485" s="14"/>
+      <c r="B485" s="15"/>
     </row>
     <row r="486">
-      <c r="B486" s="14"/>
+      <c r="B486" s="15"/>
     </row>
     <row r="487">
-      <c r="B487" s="14"/>
+      <c r="B487" s="15"/>
     </row>
     <row r="488">
-      <c r="B488" s="14"/>
+      <c r="B488" s="15"/>
     </row>
     <row r="489">
-      <c r="B489" s="14"/>
+      <c r="B489" s="15"/>
     </row>
     <row r="490">
-      <c r="B490" s="14"/>
+      <c r="B490" s="15"/>
     </row>
     <row r="491">
-      <c r="B491" s="14"/>
+      <c r="B491" s="15"/>
     </row>
     <row r="492">
-      <c r="B492" s="14"/>
+      <c r="B492" s="15"/>
     </row>
     <row r="493">
-      <c r="B493" s="14"/>
+      <c r="B493" s="15"/>
     </row>
     <row r="494">
-      <c r="B494" s="14"/>
+      <c r="B494" s="15"/>
     </row>
     <row r="495">
-      <c r="B495" s="14"/>
+      <c r="B495" s="15"/>
     </row>
     <row r="496">
-      <c r="B496" s="14"/>
+      <c r="B496" s="15"/>
     </row>
     <row r="497">
-      <c r="B497" s="14"/>
+      <c r="B497" s="15"/>
     </row>
     <row r="498">
-      <c r="B498" s="14"/>
+      <c r="B498" s="15"/>
     </row>
     <row r="499">
-      <c r="B499" s="14"/>
+      <c r="B499" s="15"/>
     </row>
     <row r="500">
-      <c r="B500" s="14"/>
+      <c r="B500" s="15"/>
     </row>
     <row r="501">
-      <c r="B501" s="14"/>
+      <c r="B501" s="15"/>
     </row>
     <row r="502">
-      <c r="B502" s="14"/>
+      <c r="B502" s="15"/>
     </row>
     <row r="503">
-      <c r="B503" s="14"/>
+      <c r="B503" s="15"/>
     </row>
     <row r="504">
-      <c r="B504" s="14"/>
+      <c r="B504" s="15"/>
     </row>
     <row r="505">
-      <c r="B505" s="14"/>
+      <c r="B505" s="15"/>
     </row>
     <row r="506">
-      <c r="B506" s="14"/>
+      <c r="B506" s="15"/>
     </row>
     <row r="507">
-      <c r="B507" s="14"/>
+      <c r="B507" s="15"/>
     </row>
     <row r="508">
-      <c r="B508" s="14"/>
+      <c r="B508" s="15"/>
     </row>
     <row r="509">
-      <c r="B509" s="14"/>
+      <c r="B509" s="15"/>
     </row>
     <row r="510">
-      <c r="B510" s="14"/>
+      <c r="B510" s="15"/>
     </row>
     <row r="511">
-      <c r="B511" s="14"/>
+      <c r="B511" s="15"/>
     </row>
     <row r="512">
-      <c r="B512" s="14"/>
+      <c r="B512" s="15"/>
     </row>
     <row r="513">
-      <c r="B513" s="14"/>
+      <c r="B513" s="15"/>
     </row>
     <row r="514">
-      <c r="B514" s="14"/>
+      <c r="B514" s="15"/>
     </row>
     <row r="515">
-      <c r="B515" s="14"/>
+      <c r="B515" s="15"/>
     </row>
     <row r="516">
-      <c r="B516" s="14"/>
+      <c r="B516" s="15"/>
     </row>
     <row r="517">
-      <c r="B517" s="14"/>
+      <c r="B517" s="15"/>
     </row>
     <row r="518">
-      <c r="B518" s="14"/>
+      <c r="B518" s="15"/>
     </row>
     <row r="519">
-      <c r="B519" s="14"/>
+      <c r="B519" s="15"/>
     </row>
     <row r="520">
-      <c r="B520" s="14"/>
+      <c r="B520" s="15"/>
     </row>
     <row r="521">
-      <c r="B521" s="14"/>
+      <c r="B521" s="15"/>
     </row>
     <row r="522">
-      <c r="B522" s="14"/>
+      <c r="B522" s="15"/>
     </row>
     <row r="523">
-      <c r="B523" s="14"/>
+      <c r="B523" s="15"/>
     </row>
     <row r="524">
-      <c r="B524" s="14"/>
+      <c r="B524" s="15"/>
     </row>
     <row r="525">
-      <c r="B525" s="14"/>
+      <c r="B525" s="15"/>
     </row>
     <row r="526">
-      <c r="B526" s="14"/>
+      <c r="B526" s="15"/>
     </row>
     <row r="527">
-      <c r="B527" s="14"/>
+      <c r="B527" s="15"/>
     </row>
     <row r="528">
-      <c r="B528" s="14"/>
+      <c r="B528" s="15"/>
     </row>
     <row r="529">
-      <c r="B529" s="14"/>
+      <c r="B529" s="15"/>
     </row>
     <row r="530">
-      <c r="B530" s="14"/>
+      <c r="B530" s="15"/>
     </row>
     <row r="531">
-      <c r="B531" s="14"/>
+      <c r="B531" s="15"/>
     </row>
     <row r="532">
-      <c r="B532" s="14"/>
+      <c r="B532" s="15"/>
     </row>
     <row r="533">
-      <c r="B533" s="14"/>
+      <c r="B533" s="15"/>
     </row>
     <row r="534">
-      <c r="B534" s="14"/>
+      <c r="B534" s="15"/>
     </row>
     <row r="535">
-      <c r="B535" s="14"/>
+      <c r="B535" s="15"/>
     </row>
     <row r="536">
-      <c r="B536" s="14"/>
+      <c r="B536" s="15"/>
     </row>
     <row r="537">
-      <c r="B537" s="14"/>
+      <c r="B537" s="15"/>
     </row>
     <row r="538">
-      <c r="B538" s="14"/>
+      <c r="B538" s="15"/>
     </row>
     <row r="539">
-      <c r="B539" s="14"/>
+      <c r="B539" s="15"/>
     </row>
     <row r="540">
-      <c r="B540" s="14"/>
+      <c r="B540" s="15"/>
     </row>
     <row r="541">
-      <c r="B541" s="14"/>
+      <c r="B541" s="15"/>
     </row>
     <row r="542">
-      <c r="B542" s="14"/>
+      <c r="B542" s="15"/>
     </row>
     <row r="543">
-      <c r="B543" s="14"/>
+      <c r="B543" s="15"/>
     </row>
     <row r="544">
-      <c r="B544" s="14"/>
+      <c r="B544" s="15"/>
     </row>
     <row r="545">
-      <c r="B545" s="14"/>
+      <c r="B545" s="15"/>
     </row>
     <row r="546">
-      <c r="B546" s="14"/>
+      <c r="B546" s="15"/>
     </row>
     <row r="547">
-      <c r="B547" s="14"/>
+      <c r="B547" s="15"/>
     </row>
     <row r="548">
-      <c r="B548" s="14"/>
+      <c r="B548" s="15"/>
     </row>
     <row r="549">
-      <c r="B549" s="14"/>
+      <c r="B549" s="15"/>
     </row>
     <row r="550">
-      <c r="B550" s="14"/>
+      <c r="B550" s="15"/>
     </row>
     <row r="551">
-      <c r="B551" s="14"/>
+      <c r="B551" s="15"/>
     </row>
     <row r="552">
-      <c r="B552" s="14"/>
+      <c r="B552" s="15"/>
     </row>
     <row r="553">
-      <c r="B553" s="14"/>
+      <c r="B553" s="15"/>
     </row>
     <row r="554">
-      <c r="B554" s="14"/>
+      <c r="B554" s="15"/>
     </row>
     <row r="555">
-      <c r="B555" s="14"/>
+      <c r="B555" s="15"/>
     </row>
     <row r="556">
-      <c r="B556" s="14"/>
+      <c r="B556" s="15"/>
     </row>
     <row r="557">
-      <c r="B557" s="14"/>
+      <c r="B557" s="15"/>
     </row>
     <row r="558">
-      <c r="B558" s="14"/>
+      <c r="B558" s="15"/>
     </row>
     <row r="559">
-      <c r="B559" s="14"/>
+      <c r="B559" s="15"/>
     </row>
     <row r="560">
-      <c r="B560" s="14"/>
+      <c r="B560" s="15"/>
     </row>
     <row r="561">
-      <c r="B561" s="14"/>
+      <c r="B561" s="15"/>
     </row>
     <row r="562">
-      <c r="B562" s="14"/>
+      <c r="B562" s="15"/>
     </row>
     <row r="563">
-      <c r="B563" s="14"/>
+      <c r="B563" s="15"/>
     </row>
     <row r="564">
-      <c r="B564" s="14"/>
+      <c r="B564" s="15"/>
     </row>
     <row r="565">
-      <c r="B565" s="14"/>
+      <c r="B565" s="15"/>
     </row>
     <row r="566">
-      <c r="B566" s="14"/>
+      <c r="B566" s="15"/>
     </row>
     <row r="567">
-      <c r="B567" s="14"/>
+      <c r="B567" s="15"/>
     </row>
     <row r="568">
-      <c r="B568" s="14"/>
+      <c r="B568" s="15"/>
     </row>
     <row r="569">
-      <c r="B569" s="14"/>
+      <c r="B569" s="15"/>
     </row>
     <row r="570">
-      <c r="B570" s="14"/>
+      <c r="B570" s="15"/>
     </row>
     <row r="571">
-      <c r="B571" s="14"/>
+      <c r="B571" s="15"/>
     </row>
     <row r="572">
-      <c r="B572" s="14"/>
+      <c r="B572" s="15"/>
     </row>
     <row r="573">
-      <c r="B573" s="14"/>
+      <c r="B573" s="15"/>
     </row>
     <row r="574">
-      <c r="B574" s="14"/>
+      <c r="B574" s="15"/>
     </row>
     <row r="575">
-      <c r="B575" s="14"/>
+      <c r="B575" s="15"/>
     </row>
     <row r="576">
-      <c r="B576" s="14"/>
+      <c r="B576" s="15"/>
     </row>
     <row r="577">
-      <c r="B577" s="14"/>
+      <c r="B577" s="15"/>
     </row>
     <row r="578">
-      <c r="B578" s="14"/>
+      <c r="B578" s="15"/>
     </row>
     <row r="579">
-      <c r="B579" s="14"/>
+      <c r="B579" s="15"/>
     </row>
     <row r="580">
-      <c r="B580" s="14"/>
+      <c r="B580" s="15"/>
     </row>
     <row r="581">
-      <c r="B581" s="14"/>
+      <c r="B581" s="15"/>
     </row>
     <row r="582">
-      <c r="B582" s="14"/>
+      <c r="B582" s="15"/>
     </row>
     <row r="583">
-      <c r="B583" s="14"/>
+      <c r="B583" s="15"/>
     </row>
     <row r="584">
-      <c r="B584" s="14"/>
+      <c r="B584" s="15"/>
     </row>
     <row r="585">
-      <c r="B585" s="14"/>
+      <c r="B585" s="15"/>
     </row>
     <row r="586">
-      <c r="B586" s="14"/>
+      <c r="B586" s="15"/>
     </row>
     <row r="587">
-      <c r="B587" s="14"/>
+      <c r="B587" s="15"/>
     </row>
     <row r="588">
-      <c r="B588" s="14"/>
+      <c r="B588" s="15"/>
     </row>
     <row r="589">
-      <c r="B589" s="14"/>
+      <c r="B589" s="15"/>
     </row>
     <row r="590">
-      <c r="B590" s="14"/>
+      <c r="B590" s="15"/>
     </row>
     <row r="591">
-      <c r="B591" s="14"/>
+      <c r="B591" s="15"/>
     </row>
     <row r="592">
-      <c r="B592" s="14"/>
+      <c r="B592" s="15"/>
     </row>
     <row r="593">
-      <c r="B593" s="14"/>
+      <c r="B593" s="15"/>
     </row>
     <row r="594">
-      <c r="B594" s="14"/>
+      <c r="B594" s="15"/>
     </row>
     <row r="595">
-      <c r="B595" s="14"/>
+      <c r="B595" s="15"/>
     </row>
     <row r="596">
-      <c r="B596" s="14"/>
+      <c r="B596" s="15"/>
     </row>
     <row r="597">
-      <c r="B597" s="14"/>
+      <c r="B597" s="15"/>
     </row>
     <row r="598">
-      <c r="B598" s="14"/>
+      <c r="B598" s="15"/>
     </row>
     <row r="599">
-      <c r="B599" s="14"/>
+      <c r="B599" s="15"/>
     </row>
     <row r="600">
-      <c r="B600" s="14"/>
+      <c r="B600" s="15"/>
     </row>
     <row r="601">
-      <c r="B601" s="14"/>
+      <c r="B601" s="15"/>
     </row>
     <row r="602">
-      <c r="B602" s="14"/>
+      <c r="B602" s="15"/>
     </row>
     <row r="603">
-      <c r="B603" s="14"/>
+      <c r="B603" s="15"/>
     </row>
     <row r="604">
-      <c r="B604" s="14"/>
+      <c r="B604" s="15"/>
     </row>
     <row r="605">
-      <c r="B605" s="14"/>
+      <c r="B605" s="15"/>
     </row>
     <row r="606">
-      <c r="B606" s="14"/>
+      <c r="B606" s="15"/>
     </row>
     <row r="607">
-      <c r="B607" s="14"/>
+      <c r="B607" s="15"/>
     </row>
     <row r="608">
-      <c r="B608" s="14"/>
+      <c r="B608" s="15"/>
     </row>
     <row r="609">
-      <c r="B609" s="14"/>
+      <c r="B609" s="15"/>
     </row>
     <row r="610">
-      <c r="B610" s="14"/>
+      <c r="B610" s="15"/>
     </row>
     <row r="611">
-      <c r="B611" s="14"/>
+      <c r="B611" s="15"/>
     </row>
     <row r="612">
-      <c r="B612" s="14"/>
+      <c r="B612" s="15"/>
     </row>
     <row r="613">
-      <c r="B613" s="14"/>
+      <c r="B613" s="15"/>
     </row>
     <row r="614">
-      <c r="B614" s="14"/>
+      <c r="B614" s="15"/>
     </row>
     <row r="615">
-      <c r="B615" s="14"/>
+      <c r="B615" s="15"/>
     </row>
     <row r="616">
-      <c r="B616" s="14"/>
+      <c r="B616" s="15"/>
     </row>
     <row r="617">
-      <c r="B617" s="14"/>
+      <c r="B617" s="15"/>
     </row>
     <row r="618">
-      <c r="B618" s="14"/>
+      <c r="B618" s="15"/>
     </row>
     <row r="619">
-      <c r="B619" s="14"/>
+      <c r="B619" s="15"/>
     </row>
     <row r="620">
-      <c r="B620" s="14"/>
+      <c r="B620" s="15"/>
     </row>
     <row r="621">
-      <c r="B621" s="14"/>
+      <c r="B621" s="15"/>
     </row>
     <row r="622">
-      <c r="B622" s="14"/>
+      <c r="B622" s="15"/>
     </row>
     <row r="623">
-      <c r="B623" s="14"/>
+      <c r="B623" s="15"/>
     </row>
     <row r="624">
-      <c r="B624" s="14"/>
+      <c r="B624" s="15"/>
     </row>
     <row r="625">
-      <c r="B625" s="14"/>
+      <c r="B625" s="15"/>
     </row>
     <row r="626">
-      <c r="B626" s="14"/>
+      <c r="B626" s="15"/>
     </row>
     <row r="627">
-      <c r="B627" s="14"/>
+      <c r="B627" s="15"/>
     </row>
     <row r="628">
-      <c r="B628" s="14"/>
+      <c r="B628" s="15"/>
     </row>
     <row r="629">
-      <c r="B629" s="14"/>
+      <c r="B629" s="15"/>
     </row>
     <row r="630">
-      <c r="B630" s="14"/>
+      <c r="B630" s="15"/>
     </row>
     <row r="631">
-      <c r="B631" s="14"/>
+      <c r="B631" s="15"/>
     </row>
     <row r="632">
-      <c r="B632" s="14"/>
+      <c r="B632" s="15"/>
     </row>
     <row r="633">
-      <c r="B633" s="14"/>
+      <c r="B633" s="15"/>
     </row>
     <row r="634">
-      <c r="B634" s="14"/>
+      <c r="B634" s="15"/>
     </row>
     <row r="635">
-      <c r="B635" s="14"/>
+      <c r="B635" s="15"/>
     </row>
     <row r="636">
-      <c r="B636" s="14"/>
+      <c r="B636" s="15"/>
     </row>
     <row r="637">
-      <c r="B637" s="14"/>
+      <c r="B637" s="15"/>
     </row>
     <row r="638">
-      <c r="B638" s="14"/>
+      <c r="B638" s="15"/>
     </row>
     <row r="639">
-      <c r="B639" s="14"/>
+      <c r="B639" s="15"/>
     </row>
     <row r="640">
-      <c r="B640" s="14"/>
+      <c r="B640" s="15"/>
     </row>
     <row r="641">
-      <c r="B641" s="14"/>
+      <c r="B641" s="15"/>
     </row>
     <row r="642">
-      <c r="B642" s="14"/>
+      <c r="B642" s="15"/>
     </row>
     <row r="643">
-      <c r="B643" s="14"/>
+      <c r="B643" s="15"/>
     </row>
     <row r="644">
-      <c r="B644" s="14"/>
+      <c r="B644" s="15"/>
     </row>
     <row r="645">
-      <c r="B645" s="14"/>
+      <c r="B645" s="15"/>
     </row>
     <row r="646">
-      <c r="B646" s="14"/>
+      <c r="B646" s="15"/>
     </row>
     <row r="647">
-      <c r="B647" s="14"/>
+      <c r="B647" s="15"/>
     </row>
     <row r="648">
-      <c r="B648" s="14"/>
+      <c r="B648" s="15"/>
     </row>
     <row r="649">
-      <c r="B649" s="14"/>
+      <c r="B649" s="15"/>
     </row>
     <row r="650">
-      <c r="B650" s="14"/>
+      <c r="B650" s="15"/>
     </row>
     <row r="651">
-      <c r="B651" s="14"/>
+      <c r="B651" s="15"/>
     </row>
     <row r="652">
-      <c r="B652" s="14"/>
+      <c r="B652" s="15"/>
     </row>
     <row r="653">
-      <c r="B653" s="14"/>
+      <c r="B653" s="15"/>
     </row>
     <row r="654">
-      <c r="B654" s="14"/>
+      <c r="B654" s="15"/>
     </row>
     <row r="655">
-      <c r="B655" s="14"/>
+      <c r="B655" s="15"/>
     </row>
     <row r="656">
-      <c r="B656" s="14"/>
+      <c r="B656" s="15"/>
     </row>
     <row r="657">
-      <c r="B657" s="14"/>
+      <c r="B657" s="15"/>
     </row>
     <row r="658">
-      <c r="B658" s="14"/>
+      <c r="B658" s="15"/>
     </row>
     <row r="659">
-      <c r="B659" s="14"/>
+      <c r="B659" s="15"/>
     </row>
     <row r="660">
-      <c r="B660" s="14"/>
+      <c r="B660" s="15"/>
     </row>
     <row r="661">
-      <c r="B661" s="14"/>
+      <c r="B661" s="15"/>
     </row>
     <row r="662">
-      <c r="B662" s="14"/>
+      <c r="B662" s="15"/>
     </row>
     <row r="663">
-      <c r="B663" s="14"/>
+      <c r="B663" s="15"/>
     </row>
     <row r="664">
-      <c r="B664" s="14"/>
+      <c r="B664" s="15"/>
     </row>
     <row r="665">
-      <c r="B665" s="14"/>
+      <c r="B665" s="15"/>
     </row>
     <row r="666">
-      <c r="B666" s="14"/>
+      <c r="B666" s="15"/>
     </row>
     <row r="667">
-      <c r="B667" s="14"/>
+      <c r="B667" s="15"/>
     </row>
     <row r="668">
-      <c r="B668" s="14"/>
+      <c r="B668" s="15"/>
     </row>
     <row r="669">
-      <c r="B669" s="14"/>
+      <c r="B669" s="15"/>
     </row>
     <row r="670">
-      <c r="B670" s="14"/>
+      <c r="B670" s="15"/>
     </row>
     <row r="671">
-      <c r="B671" s="14"/>
+      <c r="B671" s="15"/>
     </row>
     <row r="672">
-      <c r="B672" s="14"/>
+      <c r="B672" s="15"/>
     </row>
     <row r="673">
-      <c r="B673" s="14"/>
+      <c r="B673" s="15"/>
     </row>
     <row r="674">
-      <c r="B674" s="14"/>
+      <c r="B674" s="15"/>
     </row>
     <row r="675">
-      <c r="B675" s="14"/>
+      <c r="B675" s="15"/>
     </row>
     <row r="676">
-      <c r="B676" s="14"/>
+      <c r="B676" s="15"/>
     </row>
     <row r="677">
-      <c r="B677" s="14"/>
+      <c r="B677" s="15"/>
     </row>
     <row r="678">
-      <c r="B678" s="14"/>
+      <c r="B678" s="15"/>
     </row>
     <row r="679">
-      <c r="B679" s="14"/>
+      <c r="B679" s="15"/>
     </row>
     <row r="680">
-      <c r="B680" s="14"/>
+      <c r="B680" s="15"/>
     </row>
     <row r="681">
-      <c r="B681" s="14"/>
+      <c r="B681" s="15"/>
     </row>
     <row r="682">
-      <c r="B682" s="14"/>
+      <c r="B682" s="15"/>
     </row>
     <row r="683">
-      <c r="B683" s="14"/>
+      <c r="B683" s="15"/>
     </row>
     <row r="684">
-      <c r="B684" s="14"/>
+      <c r="B684" s="15"/>
     </row>
     <row r="685">
-      <c r="B685" s="14"/>
+      <c r="B685" s="15"/>
     </row>
     <row r="686">
-      <c r="B686" s="14"/>
+      <c r="B686" s="15"/>
     </row>
     <row r="687">
-      <c r="B687" s="14"/>
+      <c r="B687" s="15"/>
     </row>
     <row r="688">
-      <c r="B688" s="14"/>
+      <c r="B688" s="15"/>
     </row>
     <row r="689">
-      <c r="B689" s="14"/>
+      <c r="B689" s="15"/>
     </row>
     <row r="690">
-      <c r="B690" s="14"/>
+      <c r="B690" s="15"/>
     </row>
     <row r="691">
-      <c r="B691" s="14"/>
+      <c r="B691" s="15"/>
     </row>
     <row r="692">
-      <c r="B692" s="14"/>
+      <c r="B692" s="15"/>
     </row>
     <row r="693">
-      <c r="B693" s="14"/>
+      <c r="B693" s="15"/>
     </row>
     <row r="694">
-      <c r="B694" s="14"/>
+      <c r="B694" s="15"/>
     </row>
     <row r="695">
-      <c r="B695" s="14"/>
+      <c r="B695" s="15"/>
     </row>
     <row r="696">
-      <c r="B696" s="14"/>
+      <c r="B696" s="15"/>
     </row>
     <row r="697">
-      <c r="B697" s="14"/>
+      <c r="B697" s="15"/>
     </row>
     <row r="698">
-      <c r="B698" s="14"/>
+      <c r="B698" s="15"/>
     </row>
     <row r="699">
-      <c r="B699" s="14"/>
+      <c r="B699" s="15"/>
     </row>
     <row r="700">
-      <c r="B700" s="14"/>
+      <c r="B700" s="15"/>
     </row>
     <row r="701">
-      <c r="B701" s="14"/>
+      <c r="B701" s="15"/>
     </row>
     <row r="702">
-      <c r="B702" s="14"/>
+      <c r="B702" s="15"/>
     </row>
     <row r="703">
-      <c r="B703" s="14"/>
+      <c r="B703" s="15"/>
     </row>
     <row r="704">
-      <c r="B704" s="14"/>
+      <c r="B704" s="15"/>
     </row>
     <row r="705">
-      <c r="B705" s="14"/>
+      <c r="B705" s="15"/>
     </row>
     <row r="706">
-      <c r="B706" s="14"/>
+      <c r="B706" s="15"/>
     </row>
     <row r="707">
-      <c r="B707" s="14"/>
+      <c r="B707" s="15"/>
     </row>
     <row r="708">
-      <c r="B708" s="14"/>
+      <c r="B708" s="15"/>
     </row>
     <row r="709">
-      <c r="B709" s="14"/>
+      <c r="B709" s="15"/>
     </row>
     <row r="710">
-      <c r="B710" s="14"/>
+      <c r="B710" s="15"/>
     </row>
     <row r="711">
-      <c r="B711" s="14"/>
+      <c r="B711" s="15"/>
     </row>
     <row r="712">
-      <c r="B712" s="14"/>
+      <c r="B712" s="15"/>
     </row>
     <row r="713">
-      <c r="B713" s="14"/>
+      <c r="B713" s="15"/>
     </row>
     <row r="714">
-      <c r="B714" s="14"/>
+      <c r="B714" s="15"/>
     </row>
     <row r="715">
-      <c r="B715" s="14"/>
+      <c r="B715" s="15"/>
     </row>
     <row r="716">
-      <c r="B716" s="14"/>
+      <c r="B716" s="15"/>
     </row>
     <row r="717">
-      <c r="B717" s="14"/>
+      <c r="B717" s="15"/>
     </row>
     <row r="718">
-      <c r="B718" s="14"/>
+      <c r="B718" s="15"/>
     </row>
     <row r="719">
-      <c r="B719" s="14"/>
+      <c r="B719" s="15"/>
     </row>
     <row r="720">
-      <c r="B720" s="14"/>
+      <c r="B720" s="15"/>
     </row>
     <row r="721">
-      <c r="B721" s="14"/>
+      <c r="B721" s="15"/>
     </row>
     <row r="722">
-      <c r="B722" s="14"/>
+      <c r="B722" s="15"/>
     </row>
     <row r="723">
-      <c r="B723" s="14"/>
+      <c r="B723" s="15"/>
     </row>
     <row r="724">
-      <c r="B724" s="14"/>
+      <c r="B724" s="15"/>
     </row>
     <row r="725">
-      <c r="B725" s="14"/>
+      <c r="B725" s="15"/>
     </row>
     <row r="726">
-      <c r="B726" s="14"/>
+      <c r="B726" s="15"/>
     </row>
     <row r="727">
-      <c r="B727" s="14"/>
+      <c r="B727" s="15"/>
     </row>
     <row r="728">
-      <c r="B728" s="14"/>
+      <c r="B728" s="15"/>
     </row>
     <row r="729">
-      <c r="B729" s="14"/>
+      <c r="B729" s="15"/>
     </row>
     <row r="730">
-      <c r="B730" s="14"/>
+      <c r="B730" s="15"/>
     </row>
     <row r="731">
-      <c r="B731" s="14"/>
+      <c r="B731" s="15"/>
     </row>
     <row r="732">
-      <c r="B732" s="14"/>
+      <c r="B732" s="15"/>
     </row>
     <row r="733">
-      <c r="B733" s="14"/>
+      <c r="B733" s="15"/>
     </row>
     <row r="734">
-      <c r="B734" s="14"/>
+      <c r="B734" s="15"/>
     </row>
     <row r="735">
-      <c r="B735" s="14"/>
+      <c r="B735" s="15"/>
     </row>
     <row r="736">
-      <c r="B736" s="14"/>
+      <c r="B736" s="15"/>
     </row>
     <row r="737">
-      <c r="B737" s="14"/>
+      <c r="B737" s="15"/>
     </row>
     <row r="738">
-      <c r="B738" s="14"/>
+      <c r="B738" s="15"/>
     </row>
     <row r="739">
-      <c r="B739" s="14"/>
+      <c r="B739" s="15"/>
     </row>
     <row r="740">
-      <c r="B740" s="14"/>
+      <c r="B740" s="15"/>
     </row>
     <row r="741">
-      <c r="B741" s="14"/>
+      <c r="B741" s="15"/>
     </row>
     <row r="742">
-      <c r="B742" s="14"/>
+      <c r="B742" s="15"/>
     </row>
     <row r="743">
-      <c r="B743" s="14"/>
+      <c r="B743" s="15"/>
     </row>
     <row r="744">
-      <c r="B744" s="14"/>
+      <c r="B744" s="15"/>
     </row>
     <row r="745">
-      <c r="B745" s="14"/>
+      <c r="B745" s="15"/>
     </row>
     <row r="746">
-      <c r="B746" s="14"/>
+      <c r="B746" s="15"/>
     </row>
     <row r="747">
-      <c r="B747" s="14"/>
+      <c r="B747" s="15"/>
     </row>
     <row r="748">
-      <c r="B748" s="14"/>
+      <c r="B748" s="15"/>
     </row>
     <row r="749">
-      <c r="B749" s="14"/>
+      <c r="B749" s="15"/>
     </row>
     <row r="750">
-      <c r="B750" s="14"/>
+      <c r="B750" s="15"/>
     </row>
     <row r="751">
-      <c r="B751" s="14"/>
+      <c r="B751" s="15"/>
     </row>
     <row r="752">
-      <c r="B752" s="14"/>
+      <c r="B752" s="15"/>
     </row>
     <row r="753">
-      <c r="B753" s="14"/>
+      <c r="B753" s="15"/>
     </row>
     <row r="754">
-      <c r="B754" s="14"/>
+      <c r="B754" s="15"/>
     </row>
     <row r="755">
-      <c r="B755" s="14"/>
+      <c r="B755" s="15"/>
     </row>
     <row r="756">
-      <c r="B756" s="14"/>
+      <c r="B756" s="15"/>
     </row>
     <row r="757">
-      <c r="B757" s="14"/>
+      <c r="B757" s="15"/>
     </row>
     <row r="758">
-      <c r="B758" s="14"/>
+      <c r="B758" s="15"/>
     </row>
     <row r="759">
-      <c r="B759" s="14"/>
+      <c r="B759" s="15"/>
     </row>
     <row r="760">
-      <c r="B760" s="14"/>
+      <c r="B760" s="15"/>
     </row>
     <row r="761">
-      <c r="B761" s="14"/>
+      <c r="B761" s="15"/>
     </row>
     <row r="762">
-      <c r="B762" s="14"/>
+      <c r="B762" s="15"/>
     </row>
     <row r="763">
-      <c r="B763" s="14"/>
+      <c r="B763" s="15"/>
     </row>
     <row r="764">
-      <c r="B764" s="14"/>
+      <c r="B764" s="15"/>
     </row>
     <row r="765">
-      <c r="B765" s="14"/>
+      <c r="B765" s="15"/>
     </row>
     <row r="766">
-      <c r="B766" s="14"/>
+      <c r="B766" s="15"/>
     </row>
     <row r="767">
-      <c r="B767" s="14"/>
+      <c r="B767" s="15"/>
     </row>
     <row r="768">
-      <c r="B768" s="14"/>
+      <c r="B768" s="15"/>
     </row>
     <row r="769">
-      <c r="B769" s="14"/>
+      <c r="B769" s="15"/>
     </row>
     <row r="770">
-      <c r="B770" s="14"/>
+      <c r="B770" s="15"/>
     </row>
     <row r="771">
-      <c r="B771" s="14"/>
+      <c r="B771" s="15"/>
     </row>
     <row r="772">
-      <c r="B772" s="14"/>
+      <c r="B772" s="15"/>
     </row>
     <row r="773">
-      <c r="B773" s="14"/>
+      <c r="B773" s="15"/>
     </row>
     <row r="774">
-      <c r="B774" s="14"/>
+      <c r="B774" s="15"/>
     </row>
     <row r="775">
-      <c r="B775" s="14"/>
+      <c r="B775" s="15"/>
     </row>
     <row r="776">
-      <c r="B776" s="14"/>
+      <c r="B776" s="15"/>
     </row>
     <row r="777">
-      <c r="B777" s="14"/>
+      <c r="B777" s="15"/>
     </row>
     <row r="778">
-      <c r="B778" s="14"/>
+      <c r="B778" s="15"/>
     </row>
     <row r="779">
-      <c r="B779" s="14"/>
+      <c r="B779" s="15"/>
     </row>
     <row r="780">
-      <c r="B780" s="14"/>
+      <c r="B780" s="15"/>
     </row>
     <row r="781">
-      <c r="B781" s="14"/>
+      <c r="B781" s="15"/>
     </row>
     <row r="782">
-      <c r="B782" s="14"/>
+      <c r="B782" s="15"/>
     </row>
     <row r="783">
-      <c r="B783" s="14"/>
+      <c r="B783" s="15"/>
     </row>
     <row r="784">
-      <c r="B784" s="14"/>
+      <c r="B784" s="15"/>
     </row>
     <row r="785">
-      <c r="B785" s="14"/>
+      <c r="B785" s="15"/>
     </row>
     <row r="786">
-      <c r="B786" s="14"/>
+      <c r="B786" s="15"/>
     </row>
     <row r="787">
-      <c r="B787" s="14"/>
+      <c r="B787" s="15"/>
     </row>
     <row r="788">
-      <c r="B788" s="14"/>
+      <c r="B788" s="15"/>
     </row>
     <row r="789">
-      <c r="B789" s="14"/>
+      <c r="B789" s="15"/>
     </row>
     <row r="790">
-      <c r="B790" s="14"/>
+      <c r="B790" s="15"/>
     </row>
     <row r="791">
-      <c r="B791" s="14"/>
+      <c r="B791" s="15"/>
     </row>
     <row r="792">
-      <c r="B792" s="14"/>
+      <c r="B792" s="15"/>
     </row>
     <row r="793">
-      <c r="B793" s="14"/>
+      <c r="B793" s="15"/>
     </row>
     <row r="794">
-      <c r="B794" s="14"/>
+      <c r="B794" s="15"/>
     </row>
     <row r="795">
-      <c r="B795" s="14"/>
+      <c r="B795" s="15"/>
     </row>
     <row r="796">
-      <c r="B796" s="14"/>
+      <c r="B796" s="15"/>
     </row>
     <row r="797">
-      <c r="B797" s="14"/>
+      <c r="B797" s="15"/>
     </row>
     <row r="798">
-      <c r="B798" s="14"/>
+      <c r="B798" s="15"/>
     </row>
     <row r="799">
-      <c r="B799" s="14"/>
+      <c r="B799" s="15"/>
     </row>
     <row r="800">
-      <c r="B800" s="14"/>
+      <c r="B800" s="15"/>
     </row>
     <row r="801">
-      <c r="B801" s="14"/>
+      <c r="B801" s="15"/>
     </row>
     <row r="802">
-      <c r="B802" s="14"/>
+      <c r="B802" s="15"/>
     </row>
     <row r="803">
-      <c r="B803" s="14"/>
+      <c r="B803" s="15"/>
     </row>
     <row r="804">
-      <c r="B804" s="14"/>
+      <c r="B804" s="15"/>
     </row>
     <row r="805">
-      <c r="B805" s="14"/>
+      <c r="B805" s="15"/>
     </row>
     <row r="806">
-      <c r="B806" s="14"/>
+      <c r="B806" s="15"/>
     </row>
     <row r="807">
-      <c r="B807" s="14"/>
+      <c r="B807" s="15"/>
     </row>
     <row r="808">
-      <c r="B808" s="14"/>
+      <c r="B808" s="15"/>
     </row>
     <row r="809">
-      <c r="B809" s="14"/>
+      <c r="B809" s="15"/>
     </row>
     <row r="810">
-      <c r="B810" s="14"/>
+      <c r="B810" s="15"/>
     </row>
     <row r="811">
-      <c r="B811" s="14"/>
+      <c r="B811" s="15"/>
     </row>
     <row r="812">
-      <c r="B812" s="14"/>
+      <c r="B812" s="15"/>
     </row>
     <row r="813">
-      <c r="B813" s="14"/>
+      <c r="B813" s="15"/>
     </row>
     <row r="814">
-      <c r="B814" s="14"/>
+      <c r="B814" s="15"/>
     </row>
     <row r="815">
-      <c r="B815" s="14"/>
+      <c r="B815" s="15"/>
     </row>
     <row r="816">
-      <c r="B816" s="14"/>
+      <c r="B816" s="15"/>
     </row>
     <row r="817">
-      <c r="B817" s="14"/>
+      <c r="B817" s="15"/>
     </row>
     <row r="818">
-      <c r="B818" s="14"/>
+      <c r="B818" s="15"/>
     </row>
     <row r="819">
-      <c r="B819" s="14"/>
+      <c r="B819" s="15"/>
     </row>
     <row r="820">
-      <c r="B820" s="14"/>
+      <c r="B820" s="15"/>
     </row>
     <row r="821">
-      <c r="B821" s="14"/>
+      <c r="B821" s="15"/>
     </row>
     <row r="822">
-      <c r="B822" s="14"/>
+      <c r="B822" s="15"/>
     </row>
     <row r="823">
-      <c r="B823" s="14"/>
+      <c r="B823" s="15"/>
     </row>
     <row r="824">
-      <c r="B824" s="14"/>
+      <c r="B824" s="15"/>
     </row>
     <row r="825">
-      <c r="B825" s="14"/>
+      <c r="B825" s="15"/>
     </row>
     <row r="826">
-      <c r="B826" s="14"/>
+      <c r="B826" s="15"/>
     </row>
     <row r="827">
-      <c r="B827" s="14"/>
+      <c r="B827" s="15"/>
     </row>
     <row r="828">
-      <c r="B828" s="14"/>
+      <c r="B828" s="15"/>
     </row>
     <row r="829">
-      <c r="B829" s="14"/>
+      <c r="B829" s="15"/>
     </row>
     <row r="830">
-      <c r="B830" s="14"/>
+      <c r="B830" s="15"/>
     </row>
     <row r="831">
-      <c r="B831" s="14"/>
+      <c r="B831" s="15"/>
     </row>
     <row r="832">
-      <c r="B832" s="14"/>
+      <c r="B832" s="15"/>
     </row>
     <row r="833">
-      <c r="B833" s="14"/>
+      <c r="B833" s="15"/>
     </row>
     <row r="834">
-      <c r="B834" s="14"/>
+      <c r="B834" s="15"/>
     </row>
     <row r="835">
-      <c r="B835" s="14"/>
+      <c r="B835" s="15"/>
     </row>
     <row r="836">
-      <c r="B836" s="14"/>
+      <c r="B836" s="15"/>
     </row>
     <row r="837">
-      <c r="B837" s="14"/>
+      <c r="B837" s="15"/>
     </row>
     <row r="838">
-      <c r="B838" s="14"/>
+      <c r="B838" s="15"/>
     </row>
     <row r="839">
-      <c r="B839" s="14"/>
+      <c r="B839" s="15"/>
     </row>
     <row r="840">
-      <c r="B840" s="14"/>
+      <c r="B840" s="15"/>
     </row>
     <row r="841">
-      <c r="B841" s="14"/>
+      <c r="B841" s="15"/>
     </row>
     <row r="842">
-      <c r="B842" s="14"/>
+      <c r="B842" s="15"/>
     </row>
     <row r="843">
-      <c r="B843" s="14"/>
+      <c r="B843" s="15"/>
     </row>
     <row r="844">
-      <c r="B844" s="14"/>
+      <c r="B844" s="15"/>
     </row>
     <row r="845">
-      <c r="B845" s="14"/>
+      <c r="B845" s="15"/>
     </row>
     <row r="846">
-      <c r="B846" s="14"/>
+      <c r="B846" s="15"/>
     </row>
     <row r="847">
-      <c r="B847" s="14"/>
+      <c r="B847" s="15"/>
     </row>
     <row r="848">
-      <c r="B848" s="14"/>
+      <c r="B848" s="15"/>
     </row>
     <row r="849">
-      <c r="B849" s="14"/>
+      <c r="B849" s="15"/>
     </row>
     <row r="850">
-      <c r="B850" s="14"/>
+      <c r="B850" s="15"/>
     </row>
     <row r="851">
-      <c r="B851" s="14"/>
+      <c r="B851" s="15"/>
     </row>
     <row r="852">
-      <c r="B852" s="14"/>
+      <c r="B852" s="15"/>
     </row>
     <row r="853">
-      <c r="B853" s="14"/>
+      <c r="B853" s="15"/>
     </row>
     <row r="854">
-      <c r="B854" s="14"/>
+      <c r="B854" s="15"/>
     </row>
     <row r="855">
-      <c r="B855" s="14"/>
+      <c r="B855" s="15"/>
     </row>
     <row r="856">
-      <c r="B856" s="14"/>
+      <c r="B856" s="15"/>
     </row>
     <row r="857">
-      <c r="B857" s="14"/>
+      <c r="B857" s="15"/>
     </row>
     <row r="858">
-      <c r="B858" s="14"/>
+      <c r="B858" s="15"/>
     </row>
     <row r="859">
-      <c r="B859" s="14"/>
+      <c r="B859" s="15"/>
     </row>
     <row r="860">
-      <c r="B860" s="14"/>
+      <c r="B860" s="15"/>
     </row>
     <row r="861">
-      <c r="B861" s="14"/>
+      <c r="B861" s="15"/>
     </row>
     <row r="862">
-      <c r="B862" s="14"/>
+      <c r="B862" s="15"/>
     </row>
     <row r="863">
-      <c r="B863" s="14"/>
+      <c r="B863" s="15"/>
     </row>
     <row r="864">
-      <c r="B864" s="14"/>
+      <c r="B864" s="15"/>
     </row>
     <row r="865">
-      <c r="B865" s="14"/>
+      <c r="B865" s="15"/>
     </row>
     <row r="866">
-      <c r="B866" s="14"/>
+      <c r="B866" s="15"/>
     </row>
     <row r="867">
-      <c r="B867" s="14"/>
+      <c r="B867" s="15"/>
     </row>
     <row r="868">
-      <c r="B868" s="14"/>
+      <c r="B868" s="15"/>
     </row>
     <row r="869">
-      <c r="B869" s="14"/>
+      <c r="B869" s="15"/>
     </row>
     <row r="870">
-      <c r="B870" s="14"/>
+      <c r="B870" s="15"/>
     </row>
     <row r="871">
-      <c r="B871" s="14"/>
+      <c r="B871" s="15"/>
     </row>
     <row r="872">
-      <c r="B872" s="14"/>
+      <c r="B872" s="15"/>
     </row>
     <row r="873">
-      <c r="B873" s="14"/>
+      <c r="B873" s="15"/>
     </row>
     <row r="874">
-      <c r="B874" s="14"/>
+      <c r="B874" s="15"/>
     </row>
     <row r="875">
-      <c r="B875" s="14"/>
+      <c r="B875" s="15"/>
     </row>
     <row r="876">
-      <c r="B876" s="14"/>
+      <c r="B876" s="15"/>
     </row>
     <row r="877">
-      <c r="B877" s="14"/>
+      <c r="B877" s="15"/>
     </row>
     <row r="878">
-      <c r="B878" s="14"/>
+      <c r="B878" s="15"/>
     </row>
     <row r="879">
-      <c r="B879" s="14"/>
+      <c r="B879" s="15"/>
     </row>
     <row r="880">
-      <c r="B880" s="14"/>
+      <c r="B880" s="15"/>
     </row>
     <row r="881">
-      <c r="B881" s="14"/>
+      <c r="B881" s="15"/>
     </row>
     <row r="882">
-      <c r="B882" s="14"/>
+      <c r="B882" s="15"/>
     </row>
     <row r="883">
-      <c r="B883" s="14"/>
+      <c r="B883" s="15"/>
     </row>
     <row r="884">
-      <c r="B884" s="14"/>
+      <c r="B884" s="15"/>
     </row>
     <row r="885">
-      <c r="B885" s="14"/>
+      <c r="B885" s="15"/>
     </row>
     <row r="886">
-      <c r="B886" s="14"/>
+      <c r="B886" s="15"/>
     </row>
     <row r="887">
-      <c r="B887" s="14"/>
+      <c r="B887" s="15"/>
     </row>
     <row r="888">
-      <c r="B888" s="14"/>
+      <c r="B888" s="15"/>
     </row>
     <row r="889">
-      <c r="B889" s="14"/>
+      <c r="B889" s="15"/>
     </row>
     <row r="890">
-      <c r="B890" s="14"/>
+      <c r="B890" s="15"/>
     </row>
     <row r="891">
-      <c r="B891" s="14"/>
+      <c r="B891" s="15"/>
     </row>
     <row r="892">
-      <c r="B892" s="14"/>
+      <c r="B892" s="15"/>
     </row>
     <row r="893">
-      <c r="B893" s="14"/>
+      <c r="B893" s="15"/>
     </row>
     <row r="894">
-      <c r="B894" s="14"/>
+      <c r="B894" s="15"/>
     </row>
     <row r="895">
-      <c r="B895" s="14"/>
+      <c r="B895" s="15"/>
     </row>
     <row r="896">
-      <c r="B896" s="14"/>
+      <c r="B896" s="15"/>
     </row>
     <row r="897">
-      <c r="B897" s="14"/>
+      <c r="B897" s="15"/>
     </row>
     <row r="898">
-      <c r="B898" s="14"/>
+      <c r="B898" s="15"/>
     </row>
     <row r="899">
-      <c r="B899" s="14"/>
+      <c r="B899" s="15"/>
     </row>
     <row r="900">
-      <c r="B900" s="14"/>
+      <c r="B900" s="15"/>
     </row>
     <row r="901">
-      <c r="B901" s="14"/>
+      <c r="B901" s="15"/>
     </row>
     <row r="902">
-      <c r="B902" s="14"/>
+      <c r="B902" s="15"/>
     </row>
     <row r="903">
-      <c r="B903" s="14"/>
+      <c r="B903" s="15"/>
     </row>
     <row r="904">
-      <c r="B904" s="14"/>
+      <c r="B904" s="15"/>
     </row>
     <row r="905">
-      <c r="B905" s="14"/>
+      <c r="B905" s="15"/>
     </row>
     <row r="906">
-      <c r="B906" s="14"/>
+      <c r="B906" s="15"/>
     </row>
     <row r="907">
-      <c r="B907" s="14"/>
+      <c r="B907" s="15"/>
     </row>
     <row r="908">
-      <c r="B908" s="14"/>
+      <c r="B908" s="15"/>
     </row>
     <row r="909">
-      <c r="B909" s="14"/>
+      <c r="B909" s="15"/>
     </row>
     <row r="910">
-      <c r="B910" s="14"/>
+      <c r="B910" s="15"/>
     </row>
     <row r="911">
-      <c r="B911" s="14"/>
+      <c r="B911" s="15"/>
     </row>
     <row r="912">
-      <c r="B912" s="14"/>
+      <c r="B912" s="15"/>
     </row>
     <row r="913">
-      <c r="B913" s="14"/>
+      <c r="B913" s="15"/>
     </row>
     <row r="914">
-      <c r="B914" s="14"/>
+      <c r="B914" s="15"/>
     </row>
     <row r="915">
-      <c r="B915" s="14"/>
+      <c r="B915" s="15"/>
     </row>
     <row r="916">
-      <c r="B916" s="14"/>
+      <c r="B916" s="15"/>
     </row>
     <row r="917">
-      <c r="B917" s="14"/>
+      <c r="B917" s="15"/>
     </row>
     <row r="918">
-      <c r="B918" s="14"/>
+      <c r="B918" s="15"/>
     </row>
     <row r="919">
-      <c r="B919" s="14"/>
+      <c r="B919" s="15"/>
     </row>
     <row r="920">
-      <c r="B920" s="14"/>
+      <c r="B920" s="15"/>
     </row>
     <row r="921">
-      <c r="B921" s="14"/>
+      <c r="B921" s="15"/>
     </row>
     <row r="922">
-      <c r="B922" s="14"/>
+      <c r="B922" s="15"/>
     </row>
     <row r="923">
-      <c r="B923" s="14"/>
+      <c r="B923" s="15"/>
     </row>
     <row r="924">
-      <c r="B924" s="14"/>
+      <c r="B924" s="15"/>
     </row>
     <row r="925">
-      <c r="B925" s="14"/>
+      <c r="B925" s="15"/>
     </row>
     <row r="926">
-      <c r="B926" s="14"/>
+      <c r="B926" s="15"/>
     </row>
     <row r="927">
-      <c r="B927" s="14"/>
+      <c r="B927" s="15"/>
     </row>
     <row r="928">
-      <c r="B928" s="14"/>
+      <c r="B928" s="15"/>
     </row>
     <row r="929">
-      <c r="B929" s="14"/>
+      <c r="B929" s="15"/>
     </row>
     <row r="930">
-      <c r="B930" s="14"/>
+      <c r="B930" s="15"/>
     </row>
     <row r="931">
-      <c r="B931" s="14"/>
+      <c r="B931" s="15"/>
     </row>
     <row r="932">
-      <c r="B932" s="14"/>
+      <c r="B932" s="15"/>
     </row>
     <row r="933">
-      <c r="B933" s="14"/>
+      <c r="B933" s="15"/>
     </row>
     <row r="934">
-      <c r="B934" s="14"/>
+      <c r="B934" s="15"/>
     </row>
     <row r="935">
-      <c r="B935" s="14"/>
+      <c r="B935" s="15"/>
     </row>
     <row r="936">
-      <c r="B936" s="14"/>
+      <c r="B936" s="15"/>
     </row>
     <row r="937">
-      <c r="B937" s="14"/>
+      <c r="B937" s="15"/>
     </row>
     <row r="938">
-      <c r="B938" s="14"/>
+      <c r="B938" s="15"/>
     </row>
     <row r="939">
-      <c r="B939" s="14"/>
+      <c r="B939" s="15"/>
     </row>
     <row r="940">
-      <c r="B940" s="14"/>
+      <c r="B940" s="15"/>
     </row>
     <row r="941">
-      <c r="B941" s="14"/>
+      <c r="B941" s="15"/>
     </row>
     <row r="942">
-      <c r="B942" s="14"/>
+      <c r="B942" s="15"/>
     </row>
     <row r="943">
-      <c r="B943" s="14"/>
+      <c r="B943" s="15"/>
     </row>
     <row r="944">
-      <c r="B944" s="14"/>
+      <c r="B944" s="15"/>
     </row>
     <row r="945">
-      <c r="B945" s="14"/>
+      <c r="B945" s="15"/>
     </row>
     <row r="946">
-      <c r="B946" s="14"/>
+      <c r="B946" s="15"/>
     </row>
     <row r="947">
-      <c r="B947" s="14"/>
+      <c r="B947" s="15"/>
     </row>
     <row r="948">
-      <c r="B948" s="14"/>
+      <c r="B948" s="15"/>
     </row>
     <row r="949">
-      <c r="B949" s="14"/>
+      <c r="B949" s="15"/>
     </row>
     <row r="950">
-      <c r="B950" s="14"/>
+      <c r="B950" s="15"/>
     </row>
     <row r="951">
-      <c r="B951" s="14"/>
+      <c r="B951" s="15"/>
     </row>
     <row r="952">
-      <c r="B952" s="14"/>
+      <c r="B952" s="15"/>
     </row>
     <row r="953">
-      <c r="B953" s="14"/>
+      <c r="B953" s="15"/>
     </row>
     <row r="954">
-      <c r="B954" s="14"/>
+      <c r="B954" s="15"/>
     </row>
     <row r="955">
-      <c r="B955" s="14"/>
+      <c r="B955" s="15"/>
     </row>
     <row r="956">
-      <c r="B956" s="14"/>
+      <c r="B956" s="15"/>
     </row>
     <row r="957">
-      <c r="B957" s="14"/>
+      <c r="B957" s="15"/>
     </row>
     <row r="958">
-      <c r="B958" s="14"/>
+      <c r="B958" s="15"/>
     </row>
     <row r="959">
-      <c r="B959" s="14"/>
+      <c r="B959" s="15"/>
     </row>
     <row r="960">
-      <c r="B960" s="14"/>
+      <c r="B960" s="15"/>
     </row>
     <row r="961">
-      <c r="B961" s="14"/>
+      <c r="B961" s="15"/>
     </row>
     <row r="962">
-      <c r="B962" s="14"/>
+      <c r="B962" s="15"/>
     </row>
     <row r="963">
-      <c r="B963" s="14"/>
+      <c r="B963" s="15"/>
     </row>
     <row r="964">
-      <c r="B964" s="14"/>
+      <c r="B964" s="15"/>
     </row>
     <row r="965">
-      <c r="B965" s="14"/>
+      <c r="B965" s="15"/>
     </row>
     <row r="966">
-      <c r="B966" s="14"/>
+      <c r="B966" s="15"/>
     </row>
     <row r="967">
-      <c r="B967" s="14"/>
+      <c r="B967" s="15"/>
     </row>
     <row r="968">
-      <c r="B968" s="14"/>
+      <c r="B968" s="15"/>
     </row>
     <row r="969">
-      <c r="B969" s="14"/>
+      <c r="B969" s="15"/>
     </row>
     <row r="970">
-      <c r="B970" s="14"/>
+      <c r="B970" s="15"/>
     </row>
     <row r="971">
-      <c r="B971" s="14"/>
+      <c r="B971" s="15"/>
     </row>
     <row r="972">
-      <c r="B972" s="14"/>
+      <c r="B972" s="15"/>
     </row>
     <row r="973">
-      <c r="B973" s="14"/>
+      <c r="B973" s="15"/>
     </row>
     <row r="974">
-      <c r="B974" s="14"/>
+      <c r="B974" s="15"/>
     </row>
     <row r="975">
-      <c r="B975" s="14"/>
+      <c r="B975" s="15"/>
     </row>
     <row r="976">
-      <c r="B976" s="14"/>
+      <c r="B976" s="15"/>
     </row>
     <row r="977">
-      <c r="B977" s="14"/>
+      <c r="B977" s="15"/>
     </row>
     <row r="978">
-      <c r="B978" s="14"/>
+      <c r="B978" s="15"/>
     </row>
     <row r="979">
-      <c r="B979" s="14"/>
+      <c r="B979" s="15"/>
     </row>
     <row r="980">
-      <c r="B980" s="14"/>
+      <c r="B980" s="15"/>
     </row>
     <row r="981">
-      <c r="B981" s="14"/>
+      <c r="B981" s="15"/>
     </row>
     <row r="982">
-      <c r="B982" s="14"/>
+      <c r="B982" s="15"/>
     </row>
     <row r="983">
-      <c r="B983" s="14"/>
+      <c r="B983" s="15"/>
     </row>
     <row r="984">
-      <c r="B984" s="14"/>
+      <c r="B984" s="15"/>
     </row>
     <row r="985">
-      <c r="B985" s="14"/>
+      <c r="B985" s="15"/>
     </row>
     <row r="986">
-      <c r="B986" s="14"/>
+      <c r="B986" s="15"/>
     </row>
     <row r="987">
-      <c r="B987" s="14"/>
+      <c r="B987" s="15"/>
     </row>
     <row r="988">
-      <c r="B988" s="14"/>
+      <c r="B988" s="15"/>
     </row>
     <row r="989">
-      <c r="B989" s="14"/>
+      <c r="B989" s="15"/>
     </row>
     <row r="990">
-      <c r="B990" s="14"/>
+      <c r="B990" s="15"/>
     </row>
     <row r="991">
-      <c r="B991" s="14"/>
+      <c r="B991" s="15"/>
     </row>
     <row r="992">
-      <c r="B992" s="14"/>
+      <c r="B992" s="15"/>
     </row>
     <row r="993">
-      <c r="B993" s="14"/>
+      <c r="B993" s="15"/>
     </row>
     <row r="994">
-      <c r="B994" s="14"/>
+      <c r="B994" s="15"/>
     </row>
     <row r="995">
-      <c r="B995" s="14"/>
+      <c r="B995" s="15"/>
     </row>
     <row r="996">
-      <c r="B996" s="14"/>
+      <c r="B996" s="15"/>
     </row>
     <row r="997">
-      <c r="B997" s="14"/>
+      <c r="B997" s="15"/>
     </row>
     <row r="998">
-      <c r="B998" s="14"/>
+      <c r="B998" s="15"/>
     </row>
     <row r="999">
-      <c r="B999" s="14"/>
+      <c r="B999" s="15"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="14"/>
+      <c r="B1000" s="15"/>
     </row>
     <row r="1001">
-      <c r="B1001" s="14"/>
+      <c r="B1001" s="15"/>
     </row>
     <row r="1002">
-      <c r="B1002" s="14"/>
+      <c r="B1002" s="15"/>
     </row>
     <row r="1003">
-      <c r="B1003" s="14"/>
+      <c r="B1003" s="15"/>
     </row>
     <row r="1004">
-      <c r="B1004" s="14"/>
+      <c r="B1004" s="15"/>
     </row>
     <row r="1005">
-      <c r="B1005" s="14"/>
+      <c r="B1005" s="15"/>
     </row>
     <row r="1006">
-      <c r="B1006" s="14"/>
+      <c r="B1006" s="15"/>
     </row>
     <row r="1007">
-      <c r="B1007" s="14"/>
+      <c r="B1007" s="15"/>
     </row>
     <row r="1008">
-      <c r="B1008" s="14"/>
+      <c r="B1008" s="15"/>
     </row>
     <row r="1009">
-      <c r="B1009" s="14"/>
+      <c r="B1009" s="15"/>
     </row>
     <row r="1010">
-      <c r="B1010" s="14"/>
+      <c r="B1010" s="15"/>
     </row>
     <row r="1011">
-      <c r="B1011" s="14"/>
+      <c r="B1011" s="15"/>
     </row>
     <row r="1012">
-      <c r="B1012" s="14"/>
+      <c r="B1012" s="15"/>
     </row>
     <row r="1013">
-      <c r="B1013" s="14"/>
+      <c r="B1013" s="15"/>
     </row>
     <row r="1014">
-      <c r="B1014" s="14"/>
+      <c r="B1014" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B14"/>
-    <hyperlink r:id="rId5" ref="B15"/>
-    <hyperlink r:id="rId6" ref="B16"/>
-    <hyperlink r:id="rId7" ref="B17"/>
-    <hyperlink r:id="rId8" ref="B19"/>
-    <hyperlink r:id="rId9" ref="B20"/>
-    <hyperlink r:id="rId10" ref="B21"/>
-    <hyperlink r:id="rId11" ref="B22"/>
-    <hyperlink r:id="rId12" ref="B23"/>
-    <hyperlink r:id="rId13" ref="B25"/>
-    <hyperlink r:id="rId14" ref="B28"/>
-    <hyperlink r:id="rId15" ref="B29"/>
-    <hyperlink r:id="rId16" ref="B31"/>
-    <hyperlink r:id="rId17" ref="B32"/>
-    <hyperlink r:id="rId18" ref="B33"/>
-    <hyperlink r:id="rId19" ref="B34"/>
-    <hyperlink r:id="rId20" ref="B35"/>
-    <hyperlink r:id="rId21" ref="B36"/>
-    <hyperlink r:id="rId22" ref="B37"/>
-    <hyperlink r:id="rId23" ref="B38"/>
-    <hyperlink r:id="rId24" ref="B39"/>
-    <hyperlink r:id="rId25" ref="B40"/>
+    <hyperlink r:id="rId1" ref="B5"/>
+    <hyperlink r:id="rId2" ref="B6"/>
+    <hyperlink r:id="rId3" ref="B7"/>
+    <hyperlink r:id="rId4" ref="B8"/>
+    <hyperlink r:id="rId5" ref="B9"/>
+    <hyperlink r:id="rId6" ref="B10"/>
+    <hyperlink r:id="rId7" ref="B11"/>
+    <hyperlink r:id="rId8" ref="B12"/>
+    <hyperlink r:id="rId9" ref="B13"/>
+    <hyperlink r:id="rId10" ref="B18"/>
+    <hyperlink r:id="rId11" ref="B24"/>
+    <hyperlink r:id="rId12" ref="B26"/>
+    <hyperlink r:id="rId13" ref="B27"/>
+    <hyperlink r:id="rId14" ref="B29"/>
+    <hyperlink r:id="rId15" ref="B30"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/Data/locations.xlsx
+++ b/Data/locations.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -69,6 +65,361 @@
   </si>
   <si>
     <t>azmld</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/arizona/sun-city/regency-mortuary/azrcy.html</t>
+  </si>
+  <si>
+    <t>azrcy</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/arizona/phoenix/samaritan-funeral-cremation-services-ahwatukee/azsfa.html</t>
+  </si>
+  <si>
+    <t>azsfa</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/arizona/phoenix/samaritan-funeral-cremation-services/azsfp.html</t>
+  </si>
+  <si>
+    <t>azsfp</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/arizona/mesa/wyman-cremation-burial-chapel/azwym.html</t>
+  </si>
+  <si>
+    <t>azwym</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-north-sacramento/caacn.html</t>
+  </si>
+  <si>
+    <t>caacn</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/roseville/affordable-cremation-funeral-service-roseville/caacr.html</t>
+  </si>
+  <si>
+    <t>caacr</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/sacramento/affordable-cremation-funeral-center-south-sacramento/caacs.html</t>
+  </si>
+  <si>
+    <t>caacs</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/placerville/el-dorado-funeral-cremation-services-placerville/caaed.html</t>
+  </si>
+  <si>
+    <t>caaed</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/chico/affordable-mortuary/cabam.html</t>
+  </si>
+  <si>
+    <t>cabam</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/roseville/blue-oaks-cremation-burial-services/cablo.html</t>
+  </si>
+  <si>
+    <t>cablo</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/chico/brusie-funeral-home/cabru.html</t>
+  </si>
+  <si>
+    <t>cabru</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/jackson/daneri-mortuary/cadan.html</t>
+  </si>
+  <si>
+    <t>cadan</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/pine-grove/amador-hills-cremation-funeral-service/cadll.html</t>
+  </si>
+  <si>
+    <t>cadll</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/orange/omega-society/caoms.html</t>
+  </si>
+  <si>
+    <t>caoms</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/california/yuba-city/ullrey-memorial-chapel/caulm.html</t>
+  </si>
+  <si>
+    <t>caulm</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/denver/a-basic-cremation/coabd.html</t>
+  </si>
+  <si>
+    <t>coabd</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/arvada/aspen-mortuaries-arvada/coama.html</t>
+  </si>
+  <si>
+    <t>coama</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/commerce-city/romero-funeral-home-and-cremations-commerce-city/coamc.html</t>
+  </si>
+  <si>
+    <t>coamc</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/lakewood/aspen-mortuaries-lakewood/coaml.html</t>
+  </si>
+  <si>
+    <t>coaml</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/all-states-cremation-colorado-springs/coasc.html</t>
+  </si>
+  <si>
+    <t>coasc</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/littleton/all-states-cremation-centennial/coasl.html</t>
+  </si>
+  <si>
+    <t>coasl</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/wheat-ridge/all-states-cremation-wheat-ridge/coasr.html</t>
+  </si>
+  <si>
+    <t>coasr</t>
+  </si>
+  <si>
+    <t>http://development.altogetherfuneral.com/funeral-cremation/colorado/westminster/all-states-cremation-westminster/coasw.html</t>
+  </si>
+  <si>
+    <t>coasw</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/all-veterans-funeral-cremation-colorado-springs/coavc.html</t>
+  </si>
+  <si>
+    <t>coavc</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/littleton/all-veterans-funeral-cremation-centennial/coavl.html</t>
+  </si>
+  <si>
+    <t>coavl</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/wheat-ridge/all-veterans-funeral-cremation-wheat-ridge/coavr.html</t>
+  </si>
+  <si>
+    <t>coavr</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/westminster/all-veterans-funeral-cremation-westminster/coavw.html</t>
+  </si>
+  <si>
+    <t>coavw</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/parker/ponderosa-valley-funeral-services/copvp.html</t>
+  </si>
+  <si>
+    <t>copvp</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/aurora/romero-funeral-home-and-cremations-aurora/coroa.html</t>
+  </si>
+  <si>
+    <t>coroa</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/denver/romero-funeral-home-and-cremations-denver/corod.html</t>
+  </si>
+  <si>
+    <t>corod</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/lakewood/romero-funeral-home-and-cremations-lakewood/corol.html</t>
+  </si>
+  <si>
+    <t>corol</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-platte/cotsf.html</t>
+  </si>
+  <si>
+    <t>cotsf</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/colorado/colorado-springs/the-springs-funeral-services-north/cotsn.html</t>
+  </si>
+  <si>
+    <t>cotsn</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/florida/st-petersburg/florida-mortuary/flalg.html</t>
+  </si>
+  <si>
+    <t>flalg</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/florida/largo/a-life-tribute-funeral-care-largo/flall.html</t>
+  </si>
+  <si>
+    <t>flall</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/florida/seminole/james-reese-funeral-home/flamr.html</t>
+  </si>
+  <si>
+    <t>flamr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>https://development.altogetherfuneral.com/funeral-cremation/florida/st-petersburg/anderson-mcqueen-funeral-homes/flams.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.0"/>
+      </rPr>
+      <t>l</t>
+    </r>
+  </si>
+  <si>
+    <t>flams</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/florida/st-petersburg/anderson-mcqueen-tyrone-family-tribute-center/flamt.html</t>
+  </si>
+  <si>
+    <t>flamt</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/florida/tampa/florida-mortuary-funeral-cremation-services/fllfm.html</t>
+  </si>
+  <si>
+    <t>fllfm</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/florida/land-o-lakes/loyless-funeral-homes-land-o-lakes/fllll.html</t>
+  </si>
+  <si>
+    <t>fllll</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/florida/tampa/loyless-funeral-homes-arrangement-center/fllta.html</t>
+  </si>
+  <si>
+    <t>fllta</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/minnesota/st-paul/willwerscheid-funeral-home-cremation-grand-avenue/mnwga.html</t>
+  </si>
+  <si>
+    <t>mnwga</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/minnesota/west-st-paul/willwerscheid-funeral-cremation-west-heights/mnwwh.html</t>
+  </si>
+  <si>
+    <t>mnwwh</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/canby/canby-funeral-chapel/orccf.html</t>
+  </si>
+  <si>
+    <t>orccf</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/molalla/molalla-funeral-chapel/orcmf.html</t>
+  </si>
+  <si>
+    <t>orcmf</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/portland/crown-cremation-services-portland/orcmp.html</t>
+  </si>
+  <si>
+    <t>orcmp</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/salem/crown-cremation-services-salem/orcms.html</t>
+  </si>
+  <si>
+    <t>orcms</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/tualatin/crown-cremation-services-tualatin/orcmt.html</t>
+  </si>
+  <si>
+    <t>orcmt</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/portland/heritage-memorial/orher.html</t>
+  </si>
+  <si>
+    <t>orher</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/eugene/alpha-cremation-services/ormac.html</t>
+  </si>
+  <si>
+    <t>ormac</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/eugene/lane-memorial-funeral-home/ormlm.html</t>
+  </si>
+  <si>
+    <t>ormlm</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/junction-city/murphy-musgrove-funeral-home/ormmm.html</t>
+  </si>
+  <si>
+    <t>ormmm</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/springfield/springfield-memorial-funeral-home/ormsm.html</t>
+  </si>
+  <si>
+    <t>ormsm</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/eugene/musgrove-family-mortuary/ormwl.html</t>
+  </si>
+  <si>
+    <t>ormwl</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/happy-valley/sunnyside-funeral-cremation/orslc.html</t>
+  </si>
+  <si>
+    <t>orslc</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/hillsboro/valley-memorial-funeral-home/orval.html</t>
+  </si>
+  <si>
+    <t>orval</t>
+  </si>
+  <si>
+    <t>https://development.altogetherfuneral.com/funeral-cremation/oregon/portland/wilhelms-portland-memorial-funeral-home/orwpm.html</t>
+  </si>
+  <si>
+    <t>orwpm</t>
   </si>
 </sst>
 </file>
@@ -77,61 +428,43 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="9">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <color rgb="FF0C0D0E"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0C0D0E"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,180 +472,76 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="3" builtinId="7"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,24 +739,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6342857142857" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="60.4285714285714" customWidth="1"/>
-    <col min="5" max="6" width="22.4285714285714" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.88"/>
+    <col customWidth="1" min="2" max="2" width="60.38"/>
+    <col customWidth="1" min="5" max="6" width="22.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,9 +785,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2">
       <c r="A2" s="4" t="str">
-        <f t="shared" si="0" ref="A2:A60">"Run GS for "&amp;C2</f>
+        <f t="shared" ref="A2:A62" si="1">"Run GS for "&amp;C2</f>
         <v>Run GS for azflc</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -571,30 +797,30 @@
         <v>11</v>
       </c>
       <c r="D2" s="7">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F2" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G2" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H2" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I2" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="J2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Run GS for azlgc</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -604,30 +830,30 @@
         <v>13</v>
       </c>
       <c r="D3" s="7">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="8">
-        <v>3</v>
+        <v>4.0</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H3" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I3" s="8">
-        <v>3</v>
+        <v>4.0</v>
       </c>
       <c r="J3" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Run GS for azlgm</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -637,30 +863,30 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E4" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F4" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G4" s="8">
-        <v>2</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I4" s="8">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="J4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Run GS for azmld</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -670,3607 +896,4885 @@
         <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F5" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H5" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="I5" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="J5" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="4"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="4"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="4"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="4"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="4"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="4"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="4"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="4"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="4"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="4"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="4"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="4"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="4"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="4"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="4"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="4"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="4"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75">
-      <c r="A50" s="4"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75">
-      <c r="A52" s="4"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
-      <c r="A58" s="4"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75">
-      <c r="A59" s="4"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75">
-      <c r="A60" s="4"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="2:2" ht="15.75">
-      <c r="B61" s="17"/>
-    </row>
-    <row r="62" spans="2:2" ht="15.75">
-      <c r="B62" s="17"/>
-    </row>
-    <row r="63" spans="2:2" ht="15.75">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for azrcy</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for azsfa</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for azsfp</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for azwym</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caacn</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caacr</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caacs</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caaed</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cabam</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cablo</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cabru</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cadan</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cadll</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caoms</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for caulm</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coabd</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coama</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coamc</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coaml</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasc</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasl</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasr</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coasw</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavc</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavl</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavr</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coavw</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for copvp</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for coroa</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for corod</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for corol</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cotsf</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for cotsn</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for flalg</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for flall</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for flamr</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for flams</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for flamt</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for fllfm</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for fllll</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for fllta</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for mnwga</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for mnwwh</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orccf</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcmf</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcmp</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcms</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E52" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I52" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orcmt</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orher</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormac</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormlm</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormmm</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormsm</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J58" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for ormwl</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J59" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orslc</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J60" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orval</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E61" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J61" s="8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Run GS for orwpm</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J62" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="B63" s="17"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75">
+    <row r="64">
       <c r="B64" s="17"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75">
+    <row r="65">
       <c r="B65" s="17"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75">
+    <row r="66">
       <c r="B66" s="17"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75">
+    <row r="67">
       <c r="B67" s="17"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75">
+    <row r="68">
       <c r="B68" s="17"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75">
+    <row r="69">
       <c r="B69" s="17"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75">
+    <row r="70">
       <c r="B70" s="17"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75">
+    <row r="71">
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="2:2" ht="15.75">
+    <row r="72">
       <c r="B72" s="17"/>
     </row>
-    <row r="73" spans="2:2" ht="15.75">
+    <row r="73">
       <c r="B73" s="17"/>
     </row>
-    <row r="74" spans="2:2" ht="15.75">
+    <row r="74">
       <c r="B74" s="17"/>
     </row>
-    <row r="75" spans="2:2" ht="15.75">
+    <row r="75">
       <c r="B75" s="17"/>
     </row>
-    <row r="76" spans="2:2" ht="15.75">
+    <row r="76">
       <c r="B76" s="17"/>
     </row>
-    <row r="77" spans="2:2" ht="15.75">
+    <row r="77">
       <c r="B77" s="17"/>
     </row>
-    <row r="78" spans="2:2" ht="15.75">
+    <row r="78">
       <c r="B78" s="17"/>
     </row>
-    <row r="79" spans="2:2" ht="15.75">
+    <row r="79">
       <c r="B79" s="17"/>
     </row>
-    <row r="80" spans="2:2" ht="15.75">
+    <row r="80">
       <c r="B80" s="17"/>
     </row>
-    <row r="81" spans="2:2" ht="15.75">
+    <row r="81">
       <c r="B81" s="17"/>
     </row>
-    <row r="82" spans="2:2" ht="15.75">
+    <row r="82">
       <c r="B82" s="17"/>
     </row>
-    <row r="83" spans="2:2" ht="15.75">
+    <row r="83">
       <c r="B83" s="17"/>
     </row>
-    <row r="84" spans="2:2" ht="15.75">
+    <row r="84">
       <c r="B84" s="17"/>
     </row>
-    <row r="85" spans="2:2" ht="15.75">
+    <row r="85">
       <c r="B85" s="17"/>
     </row>
-    <row r="86" spans="2:2" ht="15.75">
+    <row r="86">
       <c r="B86" s="17"/>
     </row>
-    <row r="87" spans="2:2" ht="15.75">
+    <row r="87">
       <c r="B87" s="17"/>
     </row>
-    <row r="88" spans="2:2" ht="15.75">
+    <row r="88">
       <c r="B88" s="17"/>
     </row>
-    <row r="89" spans="2:2" ht="15.75">
+    <row r="89">
       <c r="B89" s="17"/>
     </row>
-    <row r="90" spans="2:2" ht="15.75">
+    <row r="90">
       <c r="B90" s="17"/>
     </row>
-    <row r="91" spans="2:2" ht="15.75">
+    <row r="91">
       <c r="B91" s="17"/>
     </row>
-    <row r="92" spans="2:2" ht="15.75">
+    <row r="92">
       <c r="B92" s="17"/>
     </row>
-    <row r="93" spans="2:2" ht="15.75">
+    <row r="93">
       <c r="B93" s="17"/>
     </row>
-    <row r="94" spans="2:2" ht="15.75">
+    <row r="94">
       <c r="B94" s="17"/>
     </row>
-    <row r="95" spans="2:2" ht="15.75">
+    <row r="95">
       <c r="B95" s="17"/>
     </row>
-    <row r="96" spans="2:2" ht="15.75">
+    <row r="96">
       <c r="B96" s="17"/>
     </row>
-    <row r="97" spans="2:2" ht="15.75">
+    <row r="97">
       <c r="B97" s="17"/>
     </row>
-    <row r="98" spans="2:2" ht="15.75">
+    <row r="98">
       <c r="B98" s="17"/>
     </row>
-    <row r="99" spans="2:2" ht="15.75">
+    <row r="99">
       <c r="B99" s="17"/>
     </row>
-    <row r="100" spans="2:2" ht="15.75">
+    <row r="100">
       <c r="B100" s="17"/>
     </row>
-    <row r="101" spans="2:2" ht="15.75">
+    <row r="101">
       <c r="B101" s="17"/>
     </row>
-    <row r="102" spans="2:2" ht="15.75">
+    <row r="102">
       <c r="B102" s="17"/>
     </row>
-    <row r="103" spans="2:2" ht="15.75">
+    <row r="103">
       <c r="B103" s="17"/>
     </row>
-    <row r="104" spans="2:2" ht="15.75">
+    <row r="104">
       <c r="B104" s="17"/>
     </row>
-    <row r="105" spans="2:2" ht="15.75">
+    <row r="105">
       <c r="B105" s="17"/>
     </row>
-    <row r="106" spans="2:2" ht="15.75">
+    <row r="106">
       <c r="B106" s="17"/>
     </row>
-    <row r="107" spans="2:2" ht="15.75">
+    <row r="107">
       <c r="B107" s="17"/>
     </row>
-    <row r="108" spans="2:2" ht="15.75">
+    <row r="108">
       <c r="B108" s="17"/>
     </row>
-    <row r="109" spans="2:2" ht="15.75">
+    <row r="109">
       <c r="B109" s="17"/>
     </row>
-    <row r="110" spans="2:2" ht="15.75">
+    <row r="110">
       <c r="B110" s="17"/>
     </row>
-    <row r="111" spans="2:2" ht="15.75">
+    <row r="111">
       <c r="B111" s="17"/>
     </row>
-    <row r="112" spans="2:2" ht="15.75">
+    <row r="112">
       <c r="B112" s="17"/>
     </row>
-    <row r="113" spans="2:2" ht="15.75">
+    <row r="113">
       <c r="B113" s="17"/>
     </row>
-    <row r="114" spans="2:2" ht="15.75">
+    <row r="114">
       <c r="B114" s="17"/>
     </row>
-    <row r="115" spans="2:2" ht="15.75">
+    <row r="115">
       <c r="B115" s="17"/>
     </row>
-    <row r="116" spans="2:2" ht="15.75">
+    <row r="116">
       <c r="B116" s="17"/>
     </row>
-    <row r="117" spans="2:2" ht="15.75">
+    <row r="117">
       <c r="B117" s="17"/>
     </row>
-    <row r="118" spans="2:2" ht="15.75">
+    <row r="118">
       <c r="B118" s="17"/>
     </row>
-    <row r="119" spans="2:2" ht="15.75">
+    <row r="119">
       <c r="B119" s="17"/>
     </row>
-    <row r="120" spans="2:2" ht="15.75">
+    <row r="120">
       <c r="B120" s="17"/>
     </row>
-    <row r="121" spans="2:2" ht="15.75">
+    <row r="121">
       <c r="B121" s="17"/>
     </row>
-    <row r="122" spans="2:2" ht="15.75">
+    <row r="122">
       <c r="B122" s="17"/>
     </row>
-    <row r="123" spans="2:2" ht="15.75">
+    <row r="123">
       <c r="B123" s="17"/>
     </row>
-    <row r="124" spans="2:2" ht="15.75">
+    <row r="124">
       <c r="B124" s="17"/>
     </row>
-    <row r="125" spans="2:2" ht="15.75">
+    <row r="125">
       <c r="B125" s="17"/>
     </row>
-    <row r="126" spans="2:2" ht="15.75">
+    <row r="126">
       <c r="B126" s="17"/>
     </row>
-    <row r="127" spans="2:2" ht="15.75">
+    <row r="127">
       <c r="B127" s="17"/>
     </row>
-    <row r="128" spans="2:2" ht="15.75">
+    <row r="128">
       <c r="B128" s="17"/>
     </row>
-    <row r="129" spans="2:2" ht="15.75">
+    <row r="129">
       <c r="B129" s="17"/>
     </row>
-    <row r="130" spans="2:2" ht="15.75">
+    <row r="130">
       <c r="B130" s="17"/>
     </row>
-    <row r="131" spans="2:2" ht="15.75">
+    <row r="131">
       <c r="B131" s="17"/>
     </row>
-    <row r="132" spans="2:2" ht="15.75">
+    <row r="132">
       <c r="B132" s="17"/>
     </row>
-    <row r="133" spans="2:2" ht="15.75">
+    <row r="133">
       <c r="B133" s="17"/>
     </row>
-    <row r="134" spans="2:2" ht="15.75">
+    <row r="134">
       <c r="B134" s="17"/>
     </row>
-    <row r="135" spans="2:2" ht="15.75">
+    <row r="135">
       <c r="B135" s="17"/>
     </row>
-    <row r="136" spans="2:2" ht="15.75">
+    <row r="136">
       <c r="B136" s="17"/>
     </row>
-    <row r="137" spans="2:2" ht="15.75">
+    <row r="137">
       <c r="B137" s="17"/>
     </row>
-    <row r="138" spans="2:2" ht="15.75">
+    <row r="138">
       <c r="B138" s="17"/>
     </row>
-    <row r="139" spans="2:2" ht="15.75">
+    <row r="139">
       <c r="B139" s="17"/>
     </row>
-    <row r="140" spans="2:2" ht="15.75">
+    <row r="140">
       <c r="B140" s="17"/>
     </row>
-    <row r="141" spans="2:2" ht="15.75">
+    <row r="141">
       <c r="B141" s="17"/>
     </row>
-    <row r="142" spans="2:2" ht="15.75">
+    <row r="142">
       <c r="B142" s="17"/>
     </row>
-    <row r="143" spans="2:2" ht="15.75">
+    <row r="143">
       <c r="B143" s="17"/>
     </row>
-    <row r="144" spans="2:2" ht="15.75">
+    <row r="144">
       <c r="B144" s="17"/>
     </row>
-    <row r="145" spans="2:2" ht="15.75">
+    <row r="145">
       <c r="B145" s="17"/>
     </row>
-    <row r="146" spans="2:2" ht="15.75">
+    <row r="146">
       <c r="B146" s="17"/>
     </row>
-    <row r="147" spans="2:2" ht="15.75">
+    <row r="147">
       <c r="B147" s="17"/>
     </row>
-    <row r="148" spans="2:2" ht="15.75">
+    <row r="148">
       <c r="B148" s="17"/>
     </row>
-    <row r="149" spans="2:2" ht="15.75">
+    <row r="149">
       <c r="B149" s="17"/>
     </row>
-    <row r="150" spans="2:2" ht="15.75">
+    <row r="150">
       <c r="B150" s="17"/>
     </row>
-    <row r="151" spans="2:2" ht="15.75">
+    <row r="151">
       <c r="B151" s="17"/>
     </row>
-    <row r="152" spans="2:2" ht="15.75">
+    <row r="152">
       <c r="B152" s="17"/>
     </row>
-    <row r="153" spans="2:2" ht="15.75">
+    <row r="153">
       <c r="B153" s="17"/>
     </row>
-    <row r="154" spans="2:2" ht="15.75">
+    <row r="154">
       <c r="B154" s="17"/>
     </row>
-    <row r="155" spans="2:2" ht="15.75">
+    <row r="155">
       <c r="B155" s="17"/>
     </row>
-    <row r="156" spans="2:2" ht="15.75">
+    <row r="156">
       <c r="B156" s="17"/>
     </row>
-    <row r="157" spans="2:2" ht="15.75">
+    <row r="157">
       <c r="B157" s="17"/>
     </row>
-    <row r="158" spans="2:2" ht="15.75">
+    <row r="158">
       <c r="B158" s="17"/>
     </row>
-    <row r="159" spans="2:2" ht="15.75">
+    <row r="159">
       <c r="B159" s="17"/>
     </row>
-    <row r="160" spans="2:2" ht="15.75">
+    <row r="160">
       <c r="B160" s="17"/>
     </row>
-    <row r="161" spans="2:2" ht="15.75">
+    <row r="161">
       <c r="B161" s="17"/>
     </row>
-    <row r="162" spans="2:2" ht="15.75">
+    <row r="162">
       <c r="B162" s="17"/>
     </row>
-    <row r="163" spans="2:2" ht="15.75">
+    <row r="163">
       <c r="B163" s="17"/>
     </row>
-    <row r="164" spans="2:2" ht="15.75">
+    <row r="164">
       <c r="B164" s="17"/>
     </row>
-    <row r="165" spans="2:2" ht="15.75">
+    <row r="165">
       <c r="B165" s="17"/>
     </row>
-    <row r="166" spans="2:2" ht="15.75">
+    <row r="166">
       <c r="B166" s="17"/>
     </row>
-    <row r="167" spans="2:2" ht="15.75">
+    <row r="167">
       <c r="B167" s="17"/>
     </row>
-    <row r="168" spans="2:2" ht="15.75">
+    <row r="168">
       <c r="B168" s="17"/>
     </row>
-    <row r="169" spans="2:2" ht="15.75">
+    <row r="169">
       <c r="B169" s="17"/>
     </row>
-    <row r="170" spans="2:2" ht="15.75">
+    <row r="170">
       <c r="B170" s="17"/>
     </row>
-    <row r="171" spans="2:2" ht="15.75">
+    <row r="171">
       <c r="B171" s="17"/>
     </row>
-    <row r="172" spans="2:2" ht="15.75">
+    <row r="172">
       <c r="B172" s="17"/>
     </row>
-    <row r="173" spans="2:2" ht="15.75">
+    <row r="173">
       <c r="B173" s="17"/>
     </row>
-    <row r="174" spans="2:2" ht="15.75">
+    <row r="174">
       <c r="B174" s="17"/>
     </row>
-    <row r="175" spans="2:2" ht="15.75">
+    <row r="175">
       <c r="B175" s="17"/>
     </row>
-    <row r="176" spans="2:2" ht="15.75">
+    <row r="176">
       <c r="B176" s="17"/>
     </row>
-    <row r="177" spans="2:2" ht="15.75">
+    <row r="177">
       <c r="B177" s="17"/>
     </row>
-    <row r="178" spans="2:2" ht="15.75">
+    <row r="178">
       <c r="B178" s="17"/>
     </row>
-    <row r="179" spans="2:2" ht="15.75">
+    <row r="179">
       <c r="B179" s="17"/>
     </row>
-    <row r="180" spans="2:2" ht="15.75">
+    <row r="180">
       <c r="B180" s="17"/>
     </row>
-    <row r="181" spans="2:2" ht="15.75">
+    <row r="181">
       <c r="B181" s="17"/>
     </row>
-    <row r="182" spans="2:2" ht="15.75">
+    <row r="182">
       <c r="B182" s="17"/>
     </row>
-    <row r="183" spans="2:2" ht="15.75">
+    <row r="183">
       <c r="B183" s="17"/>
     </row>
-    <row r="184" spans="2:2" ht="15.75">
+    <row r="184">
       <c r="B184" s="17"/>
     </row>
-    <row r="185" spans="2:2" ht="15.75">
+    <row r="185">
       <c r="B185" s="17"/>
     </row>
-    <row r="186" spans="2:2" ht="15.75">
+    <row r="186">
       <c r="B186" s="17"/>
     </row>
-    <row r="187" spans="2:2" ht="15.75">
+    <row r="187">
       <c r="B187" s="17"/>
     </row>
-    <row r="188" spans="2:2" ht="15.75">
+    <row r="188">
       <c r="B188" s="17"/>
     </row>
-    <row r="189" spans="2:2" ht="15.75">
+    <row r="189">
       <c r="B189" s="17"/>
     </row>
-    <row r="190" spans="2:2" ht="15.75">
+    <row r="190">
       <c r="B190" s="17"/>
     </row>
-    <row r="191" spans="2:2" ht="15.75">
+    <row r="191">
       <c r="B191" s="17"/>
     </row>
-    <row r="192" spans="2:2" ht="15.75">
+    <row r="192">
       <c r="B192" s="17"/>
     </row>
-    <row r="193" spans="2:2" ht="15.75">
+    <row r="193">
       <c r="B193" s="17"/>
     </row>
-    <row r="194" spans="2:2" ht="15.75">
+    <row r="194">
       <c r="B194" s="17"/>
     </row>
-    <row r="195" spans="2:2" ht="15.75">
+    <row r="195">
       <c r="B195" s="17"/>
     </row>
-    <row r="196" spans="2:2" ht="15.75">
+    <row r="196">
       <c r="B196" s="17"/>
     </row>
-    <row r="197" spans="2:2" ht="15.75">
+    <row r="197">
       <c r="B197" s="17"/>
     </row>
-    <row r="198" spans="2:2" ht="15.75">
+    <row r="198">
       <c r="B198" s="17"/>
     </row>
-    <row r="199" spans="2:2" ht="15.75">
+    <row r="199">
       <c r="B199" s="17"/>
     </row>
-    <row r="200" spans="2:2" ht="15.75">
+    <row r="200">
       <c r="B200" s="17"/>
     </row>
-    <row r="201" spans="2:2" ht="15.75">
+    <row r="201">
       <c r="B201" s="17"/>
     </row>
-    <row r="202" spans="2:2" ht="15.75">
+    <row r="202">
       <c r="B202" s="17"/>
     </row>
-    <row r="203" spans="2:2" ht="15.75">
+    <row r="203">
       <c r="B203" s="17"/>
     </row>
-    <row r="204" spans="2:2" ht="15.75">
+    <row r="204">
       <c r="B204" s="17"/>
     </row>
-    <row r="205" spans="2:2" ht="15.75">
+    <row r="205">
       <c r="B205" s="17"/>
     </row>
-    <row r="206" spans="2:2" ht="15.75">
+    <row r="206">
       <c r="B206" s="17"/>
     </row>
-    <row r="207" spans="2:2" ht="15.75">
+    <row r="207">
       <c r="B207" s="17"/>
     </row>
-    <row r="208" spans="2:2" ht="15.75">
+    <row r="208">
       <c r="B208" s="17"/>
     </row>
-    <row r="209" spans="2:2" ht="15.75">
+    <row r="209">
       <c r="B209" s="17"/>
     </row>
-    <row r="210" spans="2:2" ht="15.75">
+    <row r="210">
       <c r="B210" s="17"/>
     </row>
-    <row r="211" spans="2:2" ht="15.75">
+    <row r="211">
       <c r="B211" s="17"/>
     </row>
-    <row r="212" spans="2:2" ht="15.75">
+    <row r="212">
       <c r="B212" s="17"/>
     </row>
-    <row r="213" spans="2:2" ht="15.75">
+    <row r="213">
       <c r="B213" s="17"/>
     </row>
-    <row r="214" spans="2:2" ht="15.75">
+    <row r="214">
       <c r="B214" s="17"/>
     </row>
-    <row r="215" spans="2:2" ht="15.75">
+    <row r="215">
       <c r="B215" s="17"/>
     </row>
-    <row r="216" spans="2:2" ht="15.75">
+    <row r="216">
       <c r="B216" s="17"/>
     </row>
-    <row r="217" spans="2:2" ht="15.75">
+    <row r="217">
       <c r="B217" s="17"/>
     </row>
-    <row r="218" spans="2:2" ht="15.75">
+    <row r="218">
       <c r="B218" s="17"/>
     </row>
-    <row r="219" spans="2:2" ht="15.75">
+    <row r="219">
       <c r="B219" s="17"/>
     </row>
-    <row r="220" spans="2:2" ht="15.75">
+    <row r="220">
       <c r="B220" s="17"/>
     </row>
-    <row r="221" spans="2:2" ht="15.75">
+    <row r="221">
       <c r="B221" s="17"/>
     </row>
-    <row r="222" spans="2:2" ht="15.75">
+    <row r="222">
       <c r="B222" s="17"/>
     </row>
-    <row r="223" spans="2:2" ht="15.75">
+    <row r="223">
       <c r="B223" s="17"/>
     </row>
-    <row r="224" spans="2:2" ht="15.75">
+    <row r="224">
       <c r="B224" s="17"/>
     </row>
-    <row r="225" spans="2:2" ht="15.75">
+    <row r="225">
       <c r="B225" s="17"/>
     </row>
-    <row r="226" spans="2:2" ht="15.75">
+    <row r="226">
       <c r="B226" s="17"/>
     </row>
-    <row r="227" spans="2:2" ht="15.75">
+    <row r="227">
       <c r="B227" s="17"/>
     </row>
-    <row r="228" spans="2:2" ht="15.75">
+    <row r="228">
       <c r="B228" s="17"/>
     </row>
-    <row r="229" spans="2:2" ht="15.75">
+    <row r="229">
       <c r="B229" s="17"/>
     </row>
-    <row r="230" spans="2:2" ht="15.75">
+    <row r="230">
       <c r="B230" s="17"/>
     </row>
-    <row r="231" spans="2:2" ht="15.75">
+    <row r="231">
       <c r="B231" s="17"/>
     </row>
-    <row r="232" spans="2:2" ht="15.75">
+    <row r="232">
       <c r="B232" s="17"/>
     </row>
-    <row r="233" spans="2:2" ht="15.75">
+    <row r="233">
       <c r="B233" s="17"/>
     </row>
-    <row r="234" spans="2:2" ht="15.75">
+    <row r="234">
       <c r="B234" s="17"/>
     </row>
-    <row r="235" spans="2:2" ht="15.75">
+    <row r="235">
       <c r="B235" s="17"/>
     </row>
-    <row r="236" spans="2:2" ht="15.75">
+    <row r="236">
       <c r="B236" s="17"/>
     </row>
-    <row r="237" spans="2:2" ht="15.75">
+    <row r="237">
       <c r="B237" s="17"/>
     </row>
-    <row r="238" spans="2:2" ht="15.75">
+    <row r="238">
       <c r="B238" s="17"/>
     </row>
-    <row r="239" spans="2:2" ht="15.75">
+    <row r="239">
       <c r="B239" s="17"/>
     </row>
-    <row r="240" spans="2:2" ht="15.75">
+    <row r="240">
       <c r="B240" s="17"/>
     </row>
-    <row r="241" spans="2:2" ht="15.75">
+    <row r="241">
       <c r="B241" s="17"/>
     </row>
-    <row r="242" spans="2:2" ht="15.75">
+    <row r="242">
       <c r="B242" s="17"/>
     </row>
-    <row r="243" spans="2:2" ht="15.75">
+    <row r="243">
       <c r="B243" s="17"/>
     </row>
-    <row r="244" spans="2:2" ht="15.75">
+    <row r="244">
       <c r="B244" s="17"/>
     </row>
-    <row r="245" spans="2:2" ht="15.75">
+    <row r="245">
       <c r="B245" s="17"/>
     </row>
-    <row r="246" spans="2:2" ht="15.75">
+    <row r="246">
       <c r="B246" s="17"/>
     </row>
-    <row r="247" spans="2:2" ht="15.75">
+    <row r="247">
       <c r="B247" s="17"/>
     </row>
-    <row r="248" spans="2:2" ht="15.75">
+    <row r="248">
       <c r="B248" s="17"/>
     </row>
-    <row r="249" spans="2:2" ht="15.75">
+    <row r="249">
       <c r="B249" s="17"/>
     </row>
-    <row r="250" spans="2:2" ht="15.75">
+    <row r="250">
       <c r="B250" s="17"/>
     </row>
-    <row r="251" spans="2:2" ht="15.75">
+    <row r="251">
       <c r="B251" s="17"/>
     </row>
-    <row r="252" spans="2:2" ht="15.75">
+    <row r="252">
       <c r="B252" s="17"/>
     </row>
-    <row r="253" spans="2:2" ht="15.75">
+    <row r="253">
       <c r="B253" s="17"/>
     </row>
-    <row r="254" spans="2:2" ht="15.75">
+    <row r="254">
       <c r="B254" s="17"/>
     </row>
-    <row r="255" spans="2:2" ht="15.75">
+    <row r="255">
       <c r="B255" s="17"/>
     </row>
-    <row r="256" spans="2:2" ht="15.75">
+    <row r="256">
       <c r="B256" s="17"/>
     </row>
-    <row r="257" spans="2:2" ht="15.75">
+    <row r="257">
       <c r="B257" s="17"/>
     </row>
-    <row r="258" spans="2:2" ht="15.75">
+    <row r="258">
       <c r="B258" s="17"/>
     </row>
-    <row r="259" spans="2:2" ht="15.75">
+    <row r="259">
       <c r="B259" s="17"/>
     </row>
-    <row r="260" spans="2:2" ht="15.75">
+    <row r="260">
       <c r="B260" s="17"/>
     </row>
-    <row r="261" spans="2:2" ht="15.75">
+    <row r="261">
       <c r="B261" s="17"/>
     </row>
-    <row r="262" spans="2:2" ht="15.75">
+    <row r="262">
       <c r="B262" s="17"/>
     </row>
-    <row r="263" spans="2:2" ht="15.75">
+    <row r="263">
       <c r="B263" s="17"/>
     </row>
-    <row r="264" spans="2:2" ht="15.75">
+    <row r="264">
       <c r="B264" s="17"/>
     </row>
-    <row r="265" spans="2:2" ht="15.75">
+    <row r="265">
       <c r="B265" s="17"/>
     </row>
-    <row r="266" spans="2:2" ht="15.75">
+    <row r="266">
       <c r="B266" s="17"/>
     </row>
-    <row r="267" spans="2:2" ht="15.75">
+    <row r="267">
       <c r="B267" s="17"/>
     </row>
-    <row r="268" spans="2:2" ht="15.75">
+    <row r="268">
       <c r="B268" s="17"/>
     </row>
-    <row r="269" spans="2:2" ht="15.75">
+    <row r="269">
       <c r="B269" s="17"/>
     </row>
-    <row r="270" spans="2:2" ht="15.75">
+    <row r="270">
       <c r="B270" s="17"/>
     </row>
-    <row r="271" spans="2:2" ht="15.75">
+    <row r="271">
       <c r="B271" s="17"/>
     </row>
-    <row r="272" spans="2:2" ht="15.75">
+    <row r="272">
       <c r="B272" s="17"/>
     </row>
-    <row r="273" spans="2:2" ht="15.75">
+    <row r="273">
       <c r="B273" s="17"/>
     </row>
-    <row r="274" spans="2:2" ht="15.75">
+    <row r="274">
       <c r="B274" s="17"/>
     </row>
-    <row r="275" spans="2:2" ht="15.75">
+    <row r="275">
       <c r="B275" s="17"/>
     </row>
-    <row r="276" spans="2:2" ht="15.75">
+    <row r="276">
       <c r="B276" s="17"/>
     </row>
-    <row r="277" spans="2:2" ht="15.75">
+    <row r="277">
       <c r="B277" s="17"/>
     </row>
-    <row r="278" spans="2:2" ht="15.75">
+    <row r="278">
       <c r="B278" s="17"/>
     </row>
-    <row r="279" spans="2:2" ht="15.75">
+    <row r="279">
       <c r="B279" s="17"/>
     </row>
-    <row r="280" spans="2:2" ht="15.75">
+    <row r="280">
       <c r="B280" s="17"/>
     </row>
-    <row r="281" spans="2:2" ht="15.75">
+    <row r="281">
       <c r="B281" s="17"/>
     </row>
-    <row r="282" spans="2:2" ht="15.75">
+    <row r="282">
       <c r="B282" s="17"/>
     </row>
-    <row r="283" spans="2:2" ht="15.75">
+    <row r="283">
       <c r="B283" s="17"/>
     </row>
-    <row r="284" spans="2:2" ht="15.75">
+    <row r="284">
       <c r="B284" s="17"/>
     </row>
-    <row r="285" spans="2:2" ht="15.75">
+    <row r="285">
       <c r="B285" s="17"/>
     </row>
-    <row r="286" spans="2:2" ht="15.75">
+    <row r="286">
       <c r="B286" s="17"/>
     </row>
-    <row r="287" spans="2:2" ht="15.75">
+    <row r="287">
       <c r="B287" s="17"/>
     </row>
-    <row r="288" spans="2:2" ht="15.75">
+    <row r="288">
       <c r="B288" s="17"/>
     </row>
-    <row r="289" spans="2:2" ht="15.75">
+    <row r="289">
       <c r="B289" s="17"/>
     </row>
-    <row r="290" spans="2:2" ht="15.75">
+    <row r="290">
       <c r="B290" s="17"/>
     </row>
-    <row r="291" spans="2:2" ht="15.75">
+    <row r="291">
       <c r="B291" s="17"/>
     </row>
-    <row r="292" spans="2:2" ht="15.75">
+    <row r="292">
       <c r="B292" s="17"/>
     </row>
-    <row r="293" spans="2:2" ht="15.75">
+    <row r="293">
       <c r="B293" s="17"/>
     </row>
-    <row r="294" spans="2:2" ht="15.75">
+    <row r="294">
       <c r="B294" s="17"/>
     </row>
-    <row r="295" spans="2:2" ht="15.75">
+    <row r="295">
       <c r="B295" s="17"/>
     </row>
-    <row r="296" spans="2:2" ht="15.75">
+    <row r="296">
       <c r="B296" s="17"/>
     </row>
-    <row r="297" spans="2:2" ht="15.75">
+    <row r="297">
       <c r="B297" s="17"/>
     </row>
-    <row r="298" spans="2:2" ht="15.75">
+    <row r="298">
       <c r="B298" s="17"/>
     </row>
-    <row r="299" spans="2:2" ht="15.75">
+    <row r="299">
       <c r="B299" s="17"/>
     </row>
-    <row r="300" spans="2:2" ht="15.75">
+    <row r="300">
       <c r="B300" s="17"/>
     </row>
-    <row r="301" spans="2:2" ht="15.75">
+    <row r="301">
       <c r="B301" s="17"/>
     </row>
-    <row r="302" spans="2:2" ht="15.75">
+    <row r="302">
       <c r="B302" s="17"/>
     </row>
-    <row r="303" spans="2:2" ht="15.75">
+    <row r="303">
       <c r="B303" s="17"/>
     </row>
-    <row r="304" spans="2:2" ht="15.75">
+    <row r="304">
       <c r="B304" s="17"/>
     </row>
-    <row r="305" spans="2:2" ht="15.75">
+    <row r="305">
       <c r="B305" s="17"/>
     </row>
-    <row r="306" spans="2:2" ht="15.75">
+    <row r="306">
       <c r="B306" s="17"/>
     </row>
-    <row r="307" spans="2:2" ht="15.75">
+    <row r="307">
       <c r="B307" s="17"/>
     </row>
-    <row r="308" spans="2:2" ht="15.75">
+    <row r="308">
       <c r="B308" s="17"/>
     </row>
-    <row r="309" spans="2:2" ht="15.75">
+    <row r="309">
       <c r="B309" s="17"/>
     </row>
-    <row r="310" spans="2:2" ht="15.75">
+    <row r="310">
       <c r="B310" s="17"/>
     </row>
-    <row r="311" spans="2:2" ht="15.75">
+    <row r="311">
       <c r="B311" s="17"/>
     </row>
-    <row r="312" spans="2:2" ht="15.75">
+    <row r="312">
       <c r="B312" s="17"/>
     </row>
-    <row r="313" spans="2:2" ht="15.75">
+    <row r="313">
       <c r="B313" s="17"/>
     </row>
-    <row r="314" spans="2:2" ht="15.75">
+    <row r="314">
       <c r="B314" s="17"/>
     </row>
-    <row r="315" spans="2:2" ht="15.75">
+    <row r="315">
       <c r="B315" s="17"/>
     </row>
-    <row r="316" spans="2:2" ht="15.75">
+    <row r="316">
       <c r="B316" s="17"/>
     </row>
-    <row r="317" spans="2:2" ht="15.75">
+    <row r="317">
       <c r="B317" s="17"/>
     </row>
-    <row r="318" spans="2:2" ht="15.75">
+    <row r="318">
       <c r="B318" s="17"/>
     </row>
-    <row r="319" spans="2:2" ht="15.75">
+    <row r="319">
       <c r="B319" s="17"/>
     </row>
-    <row r="320" spans="2:2" ht="15.75">
+    <row r="320">
       <c r="B320" s="17"/>
     </row>
-    <row r="321" spans="2:2" ht="15.75">
+    <row r="321">
       <c r="B321" s="17"/>
     </row>
-    <row r="322" spans="2:2" ht="15.75">
+    <row r="322">
       <c r="B322" s="17"/>
     </row>
-    <row r="323" spans="2:2" ht="15.75">
+    <row r="323">
       <c r="B323" s="17"/>
     </row>
-    <row r="324" spans="2:2" ht="15.75">
+    <row r="324">
       <c r="B324" s="17"/>
     </row>
-    <row r="325" spans="2:2" ht="15.75">
+    <row r="325">
       <c r="B325" s="17"/>
     </row>
-    <row r="326" spans="2:2" ht="15.75">
+    <row r="326">
       <c r="B326" s="17"/>
     </row>
-    <row r="327" spans="2:2" ht="15.75">
+    <row r="327">
       <c r="B327" s="17"/>
     </row>
-    <row r="328" spans="2:2" ht="15.75">
+    <row r="328">
       <c r="B328" s="17"/>
     </row>
-    <row r="329" spans="2:2" ht="15.75">
+    <row r="329">
       <c r="B329" s="17"/>
     </row>
-    <row r="330" spans="2:2" ht="15.75">
+    <row r="330">
       <c r="B330" s="17"/>
     </row>
-    <row r="331" spans="2:2" ht="15.75">
+    <row r="331">
       <c r="B331" s="17"/>
     </row>
-    <row r="332" spans="2:2" ht="15.75">
+    <row r="332">
       <c r="B332" s="17"/>
     </row>
-    <row r="333" spans="2:2" ht="15.75">
+    <row r="333">
       <c r="B333" s="17"/>
     </row>
-    <row r="334" spans="2:2" ht="15.75">
+    <row r="334">
       <c r="B334" s="17"/>
     </row>
-    <row r="335" spans="2:2" ht="15.75">
+    <row r="335">
       <c r="B335" s="17"/>
     </row>
-    <row r="336" spans="2:2" ht="15.75">
+    <row r="336">
       <c r="B336" s="17"/>
     </row>
-    <row r="337" spans="2:2" ht="15.75">
+    <row r="337">
       <c r="B337" s="17"/>
     </row>
-    <row r="338" spans="2:2" ht="15.75">
+    <row r="338">
       <c r="B338" s="17"/>
     </row>
-    <row r="339" spans="2:2" ht="15.75">
+    <row r="339">
       <c r="B339" s="17"/>
     </row>
-    <row r="340" spans="2:2" ht="15.75">
+    <row r="340">
       <c r="B340" s="17"/>
     </row>
-    <row r="341" spans="2:2" ht="15.75">
+    <row r="341">
       <c r="B341" s="17"/>
     </row>
-    <row r="342" spans="2:2" ht="15.75">
+    <row r="342">
       <c r="B342" s="17"/>
     </row>
-    <row r="343" spans="2:2" ht="15.75">
+    <row r="343">
       <c r="B343" s="17"/>
     </row>
-    <row r="344" spans="2:2" ht="15.75">
+    <row r="344">
       <c r="B344" s="17"/>
     </row>
-    <row r="345" spans="2:2" ht="15.75">
+    <row r="345">
       <c r="B345" s="17"/>
     </row>
-    <row r="346" spans="2:2" ht="15.75">
+    <row r="346">
       <c r="B346" s="17"/>
     </row>
-    <row r="347" spans="2:2" ht="15.75">
+    <row r="347">
       <c r="B347" s="17"/>
     </row>
-    <row r="348" spans="2:2" ht="15.75">
+    <row r="348">
       <c r="B348" s="17"/>
     </row>
-    <row r="349" spans="2:2" ht="15.75">
+    <row r="349">
       <c r="B349" s="17"/>
     </row>
-    <row r="350" spans="2:2" ht="15.75">
+    <row r="350">
       <c r="B350" s="17"/>
     </row>
-    <row r="351" spans="2:2" ht="15.75">
+    <row r="351">
       <c r="B351" s="17"/>
     </row>
-    <row r="352" spans="2:2" ht="15.75">
+    <row r="352">
       <c r="B352" s="17"/>
     </row>
-    <row r="353" spans="2:2" ht="15.75">
+    <row r="353">
       <c r="B353" s="17"/>
     </row>
-    <row r="354" spans="2:2" ht="15.75">
+    <row r="354">
       <c r="B354" s="17"/>
     </row>
-    <row r="355" spans="2:2" ht="15.75">
+    <row r="355">
       <c r="B355" s="17"/>
     </row>
-    <row r="356" spans="2:2" ht="15.75">
+    <row r="356">
       <c r="B356" s="17"/>
     </row>
-    <row r="357" spans="2:2" ht="15.75">
+    <row r="357">
       <c r="B357" s="17"/>
     </row>
-    <row r="358" spans="2:2" ht="15.75">
+    <row r="358">
       <c r="B358" s="17"/>
     </row>
-    <row r="359" spans="2:2" ht="15.75">
+    <row r="359">
       <c r="B359" s="17"/>
     </row>
-    <row r="360" spans="2:2" ht="15.75">
+    <row r="360">
       <c r="B360" s="17"/>
     </row>
-    <row r="361" spans="2:2" ht="15.75">
+    <row r="361">
       <c r="B361" s="17"/>
     </row>
-    <row r="362" spans="2:2" ht="15.75">
+    <row r="362">
       <c r="B362" s="17"/>
     </row>
-    <row r="363" spans="2:2" ht="15.75">
+    <row r="363">
       <c r="B363" s="17"/>
     </row>
-    <row r="364" spans="2:2" ht="15.75">
+    <row r="364">
       <c r="B364" s="17"/>
     </row>
-    <row r="365" spans="2:2" ht="15.75">
+    <row r="365">
       <c r="B365" s="17"/>
     </row>
-    <row r="366" spans="2:2" ht="15.75">
+    <row r="366">
       <c r="B366" s="17"/>
     </row>
-    <row r="367" spans="2:2" ht="15.75">
+    <row r="367">
       <c r="B367" s="17"/>
     </row>
-    <row r="368" spans="2:2" ht="15.75">
+    <row r="368">
       <c r="B368" s="17"/>
     </row>
-    <row r="369" spans="2:2" ht="15.75">
+    <row r="369">
       <c r="B369" s="17"/>
     </row>
-    <row r="370" spans="2:2" ht="15.75">
+    <row r="370">
       <c r="B370" s="17"/>
     </row>
-    <row r="371" spans="2:2" ht="15.75">
+    <row r="371">
       <c r="B371" s="17"/>
     </row>
-    <row r="372" spans="2:2" ht="15.75">
+    <row r="372">
       <c r="B372" s="17"/>
     </row>
-    <row r="373" spans="2:2" ht="15.75">
+    <row r="373">
       <c r="B373" s="17"/>
     </row>
-    <row r="374" spans="2:2" ht="15.75">
+    <row r="374">
       <c r="B374" s="17"/>
     </row>
-    <row r="375" spans="2:2" ht="15.75">
+    <row r="375">
       <c r="B375" s="17"/>
     </row>
-    <row r="376" spans="2:2" ht="15.75">
+    <row r="376">
       <c r="B376" s="17"/>
     </row>
-    <row r="377" spans="2:2" ht="15.75">
+    <row r="377">
       <c r="B377" s="17"/>
     </row>
-    <row r="378" spans="2:2" ht="15.75">
+    <row r="378">
       <c r="B378" s="17"/>
     </row>
-    <row r="379" spans="2:2" ht="15.75">
+    <row r="379">
       <c r="B379" s="17"/>
     </row>
-    <row r="380" spans="2:2" ht="15.75">
+    <row r="380">
       <c r="B380" s="17"/>
     </row>
-    <row r="381" spans="2:2" ht="15.75">
+    <row r="381">
       <c r="B381" s="17"/>
     </row>
-    <row r="382" spans="2:2" ht="15.75">
+    <row r="382">
       <c r="B382" s="17"/>
     </row>
-    <row r="383" spans="2:2" ht="15.75">
+    <row r="383">
       <c r="B383" s="17"/>
     </row>
-    <row r="384" spans="2:2" ht="15.75">
+    <row r="384">
       <c r="B384" s="17"/>
     </row>
-    <row r="385" spans="2:2" ht="15.75">
+    <row r="385">
       <c r="B385" s="17"/>
     </row>
-    <row r="386" spans="2:2" ht="15.75">
+    <row r="386">
       <c r="B386" s="17"/>
     </row>
-    <row r="387" spans="2:2" ht="15.75">
+    <row r="387">
       <c r="B387" s="17"/>
     </row>
-    <row r="388" spans="2:2" ht="15.75">
+    <row r="388">
       <c r="B388" s="17"/>
     </row>
-    <row r="389" spans="2:2" ht="15.75">
+    <row r="389">
       <c r="B389" s="17"/>
     </row>
-    <row r="390" spans="2:2" ht="15.75">
+    <row r="390">
       <c r="B390" s="17"/>
     </row>
-    <row r="391" spans="2:2" ht="15.75">
+    <row r="391">
       <c r="B391" s="17"/>
     </row>
-    <row r="392" spans="2:2" ht="15.75">
+    <row r="392">
       <c r="B392" s="17"/>
     </row>
-    <row r="393" spans="2:2" ht="15.75">
+    <row r="393">
       <c r="B393" s="17"/>
     </row>
-    <row r="394" spans="2:2" ht="15.75">
+    <row r="394">
       <c r="B394" s="17"/>
     </row>
-    <row r="395" spans="2:2" ht="15.75">
+    <row r="395">
       <c r="B395" s="17"/>
     </row>
-    <row r="396" spans="2:2" ht="15.75">
+    <row r="396">
       <c r="B396" s="17"/>
     </row>
-    <row r="397" spans="2:2" ht="15.75">
+    <row r="397">
       <c r="B397" s="17"/>
     </row>
-    <row r="398" spans="2:2" ht="15.75">
+    <row r="398">
       <c r="B398" s="17"/>
     </row>
-    <row r="399" spans="2:2" ht="15.75">
+    <row r="399">
       <c r="B399" s="17"/>
     </row>
-    <row r="400" spans="2:2" ht="15.75">
+    <row r="400">
       <c r="B400" s="17"/>
     </row>
-    <row r="401" spans="2:2" ht="15.75">
+    <row r="401">
       <c r="B401" s="17"/>
     </row>
-    <row r="402" spans="2:2" ht="15.75">
+    <row r="402">
       <c r="B402" s="17"/>
     </row>
-    <row r="403" spans="2:2" ht="15.75">
+    <row r="403">
       <c r="B403" s="17"/>
     </row>
-    <row r="404" spans="2:2" ht="15.75">
+    <row r="404">
       <c r="B404" s="17"/>
     </row>
-    <row r="405" spans="2:2" ht="15.75">
+    <row r="405">
       <c r="B405" s="17"/>
     </row>
-    <row r="406" spans="2:2" ht="15.75">
+    <row r="406">
       <c r="B406" s="17"/>
     </row>
-    <row r="407" spans="2:2" ht="15.75">
+    <row r="407">
       <c r="B407" s="17"/>
     </row>
-    <row r="408" spans="2:2" ht="15.75">
+    <row r="408">
       <c r="B408" s="17"/>
     </row>
-    <row r="409" spans="2:2" ht="15.75">
+    <row r="409">
       <c r="B409" s="17"/>
     </row>
-    <row r="410" spans="2:2" ht="15.75">
+    <row r="410">
       <c r="B410" s="17"/>
     </row>
-    <row r="411" spans="2:2" ht="15.75">
+    <row r="411">
       <c r="B411" s="17"/>
     </row>
-    <row r="412" spans="2:2" ht="15.75">
+    <row r="412">
       <c r="B412" s="17"/>
     </row>
-    <row r="413" spans="2:2" ht="15.75">
+    <row r="413">
       <c r="B413" s="17"/>
     </row>
-    <row r="414" spans="2:2" ht="15.75">
+    <row r="414">
       <c r="B414" s="17"/>
     </row>
-    <row r="415" spans="2:2" ht="15.75">
+    <row r="415">
       <c r="B415" s="17"/>
     </row>
-    <row r="416" spans="2:2" ht="15.75">
+    <row r="416">
       <c r="B416" s="17"/>
     </row>
-    <row r="417" spans="2:2" ht="15.75">
+    <row r="417">
       <c r="B417" s="17"/>
     </row>
-    <row r="418" spans="2:2" ht="15.75">
+    <row r="418">
       <c r="B418" s="17"/>
     </row>
-    <row r="419" spans="2:2" ht="15.75">
+    <row r="419">
       <c r="B419" s="17"/>
     </row>
-    <row r="420" spans="2:2" ht="15.75">
+    <row r="420">
       <c r="B420" s="17"/>
     </row>
-    <row r="421" spans="2:2" ht="15.75">
+    <row r="421">
       <c r="B421" s="17"/>
     </row>
-    <row r="422" spans="2:2" ht="15.75">
+    <row r="422">
       <c r="B422" s="17"/>
     </row>
-    <row r="423" spans="2:2" ht="15.75">
+    <row r="423">
       <c r="B423" s="17"/>
     </row>
-    <row r="424" spans="2:2" ht="15.75">
+    <row r="424">
       <c r="B424" s="17"/>
     </row>
-    <row r="425" spans="2:2" ht="15.75">
+    <row r="425">
       <c r="B425" s="17"/>
     </row>
-    <row r="426" spans="2:2" ht="15.75">
+    <row r="426">
       <c r="B426" s="17"/>
     </row>
-    <row r="427" spans="2:2" ht="15.75">
+    <row r="427">
       <c r="B427" s="17"/>
     </row>
-    <row r="428" spans="2:2" ht="15.75">
+    <row r="428">
       <c r="B428" s="17"/>
     </row>
-    <row r="429" spans="2:2" ht="15.75">
+    <row r="429">
       <c r="B429" s="17"/>
     </row>
-    <row r="430" spans="2:2" ht="15.75">
+    <row r="430">
       <c r="B430" s="17"/>
     </row>
-    <row r="431" spans="2:2" ht="15.75">
+    <row r="431">
       <c r="B431" s="17"/>
     </row>
-    <row r="432" spans="2:2" ht="15.75">
+    <row r="432">
       <c r="B432" s="17"/>
     </row>
-    <row r="433" spans="2:2" ht="15.75">
+    <row r="433">
       <c r="B433" s="17"/>
     </row>
-    <row r="434" spans="2:2" ht="15.75">
+    <row r="434">
       <c r="B434" s="17"/>
     </row>
-    <row r="435" spans="2:2" ht="15.75">
+    <row r="435">
       <c r="B435" s="17"/>
     </row>
-    <row r="436" spans="2:2" ht="15.75">
+    <row r="436">
       <c r="B436" s="17"/>
     </row>
-    <row r="437" spans="2:2" ht="15.75">
+    <row r="437">
       <c r="B437" s="17"/>
     </row>
-    <row r="438" spans="2:2" ht="15.75">
+    <row r="438">
       <c r="B438" s="17"/>
     </row>
-    <row r="439" spans="2:2" ht="15.75">
+    <row r="439">
       <c r="B439" s="17"/>
     </row>
-    <row r="440" spans="2:2" ht="15.75">
+    <row r="440">
       <c r="B440" s="17"/>
     </row>
-    <row r="441" spans="2:2" ht="15.75">
+    <row r="441">
       <c r="B441" s="17"/>
     </row>
-    <row r="442" spans="2:2" ht="15.75">
+    <row r="442">
       <c r="B442" s="17"/>
     </row>
-    <row r="443" spans="2:2" ht="15.75">
+    <row r="443">
       <c r="B443" s="17"/>
     </row>
-    <row r="444" spans="2:2" ht="15.75">
+    <row r="444">
       <c r="B444" s="17"/>
     </row>
-    <row r="445" spans="2:2" ht="15.75">
+    <row r="445">
       <c r="B445" s="17"/>
     </row>
-    <row r="446" spans="2:2" ht="15.75">
+    <row r="446">
       <c r="B446" s="17"/>
     </row>
-    <row r="447" spans="2:2" ht="15.75">
+    <row r="447">
       <c r="B447" s="17"/>
     </row>
-    <row r="448" spans="2:2" ht="15.75">
+    <row r="448">
       <c r="B448" s="17"/>
     </row>
-    <row r="449" spans="2:2" ht="15.75">
+    <row r="449">
       <c r="B449" s="17"/>
     </row>
-    <row r="450" spans="2:2" ht="15.75">
+    <row r="450">
       <c r="B450" s="17"/>
     </row>
-    <row r="451" spans="2:2" ht="15.75">
+    <row r="451">
       <c r="B451" s="17"/>
     </row>
-    <row r="452" spans="2:2" ht="15.75">
+    <row r="452">
       <c r="B452" s="17"/>
     </row>
-    <row r="453" spans="2:2" ht="15.75">
+    <row r="453">
       <c r="B453" s="17"/>
     </row>
-    <row r="454" spans="2:2" ht="15.75">
+    <row r="454">
       <c r="B454" s="17"/>
     </row>
-    <row r="455" spans="2:2" ht="15.75">
+    <row r="455">
       <c r="B455" s="17"/>
     </row>
-    <row r="456" spans="2:2" ht="15.75">
+    <row r="456">
       <c r="B456" s="17"/>
     </row>
-    <row r="457" spans="2:2" ht="15.75">
+    <row r="457">
       <c r="B457" s="17"/>
     </row>
-    <row r="458" spans="2:2" ht="15.75">
+    <row r="458">
       <c r="B458" s="17"/>
     </row>
-    <row r="459" spans="2:2" ht="15.75">
+    <row r="459">
       <c r="B459" s="17"/>
     </row>
-    <row r="460" spans="2:2" ht="15.75">
+    <row r="460">
       <c r="B460" s="17"/>
     </row>
-    <row r="461" spans="2:2" ht="15.75">
+    <row r="461">
       <c r="B461" s="17"/>
     </row>
-    <row r="462" spans="2:2" ht="15.75">
+    <row r="462">
       <c r="B462" s="17"/>
     </row>
-    <row r="463" spans="2:2" ht="15.75">
+    <row r="463">
       <c r="B463" s="17"/>
     </row>
-    <row r="464" spans="2:2" ht="15.75">
+    <row r="464">
       <c r="B464" s="17"/>
     </row>
-    <row r="465" spans="2:2" ht="15.75">
+    <row r="465">
       <c r="B465" s="17"/>
     </row>
-    <row r="466" spans="2:2" ht="15.75">
+    <row r="466">
       <c r="B466" s="17"/>
     </row>
-    <row r="467" spans="2:2" ht="15.75">
+    <row r="467">
       <c r="B467" s="17"/>
     </row>
-    <row r="468" spans="2:2" ht="15.75">
+    <row r="468">
       <c r="B468" s="17"/>
     </row>
-    <row r="469" spans="2:2" ht="15.75">
+    <row r="469">
       <c r="B469" s="17"/>
     </row>
-    <row r="470" spans="2:2" ht="15.75">
+    <row r="470">
       <c r="B470" s="17"/>
     </row>
-    <row r="471" spans="2:2" ht="15.75">
+    <row r="471">
       <c r="B471" s="17"/>
     </row>
-    <row r="472" spans="2:2" ht="15.75">
+    <row r="472">
       <c r="B472" s="17"/>
     </row>
-    <row r="473" spans="2:2" ht="15.75">
+    <row r="473">
       <c r="B473" s="17"/>
     </row>
-    <row r="474" spans="2:2" ht="15.75">
+    <row r="474">
       <c r="B474" s="17"/>
     </row>
-    <row r="475" spans="2:2" ht="15.75">
+    <row r="475">
       <c r="B475" s="17"/>
     </row>
-    <row r="476" spans="2:2" ht="15.75">
+    <row r="476">
       <c r="B476" s="17"/>
     </row>
-    <row r="477" spans="2:2" ht="15.75">
+    <row r="477">
       <c r="B477" s="17"/>
     </row>
-    <row r="478" spans="2:2" ht="15.75">
+    <row r="478">
       <c r="B478" s="17"/>
     </row>
-    <row r="479" spans="2:2" ht="15.75">
+    <row r="479">
       <c r="B479" s="17"/>
     </row>
-    <row r="480" spans="2:2" ht="15.75">
+    <row r="480">
       <c r="B480" s="17"/>
     </row>
-    <row r="481" spans="2:2" ht="15.75">
+    <row r="481">
       <c r="B481" s="17"/>
     </row>
-    <row r="482" spans="2:2" ht="15.75">
+    <row r="482">
       <c r="B482" s="17"/>
     </row>
-    <row r="483" spans="2:2" ht="15.75">
+    <row r="483">
       <c r="B483" s="17"/>
     </row>
-    <row r="484" spans="2:2" ht="15.75">
+    <row r="484">
       <c r="B484" s="17"/>
     </row>
-    <row r="485" spans="2:2" ht="15.75">
+    <row r="485">
       <c r="B485" s="17"/>
     </row>
-    <row r="486" spans="2:2" ht="15.75">
+    <row r="486">
       <c r="B486" s="17"/>
     </row>
-    <row r="487" spans="2:2" ht="15.75">
+    <row r="487">
       <c r="B487" s="17"/>
     </row>
-    <row r="488" spans="2:2" ht="15.75">
+    <row r="488">
       <c r="B488" s="17"/>
     </row>
-    <row r="489" spans="2:2" ht="15.75">
+    <row r="489">
       <c r="B489" s="17"/>
     </row>
-    <row r="490" spans="2:2" ht="15.75">
+    <row r="490">
       <c r="B490" s="17"/>
     </row>
-    <row r="491" spans="2:2" ht="15.75">
+    <row r="491">
       <c r="B491" s="17"/>
     </row>
-    <row r="492" spans="2:2" ht="15.75">
+    <row r="492">
       <c r="B492" s="17"/>
     </row>
-    <row r="493" spans="2:2" ht="15.75">
+    <row r="493">
       <c r="B493" s="17"/>
     </row>
-    <row r="494" spans="2:2" ht="15.75">
+    <row r="494">
       <c r="B494" s="17"/>
     </row>
-    <row r="495" spans="2:2" ht="15.75">
+    <row r="495">
       <c r="B495" s="17"/>
     </row>
-    <row r="496" spans="2:2" ht="15.75">
+    <row r="496">
       <c r="B496" s="17"/>
     </row>
-    <row r="497" spans="2:2" ht="15.75">
+    <row r="497">
       <c r="B497" s="17"/>
     </row>
-    <row r="498" spans="2:2" ht="15.75">
+    <row r="498">
       <c r="B498" s="17"/>
     </row>
-    <row r="499" spans="2:2" ht="15.75">
+    <row r="499">
       <c r="B499" s="17"/>
     </row>
-    <row r="500" spans="2:2" ht="15.75">
+    <row r="500">
       <c r="B500" s="17"/>
     </row>
-    <row r="501" spans="2:2" ht="15.75">
+    <row r="501">
       <c r="B501" s="17"/>
     </row>
-    <row r="502" spans="2:2" ht="15.75">
+    <row r="502">
       <c r="B502" s="17"/>
     </row>
-    <row r="503" spans="2:2" ht="15.75">
+    <row r="503">
       <c r="B503" s="17"/>
     </row>
-    <row r="504" spans="2:2" ht="15.75">
+    <row r="504">
       <c r="B504" s="17"/>
     </row>
-    <row r="505" spans="2:2" ht="15.75">
+    <row r="505">
       <c r="B505" s="17"/>
     </row>
-    <row r="506" spans="2:2" ht="15.75">
+    <row r="506">
       <c r="B506" s="17"/>
     </row>
-    <row r="507" spans="2:2" ht="15.75">
+    <row r="507">
       <c r="B507" s="17"/>
     </row>
-    <row r="508" spans="2:2" ht="15.75">
+    <row r="508">
       <c r="B508" s="17"/>
     </row>
-    <row r="509" spans="2:2" ht="15.75">
+    <row r="509">
       <c r="B509" s="17"/>
     </row>
-    <row r="510" spans="2:2" ht="15.75">
+    <row r="510">
       <c r="B510" s="17"/>
     </row>
-    <row r="511" spans="2:2" ht="15.75">
+    <row r="511">
       <c r="B511" s="17"/>
     </row>
-    <row r="512" spans="2:2" ht="15.75">
+    <row r="512">
       <c r="B512" s="17"/>
     </row>
-    <row r="513" spans="2:2" ht="15.75">
+    <row r="513">
       <c r="B513" s="17"/>
     </row>
-    <row r="514" spans="2:2" ht="15.75">
+    <row r="514">
       <c r="B514" s="17"/>
     </row>
-    <row r="515" spans="2:2" ht="15.75">
+    <row r="515">
       <c r="B515" s="17"/>
     </row>
-    <row r="516" spans="2:2" ht="15.75">
+    <row r="516">
       <c r="B516" s="17"/>
     </row>
-    <row r="517" spans="2:2" ht="15.75">
+    <row r="517">
       <c r="B517" s="17"/>
     </row>
-    <row r="518" spans="2:2" ht="15.75">
+    <row r="518">
       <c r="B518" s="17"/>
     </row>
-    <row r="519" spans="2:2" ht="15.75">
+    <row r="519">
       <c r="B519" s="17"/>
     </row>
-    <row r="520" spans="2:2" ht="15.75">
+    <row r="520">
       <c r="B520" s="17"/>
     </row>
-    <row r="521" spans="2:2" ht="15.75">
+    <row r="521">
       <c r="B521" s="17"/>
     </row>
-    <row r="522" spans="2:2" ht="15.75">
+    <row r="522">
       <c r="B522" s="17"/>
     </row>
-    <row r="523" spans="2:2" ht="15.75">
+    <row r="523">
       <c r="B523" s="17"/>
     </row>
-    <row r="524" spans="2:2" ht="15.75">
+    <row r="524">
       <c r="B524" s="17"/>
     </row>
-    <row r="525" spans="2:2" ht="15.75">
+    <row r="525">
       <c r="B525" s="17"/>
     </row>
-    <row r="526" spans="2:2" ht="15.75">
+    <row r="526">
       <c r="B526" s="17"/>
     </row>
-    <row r="527" spans="2:2" ht="15.75">
+    <row r="527">
       <c r="B527" s="17"/>
     </row>
-    <row r="528" spans="2:2" ht="15.75">
+    <row r="528">
       <c r="B528" s="17"/>
     </row>
-    <row r="529" spans="2:2" ht="15.75">
+    <row r="529">
       <c r="B529" s="17"/>
     </row>
-    <row r="530" spans="2:2" ht="15.75">
+    <row r="530">
       <c r="B530" s="17"/>
     </row>
-    <row r="531" spans="2:2" ht="15.75">
+    <row r="531">
       <c r="B531" s="17"/>
     </row>
-    <row r="532" spans="2:2" ht="15.75">
+    <row r="532">
       <c r="B532" s="17"/>
     </row>
-    <row r="533" spans="2:2" ht="15.75">
+    <row r="533">
       <c r="B533" s="17"/>
     </row>
-    <row r="534" spans="2:2" ht="15.75">
+    <row r="534">
       <c r="B534" s="17"/>
     </row>
-    <row r="535" spans="2:2" ht="15.75">
+    <row r="535">
       <c r="B535" s="17"/>
     </row>
-    <row r="536" spans="2:2" ht="15.75">
+    <row r="536">
       <c r="B536" s="17"/>
     </row>
-    <row r="537" spans="2:2" ht="15.75">
+    <row r="537">
       <c r="B537" s="17"/>
     </row>
-    <row r="538" spans="2:2" ht="15.75">
+    <row r="538">
       <c r="B538" s="17"/>
     </row>
-    <row r="539" spans="2:2" ht="15.75">
+    <row r="539">
       <c r="B539" s="17"/>
     </row>
-    <row r="540" spans="2:2" ht="15.75">
+    <row r="540">
       <c r="B540" s="17"/>
     </row>
-    <row r="541" spans="2:2" ht="15.75">
+    <row r="541">
       <c r="B541" s="17"/>
     </row>
-    <row r="542" spans="2:2" ht="15.75">
+    <row r="542">
       <c r="B542" s="17"/>
     </row>
-    <row r="543" spans="2:2" ht="15.75">
+    <row r="543">
       <c r="B543" s="17"/>
     </row>
-    <row r="544" spans="2:2" ht="15.75">
+    <row r="544">
       <c r="B544" s="17"/>
     </row>
-    <row r="545" spans="2:2" ht="15.75">
+    <row r="545">
       <c r="B545" s="17"/>
     </row>
-    <row r="546" spans="2:2" ht="15.75">
+    <row r="546">
       <c r="B546" s="17"/>
     </row>
-    <row r="547" spans="2:2" ht="15.75">
+    <row r="547">
       <c r="B547" s="17"/>
     </row>
-    <row r="548" spans="2:2" ht="15.75">
+    <row r="548">
       <c r="B548" s="17"/>
     </row>
-    <row r="549" spans="2:2" ht="15.75">
+    <row r="549">
       <c r="B549" s="17"/>
     </row>
-    <row r="550" spans="2:2" ht="15.75">
+    <row r="550">
       <c r="B550" s="17"/>
     </row>
-    <row r="551" spans="2:2" ht="15.75">
+    <row r="551">
       <c r="B551" s="17"/>
     </row>
-    <row r="552" spans="2:2" ht="15.75">
+    <row r="552">
       <c r="B552" s="17"/>
     </row>
-    <row r="553" spans="2:2" ht="15.75">
+    <row r="553">
       <c r="B553" s="17"/>
     </row>
-    <row r="554" spans="2:2" ht="15.75">
+    <row r="554">
       <c r="B554" s="17"/>
     </row>
-    <row r="555" spans="2:2" ht="15.75">
+    <row r="555">
       <c r="B555" s="17"/>
     </row>
-    <row r="556" spans="2:2" ht="15.75">
+    <row r="556">
       <c r="B556" s="17"/>
     </row>
-    <row r="557" spans="2:2" ht="15.75">
+    <row r="557">
       <c r="B557" s="17"/>
     </row>
-    <row r="558" spans="2:2" ht="15.75">
+    <row r="558">
       <c r="B558" s="17"/>
     </row>
-    <row r="559" spans="2:2" ht="15.75">
+    <row r="559">
       <c r="B559" s="17"/>
     </row>
-    <row r="560" spans="2:2" ht="15.75">
+    <row r="560">
       <c r="B560" s="17"/>
     </row>
-    <row r="561" spans="2:2" ht="15.75">
+    <row r="561">
       <c r="B561" s="17"/>
     </row>
-    <row r="562" spans="2:2" ht="15.75">
+    <row r="562">
       <c r="B562" s="17"/>
     </row>
-    <row r="563" spans="2:2" ht="15.75">
+    <row r="563">
       <c r="B563" s="17"/>
     </row>
-    <row r="564" spans="2:2" ht="15.75">
+    <row r="564">
       <c r="B564" s="17"/>
     </row>
-    <row r="565" spans="2:2" ht="15.75">
+    <row r="565">
       <c r="B565" s="17"/>
     </row>
-    <row r="566" spans="2:2" ht="15.75">
+    <row r="566">
       <c r="B566" s="17"/>
     </row>
-    <row r="567" spans="2:2" ht="15.75">
+    <row r="567">
       <c r="B567" s="17"/>
     </row>
-    <row r="568" spans="2:2" ht="15.75">
+    <row r="568">
       <c r="B568" s="17"/>
     </row>
-    <row r="569" spans="2:2" ht="15.75">
+    <row r="569">
       <c r="B569" s="17"/>
     </row>
-    <row r="570" spans="2:2" ht="15.75">
+    <row r="570">
       <c r="B570" s="17"/>
     </row>
-    <row r="571" spans="2:2" ht="15.75">
+    <row r="571">
       <c r="B571" s="17"/>
     </row>
-    <row r="572" spans="2:2" ht="15.75">
+    <row r="572">
       <c r="B572" s="17"/>
     </row>
-    <row r="573" spans="2:2" ht="15.75">
+    <row r="573">
       <c r="B573" s="17"/>
     </row>
-    <row r="574" spans="2:2" ht="15.75">
+    <row r="574">
       <c r="B574" s="17"/>
     </row>
-    <row r="575" spans="2:2" ht="15.75">
+    <row r="575">
       <c r="B575" s="17"/>
     </row>
-    <row r="576" spans="2:2" ht="15.75">
+    <row r="576">
       <c r="B576" s="17"/>
     </row>
-    <row r="577" spans="2:2" ht="15.75">
+    <row r="577">
       <c r="B577" s="17"/>
     </row>
-    <row r="578" spans="2:2" ht="15.75">
+    <row r="578">
       <c r="B578" s="17"/>
     </row>
-    <row r="579" spans="2:2" ht="15.75">
+    <row r="579">
       <c r="B579" s="17"/>
     </row>
-    <row r="580" spans="2:2" ht="15.75">
+    <row r="580">
       <c r="B580" s="17"/>
     </row>
-    <row r="581" spans="2:2" ht="15.75">
+    <row r="581">
       <c r="B581" s="17"/>
     </row>
-    <row r="582" spans="2:2" ht="15.75">
+    <row r="582">
       <c r="B582" s="17"/>
     </row>
-    <row r="583" spans="2:2" ht="15.75">
+    <row r="583">
       <c r="B583" s="17"/>
     </row>
-    <row r="584" spans="2:2" ht="15.75">
+    <row r="584">
       <c r="B584" s="17"/>
     </row>
-    <row r="585" spans="2:2" ht="15.75">
+    <row r="585">
       <c r="B585" s="17"/>
     </row>
-    <row r="586" spans="2:2" ht="15.75">
+    <row r="586">
       <c r="B586" s="17"/>
     </row>
-    <row r="587" spans="2:2" ht="15.75">
+    <row r="587">
       <c r="B587" s="17"/>
     </row>
-    <row r="588" spans="2:2" ht="15.75">
+    <row r="588">
       <c r="B588" s="17"/>
     </row>
-    <row r="589" spans="2:2" ht="15.75">
+    <row r="589">
       <c r="B589" s="17"/>
     </row>
-    <row r="590" spans="2:2" ht="15.75">
+    <row r="590">
       <c r="B590" s="17"/>
     </row>
-    <row r="591" spans="2:2" ht="15.75">
+    <row r="591">
       <c r="B591" s="17"/>
     </row>
-    <row r="592" spans="2:2" ht="15.75">
+    <row r="592">
       <c r="B592" s="17"/>
     </row>
-    <row r="593" spans="2:2" ht="15.75">
+    <row r="593">
       <c r="B593" s="17"/>
     </row>
-    <row r="594" spans="2:2" ht="15.75">
+    <row r="594">
       <c r="B594" s="17"/>
     </row>
-    <row r="595" spans="2:2" ht="15.75">
+    <row r="595">
       <c r="B595" s="17"/>
     </row>
-    <row r="596" spans="2:2" ht="15.75">
+    <row r="596">
       <c r="B596" s="17"/>
     </row>
-    <row r="597" spans="2:2" ht="15.75">
+    <row r="597">
       <c r="B597" s="17"/>
     </row>
-    <row r="598" spans="2:2" ht="15.75">
+    <row r="598">
       <c r="B598" s="17"/>
     </row>
-    <row r="599" spans="2:2" ht="15.75">
+    <row r="599">
       <c r="B599" s="17"/>
     </row>
-    <row r="600" spans="2:2" ht="15.75">
+    <row r="600">
       <c r="B600" s="17"/>
     </row>
-    <row r="601" spans="2:2" ht="15.75">
+    <row r="601">
       <c r="B601" s="17"/>
     </row>
-    <row r="602" spans="2:2" ht="15.75">
+    <row r="602">
       <c r="B602" s="17"/>
     </row>
-    <row r="603" spans="2:2" ht="15.75">
+    <row r="603">
       <c r="B603" s="17"/>
     </row>
-    <row r="604" spans="2:2" ht="15.75">
+    <row r="604">
       <c r="B604" s="17"/>
     </row>
-    <row r="605" spans="2:2" ht="15.75">
+    <row r="605">
       <c r="B605" s="17"/>
     </row>
-    <row r="606" spans="2:2" ht="15.75">
+    <row r="606">
       <c r="B606" s="17"/>
     </row>
-    <row r="607" spans="2:2" ht="15.75">
+    <row r="607">
       <c r="B607" s="17"/>
     </row>
-    <row r="608" spans="2:2" ht="15.75">
+    <row r="608">
       <c r="B608" s="17"/>
     </row>
-    <row r="609" spans="2:2" ht="15.75">
+    <row r="609">
       <c r="B609" s="17"/>
     </row>
-    <row r="610" spans="2:2" ht="15.75">
+    <row r="610">
       <c r="B610" s="17"/>
     </row>
-    <row r="611" spans="2:2" ht="15.75">
+    <row r="611">
       <c r="B611" s="17"/>
     </row>
-    <row r="612" spans="2:2" ht="15.75">
+    <row r="612">
       <c r="B612" s="17"/>
     </row>
-    <row r="613" spans="2:2" ht="15.75">
+    <row r="613">
       <c r="B613" s="17"/>
     </row>
-    <row r="614" spans="2:2" ht="15.75">
+    <row r="614">
       <c r="B614" s="17"/>
     </row>
-    <row r="615" spans="2:2" ht="15.75">
+    <row r="615">
       <c r="B615" s="17"/>
     </row>
-    <row r="616" spans="2:2" ht="15.75">
+    <row r="616">
       <c r="B616" s="17"/>
     </row>
-    <row r="617" spans="2:2" ht="15.75">
+    <row r="617">
       <c r="B617" s="17"/>
     </row>
-    <row r="618" spans="2:2" ht="15.75">
+    <row r="618">
       <c r="B618" s="17"/>
     </row>
-    <row r="619" spans="2:2" ht="15.75">
+    <row r="619">
       <c r="B619" s="17"/>
     </row>
-    <row r="620" spans="2:2" ht="15.75">
+    <row r="620">
       <c r="B620" s="17"/>
     </row>
-    <row r="621" spans="2:2" ht="15.75">
+    <row r="621">
       <c r="B621" s="17"/>
     </row>
-    <row r="622" spans="2:2" ht="15.75">
+    <row r="622">
       <c r="B622" s="17"/>
     </row>
-    <row r="623" spans="2:2" ht="15.75">
+    <row r="623">
       <c r="B623" s="17"/>
     </row>
-    <row r="624" spans="2:2" ht="15.75">
+    <row r="624">
       <c r="B624" s="17"/>
     </row>
-    <row r="625" spans="2:2" ht="15.75">
+    <row r="625">
       <c r="B625" s="17"/>
     </row>
-    <row r="626" spans="2:2" ht="15.75">
+    <row r="626">
       <c r="B626" s="17"/>
     </row>
-    <row r="627" spans="2:2" ht="15.75">
+    <row r="627">
       <c r="B627" s="17"/>
     </row>
-    <row r="628" spans="2:2" ht="15.75">
+    <row r="628">
       <c r="B628" s="17"/>
     </row>
-    <row r="629" spans="2:2" ht="15.75">
+    <row r="629">
       <c r="B629" s="17"/>
     </row>
-    <row r="630" spans="2:2" ht="15.75">
+    <row r="630">
       <c r="B630" s="17"/>
     </row>
-    <row r="631" spans="2:2" ht="15.75">
+    <row r="631">
       <c r="B631" s="17"/>
     </row>
-    <row r="632" spans="2:2" ht="15.75">
+    <row r="632">
       <c r="B632" s="17"/>
     </row>
-    <row r="633" spans="2:2" ht="15.75">
+    <row r="633">
       <c r="B633" s="17"/>
     </row>
-    <row r="634" spans="2:2" ht="15.75">
+    <row r="634">
       <c r="B634" s="17"/>
     </row>
-    <row r="635" spans="2:2" ht="15.75">
+    <row r="635">
       <c r="B635" s="17"/>
     </row>
-    <row r="636" spans="2:2" ht="15.75">
+    <row r="636">
       <c r="B636" s="17"/>
     </row>
-    <row r="637" spans="2:2" ht="15.75">
+    <row r="637">
       <c r="B637" s="17"/>
     </row>
-    <row r="638" spans="2:2" ht="15.75">
+    <row r="638">
       <c r="B638" s="17"/>
     </row>
-    <row r="639" spans="2:2" ht="15.75">
+    <row r="639">
       <c r="B639" s="17"/>
     </row>
-    <row r="640" spans="2:2" ht="15.75">
+    <row r="640">
       <c r="B640" s="17"/>
     </row>
-    <row r="641" spans="2:2" ht="15.75">
+    <row r="641">
       <c r="B641" s="17"/>
     </row>
-    <row r="642" spans="2:2" ht="15.75">
+    <row r="642">
       <c r="B642" s="17"/>
     </row>
-    <row r="643" spans="2:2" ht="15.75">
+    <row r="643">
       <c r="B643" s="17"/>
     </row>
-    <row r="644" spans="2:2" ht="15.75">
+    <row r="644">
       <c r="B644" s="17"/>
     </row>
-    <row r="645" spans="2:2" ht="15.75">
+    <row r="645">
       <c r="B645" s="17"/>
     </row>
-    <row r="646" spans="2:2" ht="15.75">
+    <row r="646">
       <c r="B646" s="17"/>
     </row>
-    <row r="647" spans="2:2" ht="15.75">
+    <row r="647">
       <c r="B647" s="17"/>
     </row>
-    <row r="648" spans="2:2" ht="15.75">
+    <row r="648">
       <c r="B648" s="17"/>
     </row>
-    <row r="649" spans="2:2" ht="15.75">
+    <row r="649">
       <c r="B649" s="17"/>
     </row>
-    <row r="650" spans="2:2" ht="15.75">
+    <row r="650">
       <c r="B650" s="17"/>
     </row>
-    <row r="651" spans="2:2" ht="15.75">
+    <row r="651">
       <c r="B651" s="17"/>
     </row>
-    <row r="652" spans="2:2" ht="15.75">
+    <row r="652">
       <c r="B652" s="17"/>
     </row>
-    <row r="653" spans="2:2" ht="15.75">
+    <row r="653">
       <c r="B653" s="17"/>
     </row>
-    <row r="654" spans="2:2" ht="15.75">
+    <row r="654">
       <c r="B654" s="17"/>
     </row>
-    <row r="655" spans="2:2" ht="15.75">
+    <row r="655">
       <c r="B655" s="17"/>
     </row>
-    <row r="656" spans="2:2" ht="15.75">
+    <row r="656">
       <c r="B656" s="17"/>
     </row>
-    <row r="657" spans="2:2" ht="15.75">
+    <row r="657">
       <c r="B657" s="17"/>
     </row>
-    <row r="658" spans="2:2" ht="15.75">
+    <row r="658">
       <c r="B658" s="17"/>
     </row>
-    <row r="659" spans="2:2" ht="15.75">
+    <row r="659">
       <c r="B659" s="17"/>
     </row>
-    <row r="660" spans="2:2" ht="15.75">
+    <row r="660">
       <c r="B660" s="17"/>
     </row>
-    <row r="661" spans="2:2" ht="15.75">
+    <row r="661">
       <c r="B661" s="17"/>
     </row>
-    <row r="662" spans="2:2" ht="15.75">
+    <row r="662">
       <c r="B662" s="17"/>
     </row>
-    <row r="663" spans="2:2" ht="15.75">
+    <row r="663">
       <c r="B663" s="17"/>
     </row>
-    <row r="664" spans="2:2" ht="15.75">
+    <row r="664">
       <c r="B664" s="17"/>
     </row>
-    <row r="665" spans="2:2" ht="15.75">
+    <row r="665">
       <c r="B665" s="17"/>
     </row>
-    <row r="666" spans="2:2" ht="15.75">
+    <row r="666">
       <c r="B666" s="17"/>
     </row>
-    <row r="667" spans="2:2" ht="15.75">
+    <row r="667">
       <c r="B667" s="17"/>
     </row>
-    <row r="668" spans="2:2" ht="15.75">
+    <row r="668">
       <c r="B668" s="17"/>
     </row>
-    <row r="669" spans="2:2" ht="15.75">
+    <row r="669">
       <c r="B669" s="17"/>
     </row>
-    <row r="670" spans="2:2" ht="15.75">
+    <row r="670">
       <c r="B670" s="17"/>
     </row>
-    <row r="671" spans="2:2" ht="15.75">
+    <row r="671">
       <c r="B671" s="17"/>
     </row>
-    <row r="672" spans="2:2" ht="15.75">
+    <row r="672">
       <c r="B672" s="17"/>
     </row>
-    <row r="673" spans="2:2" ht="15.75">
+    <row r="673">
       <c r="B673" s="17"/>
     </row>
-    <row r="674" spans="2:2" ht="15.75">
+    <row r="674">
       <c r="B674" s="17"/>
     </row>
-    <row r="675" spans="2:2" ht="15.75">
+    <row r="675">
       <c r="B675" s="17"/>
     </row>
-    <row r="676" spans="2:2" ht="15.75">
+    <row r="676">
       <c r="B676" s="17"/>
     </row>
-    <row r="677" spans="2:2" ht="15.75">
+    <row r="677">
       <c r="B677" s="17"/>
     </row>
-    <row r="678" spans="2:2" ht="15.75">
+    <row r="678">
       <c r="B678" s="17"/>
     </row>
-    <row r="679" spans="2:2" ht="15.75">
+    <row r="679">
       <c r="B679" s="17"/>
     </row>
-    <row r="680" spans="2:2" ht="15.75">
+    <row r="680">
       <c r="B680" s="17"/>
     </row>
-    <row r="681" spans="2:2" ht="15.75">
+    <row r="681">
       <c r="B681" s="17"/>
     </row>
-    <row r="682" spans="2:2" ht="15.75">
+    <row r="682">
       <c r="B682" s="17"/>
     </row>
-    <row r="683" spans="2:2" ht="15.75">
+    <row r="683">
       <c r="B683" s="17"/>
     </row>
-    <row r="684" spans="2:2" ht="15.75">
+    <row r="684">
       <c r="B684" s="17"/>
     </row>
-    <row r="685" spans="2:2" ht="15.75">
+    <row r="685">
       <c r="B685" s="17"/>
     </row>
-    <row r="686" spans="2:2" ht="15.75">
+    <row r="686">
       <c r="B686" s="17"/>
     </row>
-    <row r="687" spans="2:2" ht="15.75">
+    <row r="687">
       <c r="B687" s="17"/>
     </row>
-    <row r="688" spans="2:2" ht="15.75">
+    <row r="688">
       <c r="B688" s="17"/>
     </row>
-    <row r="689" spans="2:2" ht="15.75">
+    <row r="689">
       <c r="B689" s="17"/>
     </row>
-    <row r="690" spans="2:2" ht="15.75">
+    <row r="690">
       <c r="B690" s="17"/>
     </row>
-    <row r="691" spans="2:2" ht="15.75">
+    <row r="691">
       <c r="B691" s="17"/>
     </row>
-    <row r="692" spans="2:2" ht="15.75">
+    <row r="692">
       <c r="B692" s="17"/>
     </row>
-    <row r="693" spans="2:2" ht="15.75">
+    <row r="693">
       <c r="B693" s="17"/>
     </row>
-    <row r="694" spans="2:2" ht="15.75">
+    <row r="694">
       <c r="B694" s="17"/>
     </row>
-    <row r="695" spans="2:2" ht="15.75">
+    <row r="695">
       <c r="B695" s="17"/>
     </row>
-    <row r="696" spans="2:2" ht="15.75">
+    <row r="696">
       <c r="B696" s="17"/>
     </row>
-    <row r="697" spans="2:2" ht="15.75">
+    <row r="697">
       <c r="B697" s="17"/>
     </row>
-    <row r="698" spans="2:2" ht="15.75">
+    <row r="698">
       <c r="B698" s="17"/>
     </row>
-    <row r="699" spans="2:2" ht="15.75">
+    <row r="699">
       <c r="B699" s="17"/>
     </row>
-    <row r="700" spans="2:2" ht="15.75">
+    <row r="700">
       <c r="B700" s="17"/>
     </row>
-    <row r="701" spans="2:2" ht="15.75">
+    <row r="701">
       <c r="B701" s="17"/>
     </row>
-    <row r="702" spans="2:2" ht="15.75">
+    <row r="702">
       <c r="B702" s="17"/>
     </row>
-    <row r="703" spans="2:2" ht="15.75">
+    <row r="703">
       <c r="B703" s="17"/>
     </row>
-    <row r="704" spans="2:2" ht="15.75">
+    <row r="704">
       <c r="B704" s="17"/>
     </row>
-    <row r="705" spans="2:2" ht="15.75">
+    <row r="705">
       <c r="B705" s="17"/>
     </row>
-    <row r="706" spans="2:2" ht="15.75">
+    <row r="706">
       <c r="B706" s="17"/>
     </row>
-    <row r="707" spans="2:2" ht="15.75">
+    <row r="707">
       <c r="B707" s="17"/>
     </row>
-    <row r="708" spans="2:2" ht="15.75">
+    <row r="708">
       <c r="B708" s="17"/>
     </row>
-    <row r="709" spans="2:2" ht="15.75">
+    <row r="709">
       <c r="B709" s="17"/>
     </row>
-    <row r="710" spans="2:2" ht="15.75">
+    <row r="710">
       <c r="B710" s="17"/>
     </row>
-    <row r="711" spans="2:2" ht="15.75">
+    <row r="711">
       <c r="B711" s="17"/>
     </row>
-    <row r="712" spans="2:2" ht="15.75">
+    <row r="712">
       <c r="B712" s="17"/>
     </row>
-    <row r="713" spans="2:2" ht="15.75">
+    <row r="713">
       <c r="B713" s="17"/>
     </row>
-    <row r="714" spans="2:2" ht="15.75">
+    <row r="714">
       <c r="B714" s="17"/>
     </row>
-    <row r="715" spans="2:2" ht="15.75">
+    <row r="715">
       <c r="B715" s="17"/>
     </row>
-    <row r="716" spans="2:2" ht="15.75">
+    <row r="716">
       <c r="B716" s="17"/>
     </row>
-    <row r="717" spans="2:2" ht="15.75">
+    <row r="717">
       <c r="B717" s="17"/>
     </row>
-    <row r="718" spans="2:2" ht="15.75">
+    <row r="718">
       <c r="B718" s="17"/>
     </row>
-    <row r="719" spans="2:2" ht="15.75">
+    <row r="719">
       <c r="B719" s="17"/>
     </row>
-    <row r="720" spans="2:2" ht="15.75">
+    <row r="720">
       <c r="B720" s="17"/>
     </row>
-    <row r="721" spans="2:2" ht="15.75">
+    <row r="721">
       <c r="B721" s="17"/>
     </row>
-    <row r="722" spans="2:2" ht="15.75">
+    <row r="722">
       <c r="B722" s="17"/>
     </row>
-    <row r="723" spans="2:2" ht="15.75">
+    <row r="723">
       <c r="B723" s="17"/>
     </row>
-    <row r="724" spans="2:2" ht="15.75">
+    <row r="724">
       <c r="B724" s="17"/>
     </row>
-    <row r="725" spans="2:2" ht="15.75">
+    <row r="725">
       <c r="B725" s="17"/>
     </row>
-    <row r="726" spans="2:2" ht="15.75">
+    <row r="726">
       <c r="B726" s="17"/>
     </row>
-    <row r="727" spans="2:2" ht="15.75">
+    <row r="727">
       <c r="B727" s="17"/>
     </row>
-    <row r="728" spans="2:2" ht="15.75">
+    <row r="728">
       <c r="B728" s="17"/>
     </row>
-    <row r="729" spans="2:2" ht="15.75">
+    <row r="729">
       <c r="B729" s="17"/>
     </row>
-    <row r="730" spans="2:2" ht="15.75">
+    <row r="730">
       <c r="B730" s="17"/>
     </row>
-    <row r="731" spans="2:2" ht="15.75">
+    <row r="731">
       <c r="B731" s="17"/>
     </row>
-    <row r="732" spans="2:2" ht="15.75">
+    <row r="732">
       <c r="B732" s="17"/>
     </row>
-    <row r="733" spans="2:2" ht="15.75">
+    <row r="733">
       <c r="B733" s="17"/>
     </row>
-    <row r="734" spans="2:2" ht="15.75">
+    <row r="734">
       <c r="B734" s="17"/>
     </row>
-    <row r="735" spans="2:2" ht="15.75">
+    <row r="735">
       <c r="B735" s="17"/>
     </row>
-    <row r="736" spans="2:2" ht="15.75">
+    <row r="736">
       <c r="B736" s="17"/>
     </row>
-    <row r="737" spans="2:2" ht="15.75">
+    <row r="737">
       <c r="B737" s="17"/>
     </row>
-    <row r="738" spans="2:2" ht="15.75">
+    <row r="738">
       <c r="B738" s="17"/>
     </row>
-    <row r="739" spans="2:2" ht="15.75">
+    <row r="739">
       <c r="B739" s="17"/>
     </row>
-    <row r="740" spans="2:2" ht="15.75">
+    <row r="740">
       <c r="B740" s="17"/>
     </row>
-    <row r="741" spans="2:2" ht="15.75">
+    <row r="741">
       <c r="B741" s="17"/>
     </row>
-    <row r="742" spans="2:2" ht="15.75">
+    <row r="742">
       <c r="B742" s="17"/>
     </row>
-    <row r="743" spans="2:2" ht="15.75">
+    <row r="743">
       <c r="B743" s="17"/>
     </row>
-    <row r="744" spans="2:2" ht="15.75">
+    <row r="744">
       <c r="B744" s="17"/>
     </row>
-    <row r="745" spans="2:2" ht="15.75">
+    <row r="745">
       <c r="B745" s="17"/>
     </row>
-    <row r="746" spans="2:2" ht="15.75">
+    <row r="746">
       <c r="B746" s="17"/>
     </row>
-    <row r="747" spans="2:2" ht="15.75">
+    <row r="747">
       <c r="B747" s="17"/>
     </row>
-    <row r="748" spans="2:2" ht="15.75">
+    <row r="748">
       <c r="B748" s="17"/>
     </row>
-    <row r="749" spans="2:2" ht="15.75">
+    <row r="749">
       <c r="B749" s="17"/>
     </row>
-    <row r="750" spans="2:2" ht="15.75">
+    <row r="750">
       <c r="B750" s="17"/>
     </row>
-    <row r="751" spans="2:2" ht="15.75">
+    <row r="751">
       <c r="B751" s="17"/>
     </row>
-    <row r="752" spans="2:2" ht="15.75">
+    <row r="752">
       <c r="B752" s="17"/>
     </row>
-    <row r="753" spans="2:2" ht="15.75">
+    <row r="753">
       <c r="B753" s="17"/>
     </row>
-    <row r="754" spans="2:2" ht="15.75">
+    <row r="754">
       <c r="B754" s="17"/>
     </row>
-    <row r="755" spans="2:2" ht="15.75">
+    <row r="755">
       <c r="B755" s="17"/>
     </row>
-    <row r="756" spans="2:2" ht="15.75">
+    <row r="756">
       <c r="B756" s="17"/>
     </row>
-    <row r="757" spans="2:2" ht="15.75">
+    <row r="757">
       <c r="B757" s="17"/>
     </row>
-    <row r="758" spans="2:2" ht="15.75">
+    <row r="758">
       <c r="B758" s="17"/>
     </row>
-    <row r="759" spans="2:2" ht="15.75">
+    <row r="759">
       <c r="B759" s="17"/>
     </row>
-    <row r="760" spans="2:2" ht="15.75">
+    <row r="760">
       <c r="B760" s="17"/>
     </row>
-    <row r="761" spans="2:2" ht="15.75">
+    <row r="761">
       <c r="B761" s="17"/>
     </row>
-    <row r="762" spans="2:2" ht="15.75">
+    <row r="762">
       <c r="B762" s="17"/>
     </row>
-    <row r="763" spans="2:2" ht="15.75">
+    <row r="763">
       <c r="B763" s="17"/>
     </row>
-    <row r="764" spans="2:2" ht="15.75">
+    <row r="764">
       <c r="B764" s="17"/>
     </row>
-    <row r="765" spans="2:2" ht="15.75">
+    <row r="765">
       <c r="B765" s="17"/>
     </row>
-    <row r="766" spans="2:2" ht="15.75">
+    <row r="766">
       <c r="B766" s="17"/>
     </row>
-    <row r="767" spans="2:2" ht="15.75">
+    <row r="767">
       <c r="B767" s="17"/>
     </row>
-    <row r="768" spans="2:2" ht="15.75">
+    <row r="768">
       <c r="B768" s="17"/>
     </row>
-    <row r="769" spans="2:2" ht="15.75">
+    <row r="769">
       <c r="B769" s="17"/>
     </row>
-    <row r="770" spans="2:2" ht="15.75">
+    <row r="770">
       <c r="B770" s="17"/>
     </row>
-    <row r="771" spans="2:2" ht="15.75">
+    <row r="771">
       <c r="B771" s="17"/>
     </row>
-    <row r="772" spans="2:2" ht="15.75">
+    <row r="772">
       <c r="B772" s="17"/>
     </row>
-    <row r="773" spans="2:2" ht="15.75">
+    <row r="773">
       <c r="B773" s="17"/>
     </row>
-    <row r="774" spans="2:2" ht="15.75">
+    <row r="774">
       <c r="B774" s="17"/>
     </row>
-    <row r="775" spans="2:2" ht="15.75">
+    <row r="775">
       <c r="B775" s="17"/>
     </row>
-    <row r="776" spans="2:2" ht="15.75">
+    <row r="776">
       <c r="B776" s="17"/>
     </row>
-    <row r="777" spans="2:2" ht="15.75">
+    <row r="777">
       <c r="B777" s="17"/>
     </row>
-    <row r="778" spans="2:2" ht="15.75">
+    <row r="778">
       <c r="B778" s="17"/>
     </row>
-    <row r="779" spans="2:2" ht="15.75">
+    <row r="779">
       <c r="B779" s="17"/>
     </row>
-    <row r="780" spans="2:2" ht="15.75">
+    <row r="780">
       <c r="B780" s="17"/>
     </row>
-    <row r="781" spans="2:2" ht="15.75">
+    <row r="781">
       <c r="B781" s="17"/>
     </row>
-    <row r="782" spans="2:2" ht="15.75">
+    <row r="782">
       <c r="B782" s="17"/>
     </row>
-    <row r="783" spans="2:2" ht="15.75">
+    <row r="783">
       <c r="B783" s="17"/>
     </row>
-    <row r="784" spans="2:2" ht="15.75">
+    <row r="784">
       <c r="B784" s="17"/>
     </row>
-    <row r="785" spans="2:2" ht="15.75">
+    <row r="785">
       <c r="B785" s="17"/>
     </row>
-    <row r="786" spans="2:2" ht="15.75">
+    <row r="786">
       <c r="B786" s="17"/>
     </row>
-    <row r="787" spans="2:2" ht="15.75">
+    <row r="787">
       <c r="B787" s="17"/>
     </row>
-    <row r="788" spans="2:2" ht="15.75">
+    <row r="788">
       <c r="B788" s="17"/>
     </row>
-    <row r="789" spans="2:2" ht="15.75">
+    <row r="789">
       <c r="B789" s="17"/>
     </row>
-    <row r="790" spans="2:2" ht="15.75">
+    <row r="790">
       <c r="B790" s="17"/>
     </row>
-    <row r="791" spans="2:2" ht="15.75">
+    <row r="791">
       <c r="B791" s="17"/>
     </row>
-    <row r="792" spans="2:2" ht="15.75">
+    <row r="792">
       <c r="B792" s="17"/>
     </row>
-    <row r="793" spans="2:2" ht="15.75">
+    <row r="793">
       <c r="B793" s="17"/>
     </row>
-    <row r="794" spans="2:2" ht="15.75">
+    <row r="794">
       <c r="B794" s="17"/>
     </row>
-    <row r="795" spans="2:2" ht="15.75">
+    <row r="795">
       <c r="B795" s="17"/>
     </row>
-    <row r="796" spans="2:2" ht="15.75">
+    <row r="796">
       <c r="B796" s="17"/>
     </row>
-    <row r="797" spans="2:2" ht="15.75">
+    <row r="797">
       <c r="B797" s="17"/>
     </row>
-    <row r="798" spans="2:2" ht="15.75">
+    <row r="798">
       <c r="B798" s="17"/>
     </row>
-    <row r="799" spans="2:2" ht="15.75">
+    <row r="799">
       <c r="B799" s="17"/>
     </row>
-    <row r="800" spans="2:2" ht="15.75">
+    <row r="800">
       <c r="B800" s="17"/>
     </row>
-    <row r="801" spans="2:2" ht="15.75">
+    <row r="801">
       <c r="B801" s="17"/>
     </row>
-    <row r="802" spans="2:2" ht="15.75">
+    <row r="802">
       <c r="B802" s="17"/>
     </row>
-    <row r="803" spans="2:2" ht="15.75">
+    <row r="803">
       <c r="B803" s="17"/>
     </row>
-    <row r="804" spans="2:2" ht="15.75">
+    <row r="804">
       <c r="B804" s="17"/>
     </row>
-    <row r="805" spans="2:2" ht="15.75">
+    <row r="805">
       <c r="B805" s="17"/>
     </row>
-    <row r="806" spans="2:2" ht="15.75">
+    <row r="806">
       <c r="B806" s="17"/>
     </row>
-    <row r="807" spans="2:2" ht="15.75">
+    <row r="807">
       <c r="B807" s="17"/>
     </row>
-    <row r="808" spans="2:2" ht="15.75">
+    <row r="808">
       <c r="B808" s="17"/>
     </row>
-    <row r="809" spans="2:2" ht="15.75">
+    <row r="809">
       <c r="B809" s="17"/>
     </row>
-    <row r="810" spans="2:2" ht="15.75">
+    <row r="810">
       <c r="B810" s="17"/>
     </row>
-    <row r="811" spans="2:2" ht="15.75">
+    <row r="811">
       <c r="B811" s="17"/>
     </row>
-    <row r="812" spans="2:2" ht="15.75">
+    <row r="812">
       <c r="B812" s="17"/>
     </row>
-    <row r="813" spans="2:2" ht="15.75">
+    <row r="813">
       <c r="B813" s="17"/>
     </row>
-    <row r="814" spans="2:2" ht="15.75">
+    <row r="814">
       <c r="B814" s="17"/>
     </row>
-    <row r="815" spans="2:2" ht="15.75">
+    <row r="815">
       <c r="B815" s="17"/>
     </row>
-    <row r="816" spans="2:2" ht="15.75">
+    <row r="816">
       <c r="B816" s="17"/>
     </row>
-    <row r="817" spans="2:2" ht="15.75">
+    <row r="817">
       <c r="B817" s="17"/>
     </row>
-    <row r="818" spans="2:2" ht="15.75">
+    <row r="818">
       <c r="B818" s="17"/>
     </row>
-    <row r="819" spans="2:2" ht="15.75">
+    <row r="819">
       <c r="B819" s="17"/>
     </row>
-    <row r="820" spans="2:2" ht="15.75">
+    <row r="820">
       <c r="B820" s="17"/>
     </row>
-    <row r="821" spans="2:2" ht="15.75">
+    <row r="821">
       <c r="B821" s="17"/>
     </row>
-    <row r="822" spans="2:2" ht="15.75">
+    <row r="822">
       <c r="B822" s="17"/>
     </row>
-    <row r="823" spans="2:2" ht="15.75">
+    <row r="823">
       <c r="B823" s="17"/>
     </row>
-    <row r="824" spans="2:2" ht="15.75">
+    <row r="824">
       <c r="B824" s="17"/>
     </row>
-    <row r="825" spans="2:2" ht="15.75">
+    <row r="825">
       <c r="B825" s="17"/>
     </row>
-    <row r="826" spans="2:2" ht="15.75">
+    <row r="826">
       <c r="B826" s="17"/>
     </row>
-    <row r="827" spans="2:2" ht="15.75">
+    <row r="827">
       <c r="B827" s="17"/>
     </row>
-    <row r="828" spans="2:2" ht="15.75">
+    <row r="828">
       <c r="B828" s="17"/>
     </row>
-    <row r="829" spans="2:2" ht="15.75">
+    <row r="829">
       <c r="B829" s="17"/>
     </row>
-    <row r="830" spans="2:2" ht="15.75">
+    <row r="830">
       <c r="B830" s="17"/>
     </row>
-    <row r="831" spans="2:2" ht="15.75">
+    <row r="831">
       <c r="B831" s="17"/>
     </row>
-    <row r="832" spans="2:2" ht="15.75">
+    <row r="832">
       <c r="B832" s="17"/>
     </row>
-    <row r="833" spans="2:2" ht="15.75">
+    <row r="833">
       <c r="B833" s="17"/>
     </row>
-    <row r="834" spans="2:2" ht="15.75">
+    <row r="834">
       <c r="B834" s="17"/>
     </row>
-    <row r="835" spans="2:2" ht="15.75">
+    <row r="835">
       <c r="B835" s="17"/>
     </row>
-    <row r="836" spans="2:2" ht="15.75">
+    <row r="836">
       <c r="B836" s="17"/>
     </row>
-    <row r="837" spans="2:2" ht="15.75">
+    <row r="837">
       <c r="B837" s="17"/>
     </row>
-    <row r="838" spans="2:2" ht="15.75">
+    <row r="838">
       <c r="B838" s="17"/>
     </row>
-    <row r="839" spans="2:2" ht="15.75">
+    <row r="839">
       <c r="B839" s="17"/>
     </row>
-    <row r="840" spans="2:2" ht="15.75">
+    <row r="840">
       <c r="B840" s="17"/>
     </row>
-    <row r="841" spans="2:2" ht="15.75">
+    <row r="841">
       <c r="B841" s="17"/>
     </row>
-    <row r="842" spans="2:2" ht="15.75">
+    <row r="842">
       <c r="B842" s="17"/>
     </row>
-    <row r="843" spans="2:2" ht="15.75">
+    <row r="843">
       <c r="B843" s="17"/>
     </row>
-    <row r="844" spans="2:2" ht="15.75">
+    <row r="844">
       <c r="B844" s="17"/>
     </row>
-    <row r="845" spans="2:2" ht="15.75">
+    <row r="845">
       <c r="B845" s="17"/>
     </row>
-    <row r="846" spans="2:2" ht="15.75">
+    <row r="846">
       <c r="B846" s="17"/>
     </row>
-    <row r="847" spans="2:2" ht="15.75">
+    <row r="847">
       <c r="B847" s="17"/>
     </row>
-    <row r="848" spans="2:2" ht="15.75">
+    <row r="848">
       <c r="B848" s="17"/>
     </row>
-    <row r="849" spans="2:2" ht="15.75">
+    <row r="849">
       <c r="B849" s="17"/>
     </row>
-    <row r="850" spans="2:2" ht="15.75">
+    <row r="850">
       <c r="B850" s="17"/>
     </row>
-    <row r="851" spans="2:2" ht="15.75">
+    <row r="851">
       <c r="B851" s="17"/>
     </row>
-    <row r="852" spans="2:2" ht="15.75">
+    <row r="852">
       <c r="B852" s="17"/>
     </row>
-    <row r="853" spans="2:2" ht="15.75">
+    <row r="853">
       <c r="B853" s="17"/>
     </row>
-    <row r="854" spans="2:2" ht="15.75">
+    <row r="854">
       <c r="B854" s="17"/>
     </row>
-    <row r="855" spans="2:2" ht="15.75">
+    <row r="855">
       <c r="B855" s="17"/>
     </row>
-    <row r="856" spans="2:2" ht="15.75">
+    <row r="856">
       <c r="B856" s="17"/>
     </row>
-    <row r="857" spans="2:2" ht="15.75">
+    <row r="857">
       <c r="B857" s="17"/>
     </row>
-    <row r="858" spans="2:2" ht="15.75">
+    <row r="858">
       <c r="B858" s="17"/>
     </row>
-    <row r="859" spans="2:2" ht="15.75">
+    <row r="859">
       <c r="B859" s="17"/>
     </row>
-    <row r="860" spans="2:2" ht="15.75">
+    <row r="860">
       <c r="B860" s="17"/>
     </row>
-    <row r="861" spans="2:2" ht="15.75">
+    <row r="861">
       <c r="B861" s="17"/>
     </row>
-    <row r="862" spans="2:2" ht="15.75">
+    <row r="862">
       <c r="B862" s="17"/>
     </row>
-    <row r="863" spans="2:2" ht="15.75">
+    <row r="863">
       <c r="B863" s="17"/>
     </row>
-    <row r="864" spans="2:2" ht="15.75">
+    <row r="864">
       <c r="B864" s="17"/>
     </row>
-    <row r="865" spans="2:2" ht="15.75">
+    <row r="865">
       <c r="B865" s="17"/>
     </row>
-    <row r="866" spans="2:2" ht="15.75">
+    <row r="866">
       <c r="B866" s="17"/>
     </row>
-    <row r="867" spans="2:2" ht="15.75">
+    <row r="867">
       <c r="B867" s="17"/>
     </row>
-    <row r="868" spans="2:2" ht="15.75">
+    <row r="868">
       <c r="B868" s="17"/>
     </row>
-    <row r="869" spans="2:2" ht="15.75">
+    <row r="869">
       <c r="B869" s="17"/>
     </row>
-    <row r="870" spans="2:2" ht="15.75">
+    <row r="870">
       <c r="B870" s="17"/>
     </row>
-    <row r="871" spans="2:2" ht="15.75">
+    <row r="871">
       <c r="B871" s="17"/>
     </row>
-    <row r="872" spans="2:2" ht="15.75">
+    <row r="872">
       <c r="B872" s="17"/>
     </row>
-    <row r="873" spans="2:2" ht="15.75">
+    <row r="873">
       <c r="B873" s="17"/>
     </row>
-    <row r="874" spans="2:2" ht="15.75">
+    <row r="874">
       <c r="B874" s="17"/>
     </row>
-    <row r="875" spans="2:2" ht="15.75">
+    <row r="875">
       <c r="B875" s="17"/>
     </row>
-    <row r="876" spans="2:2" ht="15.75">
+    <row r="876">
       <c r="B876" s="17"/>
     </row>
-    <row r="877" spans="2:2" ht="15.75">
+    <row r="877">
       <c r="B877" s="17"/>
     </row>
-    <row r="878" spans="2:2" ht="15.75">
+    <row r="878">
       <c r="B878" s="17"/>
     </row>
-    <row r="879" spans="2:2" ht="15.75">
+    <row r="879">
       <c r="B879" s="17"/>
     </row>
-    <row r="880" spans="2:2" ht="15.75">
+    <row r="880">
       <c r="B880" s="17"/>
     </row>
-    <row r="881" spans="2:2" ht="15.75">
+    <row r="881">
       <c r="B881" s="17"/>
     </row>
-    <row r="882" spans="2:2" ht="15.75">
+    <row r="882">
       <c r="B882" s="17"/>
     </row>
-    <row r="883" spans="2:2" ht="15.75">
+    <row r="883">
       <c r="B883" s="17"/>
     </row>
-    <row r="884" spans="2:2" ht="15.75">
+    <row r="884">
       <c r="B884" s="17"/>
     </row>
-    <row r="885" spans="2:2" ht="15.75">
+    <row r="885">
       <c r="B885" s="17"/>
     </row>
-    <row r="886" spans="2:2" ht="15.75">
+    <row r="886">
       <c r="B886" s="17"/>
     </row>
-    <row r="887" spans="2:2" ht="15.75">
+    <row r="887">
       <c r="B887" s="17"/>
     </row>
-    <row r="888" spans="2:2" ht="15.75">
+    <row r="888">
       <c r="B888" s="17"/>
     </row>
-    <row r="889" spans="2:2" ht="15.75">
+    <row r="889">
       <c r="B889" s="17"/>
     </row>
-    <row r="890" spans="2:2" ht="15.75">
+    <row r="890">
       <c r="B890" s="17"/>
     </row>
-    <row r="891" spans="2:2" ht="15.75">
+    <row r="891">
       <c r="B891" s="17"/>
     </row>
-    <row r="892" spans="2:2" ht="15.75">
+    <row r="892">
       <c r="B892" s="17"/>
     </row>
-    <row r="893" spans="2:2" ht="15.75">
+    <row r="893">
       <c r="B893" s="17"/>
     </row>
-    <row r="894" spans="2:2" ht="15.75">
+    <row r="894">
       <c r="B894" s="17"/>
     </row>
-    <row r="895" spans="2:2" ht="15.75">
+    <row r="895">
       <c r="B895" s="17"/>
     </row>
-    <row r="896" spans="2:2" ht="15.75">
+    <row r="896">
       <c r="B896" s="17"/>
     </row>
-    <row r="897" spans="2:2" ht="15.75">
+    <row r="897">
       <c r="B897" s="17"/>
     </row>
-    <row r="898" spans="2:2" ht="15.75">
+    <row r="898">
       <c r="B898" s="17"/>
     </row>
-    <row r="899" spans="2:2" ht="15.75">
+    <row r="899">
       <c r="B899" s="17"/>
     </row>
-    <row r="900" spans="2:2" ht="15.75">
+    <row r="900">
       <c r="B900" s="17"/>
     </row>
-    <row r="901" spans="2:2" ht="15.75">
+    <row r="901">
       <c r="B901" s="17"/>
     </row>
-    <row r="902" spans="2:2" ht="15.75">
+    <row r="902">
       <c r="B902" s="17"/>
     </row>
-    <row r="903" spans="2:2" ht="15.75">
+    <row r="903">
       <c r="B903" s="17"/>
     </row>
-    <row r="904" spans="2:2" ht="15.75">
+    <row r="904">
       <c r="B904" s="17"/>
     </row>
-    <row r="905" spans="2:2" ht="15.75">
+    <row r="905">
       <c r="B905" s="17"/>
     </row>
-    <row r="906" spans="2:2" ht="15.75">
+    <row r="906">
       <c r="B906" s="17"/>
     </row>
-    <row r="907" spans="2:2" ht="15.75">
+    <row r="907">
       <c r="B907" s="17"/>
     </row>
-    <row r="908" spans="2:2" ht="15.75">
+    <row r="908">
       <c r="B908" s="17"/>
     </row>
-    <row r="909" spans="2:2" ht="15.75">
+    <row r="909">
       <c r="B909" s="17"/>
     </row>
-    <row r="910" spans="2:2" ht="15.75">
+    <row r="910">
       <c r="B910" s="17"/>
     </row>
-    <row r="911" spans="2:2" ht="15.75">
+    <row r="911">
       <c r="B911" s="17"/>
     </row>
-    <row r="912" spans="2:2" ht="15.75">
+    <row r="912">
       <c r="B912" s="17"/>
     </row>
-    <row r="913" spans="2:2" ht="15.75">
+    <row r="913">
       <c r="B913" s="17"/>
     </row>
-    <row r="914" spans="2:2" ht="15.75">
+    <row r="914">
       <c r="B914" s="17"/>
     </row>
-    <row r="915" spans="2:2" ht="15.75">
+    <row r="915">
       <c r="B915" s="17"/>
     </row>
-    <row r="916" spans="2:2" ht="15.75">
+    <row r="916">
       <c r="B916" s="17"/>
     </row>
-    <row r="917" spans="2:2" ht="15.75">
+    <row r="917">
       <c r="B917" s="17"/>
     </row>
-    <row r="918" spans="2:2" ht="15.75">
+    <row r="918">
       <c r="B918" s="17"/>
     </row>
-    <row r="919" spans="2:2" ht="15.75">
+    <row r="919">
       <c r="B919" s="17"/>
     </row>
-    <row r="920" spans="2:2" ht="15.75">
+    <row r="920">
       <c r="B920" s="17"/>
     </row>
-    <row r="921" spans="2:2" ht="15.75">
+    <row r="921">
       <c r="B921" s="17"/>
     </row>
-    <row r="922" spans="2:2" ht="15.75">
+    <row r="922">
       <c r="B922" s="17"/>
     </row>
-    <row r="923" spans="2:2" ht="15.75">
+    <row r="923">
       <c r="B923" s="17"/>
     </row>
-    <row r="924" spans="2:2" ht="15.75">
+    <row r="924">
       <c r="B924" s="17"/>
     </row>
-    <row r="925" spans="2:2" ht="15.75">
+    <row r="925">
       <c r="B925" s="17"/>
     </row>
-    <row r="926" spans="2:2" ht="15.75">
+    <row r="926">
       <c r="B926" s="17"/>
     </row>
-    <row r="927" spans="2:2" ht="15.75">
+    <row r="927">
       <c r="B927" s="17"/>
     </row>
-    <row r="928" spans="2:2" ht="15.75">
+    <row r="928">
       <c r="B928" s="17"/>
     </row>
-    <row r="929" spans="2:2" ht="15.75">
+    <row r="929">
       <c r="B929" s="17"/>
     </row>
-    <row r="930" spans="2:2" ht="15.75">
+    <row r="930">
       <c r="B930" s="17"/>
     </row>
-    <row r="931" spans="2:2" ht="15.75">
+    <row r="931">
       <c r="B931" s="17"/>
     </row>
-    <row r="932" spans="2:2" ht="15.75">
+    <row r="932">
       <c r="B932" s="17"/>
     </row>
-    <row r="933" spans="2:2" ht="15.75">
+    <row r="933">
       <c r="B933" s="17"/>
     </row>
-    <row r="934" spans="2:2" ht="15.75">
+    <row r="934">
       <c r="B934" s="17"/>
     </row>
-    <row r="935" spans="2:2" ht="15.75">
+    <row r="935">
       <c r="B935" s="17"/>
     </row>
-    <row r="936" spans="2:2" ht="15.75">
+    <row r="936">
       <c r="B936" s="17"/>
     </row>
-    <row r="937" spans="2:2" ht="15.75">
+    <row r="937">
       <c r="B937" s="17"/>
     </row>
-    <row r="938" spans="2:2" ht="15.75">
+    <row r="938">
       <c r="B938" s="17"/>
     </row>
-    <row r="939" spans="2:2" ht="15.75">
+    <row r="939">
       <c r="B939" s="17"/>
     </row>
-    <row r="940" spans="2:2" ht="15.75">
+    <row r="940">
       <c r="B940" s="17"/>
     </row>
-    <row r="941" spans="2:2" ht="15.75">
+    <row r="941">
       <c r="B941" s="17"/>
     </row>
-    <row r="942" spans="2:2" ht="15.75">
+    <row r="942">
       <c r="B942" s="17"/>
     </row>
-    <row r="943" spans="2:2" ht="15.75">
+    <row r="943">
       <c r="B943" s="17"/>
     </row>
-    <row r="944" spans="2:2" ht="15.75">
+    <row r="944">
       <c r="B944" s="17"/>
     </row>
-    <row r="945" spans="2:2" ht="15.75">
+    <row r="945">
       <c r="B945" s="17"/>
     </row>
-    <row r="946" spans="2:2" ht="15.75">
+    <row r="946">
       <c r="B946" s="17"/>
     </row>
-    <row r="947" spans="2:2" ht="15.75">
+    <row r="947">
       <c r="B947" s="17"/>
     </row>
-    <row r="948" spans="2:2" ht="15.75">
+    <row r="948">
       <c r="B948" s="17"/>
     </row>
-    <row r="949" spans="2:2" ht="15.75">
+    <row r="949">
       <c r="B949" s="17"/>
     </row>
-    <row r="950" spans="2:2" ht="15.75">
+    <row r="950">
       <c r="B950" s="17"/>
     </row>
-    <row r="951" spans="2:2" ht="15.75">
+    <row r="951">
       <c r="B951" s="17"/>
     </row>
-    <row r="952" spans="2:2" ht="15.75">
+    <row r="952">
       <c r="B952" s="17"/>
     </row>
-    <row r="953" spans="2:2" ht="15.75">
+    <row r="953">
       <c r="B953" s="17"/>
     </row>
-    <row r="954" spans="2:2" ht="15.75">
+    <row r="954">
       <c r="B954" s="17"/>
     </row>
-    <row r="955" spans="2:2" ht="15.75">
+    <row r="955">
       <c r="B955" s="17"/>
     </row>
-    <row r="956" spans="2:2" ht="15.75">
+    <row r="956">
       <c r="B956" s="17"/>
     </row>
-    <row r="957" spans="2:2" ht="15.75">
+    <row r="957">
       <c r="B957" s="17"/>
     </row>
-    <row r="958" spans="2:2" ht="15.75">
+    <row r="958">
       <c r="B958" s="17"/>
     </row>
-    <row r="959" spans="2:2" ht="15.75">
+    <row r="959">
       <c r="B959" s="17"/>
     </row>
-    <row r="960" spans="2:2" ht="15.75">
+    <row r="960">
       <c r="B960" s="17"/>
     </row>
-    <row r="961" spans="2:2" ht="15.75">
+    <row r="961">
       <c r="B961" s="17"/>
     </row>
-    <row r="962" spans="2:2" ht="15.75">
+    <row r="962">
       <c r="B962" s="17"/>
     </row>
-    <row r="963" spans="2:2" ht="15.75">
+    <row r="963">
       <c r="B963" s="17"/>
     </row>
-    <row r="964" spans="2:2" ht="15.75">
+    <row r="964">
       <c r="B964" s="17"/>
     </row>
-    <row r="965" spans="2:2" ht="15.75">
+    <row r="965">
       <c r="B965" s="17"/>
     </row>
-    <row r="966" spans="2:2" ht="15.75">
+    <row r="966">
       <c r="B966" s="17"/>
     </row>
-    <row r="967" spans="2:2" ht="15.75">
+    <row r="967">
       <c r="B967" s="17"/>
     </row>
-    <row r="968" spans="2:2" ht="15.75">
+    <row r="968">
       <c r="B968" s="17"/>
     </row>
-    <row r="969" spans="2:2" ht="15.75">
+    <row r="969">
       <c r="B969" s="17"/>
     </row>
-    <row r="970" spans="2:2" ht="15.75">
+    <row r="970">
       <c r="B970" s="17"/>
     </row>
-    <row r="971" spans="2:2" ht="15.75">
+    <row r="971">
       <c r="B971" s="17"/>
     </row>
-    <row r="972" spans="2:2" ht="15.75">
+    <row r="972">
       <c r="B972" s="17"/>
     </row>
-    <row r="973" spans="2:2" ht="15.75">
+    <row r="973">
       <c r="B973" s="17"/>
     </row>
-    <row r="974" spans="2:2" ht="15.75">
+    <row r="974">
       <c r="B974" s="17"/>
     </row>
-    <row r="975" spans="2:2" ht="15.75">
+    <row r="975">
       <c r="B975" s="17"/>
     </row>
-    <row r="976" spans="2:2" ht="15.75">
+    <row r="976">
       <c r="B976" s="17"/>
     </row>
-    <row r="977" spans="2:2" ht="15.75">
+    <row r="977">
       <c r="B977" s="17"/>
     </row>
-    <row r="978" spans="2:2" ht="15.75">
+    <row r="978">
       <c r="B978" s="17"/>
     </row>
-    <row r="979" spans="2:2" ht="15.75">
+    <row r="979">
       <c r="B979" s="17"/>
     </row>
-    <row r="980" spans="2:2" ht="15.75">
+    <row r="980">
       <c r="B980" s="17"/>
     </row>
-    <row r="981" spans="2:2" ht="15.75">
+    <row r="981">
       <c r="B981" s="17"/>
     </row>
-    <row r="982" spans="2:2" ht="15.75">
+    <row r="982">
       <c r="B982" s="17"/>
     </row>
-    <row r="983" spans="2:2" ht="15.75">
+    <row r="983">
       <c r="B983" s="17"/>
     </row>
-    <row r="984" spans="2:2" ht="15.75">
+    <row r="984">
       <c r="B984" s="17"/>
     </row>
-    <row r="985" spans="2:2" ht="15.75">
+    <row r="985">
       <c r="B985" s="17"/>
     </row>
-    <row r="986" spans="2:2" ht="15.75">
+    <row r="986">
       <c r="B986" s="17"/>
     </row>
-    <row r="987" spans="2:2" ht="15.75">
+    <row r="987">
       <c r="B987" s="17"/>
     </row>
-    <row r="988" spans="2:2" ht="15.75">
+    <row r="988">
       <c r="B988" s="17"/>
     </row>
-    <row r="989" spans="2:2" ht="15.75">
+    <row r="989">
       <c r="B989" s="17"/>
     </row>
-    <row r="990" spans="2:2" ht="15.75">
+    <row r="990">
       <c r="B990" s="17"/>
     </row>
-    <row r="991" spans="2:2" ht="15.75">
+    <row r="991">
       <c r="B991" s="17"/>
     </row>
-    <row r="992" spans="2:2" ht="15.75">
+    <row r="992">
       <c r="B992" s="17"/>
     </row>
-    <row r="993" spans="2:2" ht="15.75">
+    <row r="993">
       <c r="B993" s="17"/>
     </row>
-    <row r="994" spans="2:2" ht="15.75">
+    <row r="994">
       <c r="B994" s="17"/>
     </row>
-    <row r="995" spans="2:2" ht="15.75">
+    <row r="995">
       <c r="B995" s="17"/>
     </row>
-    <row r="996" spans="2:2" ht="15.75">
+    <row r="996">
       <c r="B996" s="17"/>
     </row>
-    <row r="997" spans="2:2" ht="15.75">
+    <row r="997">
       <c r="B997" s="17"/>
     </row>
-    <row r="998" spans="2:2" ht="15.75">
+    <row r="998">
       <c r="B998" s="17"/>
     </row>
-    <row r="999" spans="2:2" ht="15.75">
+    <row r="999">
       <c r="B999" s="17"/>
     </row>
-    <row r="1000" spans="2:2" ht="15.75">
+    <row r="1000">
       <c r="B1000" s="17"/>
     </row>
-    <row r="1001" spans="2:2" ht="15.75">
+    <row r="1001">
       <c r="B1001" s="17"/>
     </row>
-    <row r="1002" spans="2:2" ht="15.75">
+    <row r="1002">
       <c r="B1002" s="17"/>
     </row>
-    <row r="1003" spans="2:2" ht="15.75">
+    <row r="1003">
       <c r="B1003" s="17"/>
     </row>
-    <row r="1004" spans="2:2" ht="15.75">
+    <row r="1004">
       <c r="B1004" s="17"/>
     </row>
-    <row r="1005" spans="2:2" ht="15.75">
+    <row r="1005">
       <c r="B1005" s="17"/>
     </row>
-    <row r="1006" spans="2:2" ht="15.75">
+    <row r="1006">
       <c r="B1006" s="17"/>
     </row>
-    <row r="1007" spans="2:2" ht="15.75">
+    <row r="1007">
       <c r="B1007" s="17"/>
     </row>
-    <row r="1008" spans="2:2" ht="15.75">
+    <row r="1008">
       <c r="B1008" s="17"/>
     </row>
-    <row r="1009" spans="2:2" ht="15.75">
+    <row r="1009">
       <c r="B1009" s="17"/>
     </row>
-    <row r="1010" spans="2:2" ht="15.75">
+    <row r="1010">
       <c r="B1010" s="17"/>
     </row>
-    <row r="1011" spans="2:2" ht="15.75">
+    <row r="1011">
       <c r="B1011" s="17"/>
     </row>
-    <row r="1012" spans="2:2" ht="15.75">
+    <row r="1012">
       <c r="B1012" s="17"/>
     </row>
-    <row r="1013" spans="2:2" ht="15.75">
+    <row r="1013">
       <c r="B1013" s="17"/>
     </row>
-    <row r="1014" spans="2:2" ht="15.75">
+    <row r="1014">
       <c r="B1014" s="17"/>
     </row>
-    <row r="1015" spans="2:2" ht="15.75">
+    <row r="1015">
       <c r="B1015" s="17"/>
     </row>
-    <row r="1016" spans="2:2" ht="15.75">
+    <row r="1016">
       <c r="B1016" s="17"/>
     </row>
-    <row r="1017" spans="2:2" ht="15.75">
+    <row r="1017">
       <c r="B1017" s="17"/>
     </row>
-    <row r="1018" spans="2:2" ht="15.75">
+    <row r="1018">
       <c r="B1018" s="17"/>
     </row>
-    <row r="1019" spans="2:2" ht="15.75">
+    <row r="1019">
       <c r="B1019" s="17"/>
     </row>
-    <row r="1020" spans="2:2" ht="15.75">
+    <row r="1020">
       <c r="B1020" s="17"/>
     </row>
-    <row r="1021" spans="2:2" ht="15.75">
+    <row r="1021">
       <c r="B1021" s="17"/>
     </row>
-    <row r="1022" spans="2:2" ht="15.75">
+    <row r="1022">
       <c r="B1022" s="17"/>
     </row>
-    <row r="1023" spans="2:2" ht="15.75">
+    <row r="1023">
       <c r="B1023" s="17"/>
     </row>
-    <row r="1024" spans="2:2" ht="15.75">
+    <row r="1024">
       <c r="B1024" s="17"/>
     </row>
-    <row r="1025" spans="2:2" ht="15.75">
+    <row r="1025">
       <c r="B1025" s="17"/>
     </row>
-    <row r="1026" spans="2:2" ht="15.75">
+    <row r="1026">
       <c r="B1026" s="17"/>
     </row>
-    <row r="1027" spans="2:2" ht="15.75">
+    <row r="1027">
       <c r="B1027" s="17"/>
     </row>
-    <row r="1028" spans="2:2" ht="15.75">
+    <row r="1028">
       <c r="B1028" s="17"/>
     </row>
-    <row r="1029" spans="2:2" ht="15.75">
+    <row r="1029">
       <c r="B1029" s="17"/>
     </row>
-    <row r="1030" spans="2:2" ht="15.75">
+    <row r="1030">
       <c r="B1030" s="17"/>
     </row>
-    <row r="1031" spans="2:2" ht="15.75">
+    <row r="1031">
       <c r="B1031" s="17"/>
+    </row>
+    <row r="1032">
+      <c r="B1032" s="17"/>
+    </row>
+    <row r="1033">
+      <c r="B1033" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://development.altogetherfuneral.com/funeral-cremation/arizona/gilbert/falconer-funeral-home/azflc.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://development.altogetherfuneral.com/funeral-cremation/arizona/chandler/legacy-funeral-home-chandler/azlgc.html"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://development.altogetherfuneral.com/funeral-cremation/arizona/mesa/legacy-funeral-home-rose-chapel/azlgm.html"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://development.altogetherfuneral.com/funeral-cremation/arizona/mesa/meldrum-mortuary-crematory/azmld.html"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
+    <hyperlink r:id="rId17" ref="B18"/>
+    <hyperlink r:id="rId18" ref="B19"/>
+    <hyperlink r:id="rId19" ref="B20"/>
+    <hyperlink r:id="rId20" ref="B21"/>
+    <hyperlink r:id="rId21" ref="B22"/>
+    <hyperlink r:id="rId22" ref="B23"/>
+    <hyperlink r:id="rId23" ref="B24"/>
+    <hyperlink r:id="rId24" ref="B25"/>
+    <hyperlink r:id="rId25" ref="B26"/>
+    <hyperlink r:id="rId26" ref="B27"/>
+    <hyperlink r:id="rId27" ref="B28"/>
+    <hyperlink r:id="rId28" ref="B29"/>
+    <hyperlink r:id="rId29" ref="B30"/>
+    <hyperlink r:id="rId30" ref="B31"/>
+    <hyperlink r:id="rId31" ref="B32"/>
+    <hyperlink r:id="rId32" ref="B33"/>
+    <hyperlink r:id="rId33" ref="B34"/>
+    <hyperlink r:id="rId34" ref="B35"/>
+    <hyperlink r:id="rId35" ref="B36"/>
+    <hyperlink r:id="rId36" ref="B37"/>
+    <hyperlink r:id="rId37" ref="B38"/>
+    <hyperlink r:id="rId38" ref="B39"/>
+    <hyperlink r:id="rId39" ref="B40"/>
+    <hyperlink r:id="rId40" ref="B41"/>
+    <hyperlink r:id="rId41" ref="B42"/>
+    <hyperlink r:id="rId42" ref="B43"/>
+    <hyperlink r:id="rId43" ref="B44"/>
+    <hyperlink r:id="rId44" ref="B45"/>
+    <hyperlink r:id="rId45" ref="B46"/>
+    <hyperlink r:id="rId46" ref="B47"/>
+    <hyperlink r:id="rId47" ref="B48"/>
+    <hyperlink r:id="rId48" ref="B49"/>
+    <hyperlink r:id="rId49" ref="B50"/>
+    <hyperlink r:id="rId50" ref="B51"/>
+    <hyperlink r:id="rId51" ref="B52"/>
+    <hyperlink r:id="rId52" ref="B53"/>
+    <hyperlink r:id="rId53" ref="B54"/>
+    <hyperlink r:id="rId54" ref="B55"/>
+    <hyperlink r:id="rId55" ref="B56"/>
+    <hyperlink r:id="rId56" ref="B57"/>
+    <hyperlink r:id="rId57" ref="B58"/>
+    <hyperlink r:id="rId58" ref="B59"/>
+    <hyperlink r:id="rId59" ref="B60"/>
+    <hyperlink r:id="rId60" ref="B61"/>
+    <hyperlink r:id="rId61" ref="B62"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId62"/>
 </worksheet>
 </file>